--- a/質疑表/TOYOTIRE_質疑表 _平.xlsx
+++ b/質疑表/TOYOTIRE_質疑表 _平.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ichiro Uehara\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\ToyoTire\ToyoTireGit\質疑表\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -133,37 +133,46 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>SC上原</t>
-    <rPh sb="2" eb="4">
-      <t>ウエハラ</t>
-    </rPh>
+    <t>‐</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>次期CADシステム構築</t>
+    <t>SC平</t>
+    <rPh sb="2" eb="3">
+      <t>タイラ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>&gt; 2D CADをAdvance CAD の Windows10 サポート終了と
-&gt; 新PLM 対応を目的にAuto CAD へ移行する。
-「現在の運用フロー」と「新PLMへ移行する運用フロー」があれば、頂きたいです。
-理由：ソフトキューブの作業範疇は、AdvanceCAD →AutoCADと考えておりますが、
-全体が見えていないと、 的を外した改修範囲の提案をしてしまいそうで、
-確認させて頂きました。</t>
+    <t>Ubr_BZKeiMakeメソッド（BZ0000.cpp）の処理のコメントで「上型／下型」という文言が出てきますが、「上型／下型」とはどのような事を指していますのでしょうか。</t>
+    <rPh sb="30" eb="32">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ウワガタ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>モンゴン</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>サ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>以前ちらっとお伺いしたかもしれませんが、SQLサーバーをお使いでしたでしょうか。
-また、DBの仕様書（テーブル構成等）は無い状態でしょうか？</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>以前前任者が対応していたときにメニューの英語化を行ったようなのですが、
-今回、AutoCADに移行するにあたり、メニューの多言語化は必要でしょうか？</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>‐</t>
+    <t>AcadUserソリューション ソースコード</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1108,7 +1117,7 @@
   <dimension ref="A3:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1183,27 +1192,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="20" customFormat="1" ht="142.5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" s="20" customFormat="1" ht="42.75" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="5">
-        <v>44732</v>
+        <v>44734</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>10</v>
@@ -1215,66 +1224,34 @@
       <c r="K5" s="5"/>
       <c r="L5" s="9"/>
     </row>
-    <row r="6" spans="1:12" s="20" customFormat="1" ht="42.75" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" s="20" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="5">
-        <v>44732</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>14</v>
-      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="10"/>
       <c r="J6" s="3"/>
       <c r="K6" s="5"/>
       <c r="L6" s="9"/>
     </row>
-    <row r="7" spans="1:12" s="20" customFormat="1" ht="57" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" s="20" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="5">
-        <v>44732</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>14</v>
-      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="10"/>
       <c r="J7" s="3"/>
       <c r="K7" s="5"/>
       <c r="L7" s="9"/>

--- a/質疑表/TOYOTIRE_質疑表 _平.xlsx
+++ b/質疑表/TOYOTIRE_質疑表 _平.xlsx
@@ -144,35 +144,41 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Ubr_BZKeiMakeメソッド（BZ0000.cpp）の処理のコメントで「上型／下型」という文言が出てきますが、「上型／下型」とはどのような事を指していますのでしょうか。</t>
-    <rPh sb="30" eb="32">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ウワガタ</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>モンゴン</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="72" eb="73">
-      <t>コト</t>
-    </rPh>
-    <rPh sb="74" eb="75">
-      <t>サ</t>
-    </rPh>
+    <t>AcadUserソリューション ソースコード</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>AcadUserソリューション ソースコード</t>
+    <t>Ubr_BZKeiMakeメソッド（BZ0000.cppの4119行目/4186行目）の処理のコメントで「上型／下型」という文言が出てきますが、「上型／下型」とはどのような事を指していますのでしょうか。</t>
+    <rPh sb="33" eb="35">
+      <t>ギョウメ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ギョウメ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ウワガタ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>モンゴン</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>サ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1203,10 +1209,10 @@
         <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="F5" s="5">
         <v>44734</v>

--- a/質疑表/TOYOTIRE_質疑表 _平.xlsx
+++ b/質疑表/TOYOTIRE_質疑表 _平.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -177,6 +177,45 @@
       <t>コト</t>
     </rPh>
     <rPh sb="88" eb="89">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>低</t>
+  </si>
+  <si>
+    <t>AcadUserソリューション ソースコード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ubr_GMSearchメソッド（GM0000.cppの364行目）の処理タイトルで「原始文字 検索」となっていますが、「原始文字」とはどのような文字種を指していますのでしょうか。</t>
+    <rPh sb="31" eb="33">
+      <t>ギョウメ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ゲンシ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>シュ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
       <t>サ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -460,7 +499,37 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="48">
+  <dxfs count="52">
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1123,7 +1192,7 @@
   <dimension ref="A3:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1230,18 +1299,34 @@
       <c r="K5" s="5"/>
       <c r="L5" s="9"/>
     </row>
-    <row r="6" spans="1:12" s="20" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" s="20" customFormat="1" ht="42.75" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="10"/>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="5">
+        <v>44736</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="J6" s="3"/>
       <c r="K6" s="5"/>
       <c r="L6" s="9"/>
@@ -1796,79 +1881,95 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="C4 C6 C17:C24 C41:C1048576">
-    <cfRule type="containsText" dxfId="47" priority="591" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="51" priority="595" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:L4 B10:B15 A8 A10 A12 A14 A16:B16 B25 B20:H24 A20:A32 A17:H19 L32 J19:J25 K10:L10 D10:H16 J11:L18 J6:L6 H6 A6:E6 A3 D3:L3 A41:L1048576">
-    <cfRule type="expression" dxfId="46" priority="589">
+  <conditionalFormatting sqref="A4:L4 B10:B15 A8 A10 A12 A14 A16:B16 B25 B20:H24 A20:A32 A17:H19 L32 J19:J25 K10:L10 D10:H16 J11:L18 J6:L6 A6:D6 A3 D3:L3 A41:L1048576">
+    <cfRule type="expression" dxfId="50" priority="593">
       <formula>$I3="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="590">
+    <cfRule type="expression" dxfId="49" priority="594">
       <formula>$I3="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="containsText" dxfId="44" priority="104" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="48" priority="108" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:L5 I6:I38">
-    <cfRule type="expression" dxfId="43" priority="102">
+  <conditionalFormatting sqref="C5:L5 I7:I38">
+    <cfRule type="expression" dxfId="47" priority="106">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="103">
+    <cfRule type="expression" dxfId="46" priority="107">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5 A7 A9 A11 A13 A15">
-    <cfRule type="expression" dxfId="41" priority="100">
+    <cfRule type="expression" dxfId="45" priority="104">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="101">
+    <cfRule type="expression" dxfId="44" priority="105">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:C16">
-    <cfRule type="containsText" dxfId="39" priority="44" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="43" priority="48" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:H9 C10:C16 J10 J7:L9 C7 H7 E7">
+    <cfRule type="expression" dxfId="42" priority="46">
+      <formula>$I7="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="41" priority="47">
+      <formula>$I7="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32:C35 C38:C40">
+    <cfRule type="containsText" dxfId="40" priority="43" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26:B31 B32:D32 H32 A33:H35 A39:L40 B38:E38 J38 J26:J35 A36:A40">
+    <cfRule type="expression" dxfId="39" priority="41">
+      <formula>$I26="確認中"</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="38" priority="42">
-      <formula>$I7="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="37" priority="43">
-      <formula>$I7="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C32:C35 C38:C40">
-    <cfRule type="containsText" dxfId="36" priority="39" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B26:B31 B32:D32 H32 A33:H35 A39:L40 B38:E38 J38 J26:J35 A36:A40">
-    <cfRule type="expression" dxfId="35" priority="37">
-      <formula>$I26="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="38">
       <formula>$I26="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:C31">
-    <cfRule type="containsText" dxfId="33" priority="36" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="37" priority="40" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:H30 C31 E31:H31">
+    <cfRule type="expression" dxfId="36" priority="38">
+      <formula>$I25="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="35" priority="39">
+      <formula>$I25="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="expression" dxfId="34" priority="36">
+      <formula>$I32="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="37">
+      <formula>$I32="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32:G32">
     <cfRule type="expression" dxfId="32" priority="34">
-      <formula>$I25="確認中"</formula>
+      <formula>$I32="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="31" priority="35">
-      <formula>$I25="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
+      <formula>$I32="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32">
     <cfRule type="expression" dxfId="30" priority="32">
       <formula>$I32="確認中"</formula>
     </cfRule>
@@ -1876,76 +1977,68 @@
       <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F32:G32">
-    <cfRule type="expression" dxfId="28" priority="30">
-      <formula>$I32="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="27" priority="31">
-      <formula>$I32="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K32">
-    <cfRule type="expression" dxfId="26" priority="28">
-      <formula>$I32="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="29">
-      <formula>$I32="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C36:C37">
-    <cfRule type="containsText" dxfId="24" priority="27" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="28" priority="31" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:H36 B37:E37 J36:J37">
+    <cfRule type="expression" dxfId="27" priority="29">
+      <formula>$I36="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="30">
+      <formula>$I36="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37:H38">
+    <cfRule type="expression" dxfId="25" priority="27">
+      <formula>$I37="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="28">
+      <formula>$I37="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K19:L31">
     <cfRule type="expression" dxfId="23" priority="25">
-      <formula>$I36="確認中"</formula>
+      <formula>$I19="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="22" priority="26">
-      <formula>$I36="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F37:H38">
+      <formula>$I19="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K33:L38">
     <cfRule type="expression" dxfId="21" priority="23">
-      <formula>$I37="確認中"</formula>
+      <formula>$I33="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="20" priority="24">
-      <formula>$I37="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K19:L31">
+      <formula>$I33="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
     <cfRule type="expression" dxfId="19" priority="21">
-      <formula>$I19="確認中"</formula>
+      <formula>$I31="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="18" priority="22">
-      <formula>$I19="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K33:L38">
+      <formula>$I31="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
     <cfRule type="expression" dxfId="17" priority="19">
-      <formula>$I33="確認中"</formula>
+      <formula>$I6="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="16" priority="20">
-      <formula>$I33="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
+      <formula>$I6="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
     <cfRule type="expression" dxfId="15" priority="17">
-      <formula>$I31="確認中"</formula>
+      <formula>$I7="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="14" priority="18">
-      <formula>$I31="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="13" priority="15">
-      <formula>$I6="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="16">
-      <formula>$I6="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
+      <formula>$I7="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
     <cfRule type="expression" dxfId="11" priority="13">
       <formula>$I7="確認中"</formula>
     </cfRule>
@@ -1953,15 +2046,15 @@
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="expression" dxfId="9" priority="11">
-      <formula>$I6="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="12">
-      <formula>$I6="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
+  <conditionalFormatting sqref="B5">
+    <cfRule type="expression" dxfId="9" priority="5">
+      <formula>$I5="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="6">
+      <formula>$I5="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
     <cfRule type="expression" dxfId="7" priority="9">
       <formula>$I7="確認中"</formula>
     </cfRule>
@@ -1969,28 +2062,28 @@
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="5" priority="1">
-      <formula>$I5="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2">
-      <formula>$I5="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="3" priority="5">
+  <conditionalFormatting sqref="B7">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="6">
+    <cfRule type="expression" dxfId="4" priority="8">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7">
-    <cfRule type="expression" dxfId="1" priority="3">
-      <formula>$I7="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="4">
-      <formula>$I7="済み"</formula>
+  <conditionalFormatting sqref="G6:I6">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>$I6="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>$I6="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$I6="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>$I6="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">

--- a/質疑表/TOYOTIRE_質疑表 _平.xlsx
+++ b/質疑表/TOYOTIRE_質疑表 _平.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\ToyoTire\ToyoTireGit\質疑表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ichiro Uehara\source\repos\TOYOTIRE_BRAND\質疑表\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -217,6 +217,70 @@
     </rPh>
     <rPh sb="77" eb="78">
       <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お客様に確認します。
+質疑表に転記しました。</t>
+    <rPh sb="1" eb="3">
+      <t>キャクサマ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>シツギヒョウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>テンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>恐らくタイヤを2分割した表面と裏面だと思われます。
+6分割などで作成すると、PIC2にTop、PIC3にBottomが作成されます。12分割などは表のみ（表裏同じ）なんだと思います。</t>
+    <rPh sb="0" eb="1">
+      <t>オソ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ブンカツ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オモテ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>メン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ウラメン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ブンカツ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ブンカツ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>オモテウラ</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>オモ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1192,7 +1256,7 @@
   <dimension ref="A3:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1295,7 +1359,9 @@
       <c r="I5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="3"/>
+      <c r="J5" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="K5" s="5"/>
       <c r="L5" s="9"/>
     </row>
@@ -1327,7 +1393,9 @@
       <c r="I6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="3"/>
+      <c r="J6" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="K6" s="5"/>
       <c r="L6" s="9"/>
     </row>
@@ -1881,180 +1949,188 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="C4 C6 C17:C24 C41:C1048576">
-    <cfRule type="containsText" dxfId="51" priority="595" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="51" priority="597" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:L4 B10:B15 A8 A10 A12 A14 A16:B16 B25 B20:H24 A20:A32 A17:H19 L32 J19:J25 K10:L10 D10:H16 J11:L18 J6:L6 A6:D6 A3 D3:L3 A41:L1048576">
-    <cfRule type="expression" dxfId="50" priority="593">
+    <cfRule type="expression" dxfId="50" priority="595">
       <formula>$I3="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="594">
+    <cfRule type="expression" dxfId="49" priority="596">
       <formula>$I3="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="containsText" dxfId="48" priority="108" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="48" priority="110" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:L5 I7:I38">
-    <cfRule type="expression" dxfId="47" priority="106">
+  <conditionalFormatting sqref="C5:I5 I7:I38 K5:L5">
+    <cfRule type="expression" dxfId="47" priority="108">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="107">
+    <cfRule type="expression" dxfId="46" priority="109">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5 A7 A9 A11 A13 A15">
-    <cfRule type="expression" dxfId="45" priority="104">
+    <cfRule type="expression" dxfId="45" priority="106">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="105">
+    <cfRule type="expression" dxfId="44" priority="107">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:C16">
-    <cfRule type="containsText" dxfId="43" priority="48" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="43" priority="50" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:H9 C10:C16 J10 J7:L9 C7 H7 E7">
-    <cfRule type="expression" dxfId="42" priority="46">
+    <cfRule type="expression" dxfId="42" priority="48">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="47">
+    <cfRule type="expression" dxfId="41" priority="49">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:C35 C38:C40">
-    <cfRule type="containsText" dxfId="40" priority="43" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="40" priority="45" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B31 B32:D32 H32 A33:H35 A39:L40 B38:E38 J38 J26:J35 A36:A40">
-    <cfRule type="expression" dxfId="39" priority="41">
+    <cfRule type="expression" dxfId="39" priority="43">
       <formula>$I26="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="42">
+    <cfRule type="expression" dxfId="38" priority="44">
       <formula>$I26="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:C31">
-    <cfRule type="containsText" dxfId="37" priority="40" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="37" priority="42" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:H30 C31 E31:H31">
-    <cfRule type="expression" dxfId="36" priority="38">
+    <cfRule type="expression" dxfId="36" priority="40">
       <formula>$I25="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="39">
+    <cfRule type="expression" dxfId="35" priority="41">
       <formula>$I25="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="expression" dxfId="34" priority="36">
+    <cfRule type="expression" dxfId="34" priority="38">
       <formula>$I32="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="37">
+    <cfRule type="expression" dxfId="33" priority="39">
       <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32:G32">
-    <cfRule type="expression" dxfId="32" priority="34">
+    <cfRule type="expression" dxfId="32" priority="36">
       <formula>$I32="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="35">
+    <cfRule type="expression" dxfId="31" priority="37">
       <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32">
-    <cfRule type="expression" dxfId="30" priority="32">
+    <cfRule type="expression" dxfId="30" priority="34">
       <formula>$I32="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="33">
+    <cfRule type="expression" dxfId="29" priority="35">
       <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:C37">
-    <cfRule type="containsText" dxfId="28" priority="31" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="28" priority="33" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:H36 B37:E37 J36:J37">
-    <cfRule type="expression" dxfId="27" priority="29">
+    <cfRule type="expression" dxfId="27" priority="31">
       <formula>$I36="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="30">
+    <cfRule type="expression" dxfId="26" priority="32">
       <formula>$I36="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37:H38">
-    <cfRule type="expression" dxfId="25" priority="27">
+    <cfRule type="expression" dxfId="25" priority="29">
       <formula>$I37="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="28">
+    <cfRule type="expression" dxfId="24" priority="30">
       <formula>$I37="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19:L31">
-    <cfRule type="expression" dxfId="23" priority="25">
+    <cfRule type="expression" dxfId="23" priority="27">
       <formula>$I19="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="26">
+    <cfRule type="expression" dxfId="22" priority="28">
       <formula>$I19="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33:L38">
-    <cfRule type="expression" dxfId="21" priority="23">
+    <cfRule type="expression" dxfId="21" priority="25">
       <formula>$I33="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="24">
+    <cfRule type="expression" dxfId="20" priority="26">
       <formula>$I33="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="expression" dxfId="19" priority="21">
+    <cfRule type="expression" dxfId="19" priority="23">
       <formula>$I31="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="22">
+    <cfRule type="expression" dxfId="18" priority="24">
       <formula>$I31="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="17" priority="19">
+    <cfRule type="expression" dxfId="17" priority="21">
       <formula>$I6="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="20">
+    <cfRule type="expression" dxfId="16" priority="22">
       <formula>$I6="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="15" priority="17">
+    <cfRule type="expression" dxfId="15" priority="19">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="18">
+    <cfRule type="expression" dxfId="14" priority="20">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="expression" dxfId="11" priority="13">
+    <cfRule type="expression" dxfId="13" priority="15">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="14">
+    <cfRule type="expression" dxfId="12" priority="16">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="9" priority="5">
+    <cfRule type="expression" dxfId="11" priority="7">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="6">
+    <cfRule type="expression" dxfId="10" priority="8">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
+    <cfRule type="expression" dxfId="9" priority="11">
+      <formula>$I7="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="12">
+      <formula>$I7="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7">
     <cfRule type="expression" dxfId="7" priority="9">
       <formula>$I7="確認中"</formula>
     </cfRule>
@@ -2062,15 +2138,15 @@
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7">
-    <cfRule type="expression" dxfId="5" priority="7">
-      <formula>$I7="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="8">
-      <formula>$I7="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G6:I6">
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>$I6="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>$I6="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
     <cfRule type="expression" dxfId="3" priority="3">
       <formula>$I6="確認中"</formula>
     </cfRule>
@@ -2078,12 +2154,12 @@
       <formula>$I6="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="J5">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$I6="確認中"</formula>
+      <formula>$I5="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$I6="済み"</formula>
+      <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">

--- a/質疑表/TOYOTIRE_質疑表 _平.xlsx
+++ b/質疑表/TOYOTIRE_質疑表 _平.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ichiro Uehara\source\repos\TOYOTIRE_BRAND\質疑表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\ToyoTire\ToyoTireGit\質疑表\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="障害・要望管理表（今後はこちらに起票）" sheetId="24" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_Toc99549776" localSheetId="0">'障害・要望管理表（今後はこちらに起票）'!$E$7</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -281,6 +284,29 @@
     </rPh>
     <rPh sb="86" eb="87">
       <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②_パタ検(ボイド測定)_カスタム仕様.docx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2. 作業の流れと主要機能（旧CAD）の章で「操作マニュアル（パタ検）」のリンク先を参照したいのですが、別途サインインのアカウントが必要でしょうか。</t>
+    <rPh sb="20" eb="21">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ベット</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ヒツヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -289,7 +315,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,6 +336,13 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="游明朝"/>
+      <family val="1"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -483,7 +516,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -557,13 +590,46 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="52">
+  <dxfs count="56">
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1256,7 +1322,7 @@
   <dimension ref="A3:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1399,18 +1465,34 @@
       <c r="K6" s="5"/>
       <c r="L6" s="9"/>
     </row>
-    <row r="7" spans="1:12" s="20" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" s="20" customFormat="1" ht="51.75" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="10"/>
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="5">
+        <v>44742</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="J7" s="3"/>
       <c r="K7" s="5"/>
       <c r="L7" s="9"/>
@@ -1949,79 +2031,95 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="C4 C6 C17:C24 C41:C1048576">
-    <cfRule type="containsText" dxfId="51" priority="597" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="55" priority="601" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:L4 B10:B15 A8 A10 A12 A14 A16:B16 B25 B20:H24 A20:A32 A17:H19 L32 J19:J25 K10:L10 D10:H16 J11:L18 J6:L6 A6:D6 A3 D3:L3 A41:L1048576">
-    <cfRule type="expression" dxfId="50" priority="595">
+    <cfRule type="expression" dxfId="54" priority="599">
       <formula>$I3="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="596">
+    <cfRule type="expression" dxfId="53" priority="600">
       <formula>$I3="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="containsText" dxfId="48" priority="110" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="52" priority="114" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:I5 I7:I38 K5:L5">
-    <cfRule type="expression" dxfId="47" priority="108">
+  <conditionalFormatting sqref="C5:I5 I8:I38 K5:L5">
+    <cfRule type="expression" dxfId="51" priority="112">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="109">
+    <cfRule type="expression" dxfId="50" priority="113">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5 A7 A9 A11 A13 A15">
-    <cfRule type="expression" dxfId="45" priority="106">
+    <cfRule type="expression" dxfId="49" priority="110">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="107">
+    <cfRule type="expression" dxfId="48" priority="111">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:C16">
-    <cfRule type="containsText" dxfId="43" priority="50" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="47" priority="54" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C7)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8:H9 C10:C16 J10 J7:L9 C7 H7 E7">
+  <conditionalFormatting sqref="B8:H9 C10:C16 J10 J7:L9 C7">
+    <cfRule type="expression" dxfId="46" priority="52">
+      <formula>$I7="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="53">
+      <formula>$I7="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32:C35 C38:C40">
+    <cfRule type="containsText" dxfId="44" priority="49" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26:B31 B32:D32 H32 A33:H35 A39:L40 B38:E38 J38 J26:J35 A36:A40">
+    <cfRule type="expression" dxfId="43" priority="47">
+      <formula>$I26="確認中"</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="42" priority="48">
-      <formula>$I7="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="41" priority="49">
-      <formula>$I7="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C32:C35 C38:C40">
-    <cfRule type="containsText" dxfId="40" priority="45" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B26:B31 B32:D32 H32 A33:H35 A39:L40 B38:E38 J38 J26:J35 A36:A40">
-    <cfRule type="expression" dxfId="39" priority="43">
-      <formula>$I26="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="38" priority="44">
       <formula>$I26="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:C31">
-    <cfRule type="containsText" dxfId="37" priority="42" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="41" priority="46" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:H30 C31 E31:H31">
+    <cfRule type="expression" dxfId="40" priority="44">
+      <formula>$I25="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="45">
+      <formula>$I25="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="expression" dxfId="38" priority="42">
+      <formula>$I32="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="43">
+      <formula>$I32="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32:G32">
     <cfRule type="expression" dxfId="36" priority="40">
-      <formula>$I25="確認中"</formula>
+      <formula>$I32="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="35" priority="41">
-      <formula>$I25="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
+      <formula>$I32="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32">
     <cfRule type="expression" dxfId="34" priority="38">
       <formula>$I32="確認中"</formula>
     </cfRule>
@@ -2029,84 +2127,76 @@
       <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F32:G32">
-    <cfRule type="expression" dxfId="32" priority="36">
-      <formula>$I32="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="31" priority="37">
-      <formula>$I32="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K32">
-    <cfRule type="expression" dxfId="30" priority="34">
-      <formula>$I32="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="29" priority="35">
-      <formula>$I32="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C36:C37">
-    <cfRule type="containsText" dxfId="28" priority="33" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="32" priority="37" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:H36 B37:E37 J36:J37">
+    <cfRule type="expression" dxfId="31" priority="35">
+      <formula>$I36="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="36">
+      <formula>$I36="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37:H38">
+    <cfRule type="expression" dxfId="29" priority="33">
+      <formula>$I37="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="34">
+      <formula>$I37="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K19:L31">
     <cfRule type="expression" dxfId="27" priority="31">
-      <formula>$I36="確認中"</formula>
+      <formula>$I19="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="26" priority="32">
-      <formula>$I36="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F37:H38">
+      <formula>$I19="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K33:L38">
     <cfRule type="expression" dxfId="25" priority="29">
-      <formula>$I37="確認中"</formula>
+      <formula>$I33="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="24" priority="30">
-      <formula>$I37="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K19:L31">
+      <formula>$I33="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
     <cfRule type="expression" dxfId="23" priority="27">
-      <formula>$I19="確認中"</formula>
+      <formula>$I31="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="22" priority="28">
-      <formula>$I19="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K33:L38">
+      <formula>$I31="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
     <cfRule type="expression" dxfId="21" priority="25">
-      <formula>$I33="確認中"</formula>
+      <formula>$I6="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="20" priority="26">
-      <formula>$I33="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
+      <formula>$I6="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
     <cfRule type="expression" dxfId="19" priority="23">
-      <formula>$I31="確認中"</formula>
+      <formula>$I7="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="18" priority="24">
-      <formula>$I31="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="17" priority="21">
-      <formula>$I6="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="22">
-      <formula>$I6="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="15" priority="19">
-      <formula>$I7="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="20">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
+  <conditionalFormatting sqref="B5">
+    <cfRule type="expression" dxfId="15" priority="11">
+      <formula>$I5="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="12">
+      <formula>$I5="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
     <cfRule type="expression" dxfId="13" priority="15">
       <formula>$I7="確認中"</formula>
     </cfRule>
@@ -2114,52 +2204,44 @@
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="11" priority="7">
+  <conditionalFormatting sqref="G6:I6">
+    <cfRule type="expression" dxfId="9" priority="9">
+      <formula>$I6="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="10">
+      <formula>$I6="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="expression" dxfId="7" priority="7">
+      <formula>$I6="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="8">
+      <formula>$I6="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="8">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="9" priority="11">
+  <conditionalFormatting sqref="B7">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="12">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7">
-    <cfRule type="expression" dxfId="7" priority="9">
+  <conditionalFormatting sqref="G7:I7">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="10">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$I7="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6:I6">
-    <cfRule type="expression" dxfId="5" priority="5">
-      <formula>$I6="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
-      <formula>$I6="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="expression" dxfId="3" priority="3">
-      <formula>$I6="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
-      <formula>$I6="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J5">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$I5="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">

--- a/質疑表/TOYOTIRE_質疑表 _平.xlsx
+++ b/質疑表/TOYOTIRE_質疑表 _平.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -307,6 +307,52 @@
     </rPh>
     <rPh sb="66" eb="68">
       <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>済み</t>
+  </si>
+  <si>
+    <t>共有フォルダより入手しました。</t>
+    <rPh sb="0" eb="2">
+      <t>キョウユウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平</t>
+    <rPh sb="0" eb="1">
+      <t>タイラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作マニュアル（パタ検）.doc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「溝（主溝）」の章（P.10）で「閉ストリング」とありますが、編集不可の文字列という意味でしょうか。</t>
+    <rPh sb="8" eb="9">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="36" eb="39">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>イミ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -586,32 +632,57 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="56">
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+  <dxfs count="59">
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1322,7 +1393,7 @@
   <dimension ref="A3:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1342,11 +1413,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
@@ -1478,7 +1549,7 @@
       <c r="D7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="23" t="s">
         <v>27</v>
       </c>
       <c r="F7" s="5">
@@ -1491,24 +1562,46 @@
         <v>10</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="9"/>
-    </row>
-    <row r="8" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+        <v>28</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="5">
+        <v>44743</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="20" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>4</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="10"/>
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="5">
+        <v>44743</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="J8" s="3"/>
       <c r="K8" s="5"/>
       <c r="L8" s="9"/>
@@ -2031,217 +2124,246 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="C4 C6 C17:C24 C41:C1048576">
-    <cfRule type="containsText" dxfId="55" priority="601" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="58" priority="608" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:L4 B10:B15 A8 A10 A12 A14 A16:B16 B25 B20:H24 A20:A32 A17:H19 L32 J19:J25 K10:L10 D10:H16 J11:L18 J6:L6 A6:D6 A3 D3:L3 A41:L1048576">
-    <cfRule type="expression" dxfId="54" priority="599">
+    <cfRule type="expression" dxfId="57" priority="606">
       <formula>$I3="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="600">
+    <cfRule type="expression" dxfId="56" priority="607">
       <formula>$I3="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="containsText" dxfId="52" priority="114" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="55" priority="121" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:I5 I8:I38 K5:L5">
-    <cfRule type="expression" dxfId="51" priority="112">
+  <conditionalFormatting sqref="C5:I5 I9:I38 K5:L5">
+    <cfRule type="expression" dxfId="54" priority="119">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="113">
+    <cfRule type="expression" dxfId="53" priority="120">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5 A7 A9 A11 A13 A15">
-    <cfRule type="expression" dxfId="49" priority="110">
+    <cfRule type="expression" dxfId="52" priority="117">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="111">
+    <cfRule type="expression" dxfId="51" priority="118">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C7:C16">
-    <cfRule type="containsText" dxfId="47" priority="54" operator="containsText" text="高">
+  <conditionalFormatting sqref="C7 C9:C16">
+    <cfRule type="containsText" dxfId="50" priority="61" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C7)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8:H9 C10:C16 J10 J7:L9 C7">
-    <cfRule type="expression" dxfId="46" priority="52">
+  <conditionalFormatting sqref="B9:H9 C10:C16 J10 J7:L9 C7 D8:F8">
+    <cfRule type="expression" dxfId="49" priority="59">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="53">
+    <cfRule type="expression" dxfId="48" priority="60">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:C35 C38:C40">
-    <cfRule type="containsText" dxfId="44" priority="49" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="47" priority="56" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B31 B32:D32 H32 A33:H35 A39:L40 B38:E38 J38 J26:J35 A36:A40">
-    <cfRule type="expression" dxfId="43" priority="47">
+    <cfRule type="expression" dxfId="46" priority="54">
       <formula>$I26="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="48">
+    <cfRule type="expression" dxfId="45" priority="55">
       <formula>$I26="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:C31">
-    <cfRule type="containsText" dxfId="41" priority="46" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="44" priority="53" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:H30 C31 E31:H31">
-    <cfRule type="expression" dxfId="40" priority="44">
+    <cfRule type="expression" dxfId="43" priority="51">
       <formula>$I25="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="45">
+    <cfRule type="expression" dxfId="42" priority="52">
       <formula>$I25="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="expression" dxfId="38" priority="42">
+    <cfRule type="expression" dxfId="41" priority="49">
       <formula>$I32="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="43">
+    <cfRule type="expression" dxfId="40" priority="50">
       <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32:G32">
-    <cfRule type="expression" dxfId="36" priority="40">
+    <cfRule type="expression" dxfId="39" priority="47">
       <formula>$I32="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="41">
+    <cfRule type="expression" dxfId="38" priority="48">
       <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32">
-    <cfRule type="expression" dxfId="34" priority="38">
+    <cfRule type="expression" dxfId="37" priority="45">
       <formula>$I32="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="39">
+    <cfRule type="expression" dxfId="36" priority="46">
       <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:C37">
-    <cfRule type="containsText" dxfId="32" priority="37" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="35" priority="44" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:H36 B37:E37 J36:J37">
-    <cfRule type="expression" dxfId="31" priority="35">
+    <cfRule type="expression" dxfId="34" priority="42">
       <formula>$I36="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="36">
+    <cfRule type="expression" dxfId="33" priority="43">
       <formula>$I36="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37:H38">
-    <cfRule type="expression" dxfId="29" priority="33">
+    <cfRule type="expression" dxfId="32" priority="40">
       <formula>$I37="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="34">
+    <cfRule type="expression" dxfId="31" priority="41">
       <formula>$I37="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19:L31">
-    <cfRule type="expression" dxfId="27" priority="31">
+    <cfRule type="expression" dxfId="30" priority="38">
       <formula>$I19="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="32">
+    <cfRule type="expression" dxfId="29" priority="39">
       <formula>$I19="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33:L38">
-    <cfRule type="expression" dxfId="25" priority="29">
+    <cfRule type="expression" dxfId="28" priority="36">
       <formula>$I33="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="30">
+    <cfRule type="expression" dxfId="27" priority="37">
       <formula>$I33="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="expression" dxfId="23" priority="27">
+    <cfRule type="expression" dxfId="26" priority="34">
       <formula>$I31="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="28">
+    <cfRule type="expression" dxfId="25" priority="35">
       <formula>$I31="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="21" priority="25">
+    <cfRule type="expression" dxfId="24" priority="32">
       <formula>$I6="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="26">
+    <cfRule type="expression" dxfId="23" priority="33">
       <formula>$I6="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="19" priority="23">
+    <cfRule type="expression" dxfId="22" priority="30">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="24">
+    <cfRule type="expression" dxfId="21" priority="31">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="15" priority="11">
+    <cfRule type="expression" dxfId="20" priority="18">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="12">
+    <cfRule type="expression" dxfId="19" priority="19">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
+    <cfRule type="expression" dxfId="18" priority="22">
+      <formula>$I7="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="23">
+      <formula>$I7="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6:I6">
+    <cfRule type="expression" dxfId="16" priority="16">
+      <formula>$I6="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="17">
+      <formula>$I6="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="expression" dxfId="14" priority="14">
+      <formula>$I6="確認中"</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="13" priority="15">
+      <formula>$I6="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5">
+    <cfRule type="expression" dxfId="12" priority="12">
+      <formula>$I5="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="13">
+      <formula>$I5="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7">
+    <cfRule type="expression" dxfId="10" priority="10">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="16">
+    <cfRule type="expression" dxfId="9" priority="11">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6:I6">
-    <cfRule type="expression" dxfId="9" priority="9">
-      <formula>$I6="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="10">
-      <formula>$I6="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="expression" dxfId="7" priority="7">
-      <formula>$I6="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8">
-      <formula>$I6="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J5">
-    <cfRule type="expression" dxfId="5" priority="5">
-      <formula>$I5="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
-      <formula>$I5="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7">
+  <conditionalFormatting sqref="G7:I7">
+    <cfRule type="expression" dxfId="8" priority="8">
+      <formula>$I7="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="9">
+      <formula>$I7="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8">
+    <cfRule type="expression" dxfId="6" priority="6">
+      <formula>$I8="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="7">
+      <formula>$I8="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
     <cfRule type="expression" dxfId="3" priority="3">
-      <formula>$I7="確認中"</formula>
+      <formula>$I8="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="4">
-      <formula>$I7="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7:I7">
+      <formula>$I8="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:I8">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$I7="確認中"</formula>
+      <formula>$I8="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$I7="済み"</formula>
+      <formula>$I8="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">

--- a/質疑表/TOYOTIRE_質疑表 _平.xlsx
+++ b/質疑表/TOYOTIRE_質疑表 _平.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -353,6 +353,44 @@
     </rPh>
     <rPh sb="42" eb="44">
       <t>イミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>④_面積変動_カスタム仕様_REV03.docx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「3.2 1）② ピッチ個数の配列表作成」での処理にマクロが使われている場合はマクロ名、あるいはコマンドで処理している場合は、例えば「BRBAS1」のようなコマンド名を教えて頂けませんでしょうか。</t>
+    <rPh sb="23" eb="25">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>タト</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>オシ</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>イタダ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -387,8 +425,8 @@
     <font>
       <sz val="10.5"/>
       <color theme="1"/>
-      <name val="游明朝"/>
-      <family val="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -645,7 +683,37 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="59">
+  <dxfs count="63">
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1393,7 +1461,7 @@
   <dimension ref="A3:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1536,7 +1604,7 @@
       <c r="K6" s="5"/>
       <c r="L6" s="9"/>
     </row>
-    <row r="7" spans="1:12" s="20" customFormat="1" ht="51.75" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" s="20" customFormat="1" ht="38.25" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -1606,18 +1674,34 @@
       <c r="K8" s="5"/>
       <c r="L8" s="9"/>
     </row>
-    <row r="9" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" s="20" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>5</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="10"/>
+      <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="5">
+        <v>44749</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="J9" s="3"/>
       <c r="K9" s="5"/>
       <c r="L9" s="9"/>
@@ -2124,79 +2208,95 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="C4 C6 C17:C24 C41:C1048576">
-    <cfRule type="containsText" dxfId="58" priority="608" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="62" priority="612" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:L4 B10:B15 A8 A10 A12 A14 A16:B16 B25 B20:H24 A20:A32 A17:H19 L32 J19:J25 K10:L10 D10:H16 J11:L18 J6:L6 A6:D6 A3 D3:L3 A41:L1048576">
-    <cfRule type="expression" dxfId="57" priority="606">
+    <cfRule type="expression" dxfId="61" priority="610">
       <formula>$I3="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="607">
+    <cfRule type="expression" dxfId="60" priority="611">
       <formula>$I3="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="containsText" dxfId="55" priority="121" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="59" priority="125" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:I5 I9:I38 K5:L5">
-    <cfRule type="expression" dxfId="54" priority="119">
+  <conditionalFormatting sqref="C5:I5 I10:I38 K5:L5">
+    <cfRule type="expression" dxfId="58" priority="123">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="120">
+    <cfRule type="expression" dxfId="57" priority="124">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5 A7 A9 A11 A13 A15">
-    <cfRule type="expression" dxfId="52" priority="117">
+    <cfRule type="expression" dxfId="56" priority="121">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="118">
+    <cfRule type="expression" dxfId="55" priority="122">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7 C9:C16">
-    <cfRule type="containsText" dxfId="50" priority="61" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="54" priority="65" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C7)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B9:H9 C10:C16 J10 J7:L9 C7 D8:F8">
+  <conditionalFormatting sqref="C9:F9 C10:C16 J10 J7:L9 C7 D8:F8">
+    <cfRule type="expression" dxfId="53" priority="63">
+      <formula>$I7="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="64">
+      <formula>$I7="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32:C35 C38:C40">
+    <cfRule type="containsText" dxfId="51" priority="60" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26:B31 B32:D32 H32 A33:H35 A39:L40 B38:E38 J38 J26:J35 A36:A40">
+    <cfRule type="expression" dxfId="50" priority="58">
+      <formula>$I26="確認中"</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="49" priority="59">
-      <formula>$I7="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="48" priority="60">
-      <formula>$I7="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C32:C35 C38:C40">
-    <cfRule type="containsText" dxfId="47" priority="56" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B26:B31 B32:D32 H32 A33:H35 A39:L40 B38:E38 J38 J26:J35 A36:A40">
-    <cfRule type="expression" dxfId="46" priority="54">
-      <formula>$I26="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="45" priority="55">
       <formula>$I26="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:C31">
-    <cfRule type="containsText" dxfId="44" priority="53" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="48" priority="57" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:H30 C31 E31:H31">
+    <cfRule type="expression" dxfId="47" priority="55">
+      <formula>$I25="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="56">
+      <formula>$I25="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="expression" dxfId="45" priority="53">
+      <formula>$I32="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="54">
+      <formula>$I32="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32:G32">
     <cfRule type="expression" dxfId="43" priority="51">
-      <formula>$I25="確認中"</formula>
+      <formula>$I32="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="42" priority="52">
-      <formula>$I25="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
+      <formula>$I32="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32">
     <cfRule type="expression" dxfId="41" priority="49">
       <formula>$I32="確認中"</formula>
     </cfRule>
@@ -2204,166 +2304,166 @@
       <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F32:G32">
-    <cfRule type="expression" dxfId="39" priority="47">
-      <formula>$I32="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="38" priority="48">
-      <formula>$I32="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K32">
-    <cfRule type="expression" dxfId="37" priority="45">
-      <formula>$I32="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="46">
-      <formula>$I32="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C36:C37">
-    <cfRule type="containsText" dxfId="35" priority="44" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="39" priority="48" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:H36 B37:E37 J36:J37">
+    <cfRule type="expression" dxfId="38" priority="46">
+      <formula>$I36="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="47">
+      <formula>$I36="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37:H38">
+    <cfRule type="expression" dxfId="36" priority="44">
+      <formula>$I37="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="35" priority="45">
+      <formula>$I37="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K19:L31">
     <cfRule type="expression" dxfId="34" priority="42">
-      <formula>$I36="確認中"</formula>
+      <formula>$I19="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="33" priority="43">
-      <formula>$I36="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F37:H38">
+      <formula>$I19="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K33:L38">
     <cfRule type="expression" dxfId="32" priority="40">
-      <formula>$I37="確認中"</formula>
+      <formula>$I33="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="31" priority="41">
-      <formula>$I37="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K19:L31">
+      <formula>$I33="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
     <cfRule type="expression" dxfId="30" priority="38">
-      <formula>$I19="確認中"</formula>
+      <formula>$I31="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="29" priority="39">
-      <formula>$I19="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K33:L38">
+      <formula>$I31="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
     <cfRule type="expression" dxfId="28" priority="36">
-      <formula>$I33="確認中"</formula>
+      <formula>$I6="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="27" priority="37">
-      <formula>$I33="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
+      <formula>$I6="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
     <cfRule type="expression" dxfId="26" priority="34">
-      <formula>$I31="確認中"</formula>
+      <formula>$I7="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="25" priority="35">
-      <formula>$I31="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="24" priority="32">
+      <formula>$I7="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5">
+    <cfRule type="expression" dxfId="24" priority="22">
+      <formula>$I5="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="23" priority="23">
+      <formula>$I5="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="expression" dxfId="22" priority="26">
+      <formula>$I7="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="27">
+      <formula>$I7="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6:I6">
+    <cfRule type="expression" dxfId="20" priority="20">
       <formula>$I6="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="33">
+    <cfRule type="expression" dxfId="19" priority="21">
       <formula>$I6="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="22" priority="30">
+  <conditionalFormatting sqref="E6">
+    <cfRule type="expression" dxfId="18" priority="18">
+      <formula>$I6="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="19">
+      <formula>$I6="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5">
+    <cfRule type="expression" dxfId="16" priority="16">
+      <formula>$I5="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="17">
+      <formula>$I5="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7">
+    <cfRule type="expression" dxfId="14" priority="14">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="31">
+    <cfRule type="expression" dxfId="13" priority="15">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="20" priority="18">
-      <formula>$I5="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="19" priority="19">
-      <formula>$I5="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="18" priority="22">
+  <conditionalFormatting sqref="G7:I7">
+    <cfRule type="expression" dxfId="12" priority="12">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="23">
+    <cfRule type="expression" dxfId="11" priority="13">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6:I6">
-    <cfRule type="expression" dxfId="16" priority="16">
-      <formula>$I6="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="15" priority="17">
-      <formula>$I6="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="expression" dxfId="14" priority="14">
-      <formula>$I6="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="15">
-      <formula>$I6="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J5">
-    <cfRule type="expression" dxfId="12" priority="12">
-      <formula>$I5="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="11" priority="13">
-      <formula>$I5="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7">
+  <conditionalFormatting sqref="B8">
     <cfRule type="expression" dxfId="10" priority="10">
-      <formula>$I7="確認中"</formula>
+      <formula>$I8="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="9" priority="11">
-      <formula>$I7="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7:I7">
-    <cfRule type="expression" dxfId="8" priority="8">
-      <formula>$I7="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="9">
-      <formula>$I7="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="6" priority="6">
+      <formula>$I8="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="expression" dxfId="7" priority="7">
       <formula>$I8="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="6" priority="8">
       <formula>$I8="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
+  <conditionalFormatting sqref="G8:I8">
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>$I8="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>$I8="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9">
     <cfRule type="expression" dxfId="3" priority="3">
-      <formula>$I8="確認中"</formula>
+      <formula>$I9="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="4">
-      <formula>$I8="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8:I8">
+      <formula>$I9="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9:I9">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$I8="確認中"</formula>
+      <formula>$I9="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$I8="済み"</formula>
+      <formula>$I9="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">

--- a/質疑表/TOYOTIRE_質疑表 _平.xlsx
+++ b/質疑表/TOYOTIRE_質疑表 _平.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\ToyoTire\ToyoTireGit\質疑表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ichiro Uehara\source\repos\TOYOTIRE_BRAND\質疑表\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -391,6 +391,35 @@
     </rPh>
     <rPh sb="87" eb="88">
       <t>イタダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AdvanceCADでは、ストリング＝ポリラインですので、閉じたストリングとは、閉じた多角形だと思います。</t>
+    <rPh sb="29" eb="30">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="43" eb="46">
+      <t>タカクケイ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カスタム仕様書_SC理解.xlsxより
+④コマンドシート
+ピッチ個数の配列表作成
+PAT_PICHSET.MAC</t>
+    <rPh sb="4" eb="7">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>リカイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1461,7 +1490,7 @@
   <dimension ref="A3:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1670,7 +1699,9 @@
       <c r="I8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="3"/>
+      <c r="J8" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="K8" s="5"/>
       <c r="L8" s="9"/>
     </row>
@@ -1702,7 +1733,9 @@
       <c r="I9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="3"/>
+      <c r="J9" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="K9" s="5"/>
       <c r="L9" s="9"/>
     </row>

--- a/質疑表/TOYOTIRE_質疑表 _平.xlsx
+++ b/質疑表/TOYOTIRE_質疑表 _平.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ichiro Uehara\source\repos\TOYOTIRE_BRAND\質疑表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\ToyoTire\ToyoTireGit\質疑表\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -391,35 +391,6 @@
     </rPh>
     <rPh sb="87" eb="88">
       <t>イタダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AdvanceCADでは、ストリング＝ポリラインですので、閉じたストリングとは、閉じた多角形だと思います。</t>
-    <rPh sb="29" eb="30">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="43" eb="46">
-      <t>タカクケイ</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>オモ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カスタム仕様書_SC理解.xlsxより
-④コマンドシート
-ピッチ個数の配列表作成
-PAT_PICHSET.MAC</t>
-    <rPh sb="4" eb="7">
-      <t>シヨウショ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>リカイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1490,7 +1461,7 @@
   <dimension ref="A3:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1699,9 +1670,7 @@
       <c r="I8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="J8" s="3"/>
       <c r="K8" s="5"/>
       <c r="L8" s="9"/>
     </row>
@@ -1733,9 +1702,7 @@
       <c r="I9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="J9" s="3"/>
       <c r="K9" s="5"/>
       <c r="L9" s="9"/>
     </row>

--- a/質疑表/TOYOTIRE_質疑表 _平.xlsx
+++ b/質疑表/TOYOTIRE_質疑表 _平.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ichiro Uehara\source\repos\TOYOTIRE_BRAND\質疑表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\ToyoTire\ToyoTireGit\質疑表\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -120,9 +120,6 @@
     <t>中</t>
   </si>
   <si>
-    <t>起票</t>
-  </si>
-  <si>
     <t>回答・対応者</t>
     <rPh sb="0" eb="2">
       <t>カイトウ</t>
@@ -289,25 +286,6 @@
   </si>
   <si>
     <t>②_パタ検(ボイド測定)_カスタム仕様.docx</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2. 作業の流れと主要機能（旧CAD）の章で「操作マニュアル（パタ検）」のリンク先を参照したいのですが、別途サインインのアカウントが必要でしょうか。</t>
-    <rPh sb="20" eb="21">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>サンショウ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>ベット</t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t>ヒツヨウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -423,12 +401,16 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>2. 作業の流れと主要機能（旧CAD）の章で「操作マニュアル（パタ検）」のリンク先を参照したいのですが、別途サインインのアカウントが必要でしょうか。</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -446,13 +428,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
@@ -629,7 +604,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -699,9 +674,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -712,7 +684,22 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="63">
+  <dxfs count="65">
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1490,7 +1477,7 @@
   <dimension ref="A3:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1510,11 +1497,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
@@ -1562,7 +1549,7 @@
         <v>9</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="20" customFormat="1" ht="42.75" x14ac:dyDescent="0.4">
@@ -1570,31 +1557,31 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="F5" s="5">
         <v>44734</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>10</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="9"/>
@@ -1604,71 +1591,71 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="D6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="F6" s="5">
         <v>44736</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>10</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="9"/>
     </row>
-    <row r="7" spans="1:12" s="20" customFormat="1" ht="38.25" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" s="20" customFormat="1" ht="42.75" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>21</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="F7" s="5">
         <v>44742</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>10</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K7" s="5">
         <v>44743</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="20" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1676,31 +1663,31 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>21</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F8" s="5">
         <v>44743</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>10</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="9"/>
@@ -1710,31 +1697,31 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F9" s="5">
         <v>44749</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>10</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="9"/>
@@ -2241,24 +2228,32 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="C4 C6 C17:C24 C41:C1048576">
-    <cfRule type="containsText" dxfId="62" priority="612" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="64" priority="614" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:L4 B10:B15 A8 A10 A12 A14 A16:B16 B25 B20:H24 A20:A32 A17:H19 L32 J19:J25 K10:L10 D10:H16 J11:L18 J6:L6 A6:D6 A3 D3:L3 A41:L1048576">
-    <cfRule type="expression" dxfId="61" priority="610">
+    <cfRule type="expression" dxfId="63" priority="612">
       <formula>$I3="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="611">
+    <cfRule type="expression" dxfId="62" priority="613">
       <formula>$I3="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="containsText" dxfId="59" priority="125" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="61" priority="127" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:I5 I10:I38 K5:L5">
+    <cfRule type="expression" dxfId="60" priority="125">
+      <formula>$I5="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="59" priority="126">
+      <formula>$I5="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5 A7 A9 A11 A13 A15">
     <cfRule type="expression" dxfId="58" priority="123">
       <formula>$I5="確認中"</formula>
     </cfRule>
@@ -2266,54 +2261,54 @@
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5 A7 A9 A11 A13 A15">
-    <cfRule type="expression" dxfId="56" priority="121">
-      <formula>$I5="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="55" priority="122">
-      <formula>$I5="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C7 C9:C16">
-    <cfRule type="containsText" dxfId="54" priority="65" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="56" priority="67" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:F9 C10:C16 J10 J7:L9 C7 D8:F8">
-    <cfRule type="expression" dxfId="53" priority="63">
+    <cfRule type="expression" dxfId="55" priority="65">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="64">
+    <cfRule type="expression" dxfId="54" priority="66">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:C35 C38:C40">
-    <cfRule type="containsText" dxfId="51" priority="60" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="53" priority="62" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B31 B32:D32 H32 A33:H35 A39:L40 B38:E38 J38 J26:J35 A36:A40">
-    <cfRule type="expression" dxfId="50" priority="58">
+    <cfRule type="expression" dxfId="52" priority="60">
       <formula>$I26="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="59">
+    <cfRule type="expression" dxfId="51" priority="61">
       <formula>$I26="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:C31">
-    <cfRule type="containsText" dxfId="48" priority="57" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="50" priority="59" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:H30 C31 E31:H31">
+    <cfRule type="expression" dxfId="49" priority="57">
+      <formula>$I25="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="58">
+      <formula>$I25="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
     <cfRule type="expression" dxfId="47" priority="55">
-      <formula>$I25="確認中"</formula>
+      <formula>$I32="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="46" priority="56">
-      <formula>$I25="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
+      <formula>$I32="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32:G32">
     <cfRule type="expression" dxfId="45" priority="53">
       <formula>$I32="確認中"</formula>
     </cfRule>
@@ -2321,7 +2316,7 @@
       <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F32:G32">
+  <conditionalFormatting sqref="K32">
     <cfRule type="expression" dxfId="43" priority="51">
       <formula>$I32="確認中"</formula>
     </cfRule>
@@ -2329,92 +2324,92 @@
       <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K32">
-    <cfRule type="expression" dxfId="41" priority="49">
-      <formula>$I32="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="40" priority="50">
-      <formula>$I32="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C36:C37">
-    <cfRule type="containsText" dxfId="39" priority="48" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="41" priority="50" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:H36 B37:E37 J36:J37">
+    <cfRule type="expression" dxfId="40" priority="48">
+      <formula>$I36="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="49">
+      <formula>$I36="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37:H38">
     <cfRule type="expression" dxfId="38" priority="46">
-      <formula>$I36="確認中"</formula>
+      <formula>$I37="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="37" priority="47">
-      <formula>$I36="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F37:H38">
+      <formula>$I37="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K19:L31">
     <cfRule type="expression" dxfId="36" priority="44">
-      <formula>$I37="確認中"</formula>
+      <formula>$I19="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="35" priority="45">
-      <formula>$I37="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K19:L31">
+      <formula>$I19="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K33:L38">
     <cfRule type="expression" dxfId="34" priority="42">
-      <formula>$I19="確認中"</formula>
+      <formula>$I33="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="33" priority="43">
-      <formula>$I19="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K33:L38">
+      <formula>$I33="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
     <cfRule type="expression" dxfId="32" priority="40">
-      <formula>$I33="確認中"</formula>
+      <formula>$I31="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="31" priority="41">
-      <formula>$I33="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
+      <formula>$I31="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
     <cfRule type="expression" dxfId="30" priority="38">
-      <formula>$I31="確認中"</formula>
+      <formula>$I6="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="29" priority="39">
-      <formula>$I31="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
+      <formula>$I6="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
     <cfRule type="expression" dxfId="28" priority="36">
+      <formula>$I7="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="37">
+      <formula>$I7="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5">
+    <cfRule type="expression" dxfId="26" priority="24">
+      <formula>$I5="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="25">
+      <formula>$I5="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="expression" dxfId="24" priority="28">
+      <formula>$I7="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="23" priority="29">
+      <formula>$I7="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6:I6">
+    <cfRule type="expression" dxfId="22" priority="22">
       <formula>$I6="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="37">
+    <cfRule type="expression" dxfId="21" priority="23">
       <formula>$I6="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="26" priority="34">
-      <formula>$I7="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="35">
-      <formula>$I7="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="24" priority="22">
-      <formula>$I5="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="23" priority="23">
-      <formula>$I5="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="22" priority="26">
-      <formula>$I7="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="27">
-      <formula>$I7="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6:I6">
+  <conditionalFormatting sqref="E6">
     <cfRule type="expression" dxfId="20" priority="20">
       <formula>$I6="確認中"</formula>
     </cfRule>
@@ -2422,23 +2417,23 @@
       <formula>$I6="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="J5">
     <cfRule type="expression" dxfId="18" priority="18">
-      <formula>$I6="確認中"</formula>
+      <formula>$I5="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="17" priority="19">
-      <formula>$I6="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J5">
+      <formula>$I5="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7">
     <cfRule type="expression" dxfId="16" priority="16">
-      <formula>$I5="確認中"</formula>
+      <formula>$I7="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="15" priority="17">
-      <formula>$I5="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7">
+      <formula>$I7="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7:I7">
     <cfRule type="expression" dxfId="14" priority="14">
       <formula>$I7="確認中"</formula>
     </cfRule>
@@ -2446,28 +2441,28 @@
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7:I7">
+  <conditionalFormatting sqref="B8">
     <cfRule type="expression" dxfId="12" priority="12">
-      <formula>$I7="確認中"</formula>
+      <formula>$I8="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="11" priority="13">
-      <formula>$I7="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="10" priority="10">
+      <formula>$I8="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="expression" dxfId="9" priority="9">
       <formula>$I8="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="11">
+    <cfRule type="expression" dxfId="8" priority="10">
       <formula>$I8="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
+  <conditionalFormatting sqref="G8:I8">
     <cfRule type="expression" dxfId="7" priority="7">
       <formula>$I8="確認中"</formula>
     </cfRule>
@@ -2475,15 +2470,15 @@
       <formula>$I8="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G8:I8">
+  <conditionalFormatting sqref="B9">
     <cfRule type="expression" dxfId="5" priority="5">
-      <formula>$I8="確認中"</formula>
+      <formula>$I9="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="6">
-      <formula>$I8="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9">
+      <formula>$I9="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9:I9">
     <cfRule type="expression" dxfId="3" priority="3">
       <formula>$I9="確認中"</formula>
     </cfRule>
@@ -2491,12 +2486,12 @@
       <formula>$I9="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G9:I9">
+  <conditionalFormatting sqref="E7">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$I9="確認中"</formula>
+      <formula>$I7="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$I9="済み"</formula>
+      <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">

--- a/質疑表/TOYOTIRE_質疑表 _平.xlsx
+++ b/質疑表/TOYOTIRE_質疑表 _平.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="障害・要望管理表（今後はこちらに起票）" sheetId="24" r:id="rId1"/>
+    <sheet name="No6、No7" sheetId="25" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_Toc99549776" localSheetId="0">'障害・要望管理表（今後はこちらに起票）'!$E$7</definedName>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="46">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -332,10 +333,6 @@
     <rPh sb="42" eb="44">
       <t>イミ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>④_面積変動_カスタム仕様_REV03.docx</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -405,12 +402,159 @@
     <t>2. 作業の流れと主要機能（旧CAD）の章で「操作マニュアル（パタ検）」のリンク先を参照したいのですが、別途サインインのアカウントが必要でしょうか。</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>④_面積変動_カスタム仕様_REV03.docx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>④_面積変動_カスタム仕様_REV03.docx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>④_面積変動_カスタム仕様_REV03 10ページの【接地形状切出し図…接地形状が全部（ALL）のタイプ】の図</t>
+    <rPh sb="54" eb="55">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>One side…半円上ストリング形状</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>All…閉図形になっているストリング形状</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bottom side…１／４円ストリング形状</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10ページの「接地形状が全部（ALL）のタイプ」の場合の「接地形状切り出し図」に示されている上、中、下の絵はそれぞれどの部分の形状を表していますでしょうか。
+別紙「No6、No7」シートの左側の図になります。</t>
+    <rPh sb="25" eb="27">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>セッチ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ケイジョウ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>シメ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ケイジョウ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>アラワ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ベッシ</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="95" eb="96">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.6の質問の続きですが、仮に中の絵がタイヤ全体の接地面を表している場合の質問です。
+接地形状の選択（全部／片側／下側）を行った場合のタイヤ接地面は、「別紙「No6、No7」シートの右側の図」のようになりますでしょうか。</t>
+    <rPh sb="5" eb="7">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ツヅ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カリ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>セッチ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>メン</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>アラワ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="71" eb="74">
+      <t>セッチメン</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>ミギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SC平</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>起票</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -429,6 +573,13 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -604,7 +755,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -680,11 +831,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="65">
+  <dxfs count="74">
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1206,6 +1433,272 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>600075</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2049" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2049"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>315833</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8582025" y="809625"/>
+          <a:ext cx="2020808" cy="4400550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線矢印コネクタ 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4619625" y="1952625"/>
+          <a:ext cx="3971925" cy="1885950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直線矢印コネクタ 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4638675" y="3609975"/>
+          <a:ext cx="3924300" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線矢印コネクタ 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4638675" y="3838575"/>
+          <a:ext cx="3990975" cy="828676"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1476,8 +1969,8 @@
   </sheetPr>
   <dimension ref="A3:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1634,7 +2127,7 @@
         <v>25</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7" s="5">
         <v>44742</v>
@@ -1687,7 +2180,7 @@
         <v>26</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="9"/>
@@ -1703,10 +2196,10 @@
         <v>13</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="F9" s="5">
         <v>44749</v>
@@ -1721,39 +2214,71 @@
         <v>26</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="9"/>
     </row>
-    <row r="10" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" s="20" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>6</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="10"/>
+      <c r="B10" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="5">
+        <v>44754</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="J10" s="3"/>
       <c r="K10" s="5"/>
       <c r="L10" s="9"/>
     </row>
-    <row r="11" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" s="20" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>7</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="10"/>
+      <c r="B11" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="5">
+        <v>44754</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="J11" s="3"/>
       <c r="K11" s="5"/>
       <c r="L11" s="9"/>
@@ -2228,270 +2753,307 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="C4 C6 C17:C24 C41:C1048576">
-    <cfRule type="containsText" dxfId="64" priority="614" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="73" priority="623" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:L4 B10:B15 A8 A10 A12 A14 A16:B16 B25 B20:H24 A20:A32 A17:H19 L32 J19:J25 K10:L10 D10:H16 J11:L18 J6:L6 A6:D6 A3 D3:L3 A41:L1048576">
-    <cfRule type="expression" dxfId="63" priority="612">
+  <conditionalFormatting sqref="A4:L4 A8 A10 A12 A14 A16:B16 B25 B20:H24 A20:A32 A17:H19 L32 J19:J25 K10:L10 D10:H10 J11:L18 J6:L6 A6:D6 A3 D3:L3 A41:L1048576 D12:H16 E11 B10:B15">
+    <cfRule type="expression" dxfId="72" priority="621">
       <formula>$I3="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="613">
+    <cfRule type="expression" dxfId="71" priority="622">
       <formula>$I3="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="containsText" dxfId="61" priority="127" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="70" priority="136" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:I5 I10:I38 K5:L5">
-    <cfRule type="expression" dxfId="60" priority="125">
+  <conditionalFormatting sqref="C5:I5 I10 K5:L5 I12:I38">
+    <cfRule type="expression" dxfId="69" priority="134">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="126">
+    <cfRule type="expression" dxfId="68" priority="135">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5 A7 A9 A11 A13 A15">
-    <cfRule type="expression" dxfId="58" priority="123">
+    <cfRule type="expression" dxfId="67" priority="132">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="124">
+    <cfRule type="expression" dxfId="66" priority="133">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C7 C9:C16">
-    <cfRule type="containsText" dxfId="56" priority="67" operator="containsText" text="高">
+  <conditionalFormatting sqref="C7 C9:C10 C12:C16">
+    <cfRule type="containsText" dxfId="65" priority="76" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C7)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C9:F9 C10:C16 J10 J7:L9 C7 D8:F8">
+  <conditionalFormatting sqref="C9:F9 C10 J10 J7:L9 C7 D8:F8 C12:C16">
+    <cfRule type="expression" dxfId="64" priority="74">
+      <formula>$I7="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="63" priority="75">
+      <formula>$I7="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32:C35 C38:C40">
+    <cfRule type="containsText" dxfId="62" priority="71" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26:B31 B32:D32 H32 A33:H35 A39:L40 B38:E38 J38 J26:J35 A36:A40">
+    <cfRule type="expression" dxfId="61" priority="69">
+      <formula>$I26="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="70">
+      <formula>$I26="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25:C31">
+    <cfRule type="containsText" dxfId="59" priority="68" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25:H30 C31 E31:H31">
+    <cfRule type="expression" dxfId="58" priority="66">
+      <formula>$I25="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="57" priority="67">
+      <formula>$I25="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="expression" dxfId="56" priority="64">
+      <formula>$I32="確認中"</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="55" priority="65">
+      <formula>$I32="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32:G32">
+    <cfRule type="expression" dxfId="54" priority="62">
+      <formula>$I32="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="53" priority="63">
+      <formula>$I32="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32">
+    <cfRule type="expression" dxfId="52" priority="60">
+      <formula>$I32="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="51" priority="61">
+      <formula>$I32="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36:C37">
+    <cfRule type="containsText" dxfId="50" priority="59" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36:H36 B37:E37 J36:J37">
+    <cfRule type="expression" dxfId="49" priority="57">
+      <formula>$I36="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="58">
+      <formula>$I36="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37:H38">
+    <cfRule type="expression" dxfId="47" priority="55">
+      <formula>$I37="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="56">
+      <formula>$I37="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K19:L31">
+    <cfRule type="expression" dxfId="45" priority="53">
+      <formula>$I19="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="54">
+      <formula>$I19="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K33:L38">
+    <cfRule type="expression" dxfId="43" priority="51">
+      <formula>$I33="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="52">
+      <formula>$I33="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
+    <cfRule type="expression" dxfId="41" priority="49">
+      <formula>$I31="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="50">
+      <formula>$I31="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="expression" dxfId="39" priority="47">
+      <formula>$I6="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="48">
+      <formula>$I6="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="expression" dxfId="37" priority="45">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="66">
+    <cfRule type="expression" dxfId="36" priority="46">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C32:C35 C38:C40">
-    <cfRule type="containsText" dxfId="53" priority="62" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B26:B31 B32:D32 H32 A33:H35 A39:L40 B38:E38 J38 J26:J35 A36:A40">
-    <cfRule type="expression" dxfId="52" priority="60">
-      <formula>$I26="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="51" priority="61">
-      <formula>$I26="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25:C31">
-    <cfRule type="containsText" dxfId="50" priority="59" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C25)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25:H30 C31 E31:H31">
-    <cfRule type="expression" dxfId="49" priority="57">
-      <formula>$I25="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="48" priority="58">
-      <formula>$I25="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="expression" dxfId="47" priority="55">
-      <formula>$I32="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="46" priority="56">
-      <formula>$I32="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F32:G32">
-    <cfRule type="expression" dxfId="45" priority="53">
-      <formula>$I32="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="44" priority="54">
-      <formula>$I32="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K32">
-    <cfRule type="expression" dxfId="43" priority="51">
-      <formula>$I32="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="52">
-      <formula>$I32="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C36:C37">
-    <cfRule type="containsText" dxfId="41" priority="50" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B36:H36 B37:E37 J36:J37">
-    <cfRule type="expression" dxfId="40" priority="48">
-      <formula>$I36="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="39" priority="49">
-      <formula>$I36="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F37:H38">
-    <cfRule type="expression" dxfId="38" priority="46">
-      <formula>$I37="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="37" priority="47">
-      <formula>$I37="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K19:L31">
-    <cfRule type="expression" dxfId="36" priority="44">
-      <formula>$I19="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="35" priority="45">
-      <formula>$I19="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K33:L38">
-    <cfRule type="expression" dxfId="34" priority="42">
-      <formula>$I33="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="43">
-      <formula>$I33="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
-    <cfRule type="expression" dxfId="32" priority="40">
-      <formula>$I31="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="31" priority="41">
-      <formula>$I31="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="30" priority="38">
+  <conditionalFormatting sqref="B5">
+    <cfRule type="expression" dxfId="35" priority="33">
+      <formula>$I5="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="34">
+      <formula>$I5="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="expression" dxfId="33" priority="37">
+      <formula>$I7="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="38">
+      <formula>$I7="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6:I6">
+    <cfRule type="expression" dxfId="31" priority="31">
       <formula>$I6="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="39">
+    <cfRule type="expression" dxfId="30" priority="32">
       <formula>$I6="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="28" priority="36">
+  <conditionalFormatting sqref="E6">
+    <cfRule type="expression" dxfId="29" priority="29">
+      <formula>$I6="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="30">
+      <formula>$I6="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5">
+    <cfRule type="expression" dxfId="27" priority="27">
+      <formula>$I5="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="28">
+      <formula>$I5="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7">
+    <cfRule type="expression" dxfId="25" priority="25">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="37">
+    <cfRule type="expression" dxfId="24" priority="26">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="26" priority="24">
-      <formula>$I5="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="25">
-      <formula>$I5="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="24" priority="28">
+  <conditionalFormatting sqref="G7:I7">
+    <cfRule type="expression" dxfId="23" priority="23">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="29">
+    <cfRule type="expression" dxfId="22" priority="24">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6:I6">
-    <cfRule type="expression" dxfId="22" priority="22">
-      <formula>$I6="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="23">
-      <formula>$I6="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="expression" dxfId="20" priority="20">
-      <formula>$I6="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="19" priority="21">
-      <formula>$I6="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J5">
+  <conditionalFormatting sqref="B8">
+    <cfRule type="expression" dxfId="21" priority="21">
+      <formula>$I8="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="22">
+      <formula>$I8="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
     <cfRule type="expression" dxfId="18" priority="18">
-      <formula>$I5="確認中"</formula>
+      <formula>$I8="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="17" priority="19">
-      <formula>$I5="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7">
+      <formula>$I8="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:I8">
     <cfRule type="expression" dxfId="16" priority="16">
+      <formula>$I8="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="17">
+      <formula>$I8="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9">
+    <cfRule type="expression" dxfId="14" priority="14">
+      <formula>$I9="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="15">
+      <formula>$I9="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9:I9">
+    <cfRule type="expression" dxfId="12" priority="12">
+      <formula>$I9="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="13">
+      <formula>$I9="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="expression" dxfId="10" priority="10">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="17">
+    <cfRule type="expression" dxfId="9" priority="11">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7:I7">
-    <cfRule type="expression" dxfId="14" priority="14">
-      <formula>$I7="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="15">
-      <formula>$I7="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="12" priority="12">
-      <formula>$I8="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="11" priority="13">
-      <formula>$I8="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="9" priority="9">
-      <formula>$I8="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="10">
-      <formula>$I8="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8:I8">
-    <cfRule type="expression" dxfId="7" priority="7">
-      <formula>$I8="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8">
-      <formula>$I8="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9">
+  <conditionalFormatting sqref="D11">
+    <cfRule type="expression" dxfId="8" priority="8">
+      <formula>$I11="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="9">
+      <formula>$I11="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
     <cfRule type="expression" dxfId="5" priority="5">
-      <formula>$I9="確認中"</formula>
+      <formula>$I11="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="6">
-      <formula>$I9="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G9:I9">
+      <formula>$I11="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11:H11">
     <cfRule type="expression" dxfId="3" priority="3">
-      <formula>$I9="確認中"</formula>
+      <formula>$I11="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="4">
-      <formula>$I9="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
+      <formula>$I11="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$I7="確認中"</formula>
+      <formula>$I11="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$I7="済み"</formula>
+      <formula>$I11="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
@@ -2508,4 +3070,70 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:Q20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="Q7" s="26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="Q14" s="26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="17:17" x14ac:dyDescent="0.4">
+      <c r="Q20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Word.Document.12" shapeId="2049" r:id="rId4">
+          <objectPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>600075</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Word.Document.12" shapeId="2049" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
+</worksheet>
 </file>
--- a/質疑表/TOYOTIRE_質疑表 _平.xlsx
+++ b/質疑表/TOYOTIRE_質疑表 _平.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="48">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -548,6 +548,26 @@
   </si>
   <si>
     <t>起票</t>
+  </si>
+  <si>
+    <t>⑤_位相ズレ解析_カスタム仕様_REV01.docx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9ページの②全周ピッチでの位相ズレ「コマンドのベース」で
+「C.V.(**)」とありますが、ACADメニュー「”Pataken” - “Other”」
+から選択できるのは、「C.V.(1 pitch)」と「C.V.(all pcs)」だけとなっております。
+「C.V.(**)」と「C.V.(all pcs)」は、同じ扱いとなりますでしょうか。</t>
+    <rPh sb="78" eb="80">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="157" eb="158">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="159" eb="160">
+      <t>アツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -825,23 +845,93 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="74">
+  <dxfs count="83">
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1478,23 +1568,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1969,8 +2046,8 @@
   </sheetPr>
   <dimension ref="A3:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1990,11 +2067,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
@@ -2223,7 +2300,7 @@
       <c r="A10" s="2">
         <v>6</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="23" t="s">
         <v>35</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -2255,7 +2332,7 @@
       <c r="A11" s="2">
         <v>7</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="23" t="s">
         <v>35</v>
       </c>
       <c r="C11" s="9" t="s">
@@ -2283,18 +2360,34 @@
       <c r="K11" s="5"/>
       <c r="L11" s="9"/>
     </row>
-    <row r="12" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" s="20" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>8</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="10"/>
+      <c r="B12" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="5">
+        <v>44757</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="J12" s="3"/>
       <c r="K12" s="5"/>
       <c r="L12" s="9"/>
@@ -2753,307 +2846,344 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="C4 C6 C17:C24 C41:C1048576">
-    <cfRule type="containsText" dxfId="73" priority="623" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="82" priority="632" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:L4 A8 A10 A12 A14 A16:B16 B25 B20:H24 A20:A32 A17:H19 L32 J19:J25 K10:L10 D10:H10 J11:L18 J6:L6 A6:D6 A3 D3:L3 A41:L1048576 D12:H16 E11 B10:B15">
-    <cfRule type="expression" dxfId="72" priority="621">
+  <conditionalFormatting sqref="A4:L4 A8 A10 A12 A14 A16:B16 B25 B20:H24 A20:A32 A17:H19 L32 J19:J25 K10:L10 D10:H10 J11:L18 J6:L6 A6:D6 A3 D3:L3 A41:L1048576 D13:H16 E11 B10:B11 B13:B15 D12:E12">
+    <cfRule type="expression" dxfId="81" priority="630">
       <formula>$I3="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="622">
+    <cfRule type="expression" dxfId="80" priority="631">
       <formula>$I3="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="containsText" dxfId="70" priority="136" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="79" priority="145" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:I5 I10 K5:L5 I12:I38">
-    <cfRule type="expression" dxfId="69" priority="134">
+  <conditionalFormatting sqref="C5:I5 I10 K5:L5 I13:I38">
+    <cfRule type="expression" dxfId="78" priority="143">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="135">
+    <cfRule type="expression" dxfId="77" priority="144">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5 A7 A9 A11 A13 A15">
-    <cfRule type="expression" dxfId="67" priority="132">
+    <cfRule type="expression" dxfId="76" priority="141">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="133">
+    <cfRule type="expression" dxfId="75" priority="142">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C7 C9:C10 C12:C16">
-    <cfRule type="containsText" dxfId="65" priority="76" operator="containsText" text="高">
+  <conditionalFormatting sqref="C7 C9:C10 C13:C16">
+    <cfRule type="containsText" dxfId="74" priority="85" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C7)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C9:F9 C10 J10 J7:L9 C7 D8:F8 C12:C16">
+  <conditionalFormatting sqref="C9:F9 C10 J10 J7:L9 C7 D8:F8 C13:C16">
+    <cfRule type="expression" dxfId="73" priority="83">
+      <formula>$I7="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="72" priority="84">
+      <formula>$I7="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32:C35 C38:C40">
+    <cfRule type="containsText" dxfId="71" priority="80" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26:B31 B32:D32 H32 A33:H35 A39:L40 B38:E38 J38 J26:J35 A36:A40">
+    <cfRule type="expression" dxfId="70" priority="78">
+      <formula>$I26="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="69" priority="79">
+      <formula>$I26="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25:C31">
+    <cfRule type="containsText" dxfId="68" priority="77" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25:H30 C31 E31:H31">
+    <cfRule type="expression" dxfId="67" priority="75">
+      <formula>$I25="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="76">
+      <formula>$I25="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="expression" dxfId="65" priority="73">
+      <formula>$I32="確認中"</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="64" priority="74">
+      <formula>$I32="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32:G32">
+    <cfRule type="expression" dxfId="63" priority="71">
+      <formula>$I32="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="72">
+      <formula>$I32="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32">
+    <cfRule type="expression" dxfId="61" priority="69">
+      <formula>$I32="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="70">
+      <formula>$I32="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36:C37">
+    <cfRule type="containsText" dxfId="59" priority="68" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36:H36 B37:E37 J36:J37">
+    <cfRule type="expression" dxfId="58" priority="66">
+      <formula>$I36="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="57" priority="67">
+      <formula>$I36="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37:H38">
+    <cfRule type="expression" dxfId="56" priority="64">
+      <formula>$I37="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="55" priority="65">
+      <formula>$I37="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K19:L31">
+    <cfRule type="expression" dxfId="54" priority="62">
+      <formula>$I19="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="53" priority="63">
+      <formula>$I19="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K33:L38">
+    <cfRule type="expression" dxfId="52" priority="60">
+      <formula>$I33="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="51" priority="61">
+      <formula>$I33="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
+    <cfRule type="expression" dxfId="50" priority="58">
+      <formula>$I31="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="49" priority="59">
+      <formula>$I31="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="expression" dxfId="48" priority="56">
+      <formula>$I6="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="47" priority="57">
+      <formula>$I6="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="expression" dxfId="46" priority="54">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="75">
+    <cfRule type="expression" dxfId="45" priority="55">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C32:C35 C38:C40">
-    <cfRule type="containsText" dxfId="62" priority="71" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B26:B31 B32:D32 H32 A33:H35 A39:L40 B38:E38 J38 J26:J35 A36:A40">
-    <cfRule type="expression" dxfId="61" priority="69">
-      <formula>$I26="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="60" priority="70">
-      <formula>$I26="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25:C31">
-    <cfRule type="containsText" dxfId="59" priority="68" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C25)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25:H30 C31 E31:H31">
-    <cfRule type="expression" dxfId="58" priority="66">
-      <formula>$I25="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="57" priority="67">
-      <formula>$I25="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="expression" dxfId="56" priority="64">
-      <formula>$I32="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="55" priority="65">
-      <formula>$I32="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F32:G32">
-    <cfRule type="expression" dxfId="54" priority="62">
-      <formula>$I32="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="53" priority="63">
-      <formula>$I32="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K32">
-    <cfRule type="expression" dxfId="52" priority="60">
-      <formula>$I32="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="51" priority="61">
-      <formula>$I32="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C36:C37">
-    <cfRule type="containsText" dxfId="50" priority="59" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B36:H36 B37:E37 J36:J37">
-    <cfRule type="expression" dxfId="49" priority="57">
-      <formula>$I36="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="48" priority="58">
-      <formula>$I36="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F37:H38">
-    <cfRule type="expression" dxfId="47" priority="55">
-      <formula>$I37="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="46" priority="56">
-      <formula>$I37="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K19:L31">
-    <cfRule type="expression" dxfId="45" priority="53">
-      <formula>$I19="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="44" priority="54">
-      <formula>$I19="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K33:L38">
-    <cfRule type="expression" dxfId="43" priority="51">
-      <formula>$I33="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="52">
-      <formula>$I33="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
-    <cfRule type="expression" dxfId="41" priority="49">
-      <formula>$I31="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="40" priority="50">
-      <formula>$I31="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="39" priority="47">
+  <conditionalFormatting sqref="B5">
+    <cfRule type="expression" dxfId="44" priority="42">
+      <formula>$I5="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="43">
+      <formula>$I5="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="expression" dxfId="42" priority="46">
+      <formula>$I7="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="41" priority="47">
+      <formula>$I7="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6:I6">
+    <cfRule type="expression" dxfId="40" priority="40">
       <formula>$I6="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="48">
+    <cfRule type="expression" dxfId="39" priority="41">
       <formula>$I6="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="37" priority="45">
+  <conditionalFormatting sqref="E6">
+    <cfRule type="expression" dxfId="38" priority="38">
+      <formula>$I6="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="39">
+      <formula>$I6="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5">
+    <cfRule type="expression" dxfId="36" priority="36">
+      <formula>$I5="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="35" priority="37">
+      <formula>$I5="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7">
+    <cfRule type="expression" dxfId="34" priority="34">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="46">
+    <cfRule type="expression" dxfId="33" priority="35">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="35" priority="33">
-      <formula>$I5="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="34">
-      <formula>$I5="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="33" priority="37">
+  <conditionalFormatting sqref="G7:I7">
+    <cfRule type="expression" dxfId="32" priority="32">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="38">
+    <cfRule type="expression" dxfId="31" priority="33">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6:I6">
-    <cfRule type="expression" dxfId="31" priority="31">
-      <formula>$I6="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="32">
-      <formula>$I6="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="expression" dxfId="29" priority="29">
-      <formula>$I6="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="30">
-      <formula>$I6="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J5">
+  <conditionalFormatting sqref="B8">
+    <cfRule type="expression" dxfId="30" priority="30">
+      <formula>$I8="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="29" priority="31">
+      <formula>$I8="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="containsText" dxfId="28" priority="29" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
     <cfRule type="expression" dxfId="27" priority="27">
-      <formula>$I5="確認中"</formula>
+      <formula>$I8="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="26" priority="28">
-      <formula>$I5="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7">
+      <formula>$I8="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:I8">
     <cfRule type="expression" dxfId="25" priority="25">
+      <formula>$I8="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="26">
+      <formula>$I8="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9">
+    <cfRule type="expression" dxfId="23" priority="23">
+      <formula>$I9="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="24">
+      <formula>$I9="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9:I9">
+    <cfRule type="expression" dxfId="21" priority="21">
+      <formula>$I9="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="22">
+      <formula>$I9="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="expression" dxfId="19" priority="19">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="26">
+    <cfRule type="expression" dxfId="18" priority="20">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7:I7">
-    <cfRule type="expression" dxfId="23" priority="23">
-      <formula>$I7="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="24">
-      <formula>$I7="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="21" priority="21">
-      <formula>$I8="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="22">
-      <formula>$I8="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="18" priority="18">
-      <formula>$I8="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="17" priority="19">
-      <formula>$I8="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8:I8">
-    <cfRule type="expression" dxfId="16" priority="16">
-      <formula>$I8="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="15" priority="17">
-      <formula>$I8="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9">
+  <conditionalFormatting sqref="D11">
+    <cfRule type="expression" dxfId="17" priority="17">
+      <formula>$I11="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="18">
+      <formula>$I11="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
+    <cfRule type="containsText" dxfId="15" priority="16" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
     <cfRule type="expression" dxfId="14" priority="14">
-      <formula>$I9="確認中"</formula>
+      <formula>$I11="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="13" priority="15">
-      <formula>$I9="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G9:I9">
+      <formula>$I11="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11:H11">
     <cfRule type="expression" dxfId="12" priority="12">
-      <formula>$I9="確認中"</formula>
+      <formula>$I11="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="11" priority="13">
-      <formula>$I9="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
+      <formula>$I11="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11">
     <cfRule type="expression" dxfId="10" priority="10">
-      <formula>$I7="確認中"</formula>
+      <formula>$I11="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="9" priority="11">
-      <formula>$I7="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
+      <formula>$I11="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12">
     <cfRule type="expression" dxfId="8" priority="8">
-      <formula>$I11="確認中"</formula>
+      <formula>$I12="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="7" priority="9">
-      <formula>$I11="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
     <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C11)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
+      <formula>NOT(ISERROR(SEARCH("高",C12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
     <cfRule type="expression" dxfId="5" priority="5">
-      <formula>$I11="確認中"</formula>
+      <formula>$I12="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="6">
-      <formula>$I11="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11:H11">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12:H12">
     <cfRule type="expression" dxfId="3" priority="3">
-      <formula>$I11="確認中"</formula>
+      <formula>$I12="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="4">
-      <formula>$I11="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I11">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$I11="確認中"</formula>
+      <formula>$I12="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$I11="済み"</formula>
+      <formula>$I12="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
@@ -3088,12 +3218,12 @@
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="Q7" s="26" t="s">
+      <c r="Q7" s="24" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="Q14" s="26" t="s">
+      <c r="Q14" s="24" t="s">
         <v>39</v>
       </c>
     </row>

--- a/質疑表/TOYOTIRE_質疑表 _平.xlsx
+++ b/質疑表/TOYOTIRE_質疑表 _平.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="50">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -566,6 +566,48 @@
     </rPh>
     <rPh sb="159" eb="160">
       <t>アツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10ページの「① 1ピッチでの位相ズレ(面積変動)解析」の表の
+「区分」が「1ピッチ」の「動作内容 2」で「Full Width」と記載されていますが、正しくは「Phase check」でよろしいでしょうか。</t>
+    <rPh sb="29" eb="30">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>クブン</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>タダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>23ページの「全周ピッチでの位相ズレ(面積変動)解析」を行う場合の位相のズレ量は、サブダイアログの「パターンの上下形状のズレ量（周方向）」で指定するということでよろしいでしょうか。</t>
+    <rPh sb="28" eb="29">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>イソウ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>シテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -861,7 +903,152 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="83">
+  <dxfs count="102">
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2046,8 +2233,8 @@
   </sheetPr>
   <dimension ref="A3:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2392,34 +2579,66 @@
       <c r="K12" s="5"/>
       <c r="L12" s="9"/>
     </row>
-    <row r="13" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" s="20" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>9</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="10"/>
+      <c r="B13" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="5">
+        <v>44761</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="J13" s="3"/>
       <c r="K13" s="5"/>
       <c r="L13" s="9"/>
     </row>
-    <row r="14" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" s="20" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="19">
         <v>10</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="10"/>
+      <c r="B14" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="5">
+        <v>44761</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="J14" s="3"/>
       <c r="K14" s="5"/>
       <c r="L14" s="9"/>
@@ -2846,344 +3065,421 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="C4 C6 C17:C24 C41:C1048576">
-    <cfRule type="containsText" dxfId="82" priority="632" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="101" priority="651" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:L4 A8 A10 A12 A14 A16:B16 B25 B20:H24 A20:A32 A17:H19 L32 J19:J25 K10:L10 D10:H10 J11:L18 J6:L6 A6:D6 A3 D3:L3 A41:L1048576 D13:H16 E11 B10:B11 B13:B15 D12:E12">
-    <cfRule type="expression" dxfId="81" priority="630">
+  <conditionalFormatting sqref="A4:L4 A8 A10 A12 A14 A16:B16 B25 B20:H24 A20:A32 A17:H19 L32 J19:J25 K10:L10 D10:H10 J11:L18 J6:L6 A6:D6 A3 D3:L3 A41:L1048576 E11 B10:B11 B15 D12:E12 D15:H16 D13:F13 E14">
+    <cfRule type="expression" dxfId="100" priority="649">
       <formula>$I3="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="631">
+    <cfRule type="expression" dxfId="99" priority="650">
       <formula>$I3="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="containsText" dxfId="79" priority="145" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="98" priority="164" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:I5 I10 K5:L5 I13:I38">
-    <cfRule type="expression" dxfId="78" priority="143">
+  <conditionalFormatting sqref="C5:I5 I10 K5:L5 I15:I38">
+    <cfRule type="expression" dxfId="97" priority="162">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="144">
+    <cfRule type="expression" dxfId="96" priority="163">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5 A7 A9 A11 A13 A15">
-    <cfRule type="expression" dxfId="76" priority="141">
+    <cfRule type="expression" dxfId="95" priority="160">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="142">
+    <cfRule type="expression" dxfId="94" priority="161">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C7 C9:C10 C13:C16">
-    <cfRule type="containsText" dxfId="74" priority="85" operator="containsText" text="高">
+  <conditionalFormatting sqref="C7 C9:C10 C13 C15:C16">
+    <cfRule type="containsText" dxfId="93" priority="104" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C7)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C9:F9 C10 J10 J7:L9 C7 D8:F8 C13:C16">
-    <cfRule type="expression" dxfId="73" priority="83">
+  <conditionalFormatting sqref="C9:F9 C10 J10 J7:L9 C7 D8:F8 C13 C15:C16">
+    <cfRule type="expression" dxfId="92" priority="102">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="84">
+    <cfRule type="expression" dxfId="91" priority="103">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:C35 C38:C40">
-    <cfRule type="containsText" dxfId="71" priority="80" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="90" priority="99" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B31 B32:D32 H32 A33:H35 A39:L40 B38:E38 J38 J26:J35 A36:A40">
-    <cfRule type="expression" dxfId="70" priority="78">
+    <cfRule type="expression" dxfId="89" priority="97">
       <formula>$I26="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="79">
+    <cfRule type="expression" dxfId="88" priority="98">
       <formula>$I26="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:C31">
-    <cfRule type="containsText" dxfId="68" priority="77" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="87" priority="96" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:H30 C31 E31:H31">
+    <cfRule type="expression" dxfId="86" priority="94">
+      <formula>$I25="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="85" priority="95">
+      <formula>$I25="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="expression" dxfId="84" priority="92">
+      <formula>$I32="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="83" priority="93">
+      <formula>$I32="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32:G32">
+    <cfRule type="expression" dxfId="82" priority="90">
+      <formula>$I32="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="81" priority="91">
+      <formula>$I32="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32">
+    <cfRule type="expression" dxfId="80" priority="88">
+      <formula>$I32="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="79" priority="89">
+      <formula>$I32="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36:C37">
+    <cfRule type="containsText" dxfId="78" priority="87" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36:H36 B37:E37 J36:J37">
+    <cfRule type="expression" dxfId="77" priority="85">
+      <formula>$I36="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="76" priority="86">
+      <formula>$I36="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37:H38">
+    <cfRule type="expression" dxfId="75" priority="83">
+      <formula>$I37="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="74" priority="84">
+      <formula>$I37="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K19:L31">
+    <cfRule type="expression" dxfId="73" priority="81">
+      <formula>$I19="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="72" priority="82">
+      <formula>$I19="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K33:L38">
+    <cfRule type="expression" dxfId="71" priority="79">
+      <formula>$I33="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="70" priority="80">
+      <formula>$I33="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
+    <cfRule type="expression" dxfId="69" priority="77">
+      <formula>$I31="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="68" priority="78">
+      <formula>$I31="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
     <cfRule type="expression" dxfId="67" priority="75">
-      <formula>$I25="確認中"</formula>
+      <formula>$I6="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="66" priority="76">
-      <formula>$I25="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
+      <formula>$I6="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
     <cfRule type="expression" dxfId="65" priority="73">
-      <formula>$I32="確認中"</formula>
+      <formula>$I7="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="64" priority="74">
-      <formula>$I32="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F32:G32">
-    <cfRule type="expression" dxfId="63" priority="71">
-      <formula>$I32="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="62" priority="72">
-      <formula>$I32="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K32">
-    <cfRule type="expression" dxfId="61" priority="69">
-      <formula>$I32="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="60" priority="70">
-      <formula>$I32="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C36:C37">
-    <cfRule type="containsText" dxfId="59" priority="68" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B36:H36 B37:E37 J36:J37">
-    <cfRule type="expression" dxfId="58" priority="66">
-      <formula>$I36="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="57" priority="67">
-      <formula>$I36="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F37:H38">
-    <cfRule type="expression" dxfId="56" priority="64">
-      <formula>$I37="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="55" priority="65">
-      <formula>$I37="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K19:L31">
-    <cfRule type="expression" dxfId="54" priority="62">
-      <formula>$I19="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="53" priority="63">
-      <formula>$I19="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K33:L38">
-    <cfRule type="expression" dxfId="52" priority="60">
-      <formula>$I33="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="51" priority="61">
-      <formula>$I33="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
-    <cfRule type="expression" dxfId="50" priority="58">
-      <formula>$I31="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="49" priority="59">
-      <formula>$I31="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="48" priority="56">
+      <formula>$I7="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5">
+    <cfRule type="expression" dxfId="63" priority="61">
+      <formula>$I5="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="62">
+      <formula>$I5="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="expression" dxfId="61" priority="65">
+      <formula>$I7="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="66">
+      <formula>$I7="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6:I6">
+    <cfRule type="expression" dxfId="59" priority="59">
       <formula>$I6="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="57">
+    <cfRule type="expression" dxfId="58" priority="60">
       <formula>$I6="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="46" priority="54">
+  <conditionalFormatting sqref="E6">
+    <cfRule type="expression" dxfId="57" priority="57">
+      <formula>$I6="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="58">
+      <formula>$I6="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5">
+    <cfRule type="expression" dxfId="55" priority="55">
+      <formula>$I5="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="56">
+      <formula>$I5="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7">
+    <cfRule type="expression" dxfId="53" priority="53">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="55">
+    <cfRule type="expression" dxfId="52" priority="54">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="44" priority="42">
-      <formula>$I5="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="43" priority="43">
-      <formula>$I5="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="42" priority="46">
+  <conditionalFormatting sqref="G7:I7">
+    <cfRule type="expression" dxfId="51" priority="51">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="47">
+    <cfRule type="expression" dxfId="50" priority="52">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6:I6">
+  <conditionalFormatting sqref="B8">
+    <cfRule type="expression" dxfId="49" priority="49">
+      <formula>$I8="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="50">
+      <formula>$I8="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="containsText" dxfId="47" priority="48" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="expression" dxfId="46" priority="46">
+      <formula>$I8="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="47">
+      <formula>$I8="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:I8">
+    <cfRule type="expression" dxfId="44" priority="44">
+      <formula>$I8="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="45">
+      <formula>$I8="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9">
+    <cfRule type="expression" dxfId="42" priority="42">
+      <formula>$I9="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="41" priority="43">
+      <formula>$I9="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9:I9">
     <cfRule type="expression" dxfId="40" priority="40">
-      <formula>$I6="確認中"</formula>
+      <formula>$I9="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="39" priority="41">
-      <formula>$I6="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+      <formula>$I9="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
     <cfRule type="expression" dxfId="38" priority="38">
-      <formula>$I6="確認中"</formula>
+      <formula>$I7="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="37" priority="39">
-      <formula>$I6="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J5">
+      <formula>$I7="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
     <cfRule type="expression" dxfId="36" priority="36">
-      <formula>$I5="確認中"</formula>
+      <formula>$I11="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="35" priority="37">
-      <formula>$I5="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7">
-    <cfRule type="expression" dxfId="34" priority="34">
-      <formula>$I7="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="35">
-      <formula>$I7="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7:I7">
-    <cfRule type="expression" dxfId="32" priority="32">
-      <formula>$I7="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="31" priority="33">
-      <formula>$I7="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="30" priority="30">
-      <formula>$I8="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="29" priority="31">
-      <formula>$I8="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="containsText" dxfId="28" priority="29" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
+      <formula>$I11="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
+    <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
+    <cfRule type="expression" dxfId="33" priority="33">
+      <formula>$I11="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="34">
+      <formula>$I11="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11:H11">
+    <cfRule type="expression" dxfId="31" priority="31">
+      <formula>$I11="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="32">
+      <formula>$I11="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11">
+    <cfRule type="expression" dxfId="29" priority="29">
+      <formula>$I11="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="30">
+      <formula>$I11="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12">
     <cfRule type="expression" dxfId="27" priority="27">
-      <formula>$I8="確認中"</formula>
+      <formula>$I12="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="26" priority="28">
-      <formula>$I8="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8:I8">
-    <cfRule type="expression" dxfId="25" priority="25">
-      <formula>$I8="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="26">
-      <formula>$I8="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="23" priority="23">
-      <formula>$I9="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="24">
-      <formula>$I9="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G9:I9">
-    <cfRule type="expression" dxfId="21" priority="21">
-      <formula>$I9="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="22">
-      <formula>$I9="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="expression" dxfId="19" priority="19">
-      <formula>$I7="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="20">
-      <formula>$I7="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="17" priority="17">
-      <formula>$I11="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="18">
-      <formula>$I11="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
-    <cfRule type="containsText" dxfId="15" priority="16" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C11)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="containsText" dxfId="25" priority="26" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="expression" dxfId="24" priority="24">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="23" priority="25">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12:H12">
+    <cfRule type="expression" dxfId="22" priority="22">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="23">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12">
+    <cfRule type="expression" dxfId="20" priority="20">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="21">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13">
+    <cfRule type="expression" dxfId="18" priority="18">
+      <formula>$I13="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="19">
+      <formula>$I13="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13:H13">
+    <cfRule type="expression" dxfId="16" priority="16">
+      <formula>$I13="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="17">
+      <formula>$I13="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
     <cfRule type="expression" dxfId="14" priority="14">
-      <formula>$I11="確認中"</formula>
+      <formula>$I13="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="13" priority="15">
-      <formula>$I11="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11:H11">
+      <formula>$I13="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
     <cfRule type="expression" dxfId="12" priority="12">
-      <formula>$I11="確認中"</formula>
+      <formula>$I14="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="11" priority="13">
-      <formula>$I11="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I11">
-    <cfRule type="expression" dxfId="10" priority="10">
-      <formula>$I11="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="11">
-      <formula>$I11="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12">
-    <cfRule type="expression" dxfId="8" priority="8">
-      <formula>$I12="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="9">
-      <formula>$I12="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
+      <formula>$I14="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="expression" dxfId="9" priority="9">
+      <formula>$I14="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="10">
+      <formula>$I14="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14">
+    <cfRule type="expression" dxfId="7" priority="7">
+      <formula>$I14="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="8">
+      <formula>$I14="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
     <cfRule type="expression" dxfId="5" priority="5">
-      <formula>$I12="確認中"</formula>
+      <formula>$I14="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="6">
-      <formula>$I12="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F12:H12">
+      <formula>$I14="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14:H14">
     <cfRule type="expression" dxfId="3" priority="3">
-      <formula>$I12="確認中"</formula>
+      <formula>$I14="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="4">
-      <formula>$I12="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I12">
+      <formula>$I14="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$I12="確認中"</formula>
+      <formula>$I14="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$I12="済み"</formula>
+      <formula>$I14="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">

--- a/質疑表/TOYOTIRE_質疑表 _平.xlsx
+++ b/質疑表/TOYOTIRE_質疑表 _平.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="53">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -608,6 +608,63 @@
     </rPh>
     <rPh sb="70" eb="72">
       <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①_円弧配列_カスタム仕様書.docx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>26ページの「刻印文字登録」画面で設定する「Font name」と「Font Category1」は、文字のデザイン作成時に設定されているか、もしくは、同画面での登録となるのか何れでしょうか。</t>
+    <rPh sb="7" eb="9">
+      <t>コクイン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="58" eb="61">
+      <t>サクセイジ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>ドウ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>イズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>26ページの「刻印文字登録」画面で設定する「Unit」は、どのような条件で、どのような値を設定すればよろしいでしょうか。</t>
+    <rPh sb="34" eb="36">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>セッテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -903,7 +960,152 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="102">
+  <dxfs count="121">
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2233,8 +2435,8 @@
   </sheetPr>
   <dimension ref="A3:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2643,34 +2845,66 @@
       <c r="K14" s="5"/>
       <c r="L14" s="9"/>
     </row>
-    <row r="15" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="19">
         <v>11</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="10"/>
+      <c r="B15" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="5">
+        <v>44782</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="J15" s="3"/>
       <c r="K15" s="5"/>
       <c r="L15" s="9"/>
     </row>
-    <row r="16" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" s="20" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="19">
         <v>12</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="10"/>
+      <c r="B16" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="5">
+        <v>44782</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="J16" s="3"/>
       <c r="K16" s="5"/>
       <c r="L16" s="9"/>
@@ -3065,421 +3299,498 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="C4 C6 C17:C24 C41:C1048576">
-    <cfRule type="containsText" dxfId="101" priority="651" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="120" priority="670" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:L4 A8 A10 A12 A14 A16:B16 B25 B20:H24 A20:A32 A17:H19 L32 J19:J25 K10:L10 D10:H10 J11:L18 J6:L6 A6:D6 A3 D3:L3 A41:L1048576 E11 B10:B11 B15 D12:E12 D15:H16 D13:F13 E14">
-    <cfRule type="expression" dxfId="100" priority="649">
+  <conditionalFormatting sqref="A4:L4 A8 A10 A12 A14 A16 B25 B20:H24 A20:A32 A17:H19 L32 J19:J25 K10:L10 D10:H10 J11:L18 J6:L6 A6:D6 A3 D3:L3 A41:L1048576 E11 B10:B11 D12:E12 E16 D13:F13 E14 D15:F15">
+    <cfRule type="expression" dxfId="119" priority="668">
       <formula>$I3="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="650">
+    <cfRule type="expression" dxfId="118" priority="669">
       <formula>$I3="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="containsText" dxfId="98" priority="164" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="117" priority="183" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:I5 I10 K5:L5 I15:I38">
-    <cfRule type="expression" dxfId="97" priority="162">
+  <conditionalFormatting sqref="C5:I5 I10 K5:L5 I17:I38">
+    <cfRule type="expression" dxfId="116" priority="181">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="163">
+    <cfRule type="expression" dxfId="115" priority="182">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5 A7 A9 A11 A13 A15">
-    <cfRule type="expression" dxfId="95" priority="160">
+    <cfRule type="expression" dxfId="114" priority="179">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="161">
+    <cfRule type="expression" dxfId="113" priority="180">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C7 C9:C10 C13 C15:C16">
-    <cfRule type="containsText" dxfId="93" priority="104" operator="containsText" text="高">
+  <conditionalFormatting sqref="C7 C9:C10 C13 C15">
+    <cfRule type="containsText" dxfId="112" priority="123" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C7)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C9:F9 C10 J10 J7:L9 C7 D8:F8 C13 C15:C16">
-    <cfRule type="expression" dxfId="92" priority="102">
+  <conditionalFormatting sqref="C9:F9 C10 J10 J7:L9 C7 D8:F8 C13 C15">
+    <cfRule type="expression" dxfId="111" priority="121">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="103">
+    <cfRule type="expression" dxfId="110" priority="122">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:C35 C38:C40">
-    <cfRule type="containsText" dxfId="90" priority="99" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="109" priority="118" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B31 B32:D32 H32 A33:H35 A39:L40 B38:E38 J38 J26:J35 A36:A40">
-    <cfRule type="expression" dxfId="89" priority="97">
+    <cfRule type="expression" dxfId="108" priority="116">
       <formula>$I26="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="98">
+    <cfRule type="expression" dxfId="107" priority="117">
       <formula>$I26="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:C31">
-    <cfRule type="containsText" dxfId="87" priority="96" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="106" priority="115" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:H30 C31 E31:H31">
+    <cfRule type="expression" dxfId="105" priority="113">
+      <formula>$I25="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="104" priority="114">
+      <formula>$I25="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="expression" dxfId="103" priority="111">
+      <formula>$I32="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="102" priority="112">
+      <formula>$I32="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32:G32">
+    <cfRule type="expression" dxfId="101" priority="109">
+      <formula>$I32="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="100" priority="110">
+      <formula>$I32="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32">
+    <cfRule type="expression" dxfId="99" priority="107">
+      <formula>$I32="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="98" priority="108">
+      <formula>$I32="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36:C37">
+    <cfRule type="containsText" dxfId="97" priority="106" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36:H36 B37:E37 J36:J37">
+    <cfRule type="expression" dxfId="96" priority="104">
+      <formula>$I36="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="95" priority="105">
+      <formula>$I36="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37:H38">
+    <cfRule type="expression" dxfId="94" priority="102">
+      <formula>$I37="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="93" priority="103">
+      <formula>$I37="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K19:L31">
+    <cfRule type="expression" dxfId="92" priority="100">
+      <formula>$I19="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="91" priority="101">
+      <formula>$I19="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K33:L38">
+    <cfRule type="expression" dxfId="90" priority="98">
+      <formula>$I33="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="89" priority="99">
+      <formula>$I33="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
+    <cfRule type="expression" dxfId="88" priority="96">
+      <formula>$I31="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="87" priority="97">
+      <formula>$I31="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
     <cfRule type="expression" dxfId="86" priority="94">
-      <formula>$I25="確認中"</formula>
+      <formula>$I6="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="85" priority="95">
-      <formula>$I25="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
+      <formula>$I6="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
     <cfRule type="expression" dxfId="84" priority="92">
-      <formula>$I32="確認中"</formula>
+      <formula>$I7="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="83" priority="93">
-      <formula>$I32="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F32:G32">
-    <cfRule type="expression" dxfId="82" priority="90">
-      <formula>$I32="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="81" priority="91">
-      <formula>$I32="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K32">
-    <cfRule type="expression" dxfId="80" priority="88">
-      <formula>$I32="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="79" priority="89">
-      <formula>$I32="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C36:C37">
-    <cfRule type="containsText" dxfId="78" priority="87" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B36:H36 B37:E37 J36:J37">
-    <cfRule type="expression" dxfId="77" priority="85">
-      <formula>$I36="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="76" priority="86">
-      <formula>$I36="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F37:H38">
-    <cfRule type="expression" dxfId="75" priority="83">
-      <formula>$I37="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="74" priority="84">
-      <formula>$I37="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K19:L31">
-    <cfRule type="expression" dxfId="73" priority="81">
-      <formula>$I19="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="72" priority="82">
-      <formula>$I19="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K33:L38">
-    <cfRule type="expression" dxfId="71" priority="79">
-      <formula>$I33="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="70" priority="80">
-      <formula>$I33="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
-    <cfRule type="expression" dxfId="69" priority="77">
-      <formula>$I31="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="68" priority="78">
-      <formula>$I31="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="67" priority="75">
+      <formula>$I7="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5">
+    <cfRule type="expression" dxfId="82" priority="80">
+      <formula>$I5="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="81" priority="81">
+      <formula>$I5="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="expression" dxfId="80" priority="84">
+      <formula>$I7="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="79" priority="85">
+      <formula>$I7="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6:I6">
+    <cfRule type="expression" dxfId="78" priority="78">
       <formula>$I6="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="76">
+    <cfRule type="expression" dxfId="77" priority="79">
       <formula>$I6="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="65" priority="73">
+  <conditionalFormatting sqref="E6">
+    <cfRule type="expression" dxfId="76" priority="76">
+      <formula>$I6="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="75" priority="77">
+      <formula>$I6="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5">
+    <cfRule type="expression" dxfId="74" priority="74">
+      <formula>$I5="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="73" priority="75">
+      <formula>$I5="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7">
+    <cfRule type="expression" dxfId="72" priority="72">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="74">
+    <cfRule type="expression" dxfId="71" priority="73">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="63" priority="61">
-      <formula>$I5="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="62" priority="62">
-      <formula>$I5="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="61" priority="65">
+  <conditionalFormatting sqref="G7:I7">
+    <cfRule type="expression" dxfId="70" priority="70">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="66">
+    <cfRule type="expression" dxfId="69" priority="71">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6:I6">
+  <conditionalFormatting sqref="B8">
+    <cfRule type="expression" dxfId="68" priority="68">
+      <formula>$I8="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="67" priority="69">
+      <formula>$I8="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="containsText" dxfId="66" priority="67" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="expression" dxfId="65" priority="65">
+      <formula>$I8="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="64" priority="66">
+      <formula>$I8="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:I8">
+    <cfRule type="expression" dxfId="63" priority="63">
+      <formula>$I8="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="64">
+      <formula>$I8="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9">
+    <cfRule type="expression" dxfId="61" priority="61">
+      <formula>$I9="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="62">
+      <formula>$I9="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9:I9">
     <cfRule type="expression" dxfId="59" priority="59">
-      <formula>$I6="確認中"</formula>
+      <formula>$I9="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="58" priority="60">
-      <formula>$I6="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+      <formula>$I9="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
     <cfRule type="expression" dxfId="57" priority="57">
-      <formula>$I6="確認中"</formula>
+      <formula>$I7="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="56" priority="58">
-      <formula>$I6="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J5">
+      <formula>$I7="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
     <cfRule type="expression" dxfId="55" priority="55">
-      <formula>$I5="確認中"</formula>
+      <formula>$I11="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="54" priority="56">
-      <formula>$I5="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7">
-    <cfRule type="expression" dxfId="53" priority="53">
-      <formula>$I7="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="52" priority="54">
-      <formula>$I7="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7:I7">
-    <cfRule type="expression" dxfId="51" priority="51">
-      <formula>$I7="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="50" priority="52">
-      <formula>$I7="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="49" priority="49">
-      <formula>$I8="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="48" priority="50">
-      <formula>$I8="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="containsText" dxfId="47" priority="48" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
+      <formula>$I11="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
+    <cfRule type="containsText" dxfId="53" priority="54" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
+    <cfRule type="expression" dxfId="52" priority="52">
+      <formula>$I11="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="51" priority="53">
+      <formula>$I11="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11:H11">
+    <cfRule type="expression" dxfId="50" priority="50">
+      <formula>$I11="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="49" priority="51">
+      <formula>$I11="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11">
+    <cfRule type="expression" dxfId="48" priority="48">
+      <formula>$I11="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="47" priority="49">
+      <formula>$I11="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12">
     <cfRule type="expression" dxfId="46" priority="46">
-      <formula>$I8="確認中"</formula>
+      <formula>$I12="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="45" priority="47">
-      <formula>$I8="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8:I8">
-    <cfRule type="expression" dxfId="44" priority="44">
-      <formula>$I8="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="43" priority="45">
-      <formula>$I8="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="42" priority="42">
-      <formula>$I9="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="41" priority="43">
-      <formula>$I9="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G9:I9">
-    <cfRule type="expression" dxfId="40" priority="40">
-      <formula>$I9="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="39" priority="41">
-      <formula>$I9="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="expression" dxfId="38" priority="38">
-      <formula>$I7="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="37" priority="39">
-      <formula>$I7="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="36" priority="36">
-      <formula>$I11="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="35" priority="37">
-      <formula>$I11="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
-    <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C11)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="containsText" dxfId="44" priority="45" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="expression" dxfId="43" priority="43">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="44">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12:H12">
+    <cfRule type="expression" dxfId="41" priority="41">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="42">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12">
+    <cfRule type="expression" dxfId="39" priority="39">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="40">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13">
+    <cfRule type="expression" dxfId="37" priority="37">
+      <formula>$I13="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="38">
+      <formula>$I13="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13:H13">
+    <cfRule type="expression" dxfId="35" priority="35">
+      <formula>$I13="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="36">
+      <formula>$I13="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
     <cfRule type="expression" dxfId="33" priority="33">
-      <formula>$I11="確認中"</formula>
+      <formula>$I13="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="32" priority="34">
-      <formula>$I11="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11:H11">
+      <formula>$I13="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
     <cfRule type="expression" dxfId="31" priority="31">
-      <formula>$I11="確認中"</formula>
+      <formula>$I14="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="30" priority="32">
-      <formula>$I11="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I11">
-    <cfRule type="expression" dxfId="29" priority="29">
-      <formula>$I11="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="30">
-      <formula>$I11="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12">
-    <cfRule type="expression" dxfId="27" priority="27">
-      <formula>$I12="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="28">
-      <formula>$I12="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="containsText" dxfId="25" priority="26" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
+      <formula>$I14="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="containsText" dxfId="29" priority="30" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="expression" dxfId="28" priority="28">
+      <formula>$I14="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="29">
+      <formula>$I14="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14">
+    <cfRule type="expression" dxfId="26" priority="26">
+      <formula>$I14="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="27">
+      <formula>$I14="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
     <cfRule type="expression" dxfId="24" priority="24">
-      <formula>$I12="確認中"</formula>
+      <formula>$I14="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="23" priority="25">
-      <formula>$I12="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F12:H12">
+      <formula>$I14="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14:H14">
     <cfRule type="expression" dxfId="22" priority="22">
-      <formula>$I12="確認中"</formula>
+      <formula>$I14="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="21" priority="23">
-      <formula>$I12="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I12">
+      <formula>$I14="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14">
     <cfRule type="expression" dxfId="20" priority="20">
-      <formula>$I12="確認中"</formula>
+      <formula>$I14="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="19" priority="21">
-      <formula>$I12="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B13">
+      <formula>$I14="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15">
     <cfRule type="expression" dxfId="18" priority="18">
-      <formula>$I13="確認中"</formula>
+      <formula>$I15="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="17" priority="19">
-      <formula>$I13="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G13:H13">
+      <formula>$I15="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15:H15">
     <cfRule type="expression" dxfId="16" priority="16">
-      <formula>$I13="確認中"</formula>
+      <formula>$I15="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="15" priority="17">
-      <formula>$I13="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
+      <formula>$I15="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
     <cfRule type="expression" dxfId="14" priority="14">
-      <formula>$I13="確認中"</formula>
+      <formula>$I15="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="13" priority="15">
-      <formula>$I13="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
+      <formula>$I15="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
     <cfRule type="expression" dxfId="12" priority="12">
-      <formula>$I14="確認中"</formula>
+      <formula>$I16="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="11" priority="13">
-      <formula>$I14="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
+      <formula>$I16="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
     <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C14)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
+      <formula>NOT(ISERROR(SEARCH("高",C16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
     <cfRule type="expression" dxfId="9" priority="9">
-      <formula>$I14="確認中"</formula>
+      <formula>$I16="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="8" priority="10">
-      <formula>$I14="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
+      <formula>$I16="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16">
     <cfRule type="expression" dxfId="7" priority="7">
-      <formula>$I14="確認中"</formula>
+      <formula>$I16="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="6" priority="8">
-      <formula>$I14="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
+      <formula>$I16="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16">
     <cfRule type="expression" dxfId="5" priority="5">
-      <formula>$I14="確認中"</formula>
+      <formula>$I16="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="6">
-      <formula>$I14="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G14:H14">
+      <formula>$I16="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16:H16">
     <cfRule type="expression" dxfId="3" priority="3">
-      <formula>$I14="確認中"</formula>
+      <formula>$I16="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="4">
-      <formula>$I14="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I14">
+      <formula>$I16="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$I14="確認中"</formula>
+      <formula>$I16="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$I14="済み"</formula>
+      <formula>$I16="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">

--- a/質疑表/TOYOTIRE_質疑表 _平.xlsx
+++ b/質疑表/TOYOTIRE_質疑表 _平.xlsx
@@ -14,6 +14,8 @@
   <sheets>
     <sheet name="障害・要望管理表（今後はこちらに起票）" sheetId="24" r:id="rId1"/>
     <sheet name="No6、No7" sheetId="25" r:id="rId2"/>
+    <sheet name="No13" sheetId="26" r:id="rId3"/>
+    <sheet name="No16" sheetId="27" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_Toc99549776" localSheetId="0">'障害・要望管理表（今後はこちらに起票）'!$E$7</definedName>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="63">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -664,6 +666,279 @@
       <t>アタイ</t>
     </rPh>
     <rPh sb="45" eb="47">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2022/7/29
+データ提供依頼中
+インプットとアウトプットのデータ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2022/7/29
+データ提供依頼中
+インプットとアウトプットのデータ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「刻印文字登録」をする際は、「Font name」と「Font Category1」は、デザイングループで決めておいて画面で登録するになります。
+「Font name」は、Excel業務表の方で番号習得し、登録時入力
+「Font Category1」は、登録時、デザイングループでどれに属するか選択しております。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「Unit」は、登録者の部署を示しています。
+　登録時に入力となります。　
+　MD(モールドデザイン)グループの場合　Mを入力します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>18ページの「③ ラベリングの各種操作」「・配置」を行った際に表示されるパラメータの内の「Mold flag」は、基準線作成時の両側、片側を示していますのでしょうか。
+別紙「No13」シートの図の赤枠部分のパラメータになります。</t>
+    <rPh sb="22" eb="24">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ウチ</t>
+    </rPh>
+    <rPh sb="57" eb="60">
+      <t>キジュンセン</t>
+    </rPh>
+    <rPh sb="60" eb="63">
+      <t>サクセイジ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>リョウガワ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>カタガワ</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>シメ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>ベッシ</t>
+    </rPh>
+    <rPh sb="96" eb="97">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>アカワク</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>ブブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10ページの「① 基本配置設定」に、基準線作成時の両側、片側の選択についての記載がありますが、どのような手順で選択すればよろしいでしょうか。
+また、片側を選択した場合のピクチャーは、選択したTopまたはBottomのみのピクチャーが生成されるのでしょうか。</t>
+    <rPh sb="18" eb="21">
+      <t>キジュンセン</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>サクセイジ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>カタガワ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="116" eb="118">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12ページの「Mold number」の登録につきまして、画面サンプルにありますように「Type」が「区分2（1桁）+番号」の場合、表示されているデザインでDBの登録されているテンプレートモデル（HE005901）に対して、「Category」と「Number」のテキストBOXで入力された文字に対応する（あらかじめDB登録されている）文字で置換するということでよろしいでしょうか。</t>
+    <rPh sb="20" eb="22">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>クブン</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ケタ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="108" eb="109">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="140" eb="142">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="145" eb="147">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="148" eb="150">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="160" eb="162">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="171" eb="173">
+      <t>チカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8ページの表の「呼出」-「編集文字」-「Character search」-「Editing “CH”２」で表示される画面は、1文字の編集文字を呼び出す目的のものでしょうか。
+別紙「No16」シートに同画面のキャプチャを表示しています。</t>
+    <rPh sb="5" eb="6">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>モクテキ</t>
+    </rPh>
+    <rPh sb="100" eb="101">
+      <t>ドウ</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1文字の編集文字を作成・DB登録する場合、25～28ページの「２）刻印文字、編集文字の扱い」に記載されている手順でよろしいでしょうか。</t>
+    <rPh sb="1" eb="3">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>テジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上記No16の続きの質問ですが、別紙「No16」シートの画面で文字を検索する際に緑枠のテキストBOXには「フォント名」を入力しますが、赤枠のテキストBOX（Primitive character code）には、どのような値を設定すればよろしいでしょうか。</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ツヅ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ミドリワク</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>アカワク</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="113" eb="115">
       <t>セッテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -960,7 +1235,562 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="121">
+  <dxfs count="193">
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2162,6 +2992,289 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="5" name="グループ化 4"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="695325" y="238125"/>
+          <a:ext cx="5486400" cy="1171575"/>
+          <a:chOff x="695325" y="238125"/>
+          <a:chExt cx="5486400" cy="1171575"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="2" name="図 1"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="695325" y="238125"/>
+            <a:ext cx="5486400" cy="1171575"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2486026" y="657225"/>
+            <a:ext cx="1485900" cy="200025"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="5" name="グループ化 4"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5991225" cy="7486650"/>
+          <a:chOff x="0" y="0"/>
+          <a:chExt cx="5991225" cy="7486650"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="2" name="図 1"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="5991225" cy="7486650"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1590675" y="1038225"/>
+            <a:ext cx="981075" cy="247650"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4562475" y="1028700"/>
+            <a:ext cx="857250" cy="238125"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2435,8 +3548,8 @@
   </sheetPr>
   <dimension ref="A3:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2713,7 +3826,9 @@
       <c r="I10" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="J10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="K10" s="5"/>
       <c r="L10" s="9"/>
     </row>
@@ -2745,7 +3860,9 @@
       <c r="I11" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="J11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="K11" s="5"/>
       <c r="L11" s="9"/>
     </row>
@@ -2845,7 +3962,7 @@
       <c r="K14" s="5"/>
       <c r="L14" s="9"/>
     </row>
-    <row r="15" spans="1:12" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" s="20" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="19">
         <v>11</v>
       </c>
@@ -2871,13 +3988,15 @@
         <v>10</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="J15" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="K15" s="5"/>
       <c r="L15" s="9"/>
     </row>
-    <row r="16" spans="1:12" s="20" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" s="20" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="19">
         <v>12</v>
       </c>
@@ -2903,104 +4022,202 @@
         <v>10</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="J16" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="K16" s="5"/>
       <c r="L16" s="9"/>
     </row>
-    <row r="17" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" s="20" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="19">
         <v>13</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="10"/>
+      <c r="B17" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="5">
+        <v>44795</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="J17" s="3"/>
       <c r="K17" s="5"/>
       <c r="L17" s="9"/>
     </row>
-    <row r="18" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" s="20" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="19">
         <v>14</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="10"/>
+      <c r="B18" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="5">
+        <v>44795</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="J18" s="3"/>
       <c r="K18" s="5"/>
       <c r="L18" s="9"/>
     </row>
-    <row r="19" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" s="20" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>15</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="10"/>
+      <c r="B19" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="5">
+        <v>44796</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="J19" s="3"/>
       <c r="K19" s="5"/>
       <c r="L19" s="9"/>
     </row>
-    <row r="20" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" s="20" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>16</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="10"/>
+      <c r="B20" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="5">
+        <v>44796</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="J20" s="3"/>
       <c r="K20" s="5"/>
       <c r="L20" s="9"/>
     </row>
-    <row r="21" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12" s="20" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>17</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="10"/>
+      <c r="B21" s="23">
+        <v>16</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="5">
+        <v>44796</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="J21" s="3"/>
       <c r="K21" s="5"/>
       <c r="L21" s="9"/>
     </row>
-    <row r="22" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12" s="20" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>18</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="10"/>
+      <c r="B22" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="5">
+        <v>44796</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="J22" s="3"/>
       <c r="K22" s="5"/>
       <c r="L22" s="9"/>
@@ -3298,499 +4515,793 @@
     <mergeCell ref="A3:C3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="C4 C6 C17:C24 C41:C1048576">
-    <cfRule type="containsText" dxfId="120" priority="670" operator="containsText" text="高">
+  <conditionalFormatting sqref="C4 C6 C41:C1048576 C23:C24">
+    <cfRule type="containsText" dxfId="192" priority="748" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:L4 A8 A10 A12 A14 A16 B25 B20:H24 A20:A32 A17:H19 L32 J19:J25 K10:L10 D10:H10 J11:L18 J6:L6 A6:D6 A3 D3:L3 A41:L1048576 E11 B10:B11 D12:E12 E16 D13:F13 E14 D15:F15">
-    <cfRule type="expression" dxfId="119" priority="668">
+  <conditionalFormatting sqref="A4:L4 A8 A10 A12 A14 B25 L32 J19:J25 K10:L10 D10:H10 J11:L18 J6:L6 A6:D6 A3 D3:L3 A41:L1048576 E11 B10:B11 D12:E12 D13:F13 E14 D15:F15 A16:A32 E16:E20 B23:H24">
+    <cfRule type="expression" dxfId="191" priority="746">
       <formula>$I3="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="669">
+    <cfRule type="expression" dxfId="190" priority="747">
       <formula>$I3="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="containsText" dxfId="117" priority="183" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="189" priority="261" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:I5 I10 K5:L5 I17:I38">
-    <cfRule type="expression" dxfId="116" priority="181">
+  <conditionalFormatting sqref="C5:I5 I10 K5:L5 I23:I38">
+    <cfRule type="expression" dxfId="188" priority="259">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="182">
+    <cfRule type="expression" dxfId="187" priority="260">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5 A7 A9 A11 A13 A15">
-    <cfRule type="expression" dxfId="114" priority="179">
+    <cfRule type="expression" dxfId="186" priority="257">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="180">
+    <cfRule type="expression" dxfId="185" priority="258">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7 C9:C10 C13 C15">
-    <cfRule type="containsText" dxfId="112" priority="123" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="184" priority="201" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:F9 C10 J10 J7:L9 C7 D8:F8 C13 C15">
-    <cfRule type="expression" dxfId="111" priority="121">
+    <cfRule type="expression" dxfId="183" priority="199">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="122">
+    <cfRule type="expression" dxfId="182" priority="200">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:C35 C38:C40">
-    <cfRule type="containsText" dxfId="109" priority="118" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="181" priority="196" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B31 B32:D32 H32 A33:H35 A39:L40 B38:E38 J38 J26:J35 A36:A40">
+    <cfRule type="expression" dxfId="180" priority="194">
+      <formula>$I26="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="179" priority="195">
+      <formula>$I26="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25:C31">
+    <cfRule type="containsText" dxfId="178" priority="193" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25:H30 C31 E31:H31">
+    <cfRule type="expression" dxfId="177" priority="191">
+      <formula>$I25="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="176" priority="192">
+      <formula>$I25="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="expression" dxfId="175" priority="189">
+      <formula>$I32="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="174" priority="190">
+      <formula>$I32="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32:G32">
+    <cfRule type="expression" dxfId="173" priority="187">
+      <formula>$I32="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="172" priority="188">
+      <formula>$I32="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32">
+    <cfRule type="expression" dxfId="171" priority="185">
+      <formula>$I32="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="170" priority="186">
+      <formula>$I32="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36:C37">
+    <cfRule type="containsText" dxfId="169" priority="184" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36:H36 B37:E37 J36:J37">
+    <cfRule type="expression" dxfId="168" priority="182">
+      <formula>$I36="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="167" priority="183">
+      <formula>$I36="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37:H38">
+    <cfRule type="expression" dxfId="166" priority="180">
+      <formula>$I37="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="165" priority="181">
+      <formula>$I37="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K19:L31">
+    <cfRule type="expression" dxfId="164" priority="178">
+      <formula>$I19="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="163" priority="179">
+      <formula>$I19="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K33:L38">
+    <cfRule type="expression" dxfId="162" priority="176">
+      <formula>$I33="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="161" priority="177">
+      <formula>$I33="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
+    <cfRule type="expression" dxfId="160" priority="174">
+      <formula>$I31="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="159" priority="175">
+      <formula>$I31="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="expression" dxfId="158" priority="172">
+      <formula>$I6="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="157" priority="173">
+      <formula>$I6="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="expression" dxfId="156" priority="170">
+      <formula>$I7="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="155" priority="171">
+      <formula>$I7="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5">
+    <cfRule type="expression" dxfId="154" priority="158">
+      <formula>$I5="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="153" priority="159">
+      <formula>$I5="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="expression" dxfId="152" priority="162">
+      <formula>$I7="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="151" priority="163">
+      <formula>$I7="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6:I6">
+    <cfRule type="expression" dxfId="150" priority="156">
+      <formula>$I6="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="149" priority="157">
+      <formula>$I6="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="expression" dxfId="148" priority="154">
+      <formula>$I6="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="147" priority="155">
+      <formula>$I6="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5">
+    <cfRule type="expression" dxfId="146" priority="152">
+      <formula>$I5="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="145" priority="153">
+      <formula>$I5="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7">
+    <cfRule type="expression" dxfId="144" priority="150">
+      <formula>$I7="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="143" priority="151">
+      <formula>$I7="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7:I7">
+    <cfRule type="expression" dxfId="142" priority="148">
+      <formula>$I7="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="141" priority="149">
+      <formula>$I7="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8">
+    <cfRule type="expression" dxfId="140" priority="146">
+      <formula>$I8="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="139" priority="147">
+      <formula>$I8="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="containsText" dxfId="138" priority="145" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="expression" dxfId="137" priority="143">
+      <formula>$I8="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="136" priority="144">
+      <formula>$I8="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:I8">
+    <cfRule type="expression" dxfId="135" priority="141">
+      <formula>$I8="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="134" priority="142">
+      <formula>$I8="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9">
+    <cfRule type="expression" dxfId="133" priority="139">
+      <formula>$I9="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="132" priority="140">
+      <formula>$I9="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9:I9">
+    <cfRule type="expression" dxfId="131" priority="137">
+      <formula>$I9="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="130" priority="138">
+      <formula>$I9="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="expression" dxfId="129" priority="135">
+      <formula>$I7="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="128" priority="136">
+      <formula>$I7="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="expression" dxfId="127" priority="133">
+      <formula>$I11="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="126" priority="134">
+      <formula>$I11="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
+    <cfRule type="containsText" dxfId="125" priority="132" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
+    <cfRule type="expression" dxfId="124" priority="130">
+      <formula>$I11="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="123" priority="131">
+      <formula>$I11="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11:H11">
+    <cfRule type="expression" dxfId="122" priority="128">
+      <formula>$I11="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="121" priority="129">
+      <formula>$I11="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11">
+    <cfRule type="expression" dxfId="120" priority="126">
+      <formula>$I11="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="119" priority="127">
+      <formula>$I11="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12">
+    <cfRule type="expression" dxfId="118" priority="124">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="117" priority="125">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="containsText" dxfId="116" priority="123" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="expression" dxfId="115" priority="121">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="114" priority="122">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12:H12">
+    <cfRule type="expression" dxfId="113" priority="119">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="112" priority="120">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12">
+    <cfRule type="expression" dxfId="111" priority="117">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="110" priority="118">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13">
+    <cfRule type="expression" dxfId="109" priority="115">
+      <formula>$I13="確認中"</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="108" priority="116">
-      <formula>$I26="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="107" priority="117">
-      <formula>$I26="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25:C31">
-    <cfRule type="containsText" dxfId="106" priority="115" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C25)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25:H30 C31 E31:H31">
-    <cfRule type="expression" dxfId="105" priority="113">
-      <formula>$I25="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="104" priority="114">
-      <formula>$I25="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="expression" dxfId="103" priority="111">
-      <formula>$I32="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="102" priority="112">
-      <formula>$I32="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F32:G32">
-    <cfRule type="expression" dxfId="101" priority="109">
-      <formula>$I32="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="100" priority="110">
-      <formula>$I32="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K32">
+      <formula>$I13="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13:H13">
+    <cfRule type="expression" dxfId="107" priority="113">
+      <formula>$I13="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="106" priority="114">
+      <formula>$I13="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="expression" dxfId="105" priority="111">
+      <formula>$I13="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="104" priority="112">
+      <formula>$I13="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="expression" dxfId="103" priority="109">
+      <formula>$I14="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="102" priority="110">
+      <formula>$I14="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="containsText" dxfId="101" priority="108" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="expression" dxfId="100" priority="106">
+      <formula>$I14="確認中"</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="99" priority="107">
-      <formula>$I32="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="98" priority="108">
-      <formula>$I32="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C36:C37">
-    <cfRule type="containsText" dxfId="97" priority="106" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B36:H36 B37:E37 J36:J37">
-    <cfRule type="expression" dxfId="96" priority="104">
-      <formula>$I36="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="95" priority="105">
-      <formula>$I36="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F37:H38">
-    <cfRule type="expression" dxfId="94" priority="102">
-      <formula>$I37="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="93" priority="103">
-      <formula>$I37="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K19:L31">
-    <cfRule type="expression" dxfId="92" priority="100">
+      <formula>$I14="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14">
+    <cfRule type="expression" dxfId="98" priority="104">
+      <formula>$I14="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="97" priority="105">
+      <formula>$I14="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
+    <cfRule type="expression" dxfId="96" priority="102">
+      <formula>$I14="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="95" priority="103">
+      <formula>$I14="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14:H14">
+    <cfRule type="expression" dxfId="94" priority="100">
+      <formula>$I14="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="93" priority="101">
+      <formula>$I14="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14">
+    <cfRule type="expression" dxfId="92" priority="98">
+      <formula>$I14="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="91" priority="99">
+      <formula>$I14="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15">
+    <cfRule type="expression" dxfId="90" priority="96">
+      <formula>$I15="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="89" priority="97">
+      <formula>$I15="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15:H15">
+    <cfRule type="expression" dxfId="88" priority="94">
+      <formula>$I15="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="87" priority="95">
+      <formula>$I15="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
+    <cfRule type="expression" dxfId="86" priority="92">
+      <formula>$I15="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="85" priority="93">
+      <formula>$I15="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="expression" dxfId="84" priority="90">
+      <formula>$I16="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="83" priority="91">
+      <formula>$I16="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="containsText" dxfId="82" priority="89" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="expression" dxfId="81" priority="87">
+      <formula>$I16="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="80" priority="88">
+      <formula>$I16="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16">
+    <cfRule type="expression" dxfId="79" priority="85">
+      <formula>$I16="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="78" priority="86">
+      <formula>$I16="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16">
+    <cfRule type="expression" dxfId="77" priority="83">
+      <formula>$I16="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="76" priority="84">
+      <formula>$I16="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16:H16">
+    <cfRule type="expression" dxfId="75" priority="81">
+      <formula>$I16="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="74" priority="82">
+      <formula>$I16="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
+    <cfRule type="expression" dxfId="73" priority="79">
+      <formula>$I16="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="72" priority="80">
+      <formula>$I16="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="expression" dxfId="71" priority="77">
+      <formula>$I17="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="70" priority="78">
+      <formula>$I17="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
+    <cfRule type="containsText" dxfId="69" priority="76" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
+    <cfRule type="expression" dxfId="68" priority="74">
+      <formula>$I17="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="67" priority="75">
+      <formula>$I17="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17">
+    <cfRule type="expression" dxfId="66" priority="72">
+      <formula>$I17="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="65" priority="73">
+      <formula>$I17="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17:H17">
+    <cfRule type="expression" dxfId="64" priority="70">
+      <formula>$I17="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="63" priority="71">
+      <formula>$I17="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17">
+    <cfRule type="expression" dxfId="62" priority="68">
+      <formula>$I17="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="61" priority="69">
+      <formula>$I17="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="expression" dxfId="60" priority="66">
+      <formula>$I18="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="59" priority="67">
+      <formula>$I18="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
+    <cfRule type="containsText" dxfId="58" priority="65" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
+    <cfRule type="expression" dxfId="57" priority="63">
+      <formula>$I18="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="64">
+      <formula>$I18="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18">
+    <cfRule type="expression" dxfId="55" priority="61">
+      <formula>$I18="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="62">
+      <formula>$I18="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18:H18">
+    <cfRule type="expression" dxfId="53" priority="59">
+      <formula>$I18="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="60">
+      <formula>$I18="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18">
+    <cfRule type="expression" dxfId="51" priority="57">
+      <formula>$I18="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="58">
+      <formula>$I18="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
+    <cfRule type="expression" dxfId="49" priority="55">
       <formula>$I19="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="101">
+    <cfRule type="expression" dxfId="48" priority="56">
       <formula>$I19="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K33:L38">
-    <cfRule type="expression" dxfId="90" priority="98">
-      <formula>$I33="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="89" priority="99">
-      <formula>$I33="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
-    <cfRule type="expression" dxfId="88" priority="96">
-      <formula>$I31="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="87" priority="97">
-      <formula>$I31="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="86" priority="94">
-      <formula>$I6="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="85" priority="95">
-      <formula>$I6="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="84" priority="92">
-      <formula>$I7="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="83" priority="93">
-      <formula>$I7="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="82" priority="80">
-      <formula>$I5="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="81" priority="81">
-      <formula>$I5="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="80" priority="84">
-      <formula>$I7="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="79" priority="85">
-      <formula>$I7="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6:I6">
-    <cfRule type="expression" dxfId="78" priority="78">
-      <formula>$I6="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="77" priority="79">
-      <formula>$I6="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="expression" dxfId="76" priority="76">
-      <formula>$I6="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="75" priority="77">
-      <formula>$I6="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J5">
-    <cfRule type="expression" dxfId="74" priority="74">
-      <formula>$I5="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="73" priority="75">
-      <formula>$I5="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7">
-    <cfRule type="expression" dxfId="72" priority="72">
-      <formula>$I7="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="71" priority="73">
-      <formula>$I7="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7:I7">
-    <cfRule type="expression" dxfId="70" priority="70">
-      <formula>$I7="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="69" priority="71">
-      <formula>$I7="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="68" priority="68">
-      <formula>$I8="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="67" priority="69">
-      <formula>$I8="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="containsText" dxfId="66" priority="67" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="65" priority="65">
-      <formula>$I8="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="64" priority="66">
-      <formula>$I8="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8:I8">
-    <cfRule type="expression" dxfId="63" priority="63">
-      <formula>$I8="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="62" priority="64">
-      <formula>$I8="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="61" priority="61">
-      <formula>$I9="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="60" priority="62">
-      <formula>$I9="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G9:I9">
-    <cfRule type="expression" dxfId="59" priority="59">
-      <formula>$I9="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="58" priority="60">
-      <formula>$I9="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="expression" dxfId="57" priority="57">
-      <formula>$I7="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="56" priority="58">
-      <formula>$I7="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="55" priority="55">
-      <formula>$I11="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="54" priority="56">
-      <formula>$I11="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
-    <cfRule type="containsText" dxfId="53" priority="54" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C11)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="52" priority="52">
-      <formula>$I11="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="51" priority="53">
-      <formula>$I11="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11:H11">
-    <cfRule type="expression" dxfId="50" priority="50">
-      <formula>$I11="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="49" priority="51">
-      <formula>$I11="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I11">
-    <cfRule type="expression" dxfId="48" priority="48">
-      <formula>$I11="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="47" priority="49">
-      <formula>$I11="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12">
-    <cfRule type="expression" dxfId="46" priority="46">
-      <formula>$I12="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="45" priority="47">
-      <formula>$I12="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="containsText" dxfId="44" priority="45" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="43" priority="43">
-      <formula>$I12="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="44">
-      <formula>$I12="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F12:H12">
-    <cfRule type="expression" dxfId="41" priority="41">
-      <formula>$I12="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="40" priority="42">
-      <formula>$I12="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I12">
-    <cfRule type="expression" dxfId="39" priority="39">
-      <formula>$I12="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="38" priority="40">
-      <formula>$I12="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B13">
-    <cfRule type="expression" dxfId="37" priority="37">
-      <formula>$I13="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="38">
-      <formula>$I13="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G13:H13">
-    <cfRule type="expression" dxfId="35" priority="35">
-      <formula>$I13="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="36">
-      <formula>$I13="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="33" priority="33">
-      <formula>$I13="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="32" priority="34">
-      <formula>$I13="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="31" priority="31">
-      <formula>$I14="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="32">
-      <formula>$I14="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="containsText" dxfId="29" priority="30" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C14)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="28" priority="28">
-      <formula>$I14="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="27" priority="29">
-      <formula>$I14="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
-    <cfRule type="expression" dxfId="26" priority="26">
-      <formula>$I14="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="27">
-      <formula>$I14="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
-    <cfRule type="expression" dxfId="24" priority="24">
-      <formula>$I14="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="23" priority="25">
-      <formula>$I14="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G14:H14">
+  <conditionalFormatting sqref="C19">
+    <cfRule type="containsText" dxfId="47" priority="54" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="expression" dxfId="46" priority="52">
+      <formula>$I19="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="53">
+      <formula>$I19="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19">
+    <cfRule type="expression" dxfId="44" priority="50">
+      <formula>$I19="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="51">
+      <formula>$I19="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19:H19">
+    <cfRule type="expression" dxfId="42" priority="48">
+      <formula>$I19="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="41" priority="49">
+      <formula>$I19="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19">
+    <cfRule type="expression" dxfId="40" priority="46">
+      <formula>$I19="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="47">
+      <formula>$I19="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
+    <cfRule type="expression" dxfId="38" priority="44">
+      <formula>$I20="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="45">
+      <formula>$I20="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="containsText" dxfId="36" priority="43" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="expression" dxfId="35" priority="41">
+      <formula>$I20="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="42">
+      <formula>$I20="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="expression" dxfId="33" priority="39">
+      <formula>$I20="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="40">
+      <formula>$I20="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20:H20">
+    <cfRule type="expression" dxfId="31" priority="37">
+      <formula>$I20="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="38">
+      <formula>$I20="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20">
+    <cfRule type="expression" dxfId="29" priority="35">
+      <formula>$I20="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="36">
+      <formula>$I20="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22">
+    <cfRule type="expression" dxfId="27" priority="33">
+      <formula>$I22="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="34">
+      <formula>$I22="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22">
+    <cfRule type="containsText" dxfId="25" priority="32" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22">
+    <cfRule type="expression" dxfId="24" priority="30">
+      <formula>$I22="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="23" priority="31">
+      <formula>$I22="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21">
     <cfRule type="expression" dxfId="22" priority="22">
-      <formula>$I14="確認中"</formula>
+      <formula>$I21="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="21" priority="23">
-      <formula>$I14="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I14">
+      <formula>$I21="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21">
     <cfRule type="expression" dxfId="20" priority="20">
-      <formula>$I14="確認中"</formula>
+      <formula>$I21="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="19" priority="21">
-      <formula>$I14="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15">
-    <cfRule type="expression" dxfId="18" priority="18">
-      <formula>$I15="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="17" priority="19">
-      <formula>$I15="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G15:H15">
-    <cfRule type="expression" dxfId="16" priority="16">
-      <formula>$I15="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="15" priority="17">
-      <formula>$I15="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I15">
-    <cfRule type="expression" dxfId="14" priority="14">
-      <formula>$I15="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="15">
-      <formula>$I15="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="12" priority="12">
-      <formula>$I16="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="11" priority="13">
-      <formula>$I16="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
+      <formula>$I21="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="containsText" dxfId="18" priority="19" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="expression" dxfId="17" priority="17">
+      <formula>$I21="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="18">
+      <formula>$I21="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="expression" dxfId="15" priority="15">
+      <formula>$I21="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="16">
+      <formula>$I21="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G21:H21">
+    <cfRule type="expression" dxfId="13" priority="13">
+      <formula>$I21="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="14">
+      <formula>$I21="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21">
+    <cfRule type="expression" dxfId="11" priority="11">
+      <formula>$I21="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="12">
+      <formula>$I21="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22">
     <cfRule type="expression" dxfId="9" priority="9">
-      <formula>$I16="確認中"</formula>
+      <formula>$I22="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="8" priority="10">
-      <formula>$I16="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16">
+      <formula>$I22="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22:H22">
     <cfRule type="expression" dxfId="7" priority="7">
-      <formula>$I16="確認中"</formula>
+      <formula>$I22="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="6" priority="8">
-      <formula>$I16="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F16">
+      <formula>$I22="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22">
     <cfRule type="expression" dxfId="5" priority="5">
-      <formula>$I16="確認中"</formula>
+      <formula>$I22="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="6">
-      <formula>$I16="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16:H16">
+      <formula>$I22="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
     <cfRule type="expression" dxfId="3" priority="3">
-      <formula>$I16="確認中"</formula>
+      <formula>$I22="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="4">
-      <formula>$I16="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I16">
+      <formula>$I22="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17:B22">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$I16="確認中"</formula>
+      <formula>$I17="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$I16="済み"</formula>
+      <formula>$I17="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
@@ -3873,4 +5384,34 @@
     </mc:AlternateContent>
   </oleObjects>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/質疑表/TOYOTIRE_質疑表 _平.xlsx
+++ b/質疑表/TOYOTIRE_質疑表 _平.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="66">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -940,6 +940,72 @@
     </rPh>
     <rPh sb="113" eb="115">
       <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19ページ「グループ化」で行うグループ化は、3つ以上の編集文字をグループ化する事がありますでしょうか。</t>
+    <rPh sb="13" eb="14">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>22ページの「ラベリングのコード表」の右端列に表示されている「old code」(旧文字)とは、どのような文字のフォント名でしょうか。</t>
+    <rPh sb="16" eb="17">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ミギハシ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="41" eb="44">
+      <t>キュウモジ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>22ページの「ラベリングのコード表」の下の「29-A」の表はどのような条件で表示されていますでしょうか。</t>
+    <rPh sb="19" eb="20">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1235,7 +1301,292 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="193">
+  <dxfs count="230">
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3549,7 +3900,7 @@
   <dimension ref="A3:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4222,50 +4573,98 @@
       <c r="K22" s="5"/>
       <c r="L22" s="9"/>
     </row>
-    <row r="23" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" s="20" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>19</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="10"/>
+      <c r="B23" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" s="5">
+        <v>44830</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="J23" s="3"/>
       <c r="K23" s="5"/>
       <c r="L23" s="9"/>
     </row>
-    <row r="24" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" s="20" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>20</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="10"/>
+      <c r="B24" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" s="5">
+        <v>44830</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="J24" s="3"/>
       <c r="K24" s="5"/>
       <c r="L24" s="9"/>
     </row>
-    <row r="25" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12" s="20" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>21</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="10"/>
+      <c r="B25" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25" s="5">
+        <v>44830</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="J25" s="3"/>
       <c r="K25" s="5"/>
       <c r="L25" s="9"/>
@@ -4515,793 +4914,944 @@
     <mergeCell ref="A3:C3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="C4 C6 C41:C1048576 C23:C24">
-    <cfRule type="containsText" dxfId="192" priority="748" operator="containsText" text="高">
+  <conditionalFormatting sqref="C4 C6 C41:C1048576">
+    <cfRule type="containsText" dxfId="229" priority="785" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:L4 A8 A10 A12 A14 B25 L32 J19:J25 K10:L10 D10:H10 J11:L18 J6:L6 A6:D6 A3 D3:L3 A41:L1048576 E11 B10:B11 D12:E12 D13:F13 E14 D15:F15 A16:A32 E16:E20 B23:H24">
-    <cfRule type="expression" dxfId="191" priority="746">
+  <conditionalFormatting sqref="A4:L4 A8 A10 A12 A14 L32 J19:J25 K10:L10 D10:H10 J11:L18 J6:L6 A6:D6 A3 D3:L3 A41:L1048576 E11 B10:B11 D12:E12 D13:F13 E14 D15:F15 A16:A32 E16:E20 E23:F23 E24">
+    <cfRule type="expression" dxfId="228" priority="783">
       <formula>$I3="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="190" priority="747">
+    <cfRule type="expression" dxfId="227" priority="784">
       <formula>$I3="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="containsText" dxfId="189" priority="261" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="226" priority="298" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:I5 I10 K5:L5 I23:I38">
-    <cfRule type="expression" dxfId="188" priority="259">
+  <conditionalFormatting sqref="C5:I5 I10 K5:L5 I26:I38">
+    <cfRule type="expression" dxfId="225" priority="296">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="187" priority="260">
+    <cfRule type="expression" dxfId="224" priority="297">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5 A7 A9 A11 A13 A15">
-    <cfRule type="expression" dxfId="186" priority="257">
+    <cfRule type="expression" dxfId="223" priority="294">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="185" priority="258">
+    <cfRule type="expression" dxfId="222" priority="295">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7 C9:C10 C13 C15">
-    <cfRule type="containsText" dxfId="184" priority="201" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="221" priority="238" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:F9 C10 J10 J7:L9 C7 D8:F8 C13 C15">
-    <cfRule type="expression" dxfId="183" priority="199">
+    <cfRule type="expression" dxfId="220" priority="236">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="182" priority="200">
+    <cfRule type="expression" dxfId="219" priority="237">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:C35 C38:C40">
-    <cfRule type="containsText" dxfId="181" priority="196" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="218" priority="233" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B31 B32:D32 H32 A33:H35 A39:L40 B38:E38 J38 J26:J35 A36:A40">
-    <cfRule type="expression" dxfId="180" priority="194">
+    <cfRule type="expression" dxfId="217" priority="231">
       <formula>$I26="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="179" priority="195">
+    <cfRule type="expression" dxfId="216" priority="232">
       <formula>$I26="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25:C31">
-    <cfRule type="containsText" dxfId="178" priority="193" operator="containsText" text="高">
+  <conditionalFormatting sqref="C26:C31">
+    <cfRule type="containsText" dxfId="215" priority="230" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26:H30 C31 E31:H31 E25">
+    <cfRule type="expression" dxfId="214" priority="228">
+      <formula>$I25="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="213" priority="229">
+      <formula>$I25="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="expression" dxfId="212" priority="226">
+      <formula>$I32="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="211" priority="227">
+      <formula>$I32="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32:G32">
+    <cfRule type="expression" dxfId="210" priority="224">
+      <formula>$I32="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="209" priority="225">
+      <formula>$I32="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32">
+    <cfRule type="expression" dxfId="208" priority="222">
+      <formula>$I32="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="207" priority="223">
+      <formula>$I32="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36:C37">
+    <cfRule type="containsText" dxfId="206" priority="221" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36:H36 B37:E37 J36:J37">
+    <cfRule type="expression" dxfId="205" priority="219">
+      <formula>$I36="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="204" priority="220">
+      <formula>$I36="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37:H38">
+    <cfRule type="expression" dxfId="203" priority="217">
+      <formula>$I37="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="202" priority="218">
+      <formula>$I37="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K19:L31">
+    <cfRule type="expression" dxfId="201" priority="215">
+      <formula>$I19="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="200" priority="216">
+      <formula>$I19="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K33:L38">
+    <cfRule type="expression" dxfId="199" priority="213">
+      <formula>$I33="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="198" priority="214">
+      <formula>$I33="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
+    <cfRule type="expression" dxfId="197" priority="211">
+      <formula>$I31="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="196" priority="212">
+      <formula>$I31="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="expression" dxfId="195" priority="209">
+      <formula>$I6="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="194" priority="210">
+      <formula>$I6="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="expression" dxfId="193" priority="207">
+      <formula>$I7="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="192" priority="208">
+      <formula>$I7="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5">
+    <cfRule type="expression" dxfId="191" priority="195">
+      <formula>$I5="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="190" priority="196">
+      <formula>$I5="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="expression" dxfId="189" priority="199">
+      <formula>$I7="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="188" priority="200">
+      <formula>$I7="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6:I6">
+    <cfRule type="expression" dxfId="187" priority="193">
+      <formula>$I6="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="186" priority="194">
+      <formula>$I6="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="expression" dxfId="185" priority="191">
+      <formula>$I6="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="184" priority="192">
+      <formula>$I6="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5">
+    <cfRule type="expression" dxfId="183" priority="189">
+      <formula>$I5="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="182" priority="190">
+      <formula>$I5="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7">
+    <cfRule type="expression" dxfId="181" priority="187">
+      <formula>$I7="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="180" priority="188">
+      <formula>$I7="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7:I7">
+    <cfRule type="expression" dxfId="179" priority="185">
+      <formula>$I7="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="178" priority="186">
+      <formula>$I7="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8">
+    <cfRule type="expression" dxfId="177" priority="183">
+      <formula>$I8="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="176" priority="184">
+      <formula>$I8="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="containsText" dxfId="175" priority="182" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="expression" dxfId="174" priority="180">
+      <formula>$I8="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="173" priority="181">
+      <formula>$I8="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:I8">
+    <cfRule type="expression" dxfId="172" priority="178">
+      <formula>$I8="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="171" priority="179">
+      <formula>$I8="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9">
+    <cfRule type="expression" dxfId="170" priority="176">
+      <formula>$I9="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="169" priority="177">
+      <formula>$I9="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9:I9">
+    <cfRule type="expression" dxfId="168" priority="174">
+      <formula>$I9="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="167" priority="175">
+      <formula>$I9="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="expression" dxfId="166" priority="172">
+      <formula>$I7="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="165" priority="173">
+      <formula>$I7="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="expression" dxfId="164" priority="170">
+      <formula>$I11="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="163" priority="171">
+      <formula>$I11="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
+    <cfRule type="containsText" dxfId="162" priority="169" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
+    <cfRule type="expression" dxfId="161" priority="167">
+      <formula>$I11="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="160" priority="168">
+      <formula>$I11="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11:H11">
+    <cfRule type="expression" dxfId="159" priority="165">
+      <formula>$I11="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="158" priority="166">
+      <formula>$I11="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11">
+    <cfRule type="expression" dxfId="157" priority="163">
+      <formula>$I11="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="156" priority="164">
+      <formula>$I11="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12">
+    <cfRule type="expression" dxfId="155" priority="161">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="154" priority="162">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="containsText" dxfId="153" priority="160" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="expression" dxfId="152" priority="158">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="151" priority="159">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12:H12">
+    <cfRule type="expression" dxfId="150" priority="156">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="149" priority="157">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12">
+    <cfRule type="expression" dxfId="148" priority="154">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="147" priority="155">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13">
+    <cfRule type="expression" dxfId="146" priority="152">
+      <formula>$I13="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="145" priority="153">
+      <formula>$I13="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13:H13">
+    <cfRule type="expression" dxfId="144" priority="150">
+      <formula>$I13="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="143" priority="151">
+      <formula>$I13="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="expression" dxfId="142" priority="148">
+      <formula>$I13="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="141" priority="149">
+      <formula>$I13="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="expression" dxfId="140" priority="146">
+      <formula>$I14="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="139" priority="147">
+      <formula>$I14="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="containsText" dxfId="138" priority="145" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="expression" dxfId="137" priority="143">
+      <formula>$I14="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="136" priority="144">
+      <formula>$I14="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14">
+    <cfRule type="expression" dxfId="135" priority="141">
+      <formula>$I14="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="134" priority="142">
+      <formula>$I14="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
+    <cfRule type="expression" dxfId="133" priority="139">
+      <formula>$I14="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="132" priority="140">
+      <formula>$I14="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14:H14">
+    <cfRule type="expression" dxfId="131" priority="137">
+      <formula>$I14="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="130" priority="138">
+      <formula>$I14="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14">
+    <cfRule type="expression" dxfId="129" priority="135">
+      <formula>$I14="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="128" priority="136">
+      <formula>$I14="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15">
+    <cfRule type="expression" dxfId="127" priority="133">
+      <formula>$I15="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="126" priority="134">
+      <formula>$I15="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15:H15">
+    <cfRule type="expression" dxfId="125" priority="131">
+      <formula>$I15="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="124" priority="132">
+      <formula>$I15="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
+    <cfRule type="expression" dxfId="123" priority="129">
+      <formula>$I15="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="122" priority="130">
+      <formula>$I15="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="expression" dxfId="121" priority="127">
+      <formula>$I16="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="120" priority="128">
+      <formula>$I16="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="containsText" dxfId="119" priority="126" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="expression" dxfId="118" priority="124">
+      <formula>$I16="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="117" priority="125">
+      <formula>$I16="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16">
+    <cfRule type="expression" dxfId="116" priority="122">
+      <formula>$I16="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="115" priority="123">
+      <formula>$I16="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16">
+    <cfRule type="expression" dxfId="114" priority="120">
+      <formula>$I16="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="113" priority="121">
+      <formula>$I16="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16:H16">
+    <cfRule type="expression" dxfId="112" priority="118">
+      <formula>$I16="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="111" priority="119">
+      <formula>$I16="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
+    <cfRule type="expression" dxfId="110" priority="116">
+      <formula>$I16="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="109" priority="117">
+      <formula>$I16="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="expression" dxfId="108" priority="114">
+      <formula>$I17="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="107" priority="115">
+      <formula>$I17="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
+    <cfRule type="containsText" dxfId="106" priority="113" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
+    <cfRule type="expression" dxfId="105" priority="111">
+      <formula>$I17="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="104" priority="112">
+      <formula>$I17="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17">
+    <cfRule type="expression" dxfId="103" priority="109">
+      <formula>$I17="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="102" priority="110">
+      <formula>$I17="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17:H17">
+    <cfRule type="expression" dxfId="101" priority="107">
+      <formula>$I17="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="100" priority="108">
+      <formula>$I17="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17">
+    <cfRule type="expression" dxfId="99" priority="105">
+      <formula>$I17="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="98" priority="106">
+      <formula>$I17="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="expression" dxfId="97" priority="103">
+      <formula>$I18="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="96" priority="104">
+      <formula>$I18="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
+    <cfRule type="containsText" dxfId="95" priority="102" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
+    <cfRule type="expression" dxfId="94" priority="100">
+      <formula>$I18="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="93" priority="101">
+      <formula>$I18="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18">
+    <cfRule type="expression" dxfId="92" priority="98">
+      <formula>$I18="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="91" priority="99">
+      <formula>$I18="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18:H18">
+    <cfRule type="expression" dxfId="90" priority="96">
+      <formula>$I18="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="89" priority="97">
+      <formula>$I18="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18">
+    <cfRule type="expression" dxfId="88" priority="94">
+      <formula>$I18="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="87" priority="95">
+      <formula>$I18="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
+    <cfRule type="expression" dxfId="86" priority="92">
+      <formula>$I19="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="85" priority="93">
+      <formula>$I19="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="containsText" dxfId="84" priority="91" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="expression" dxfId="83" priority="89">
+      <formula>$I19="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="82" priority="90">
+      <formula>$I19="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19">
+    <cfRule type="expression" dxfId="81" priority="87">
+      <formula>$I19="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="80" priority="88">
+      <formula>$I19="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19:H19">
+    <cfRule type="expression" dxfId="79" priority="85">
+      <formula>$I19="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="78" priority="86">
+      <formula>$I19="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19">
+    <cfRule type="expression" dxfId="77" priority="83">
+      <formula>$I19="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="76" priority="84">
+      <formula>$I19="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
+    <cfRule type="expression" dxfId="75" priority="81">
+      <formula>$I20="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="74" priority="82">
+      <formula>$I20="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="containsText" dxfId="73" priority="80" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="expression" dxfId="72" priority="78">
+      <formula>$I20="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="71" priority="79">
+      <formula>$I20="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="expression" dxfId="70" priority="76">
+      <formula>$I20="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="69" priority="77">
+      <formula>$I20="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20:H20">
+    <cfRule type="expression" dxfId="68" priority="74">
+      <formula>$I20="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="67" priority="75">
+      <formula>$I20="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20">
+    <cfRule type="expression" dxfId="66" priority="72">
+      <formula>$I20="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="65" priority="73">
+      <formula>$I20="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22">
+    <cfRule type="expression" dxfId="64" priority="70">
+      <formula>$I22="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="63" priority="71">
+      <formula>$I22="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22">
+    <cfRule type="containsText" dxfId="62" priority="69" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22">
+    <cfRule type="expression" dxfId="61" priority="67">
+      <formula>$I22="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="68">
+      <formula>$I22="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21">
+    <cfRule type="expression" dxfId="59" priority="59">
+      <formula>$I21="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="60">
+      <formula>$I21="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21">
+    <cfRule type="expression" dxfId="57" priority="57">
+      <formula>$I21="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="58">
+      <formula>$I21="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="containsText" dxfId="55" priority="56" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="expression" dxfId="54" priority="54">
+      <formula>$I21="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="53" priority="55">
+      <formula>$I21="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="expression" dxfId="52" priority="52">
+      <formula>$I21="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="51" priority="53">
+      <formula>$I21="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G21:H21">
+    <cfRule type="expression" dxfId="50" priority="50">
+      <formula>$I21="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="49" priority="51">
+      <formula>$I21="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21">
+    <cfRule type="expression" dxfId="48" priority="48">
+      <formula>$I21="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="47" priority="49">
+      <formula>$I21="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22">
+    <cfRule type="expression" dxfId="46" priority="46">
+      <formula>$I22="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="47">
+      <formula>$I22="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22:H22">
+    <cfRule type="expression" dxfId="44" priority="44">
+      <formula>$I22="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="45">
+      <formula>$I22="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22">
+    <cfRule type="expression" dxfId="42" priority="42">
+      <formula>$I22="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="41" priority="43">
+      <formula>$I22="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="expression" dxfId="40" priority="40">
+      <formula>$I22="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="41">
+      <formula>$I22="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17:B22">
+    <cfRule type="expression" dxfId="38" priority="38">
+      <formula>$I17="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="39">
+      <formula>$I17="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23:H23">
+    <cfRule type="expression" dxfId="36" priority="36">
+      <formula>$I23="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="35" priority="37">
+      <formula>$I23="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23">
+    <cfRule type="expression" dxfId="34" priority="34">
+      <formula>$I23="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="35">
+      <formula>$I23="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23">
+    <cfRule type="expression" dxfId="32" priority="32">
+      <formula>$I23="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="33">
+      <formula>$I23="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="containsText" dxfId="30" priority="31" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="expression" dxfId="29" priority="29">
+      <formula>$I23="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="30">
+      <formula>$I23="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23">
+    <cfRule type="expression" dxfId="27" priority="27">
+      <formula>$I23="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="28">
+      <formula>$I23="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24">
+    <cfRule type="expression" dxfId="25" priority="25">
+      <formula>$I24="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="26">
+      <formula>$I24="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
+    <cfRule type="containsText" dxfId="23" priority="24" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
+    <cfRule type="expression" dxfId="22" priority="22">
+      <formula>$I24="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="23">
+      <formula>$I24="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24">
+    <cfRule type="expression" dxfId="20" priority="20">
+      <formula>$I24="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="21">
+      <formula>$I24="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
+    <cfRule type="expression" dxfId="18" priority="18">
+      <formula>$I24="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="19">
+      <formula>$I24="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24:H24">
+    <cfRule type="expression" dxfId="16" priority="16">
+      <formula>$I24="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="17">
+      <formula>$I24="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24">
+    <cfRule type="expression" dxfId="14" priority="14">
+      <formula>$I24="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="15">
+      <formula>$I24="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25">
+    <cfRule type="expression" dxfId="12" priority="12">
+      <formula>$I25="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="13">
+      <formula>$I25="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25:H30 C31 E31:H31">
-    <cfRule type="expression" dxfId="177" priority="191">
+  <conditionalFormatting sqref="C25">
+    <cfRule type="expression" dxfId="9" priority="9">
       <formula>$I25="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="176" priority="192">
+    <cfRule type="expression" dxfId="8" priority="10">
       <formula>$I25="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="expression" dxfId="175" priority="189">
-      <formula>$I32="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="174" priority="190">
-      <formula>$I32="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F32:G32">
-    <cfRule type="expression" dxfId="173" priority="187">
-      <formula>$I32="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="172" priority="188">
-      <formula>$I32="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K32">
-    <cfRule type="expression" dxfId="171" priority="185">
-      <formula>$I32="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="170" priority="186">
-      <formula>$I32="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C36:C37">
-    <cfRule type="containsText" dxfId="169" priority="184" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B36:H36 B37:E37 J36:J37">
-    <cfRule type="expression" dxfId="168" priority="182">
-      <formula>$I36="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="167" priority="183">
-      <formula>$I36="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F37:H38">
-    <cfRule type="expression" dxfId="166" priority="180">
-      <formula>$I37="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="165" priority="181">
-      <formula>$I37="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K19:L31">
-    <cfRule type="expression" dxfId="164" priority="178">
-      <formula>$I19="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="163" priority="179">
-      <formula>$I19="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K33:L38">
-    <cfRule type="expression" dxfId="162" priority="176">
-      <formula>$I33="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="161" priority="177">
-      <formula>$I33="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
-    <cfRule type="expression" dxfId="160" priority="174">
-      <formula>$I31="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="159" priority="175">
-      <formula>$I31="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="158" priority="172">
-      <formula>$I6="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="157" priority="173">
-      <formula>$I6="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="156" priority="170">
-      <formula>$I7="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="155" priority="171">
-      <formula>$I7="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="154" priority="158">
-      <formula>$I5="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="153" priority="159">
-      <formula>$I5="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="152" priority="162">
-      <formula>$I7="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="151" priority="163">
-      <formula>$I7="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6:I6">
-    <cfRule type="expression" dxfId="150" priority="156">
-      <formula>$I6="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="149" priority="157">
-      <formula>$I6="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="expression" dxfId="148" priority="154">
-      <formula>$I6="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="147" priority="155">
-      <formula>$I6="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J5">
-    <cfRule type="expression" dxfId="146" priority="152">
-      <formula>$I5="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="145" priority="153">
-      <formula>$I5="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7">
-    <cfRule type="expression" dxfId="144" priority="150">
-      <formula>$I7="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="143" priority="151">
-      <formula>$I7="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7:I7">
-    <cfRule type="expression" dxfId="142" priority="148">
-      <formula>$I7="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="141" priority="149">
-      <formula>$I7="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="140" priority="146">
-      <formula>$I8="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="139" priority="147">
-      <formula>$I8="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="containsText" dxfId="138" priority="145" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="137" priority="143">
-      <formula>$I8="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="136" priority="144">
-      <formula>$I8="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8:I8">
-    <cfRule type="expression" dxfId="135" priority="141">
-      <formula>$I8="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="134" priority="142">
-      <formula>$I8="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="133" priority="139">
-      <formula>$I9="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="132" priority="140">
-      <formula>$I9="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G9:I9">
-    <cfRule type="expression" dxfId="131" priority="137">
-      <formula>$I9="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="130" priority="138">
-      <formula>$I9="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="expression" dxfId="129" priority="135">
-      <formula>$I7="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="128" priority="136">
-      <formula>$I7="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="127" priority="133">
-      <formula>$I11="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="126" priority="134">
-      <formula>$I11="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
-    <cfRule type="containsText" dxfId="125" priority="132" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C11)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="124" priority="130">
-      <formula>$I11="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="123" priority="131">
-      <formula>$I11="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11:H11">
-    <cfRule type="expression" dxfId="122" priority="128">
-      <formula>$I11="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="121" priority="129">
-      <formula>$I11="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I11">
-    <cfRule type="expression" dxfId="120" priority="126">
-      <formula>$I11="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="119" priority="127">
-      <formula>$I11="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12">
-    <cfRule type="expression" dxfId="118" priority="124">
-      <formula>$I12="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="117" priority="125">
-      <formula>$I12="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="containsText" dxfId="116" priority="123" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="115" priority="121">
-      <formula>$I12="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="114" priority="122">
-      <formula>$I12="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F12:H12">
-    <cfRule type="expression" dxfId="113" priority="119">
-      <formula>$I12="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="112" priority="120">
-      <formula>$I12="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I12">
-    <cfRule type="expression" dxfId="111" priority="117">
-      <formula>$I12="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="110" priority="118">
-      <formula>$I12="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B13">
-    <cfRule type="expression" dxfId="109" priority="115">
-      <formula>$I13="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="108" priority="116">
-      <formula>$I13="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G13:H13">
-    <cfRule type="expression" dxfId="107" priority="113">
-      <formula>$I13="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="106" priority="114">
-      <formula>$I13="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="105" priority="111">
-      <formula>$I13="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="104" priority="112">
-      <formula>$I13="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="103" priority="109">
-      <formula>$I14="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="102" priority="110">
-      <formula>$I14="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="containsText" dxfId="101" priority="108" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C14)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="100" priority="106">
-      <formula>$I14="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="99" priority="107">
-      <formula>$I14="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
-    <cfRule type="expression" dxfId="98" priority="104">
-      <formula>$I14="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="97" priority="105">
-      <formula>$I14="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
-    <cfRule type="expression" dxfId="96" priority="102">
-      <formula>$I14="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="95" priority="103">
-      <formula>$I14="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G14:H14">
-    <cfRule type="expression" dxfId="94" priority="100">
-      <formula>$I14="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="93" priority="101">
-      <formula>$I14="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I14">
-    <cfRule type="expression" dxfId="92" priority="98">
-      <formula>$I14="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="91" priority="99">
-      <formula>$I14="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15">
-    <cfRule type="expression" dxfId="90" priority="96">
-      <formula>$I15="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="89" priority="97">
-      <formula>$I15="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G15:H15">
-    <cfRule type="expression" dxfId="88" priority="94">
-      <formula>$I15="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="87" priority="95">
-      <formula>$I15="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I15">
-    <cfRule type="expression" dxfId="86" priority="92">
-      <formula>$I15="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="85" priority="93">
-      <formula>$I15="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="84" priority="90">
-      <formula>$I16="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="83" priority="91">
-      <formula>$I16="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="containsText" dxfId="82" priority="89" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="81" priority="87">
-      <formula>$I16="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="80" priority="88">
-      <formula>$I16="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16">
-    <cfRule type="expression" dxfId="79" priority="85">
-      <formula>$I16="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="78" priority="86">
-      <formula>$I16="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F16">
-    <cfRule type="expression" dxfId="77" priority="83">
-      <formula>$I16="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="76" priority="84">
-      <formula>$I16="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16:H16">
-    <cfRule type="expression" dxfId="75" priority="81">
-      <formula>$I16="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="74" priority="82">
-      <formula>$I16="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I16">
-    <cfRule type="expression" dxfId="73" priority="79">
-      <formula>$I16="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="72" priority="80">
-      <formula>$I16="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="71" priority="77">
-      <formula>$I17="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="70" priority="78">
-      <formula>$I17="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17">
-    <cfRule type="containsText" dxfId="69" priority="76" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C17)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="68" priority="74">
-      <formula>$I17="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="67" priority="75">
-      <formula>$I17="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F17">
-    <cfRule type="expression" dxfId="66" priority="72">
-      <formula>$I17="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="65" priority="73">
-      <formula>$I17="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G17:H17">
-    <cfRule type="expression" dxfId="64" priority="70">
-      <formula>$I17="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="63" priority="71">
-      <formula>$I17="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I17">
-    <cfRule type="expression" dxfId="62" priority="68">
-      <formula>$I17="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="61" priority="69">
-      <formula>$I17="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="60" priority="66">
-      <formula>$I18="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="59" priority="67">
-      <formula>$I18="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
-    <cfRule type="containsText" dxfId="58" priority="65" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C18)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="57" priority="63">
-      <formula>$I18="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="56" priority="64">
-      <formula>$I18="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
-    <cfRule type="expression" dxfId="55" priority="61">
-      <formula>$I18="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="54" priority="62">
-      <formula>$I18="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G18:H18">
-    <cfRule type="expression" dxfId="53" priority="59">
-      <formula>$I18="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="52" priority="60">
-      <formula>$I18="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I18">
-    <cfRule type="expression" dxfId="51" priority="57">
-      <formula>$I18="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="50" priority="58">
-      <formula>$I18="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
-    <cfRule type="expression" dxfId="49" priority="55">
-      <formula>$I19="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="48" priority="56">
-      <formula>$I19="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="containsText" dxfId="47" priority="54" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C19)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="46" priority="52">
-      <formula>$I19="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="45" priority="53">
-      <formula>$I19="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F19">
-    <cfRule type="expression" dxfId="44" priority="50">
-      <formula>$I19="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="43" priority="51">
-      <formula>$I19="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G19:H19">
-    <cfRule type="expression" dxfId="42" priority="48">
-      <formula>$I19="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="41" priority="49">
-      <formula>$I19="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I19">
-    <cfRule type="expression" dxfId="40" priority="46">
-      <formula>$I19="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="39" priority="47">
-      <formula>$I19="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
-    <cfRule type="expression" dxfId="38" priority="44">
-      <formula>$I20="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="37" priority="45">
-      <formula>$I20="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="containsText" dxfId="36" priority="43" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="35" priority="41">
-      <formula>$I20="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="42">
-      <formula>$I20="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="expression" dxfId="33" priority="39">
-      <formula>$I20="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="32" priority="40">
-      <formula>$I20="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G20:H20">
-    <cfRule type="expression" dxfId="31" priority="37">
-      <formula>$I20="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="38">
-      <formula>$I20="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
-    <cfRule type="expression" dxfId="29" priority="35">
-      <formula>$I20="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="36">
-      <formula>$I20="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="expression" dxfId="27" priority="33">
-      <formula>$I22="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="34">
-      <formula>$I22="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
-    <cfRule type="containsText" dxfId="25" priority="32" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C22)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
-    <cfRule type="expression" dxfId="24" priority="30">
-      <formula>$I22="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="23" priority="31">
-      <formula>$I22="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
-    <cfRule type="expression" dxfId="22" priority="22">
-      <formula>$I21="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="23">
-      <formula>$I21="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D21">
-    <cfRule type="expression" dxfId="20" priority="20">
-      <formula>$I21="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="19" priority="21">
-      <formula>$I21="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="containsText" dxfId="18" priority="19" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C21)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="17" priority="17">
-      <formula>$I21="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="18">
-      <formula>$I21="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
-    <cfRule type="expression" dxfId="15" priority="15">
-      <formula>$I21="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="16">
-      <formula>$I21="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G21:H21">
-    <cfRule type="expression" dxfId="13" priority="13">
-      <formula>$I21="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="14">
-      <formula>$I21="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I21">
-    <cfRule type="expression" dxfId="11" priority="11">
-      <formula>$I21="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="12">
-      <formula>$I21="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F22">
-    <cfRule type="expression" dxfId="9" priority="9">
-      <formula>$I22="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="10">
-      <formula>$I22="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G22:H22">
+  <conditionalFormatting sqref="B25">
     <cfRule type="expression" dxfId="7" priority="7">
-      <formula>$I22="確認中"</formula>
+      <formula>$I25="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="6" priority="8">
-      <formula>$I22="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I22">
+      <formula>$I25="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25">
     <cfRule type="expression" dxfId="5" priority="5">
-      <formula>$I22="確認中"</formula>
+      <formula>$I25="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="6">
-      <formula>$I22="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
+      <formula>$I25="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G25:H25">
     <cfRule type="expression" dxfId="3" priority="3">
-      <formula>$I22="確認中"</formula>
+      <formula>$I25="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="4">
-      <formula>$I22="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B17:B22">
+      <formula>$I25="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$I17="確認中"</formula>
+      <formula>$I25="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$I17="済み"</formula>
+      <formula>$I25="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">

--- a/質疑表/TOYOTIRE_質疑表 _平.xlsx
+++ b/質疑表/TOYOTIRE_質疑表 _平.xlsx
@@ -16,6 +16,7 @@
     <sheet name="No6、No7" sheetId="25" r:id="rId2"/>
     <sheet name="No13" sheetId="26" r:id="rId3"/>
     <sheet name="No16" sheetId="27" r:id="rId4"/>
+    <sheet name="No22" sheetId="29" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_Toc99549776" localSheetId="0">'障害・要望管理表（今後はこちらに起票）'!$E$7</definedName>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="86">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -1009,12 +1010,213 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>220922_円弧配列メニューTOYO案.xlsx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基準 線・円 作成</t>
+    <rPh sb="0" eb="2">
+      <t>キジュン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>セン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字列準備</t>
+    <rPh sb="0" eb="3">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジュンビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>円弧配置</t>
+    <rPh sb="0" eb="2">
+      <t>エンコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コード表作成</t>
+    <rPh sb="3" eb="4">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保存管理</t>
+    <rPh sb="0" eb="2">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他機能</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>円弧配列</t>
+    <rPh sb="0" eb="2">
+      <t>エンコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハイレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コード表の作成</t>
+    <rPh sb="3" eb="4">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完成図面</t>
+    <rPh sb="0" eb="2">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保存管理</t>
+    <rPh sb="0" eb="4">
+      <t>ホゾンカンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NEW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Revision number</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設計変更</t>
+    <rPh sb="0" eb="2">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>modify</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上書き変更（同じファイル名で上書き保存）</t>
+    <rPh sb="0" eb="2">
+      <t>ウワガ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ウワガ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「円弧配列メニュー案01」シートの「文字列準備」メニューに「刻印登録(Primitive "CH")」を追加した方が宜しいでしょうか。
+（「No22」シートの赤枠部分になります。）</t>
+    <rPh sb="18" eb="21">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>コクイン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ヨロ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>アカワク</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>ブブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1043,6 +1245,15 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1215,7 +1426,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1297,11 +1508,102 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="230">
+  <dxfs count="241">
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3631,6 +3933,4131 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2240</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>23495</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>666748</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="L 字 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23F471B7-1D34-4D99-A0AE-9B6907106060}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685799" y="505348"/>
+          <a:ext cx="28006861" cy="2856417"/>
+        </a:xfrm>
+        <a:prstGeom prst="corner">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 80031"/>
+            <a:gd name="adj2" fmla="val 50542"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>51995</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>369793</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>162971</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="テキスト ボックス 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46D186EE-A835-4391-97C5-25AEBDAB13BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="737795" y="496981"/>
+          <a:ext cx="1003598" cy="389890"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="just">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1050" kern="100">
+              <a:effectLst/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Arc</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Arrangement</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1050" kern="100">
+            <a:effectLst/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5080</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>181611</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5080</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直線コネクタ 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17DE0817-9472-44B2-A1A1-E57388C3F691}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2748280" y="905511"/>
+          <a:ext cx="0" cy="2018665"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>100853</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123268</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>593912</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>172982</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="テキスト ボックス 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C771959-A671-49FE-886C-9D1C4CB73BE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="784412" y="2958356"/>
+          <a:ext cx="1860176" cy="285038"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" kern="100">
+              <a:effectLst/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Reference drawing</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:effectLst/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>390313</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>325331</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1905</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="正方形/長方形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{235753B1-1BF6-4089-B31A-476D2881D9A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1076113" y="1068705"/>
+          <a:ext cx="1306618" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Reference Line</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>390313</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>209214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>325331</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>107240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="正方形/長方形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{411FBEEC-6E9F-4FCC-A39C-AF4AF2E98193}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1076113" y="1885614"/>
+          <a:ext cx="1306618" cy="374276"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" kern="100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Reference</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" kern="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> Circle</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>89645</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>134474</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>414616</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>206915</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="テキスト ボックス 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1292354D-EE23-4886-9770-907DE9913FF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2823880" y="2969562"/>
+          <a:ext cx="1692089" cy="307765"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="100" baseline="0">
+              <a:effectLst/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Lettering </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="100">
+              <a:effectLst/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>preparation</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:effectLst/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>164356</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>658345</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>202303</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="テキスト ボックス 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A2F74A3-C1A2-4481-9B6A-D29ECD477ECB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6599704" y="2999444"/>
+          <a:ext cx="1577788" cy="273271"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" kern="100">
+              <a:effectLst/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Arangement</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:effectLst/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>280147</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1905</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="正方形/長方形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9BA6296-D7E3-4548-A22D-332B8618965D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6452347" y="1152525"/>
+          <a:ext cx="1472453" cy="287655"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Arc</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>  placement</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>12476</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>181611</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>12476</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直線コネクタ 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76B00881-A982-4C3F-8E30-56FC59A5975A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="15100076" y="905511"/>
+          <a:ext cx="0" cy="2018665"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>16398</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>181611</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>16398</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直線コネクタ 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0924107C-46AB-456A-A5D3-417B276DD2A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="17161398" y="905511"/>
+          <a:ext cx="0" cy="2018665"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>4445</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>181611</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>4445</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="直線コネクタ 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F5BD7FD-2043-40D6-BDDD-644895DE7421}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="18521045" y="905511"/>
+          <a:ext cx="0" cy="2018665"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>181611</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直線コネクタ 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0793CD67-FB0F-46B8-9A6C-0B07E3733722}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="22637750" y="905511"/>
+          <a:ext cx="0" cy="2018665"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>664845</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>181611</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>664845</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="直線コネクタ 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{756FFEA1-7531-4A1B-84EA-5C64AB165634}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="24667845" y="905511"/>
+          <a:ext cx="0" cy="2018665"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>19685</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>181611</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>19685</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="直線コネクタ 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2416C95-692B-4E5E-90D4-9108448BB0CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="26765885" y="905511"/>
+          <a:ext cx="0" cy="2018665"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>16279</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>181611</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>16279</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直線コネクタ 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1D46E8A-A1C6-4E14-B9B7-8AF096673A97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9617479" y="905511"/>
+          <a:ext cx="0" cy="2018665"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>4445</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>181611</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>4445</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="直線コネクタ 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E5A1E0A-F10A-4527-9D4B-06361135CF70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="20578445" y="905511"/>
+          <a:ext cx="0" cy="2018665"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>398163</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>324971</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85165</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="正方形/長方形 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A6210DE-E16F-4E2D-B0A1-1241344517D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1083963" y="1438275"/>
+          <a:ext cx="1298408" cy="323290"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Delete</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>201707</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>171974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>451724</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>219623</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="正方形/長方形 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3439984-6327-4F5E-9022-B3A56F943556}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2944907" y="1133999"/>
+          <a:ext cx="1621617" cy="285774"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Fixed form character</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>393681</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>85165</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>320489</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>170329</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="正方形/長方形 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5408A711-D59D-40F3-A58B-EE30C013F714}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1079481" y="2237815"/>
+          <a:ext cx="1298408" cy="323289"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Delete</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>181535</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>115943</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>549088</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>163592</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="正方形/長方形 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A026DB3-E3CA-485C-83A5-109107397685}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2924735" y="1554218"/>
+          <a:ext cx="1739153" cy="285774"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Template</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>188258</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>167493</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>438275</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>215143</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="正方形/長方形 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C2F4E56-AB51-4646-9777-38ADAC4F8A71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2922493" y="2296611"/>
+          <a:ext cx="1617135" cy="282973"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Editing "CH"</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>194982</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>207836</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>448235</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>20160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="正方形/長方形 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF8A383F-E76D-40E2-95C3-3D51781E74E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2929217" y="2572277"/>
+          <a:ext cx="1620371" cy="282971"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Brand Balloon</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>385390</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>189042</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>400630</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="正方形/長方形 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{188941BD-162E-435F-B1C5-E07E963EBD34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7929190" y="1151067"/>
+          <a:ext cx="1386840" cy="287208"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" kern="100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Target "CH"</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>5266</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>407353</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>51548</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="正方形/長方形 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C214E0E4-22F7-4C39-A634-C5C49B71CBC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7924801" y="1443541"/>
+          <a:ext cx="1397952" cy="284407"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" kern="100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Radial direction</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>376517</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>56815</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>402869</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>103096</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="正方形/長方形 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37139F33-226F-46CF-9A16-5D43652DEC5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7920317" y="1733215"/>
+          <a:ext cx="1397952" cy="284406"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" kern="100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>DIA direction</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>283882</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>227293</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>381560</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>35524</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="正方形/長方形 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{677650DC-DB0B-4A93-8A45-32E0D3C82FAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6456082" y="2141818"/>
+          <a:ext cx="1469278" cy="284481"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" kern="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>P</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>lacement</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" kern="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" kern="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>"modi"</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>389777</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>228638</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>412954</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>42211</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="正方形/長方形 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0DEC4A2-7BA9-4098-90BF-EF7A38F5EA29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7933577" y="2143163"/>
+          <a:ext cx="1394777" cy="289823"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" kern="100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Move</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>394073</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19463</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>417250</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>72094</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="正方形/長方形 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91BAFD2F-5CA8-4031-B408-5E0B63C5DEAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7937873" y="2410238"/>
+          <a:ext cx="1394777" cy="290756"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" kern="100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Delete</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>293967</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>145679</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>504637</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>183627</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="テキスト ボックス 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF42F60B-A93B-4D9C-803B-2E67307E7BAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9863791" y="2980767"/>
+          <a:ext cx="1577787" cy="273272"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" kern="100">
+              <a:effectLst/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Table</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" kern="100" baseline="0">
+              <a:effectLst/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> drawing</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:effectLst/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>99894</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>320675</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>209551</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="図 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06F892BB-6423-4AE7-9285-2C1CE9B41F8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="12145" t="10223" r="33666" b="20097"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2085974" y="46543794"/>
+          <a:ext cx="14008101" cy="10110907"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>206375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="図 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2548DE6E-6B1A-4491-B4B6-7A392ECB7A3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect l="11355" t="13882" r="33690" b="26425"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12630150" y="51412775"/>
+          <a:ext cx="10096500" cy="6143626"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>209176</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>212352</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>306854</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>20582</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="正方形/長方形 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2D6256B-5A1C-4EB1-BD29-2587F2C8AD37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9810376" y="1174377"/>
+          <a:ext cx="1469278" cy="284480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" kern="100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Code table</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>215152</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38436</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>302559</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>123601</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="正方形/長方形 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C38D310-818E-4421-B9BA-72CA0BA26880}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9816352" y="1476711"/>
+          <a:ext cx="1459007" cy="323290"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Delete</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>3509</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>176008</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>3509</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>51548</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="直線コネクタ 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81B3F626-6F7D-4918-BE95-4C875FF8D4EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11662109" y="899908"/>
+          <a:ext cx="0" cy="2018665"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>168093</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>43633</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="80" name="直線コネクタ 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74F91133-C15E-4271-AA2D-70298704D91A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6172200" y="891993"/>
+          <a:ext cx="0" cy="2018665"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>557961</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>573201</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>158341</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="正方形/長方形 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7E9FBEA-3614-4218-AD0F-9AC06EBE8B57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4672761" y="1550334"/>
+          <a:ext cx="1386840" cy="284407"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Template  1</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>564683</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>163606</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>209887</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="正方形/長方形 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69DAA1B2-4A1A-41FE-9420-D557BED040E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4679483" y="1840006"/>
+          <a:ext cx="1378417" cy="284406"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Template  2</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>560201</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>226359</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>575441</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>37317</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="正方形/長方形 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B03C65E-F31E-4E30-8FDA-4DDBD0CBAD92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4675001" y="2140884"/>
+          <a:ext cx="1386840" cy="287208"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Template  3</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>470647</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>150500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>560294</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>188448</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="100" name="テキスト ボックス 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3ED2DB33-E5D6-42DC-AECE-23D47E54E7D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12091147" y="2985588"/>
+          <a:ext cx="2140323" cy="273272"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" kern="100">
+              <a:effectLst/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Conservation management</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:effectLst/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>351118</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>223557</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>448795</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>31787</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="101" name="正方形/長方形 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C15AAE2E-DA8E-426F-8EE0-8F30621C02B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12009718" y="1185582"/>
+          <a:ext cx="1469277" cy="284480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" kern="100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Drawing "resist"</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>448142</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>229383</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>463383</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>40341</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="102" name="正方形/長方形 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6059392-D9D7-4985-8D19-29527BFFE85F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13478342" y="1191408"/>
+          <a:ext cx="1386841" cy="287208"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" kern="100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>NEW</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>443752</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>45607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>459441</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>91889</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="103" name="正方形/長方形 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB175474-E109-4259-BB4D-4F21580B024C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13473952" y="1483882"/>
+          <a:ext cx="1387289" cy="284407"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" kern="100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Revision number</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>450474</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>459440</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>132231</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="104" name="正方形/長方形 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30015962-9D0D-43E5-8D41-5A42EA5A87CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13480674" y="1762350"/>
+          <a:ext cx="1380566" cy="284406"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" kern="100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>modyfy</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>302558</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>425823</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="105" name="二等辺三角形 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A257C9C-0FC7-4871-9970-BBA40E378A9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="13332758" y="1289797"/>
+          <a:ext cx="123265" cy="100853"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>208429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>466165</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>73959</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="106" name="二等辺三角形 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{366C7F73-39C0-4487-A08E-63BAB4A24B14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="4457700" y="1646704"/>
+          <a:ext cx="123265" cy="103655"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>208429</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>17930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>331694</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>118783</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="107" name="二等辺三角形 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3116707-7459-4CC5-A92D-668A384B2D95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="7752229" y="1218080"/>
+          <a:ext cx="123265" cy="100853"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>237565</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>80683</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>360830</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>181536</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="108" name="二等辺三角形 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2A4FAEC-6D1C-4D0F-9A36-261B4318C174}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="7781365" y="2233333"/>
+          <a:ext cx="123265" cy="100853"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>133229</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>10072</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="109" name="図 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DA20F8E-667D-428B-A103-6F824C98D165}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="59064525"/>
+          <a:ext cx="3562229" cy="2629447"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>293593</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38436</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>391270</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>81990</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="110" name="正方形/長方形 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{836AD0AB-E179-4ACD-B28F-40AD3DC64F64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15381193" y="1238586"/>
+          <a:ext cx="1469277" cy="281679"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" kern="100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Group</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190502</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>37504</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>440519</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>85153</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="111" name="正方形/長方形 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3439984-6327-4F5E-9022-B3A56F943556}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2924737" y="1931298"/>
+          <a:ext cx="1617135" cy="282973"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Primitive "CH"</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>134471</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>201706</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>481853</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="112" name="正方形/長方形 111"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2868706" y="1860177"/>
+          <a:ext cx="1714500" cy="403411"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -3900,7 +8327,7 @@
   <dimension ref="A3:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4669,18 +9096,34 @@
       <c r="K25" s="5"/>
       <c r="L25" s="9"/>
     </row>
-    <row r="26" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:12" s="20" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <v>22</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="10"/>
+      <c r="B26" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F26" s="5">
+        <v>44837</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="J26" s="3"/>
       <c r="K26" s="5"/>
       <c r="L26" s="9"/>
@@ -4915,371 +9358,416 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="C4 C6 C41:C1048576">
-    <cfRule type="containsText" dxfId="229" priority="785" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="240" priority="796" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:L4 A8 A10 A12 A14 L32 J19:J25 K10:L10 D10:H10 J11:L18 J6:L6 A6:D6 A3 D3:L3 A41:L1048576 E11 B10:B11 D12:E12 D13:F13 E14 D15:F15 A16:A32 E16:E20 E23:F23 E24">
-    <cfRule type="expression" dxfId="228" priority="783">
+    <cfRule type="expression" dxfId="239" priority="794">
       <formula>$I3="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="227" priority="784">
+    <cfRule type="expression" dxfId="238" priority="795">
       <formula>$I3="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="containsText" dxfId="226" priority="298" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="237" priority="309" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:I5 I10 K5:L5 I26:I38">
-    <cfRule type="expression" dxfId="225" priority="296">
+  <conditionalFormatting sqref="C5:I5 I10 K5:L5 I27:I38">
+    <cfRule type="expression" dxfId="236" priority="307">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="224" priority="297">
+    <cfRule type="expression" dxfId="235" priority="308">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5 A7 A9 A11 A13 A15">
-    <cfRule type="expression" dxfId="223" priority="294">
+    <cfRule type="expression" dxfId="234" priority="305">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="222" priority="295">
+    <cfRule type="expression" dxfId="233" priority="306">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7 C9:C10 C13 C15">
-    <cfRule type="containsText" dxfId="221" priority="238" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="232" priority="249" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:F9 C10 J10 J7:L9 C7 D8:F8 C13 C15">
+    <cfRule type="expression" dxfId="231" priority="247">
+      <formula>$I7="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="230" priority="248">
+      <formula>$I7="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32:C35 C38:C40">
+    <cfRule type="containsText" dxfId="229" priority="244" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27:B31 B32:D32 H32 A33:H35 A39:L40 B38:E38 J38 J26:J35 A36:A40">
+    <cfRule type="expression" dxfId="228" priority="242">
+      <formula>$I26="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="227" priority="243">
+      <formula>$I26="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27:C31">
+    <cfRule type="containsText" dxfId="226" priority="241" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C27)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27:H30 C31 E31:H31 E25 D26:E26">
+    <cfRule type="expression" dxfId="225" priority="239">
+      <formula>$I25="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="224" priority="240">
+      <formula>$I25="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="expression" dxfId="223" priority="237">
+      <formula>$I32="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="222" priority="238">
+      <formula>$I32="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32:G32">
+    <cfRule type="expression" dxfId="221" priority="235">
+      <formula>$I32="確認中"</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="220" priority="236">
+      <formula>$I32="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32">
+    <cfRule type="expression" dxfId="219" priority="233">
+      <formula>$I32="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="218" priority="234">
+      <formula>$I32="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36:C37">
+    <cfRule type="containsText" dxfId="217" priority="232" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36:H36 B37:E37 J36:J37">
+    <cfRule type="expression" dxfId="216" priority="230">
+      <formula>$I36="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="215" priority="231">
+      <formula>$I36="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37:H38">
+    <cfRule type="expression" dxfId="214" priority="228">
+      <formula>$I37="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="213" priority="229">
+      <formula>$I37="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K19:L31">
+    <cfRule type="expression" dxfId="212" priority="226">
+      <formula>$I19="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="211" priority="227">
+      <formula>$I19="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K33:L38">
+    <cfRule type="expression" dxfId="210" priority="224">
+      <formula>$I33="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="209" priority="225">
+      <formula>$I33="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
+    <cfRule type="expression" dxfId="208" priority="222">
+      <formula>$I31="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="207" priority="223">
+      <formula>$I31="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="expression" dxfId="206" priority="220">
+      <formula>$I6="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="205" priority="221">
+      <formula>$I6="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="expression" dxfId="204" priority="218">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="219" priority="237">
+    <cfRule type="expression" dxfId="203" priority="219">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C32:C35 C38:C40">
-    <cfRule type="containsText" dxfId="218" priority="233" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B26:B31 B32:D32 H32 A33:H35 A39:L40 B38:E38 J38 J26:J35 A36:A40">
-    <cfRule type="expression" dxfId="217" priority="231">
-      <formula>$I26="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="216" priority="232">
-      <formula>$I26="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26:C31">
-    <cfRule type="containsText" dxfId="215" priority="230" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C26)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26:H30 C31 E31:H31 E25">
-    <cfRule type="expression" dxfId="214" priority="228">
-      <formula>$I25="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="213" priority="229">
-      <formula>$I25="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="expression" dxfId="212" priority="226">
-      <formula>$I32="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="211" priority="227">
-      <formula>$I32="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F32:G32">
-    <cfRule type="expression" dxfId="210" priority="224">
-      <formula>$I32="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="209" priority="225">
-      <formula>$I32="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K32">
-    <cfRule type="expression" dxfId="208" priority="222">
-      <formula>$I32="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="207" priority="223">
-      <formula>$I32="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C36:C37">
-    <cfRule type="containsText" dxfId="206" priority="221" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B36:H36 B37:E37 J36:J37">
-    <cfRule type="expression" dxfId="205" priority="219">
-      <formula>$I36="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="204" priority="220">
-      <formula>$I36="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F37:H38">
-    <cfRule type="expression" dxfId="203" priority="217">
-      <formula>$I37="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="202" priority="218">
-      <formula>$I37="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K19:L31">
-    <cfRule type="expression" dxfId="201" priority="215">
-      <formula>$I19="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="200" priority="216">
-      <formula>$I19="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K33:L38">
-    <cfRule type="expression" dxfId="199" priority="213">
-      <formula>$I33="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="198" priority="214">
-      <formula>$I33="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
-    <cfRule type="expression" dxfId="197" priority="211">
-      <formula>$I31="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="196" priority="212">
-      <formula>$I31="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="195" priority="209">
+  <conditionalFormatting sqref="B5">
+    <cfRule type="expression" dxfId="202" priority="206">
+      <formula>$I5="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="201" priority="207">
+      <formula>$I5="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="expression" dxfId="200" priority="210">
+      <formula>$I7="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="199" priority="211">
+      <formula>$I7="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6:I6">
+    <cfRule type="expression" dxfId="198" priority="204">
       <formula>$I6="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="194" priority="210">
+    <cfRule type="expression" dxfId="197" priority="205">
       <formula>$I6="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="193" priority="207">
+  <conditionalFormatting sqref="E6">
+    <cfRule type="expression" dxfId="196" priority="202">
+      <formula>$I6="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="195" priority="203">
+      <formula>$I6="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5">
+    <cfRule type="expression" dxfId="194" priority="200">
+      <formula>$I5="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="193" priority="201">
+      <formula>$I5="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7">
+    <cfRule type="expression" dxfId="192" priority="198">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="192" priority="208">
+    <cfRule type="expression" dxfId="191" priority="199">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="191" priority="195">
-      <formula>$I5="確認中"</formula>
-    </cfRule>
+  <conditionalFormatting sqref="G7:I7">
     <cfRule type="expression" dxfId="190" priority="196">
-      <formula>$I5="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="189" priority="199">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="188" priority="200">
+    <cfRule type="expression" dxfId="189" priority="197">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6:I6">
-    <cfRule type="expression" dxfId="187" priority="193">
-      <formula>$I6="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="186" priority="194">
-      <formula>$I6="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="B8">
+    <cfRule type="expression" dxfId="188" priority="194">
+      <formula>$I8="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="187" priority="195">
+      <formula>$I8="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="containsText" dxfId="186" priority="193" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
     <cfRule type="expression" dxfId="185" priority="191">
-      <formula>$I6="確認中"</formula>
+      <formula>$I8="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="184" priority="192">
-      <formula>$I6="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J5">
+      <formula>$I8="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:I8">
     <cfRule type="expression" dxfId="183" priority="189">
-      <formula>$I5="確認中"</formula>
+      <formula>$I8="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="182" priority="190">
-      <formula>$I5="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7">
+      <formula>$I8="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9">
     <cfRule type="expression" dxfId="181" priority="187">
+      <formula>$I9="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="180" priority="188">
+      <formula>$I9="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9:I9">
+    <cfRule type="expression" dxfId="179" priority="185">
+      <formula>$I9="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="178" priority="186">
+      <formula>$I9="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="expression" dxfId="177" priority="183">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="180" priority="188">
+    <cfRule type="expression" dxfId="176" priority="184">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7:I7">
-    <cfRule type="expression" dxfId="179" priority="185">
-      <formula>$I7="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="178" priority="186">
-      <formula>$I7="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="177" priority="183">
-      <formula>$I8="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="176" priority="184">
-      <formula>$I8="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="containsText" dxfId="175" priority="182" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="174" priority="180">
-      <formula>$I8="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="173" priority="181">
-      <formula>$I8="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8:I8">
+  <conditionalFormatting sqref="D11">
+    <cfRule type="expression" dxfId="175" priority="181">
+      <formula>$I11="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="174" priority="182">
+      <formula>$I11="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
+    <cfRule type="containsText" dxfId="173" priority="180" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
     <cfRule type="expression" dxfId="172" priority="178">
-      <formula>$I8="確認中"</formula>
+      <formula>$I11="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="171" priority="179">
-      <formula>$I8="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9">
+      <formula>$I11="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11:H11">
     <cfRule type="expression" dxfId="170" priority="176">
-      <formula>$I9="確認中"</formula>
+      <formula>$I11="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="169" priority="177">
-      <formula>$I9="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G9:I9">
+      <formula>$I11="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11">
     <cfRule type="expression" dxfId="168" priority="174">
-      <formula>$I9="確認中"</formula>
+      <formula>$I11="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="167" priority="175">
-      <formula>$I9="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
+      <formula>$I11="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12">
     <cfRule type="expression" dxfId="166" priority="172">
-      <formula>$I7="確認中"</formula>
+      <formula>$I12="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="165" priority="173">
-      <formula>$I7="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="164" priority="170">
-      <formula>$I11="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="163" priority="171">
-      <formula>$I11="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
-    <cfRule type="containsText" dxfId="162" priority="169" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C11)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="containsText" dxfId="164" priority="171" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="expression" dxfId="163" priority="169">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="162" priority="170">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12:H12">
     <cfRule type="expression" dxfId="161" priority="167">
-      <formula>$I11="確認中"</formula>
+      <formula>$I12="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="160" priority="168">
-      <formula>$I11="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11:H11">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12">
     <cfRule type="expression" dxfId="159" priority="165">
-      <formula>$I11="確認中"</formula>
+      <formula>$I12="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="158" priority="166">
-      <formula>$I11="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I11">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13">
     <cfRule type="expression" dxfId="157" priority="163">
-      <formula>$I11="確認中"</formula>
+      <formula>$I13="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="156" priority="164">
-      <formula>$I11="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12">
+      <formula>$I13="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13:H13">
     <cfRule type="expression" dxfId="155" priority="161">
-      <formula>$I12="確認中"</formula>
+      <formula>$I13="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="154" priority="162">
-      <formula>$I12="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="containsText" dxfId="153" priority="160" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="152" priority="158">
-      <formula>$I12="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="151" priority="159">
-      <formula>$I12="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F12:H12">
-    <cfRule type="expression" dxfId="150" priority="156">
-      <formula>$I12="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="149" priority="157">
-      <formula>$I12="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I12">
+      <formula>$I13="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="expression" dxfId="153" priority="159">
+      <formula>$I13="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="152" priority="160">
+      <formula>$I13="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="expression" dxfId="151" priority="157">
+      <formula>$I14="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="150" priority="158">
+      <formula>$I14="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="containsText" dxfId="149" priority="156" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
     <cfRule type="expression" dxfId="148" priority="154">
-      <formula>$I12="確認中"</formula>
+      <formula>$I14="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="147" priority="155">
-      <formula>$I12="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B13">
+      <formula>$I14="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14">
     <cfRule type="expression" dxfId="146" priority="152">
-      <formula>$I13="確認中"</formula>
+      <formula>$I14="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="145" priority="153">
-      <formula>$I13="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G13:H13">
+      <formula>$I14="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
     <cfRule type="expression" dxfId="144" priority="150">
-      <formula>$I13="確認中"</formula>
+      <formula>$I14="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="143" priority="151">
-      <formula>$I13="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
+      <formula>$I14="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14:H14">
     <cfRule type="expression" dxfId="142" priority="148">
-      <formula>$I13="確認中"</formula>
+      <formula>$I14="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="141" priority="149">
-      <formula>$I13="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
+      <formula>$I14="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14">
     <cfRule type="expression" dxfId="140" priority="146">
       <formula>$I14="確認中"</formula>
     </cfRule>
@@ -5287,76 +9775,76 @@
       <formula>$I14="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="containsText" dxfId="138" priority="145" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C14)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="137" priority="143">
-      <formula>$I14="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="136" priority="144">
-      <formula>$I14="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
-    <cfRule type="expression" dxfId="135" priority="141">
-      <formula>$I14="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="134" priority="142">
-      <formula>$I14="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
-    <cfRule type="expression" dxfId="133" priority="139">
-      <formula>$I14="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="132" priority="140">
-      <formula>$I14="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G14:H14">
-    <cfRule type="expression" dxfId="131" priority="137">
-      <formula>$I14="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="130" priority="138">
-      <formula>$I14="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I14">
+  <conditionalFormatting sqref="B15">
+    <cfRule type="expression" dxfId="138" priority="144">
+      <formula>$I15="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="137" priority="145">
+      <formula>$I15="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15:H15">
+    <cfRule type="expression" dxfId="136" priority="142">
+      <formula>$I15="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="135" priority="143">
+      <formula>$I15="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
+    <cfRule type="expression" dxfId="134" priority="140">
+      <formula>$I15="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="133" priority="141">
+      <formula>$I15="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="expression" dxfId="132" priority="138">
+      <formula>$I16="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="131" priority="139">
+      <formula>$I16="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="containsText" dxfId="130" priority="137" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
     <cfRule type="expression" dxfId="129" priority="135">
-      <formula>$I14="確認中"</formula>
+      <formula>$I16="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="128" priority="136">
-      <formula>$I14="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15">
+      <formula>$I16="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16">
     <cfRule type="expression" dxfId="127" priority="133">
-      <formula>$I15="確認中"</formula>
+      <formula>$I16="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="126" priority="134">
-      <formula>$I15="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G15:H15">
+      <formula>$I16="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16">
     <cfRule type="expression" dxfId="125" priority="131">
-      <formula>$I15="確認中"</formula>
+      <formula>$I16="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="124" priority="132">
-      <formula>$I15="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I15">
+      <formula>$I16="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16:H16">
     <cfRule type="expression" dxfId="123" priority="129">
-      <formula>$I15="確認中"</formula>
+      <formula>$I16="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="122" priority="130">
-      <formula>$I15="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
+      <formula>$I16="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
     <cfRule type="expression" dxfId="121" priority="127">
       <formula>$I16="確認中"</formula>
     </cfRule>
@@ -5364,253 +9852,253 @@
       <formula>$I16="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="containsText" dxfId="119" priority="126" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="118" priority="124">
-      <formula>$I16="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="117" priority="125">
-      <formula>$I16="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16">
+  <conditionalFormatting sqref="D17">
+    <cfRule type="expression" dxfId="119" priority="125">
+      <formula>$I17="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="118" priority="126">
+      <formula>$I17="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
+    <cfRule type="containsText" dxfId="117" priority="124" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
     <cfRule type="expression" dxfId="116" priority="122">
-      <formula>$I16="確認中"</formula>
+      <formula>$I17="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="115" priority="123">
-      <formula>$I16="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F16">
+      <formula>$I17="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17">
     <cfRule type="expression" dxfId="114" priority="120">
-      <formula>$I16="確認中"</formula>
+      <formula>$I17="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="113" priority="121">
-      <formula>$I16="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16:H16">
+      <formula>$I17="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17:H17">
     <cfRule type="expression" dxfId="112" priority="118">
-      <formula>$I16="確認中"</formula>
+      <formula>$I17="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="111" priority="119">
-      <formula>$I16="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I16">
+      <formula>$I17="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17">
     <cfRule type="expression" dxfId="110" priority="116">
-      <formula>$I16="確認中"</formula>
+      <formula>$I17="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="109" priority="117">
-      <formula>$I16="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
+      <formula>$I17="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
     <cfRule type="expression" dxfId="108" priority="114">
-      <formula>$I17="確認中"</formula>
+      <formula>$I18="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="107" priority="115">
-      <formula>$I17="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17">
+      <formula>$I18="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
     <cfRule type="containsText" dxfId="106" priority="113" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C17)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17">
+      <formula>NOT(ISERROR(SEARCH("高",C18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
     <cfRule type="expression" dxfId="105" priority="111">
-      <formula>$I17="確認中"</formula>
+      <formula>$I18="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="104" priority="112">
-      <formula>$I17="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F17">
+      <formula>$I18="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18">
     <cfRule type="expression" dxfId="103" priority="109">
-      <formula>$I17="確認中"</formula>
+      <formula>$I18="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="102" priority="110">
-      <formula>$I17="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G17:H17">
+      <formula>$I18="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18:H18">
     <cfRule type="expression" dxfId="101" priority="107">
-      <formula>$I17="確認中"</formula>
+      <formula>$I18="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="100" priority="108">
-      <formula>$I17="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I17">
+      <formula>$I18="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18">
     <cfRule type="expression" dxfId="99" priority="105">
-      <formula>$I17="確認中"</formula>
+      <formula>$I18="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="98" priority="106">
-      <formula>$I17="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
+      <formula>$I18="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
     <cfRule type="expression" dxfId="97" priority="103">
-      <formula>$I18="確認中"</formula>
+      <formula>$I19="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="96" priority="104">
-      <formula>$I18="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
+      <formula>$I19="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
     <cfRule type="containsText" dxfId="95" priority="102" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C18)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
+      <formula>NOT(ISERROR(SEARCH("高",C19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
     <cfRule type="expression" dxfId="94" priority="100">
-      <formula>$I18="確認中"</formula>
+      <formula>$I19="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="93" priority="101">
-      <formula>$I18="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
+      <formula>$I19="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19">
     <cfRule type="expression" dxfId="92" priority="98">
-      <formula>$I18="確認中"</formula>
+      <formula>$I19="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="91" priority="99">
-      <formula>$I18="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G18:H18">
+      <formula>$I19="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19:H19">
     <cfRule type="expression" dxfId="90" priority="96">
-      <formula>$I18="確認中"</formula>
+      <formula>$I19="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="89" priority="97">
-      <formula>$I18="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I18">
+      <formula>$I19="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19">
     <cfRule type="expression" dxfId="88" priority="94">
-      <formula>$I18="確認中"</formula>
+      <formula>$I19="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="87" priority="95">
-      <formula>$I18="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
+      <formula>$I19="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
     <cfRule type="expression" dxfId="86" priority="92">
-      <formula>$I19="確認中"</formula>
+      <formula>$I20="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="85" priority="93">
-      <formula>$I19="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
+      <formula>$I20="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
     <cfRule type="containsText" dxfId="84" priority="91" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C19)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
+      <formula>NOT(ISERROR(SEARCH("高",C20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
     <cfRule type="expression" dxfId="83" priority="89">
-      <formula>$I19="確認中"</formula>
+      <formula>$I20="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="82" priority="90">
-      <formula>$I19="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F19">
+      <formula>$I20="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
     <cfRule type="expression" dxfId="81" priority="87">
-      <formula>$I19="確認中"</formula>
+      <formula>$I20="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="80" priority="88">
-      <formula>$I19="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G19:H19">
+      <formula>$I20="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20:H20">
     <cfRule type="expression" dxfId="79" priority="85">
-      <formula>$I19="確認中"</formula>
+      <formula>$I20="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="78" priority="86">
-      <formula>$I19="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I19">
+      <formula>$I20="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20">
     <cfRule type="expression" dxfId="77" priority="83">
-      <formula>$I19="確認中"</formula>
+      <formula>$I20="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="76" priority="84">
-      <formula>$I19="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
+      <formula>$I20="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22">
     <cfRule type="expression" dxfId="75" priority="81">
-      <formula>$I20="確認中"</formula>
+      <formula>$I22="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="74" priority="82">
-      <formula>$I20="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
+      <formula>$I22="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22">
     <cfRule type="containsText" dxfId="73" priority="80" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
+      <formula>NOT(ISERROR(SEARCH("高",C22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22">
     <cfRule type="expression" dxfId="72" priority="78">
-      <formula>$I20="確認中"</formula>
+      <formula>$I22="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="71" priority="79">
-      <formula>$I20="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="expression" dxfId="70" priority="76">
-      <formula>$I20="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="69" priority="77">
-      <formula>$I20="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G20:H20">
-    <cfRule type="expression" dxfId="68" priority="74">
-      <formula>$I20="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="67" priority="75">
-      <formula>$I20="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
-    <cfRule type="expression" dxfId="66" priority="72">
-      <formula>$I20="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="65" priority="73">
-      <formula>$I20="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="expression" dxfId="64" priority="70">
-      <formula>$I22="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="63" priority="71">
       <formula>$I22="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
-    <cfRule type="containsText" dxfId="62" priority="69" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C22)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
-    <cfRule type="expression" dxfId="61" priority="67">
-      <formula>$I22="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="60" priority="68">
-      <formula>$I22="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E21">
+    <cfRule type="expression" dxfId="70" priority="70">
+      <formula>$I21="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="69" priority="71">
+      <formula>$I21="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21">
+    <cfRule type="expression" dxfId="68" priority="68">
+      <formula>$I21="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="67" priority="69">
+      <formula>$I21="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="containsText" dxfId="66" priority="67" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="expression" dxfId="65" priority="65">
+      <formula>$I21="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="64" priority="66">
+      <formula>$I21="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="expression" dxfId="63" priority="63">
+      <formula>$I21="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="64">
+      <formula>$I21="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G21:H21">
+    <cfRule type="expression" dxfId="61" priority="61">
+      <formula>$I21="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="62">
+      <formula>$I21="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21">
     <cfRule type="expression" dxfId="59" priority="59">
       <formula>$I21="確認中"</formula>
     </cfRule>
@@ -5618,137 +10106,137 @@
       <formula>$I21="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D21">
+  <conditionalFormatting sqref="F22">
     <cfRule type="expression" dxfId="57" priority="57">
-      <formula>$I21="確認中"</formula>
+      <formula>$I22="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="56" priority="58">
-      <formula>$I21="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="containsText" dxfId="55" priority="56" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C21)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="54" priority="54">
-      <formula>$I21="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="53" priority="55">
-      <formula>$I21="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
-    <cfRule type="expression" dxfId="52" priority="52">
-      <formula>$I21="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="51" priority="53">
-      <formula>$I21="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G21:H21">
-    <cfRule type="expression" dxfId="50" priority="50">
-      <formula>$I21="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="49" priority="51">
-      <formula>$I21="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I21">
-    <cfRule type="expression" dxfId="48" priority="48">
-      <formula>$I21="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="47" priority="49">
-      <formula>$I21="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F22">
-    <cfRule type="expression" dxfId="46" priority="46">
+      <formula>$I22="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22:H22">
+    <cfRule type="expression" dxfId="55" priority="55">
       <formula>$I22="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="47">
+    <cfRule type="expression" dxfId="54" priority="56">
       <formula>$I22="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G22:H22">
-    <cfRule type="expression" dxfId="44" priority="44">
+  <conditionalFormatting sqref="I22">
+    <cfRule type="expression" dxfId="53" priority="53">
       <formula>$I22="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="45">
+    <cfRule type="expression" dxfId="52" priority="54">
       <formula>$I22="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I22">
-    <cfRule type="expression" dxfId="42" priority="42">
+  <conditionalFormatting sqref="E22">
+    <cfRule type="expression" dxfId="51" priority="51">
       <formula>$I22="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="43">
+    <cfRule type="expression" dxfId="50" priority="52">
       <formula>$I22="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
+  <conditionalFormatting sqref="B17:B22">
+    <cfRule type="expression" dxfId="49" priority="49">
+      <formula>$I17="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="50">
+      <formula>$I17="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23:H23">
+    <cfRule type="expression" dxfId="47" priority="47">
+      <formula>$I23="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="48">
+      <formula>$I23="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23">
+    <cfRule type="expression" dxfId="45" priority="45">
+      <formula>$I23="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="46">
+      <formula>$I23="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23">
+    <cfRule type="expression" dxfId="43" priority="43">
+      <formula>$I23="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="44">
+      <formula>$I23="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="containsText" dxfId="41" priority="42" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
     <cfRule type="expression" dxfId="40" priority="40">
-      <formula>$I22="確認中"</formula>
+      <formula>$I23="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="39" priority="41">
-      <formula>$I22="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B17:B22">
+      <formula>$I23="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23">
     <cfRule type="expression" dxfId="38" priority="38">
-      <formula>$I17="確認中"</formula>
+      <formula>$I23="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="37" priority="39">
-      <formula>$I17="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G23:H23">
+      <formula>$I23="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24">
     <cfRule type="expression" dxfId="36" priority="36">
-      <formula>$I23="確認中"</formula>
+      <formula>$I24="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="35" priority="37">
-      <formula>$I23="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I23">
-    <cfRule type="expression" dxfId="34" priority="34">
-      <formula>$I23="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="35">
-      <formula>$I23="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="32" priority="32">
-      <formula>$I23="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="31" priority="33">
-      <formula>$I23="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
-    <cfRule type="containsText" dxfId="30" priority="31" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C23)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
+      <formula>$I24="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
+    <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
+    <cfRule type="expression" dxfId="33" priority="33">
+      <formula>$I24="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="34">
+      <formula>$I24="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24">
+    <cfRule type="expression" dxfId="31" priority="31">
+      <formula>$I24="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="32">
+      <formula>$I24="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
     <cfRule type="expression" dxfId="29" priority="29">
-      <formula>$I23="確認中"</formula>
+      <formula>$I24="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="28" priority="30">
-      <formula>$I23="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23">
+      <formula>$I24="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24:H24">
     <cfRule type="expression" dxfId="27" priority="27">
-      <formula>$I23="確認中"</formula>
+      <formula>$I24="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="26" priority="28">
-      <formula>$I23="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
+      <formula>$I24="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24">
     <cfRule type="expression" dxfId="25" priority="25">
       <formula>$I24="確認中"</formula>
     </cfRule>
@@ -5756,52 +10244,52 @@
       <formula>$I24="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
-    <cfRule type="containsText" dxfId="23" priority="24" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C24)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="22" priority="22">
-      <formula>$I24="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="23">
-      <formula>$I24="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B24">
+  <conditionalFormatting sqref="D25">
+    <cfRule type="expression" dxfId="23" priority="23">
+      <formula>$I25="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="24">
+      <formula>$I25="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="containsText" dxfId="21" priority="22" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
     <cfRule type="expression" dxfId="20" priority="20">
-      <formula>$I24="確認中"</formula>
+      <formula>$I25="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="19" priority="21">
-      <formula>$I24="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
+      <formula>$I25="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25">
     <cfRule type="expression" dxfId="18" priority="18">
-      <formula>$I24="確認中"</formula>
+      <formula>$I25="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="17" priority="19">
-      <formula>$I24="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G24:H24">
+      <formula>$I25="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25">
     <cfRule type="expression" dxfId="16" priority="16">
-      <formula>$I24="確認中"</formula>
+      <formula>$I25="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="15" priority="17">
-      <formula>$I24="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I24">
+      <formula>$I25="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G25:H25">
     <cfRule type="expression" dxfId="14" priority="14">
-      <formula>$I24="確認中"</formula>
+      <formula>$I25="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="13" priority="15">
-      <formula>$I24="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25">
+      <formula>$I25="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25">
     <cfRule type="expression" dxfId="12" priority="12">
       <formula>$I25="確認中"</formula>
     </cfRule>
@@ -5809,49 +10297,49 @@
       <formula>$I25="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
+  <conditionalFormatting sqref="C26">
     <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C25)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
+      <formula>NOT(ISERROR(SEARCH("高",C26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26">
     <cfRule type="expression" dxfId="9" priority="9">
-      <formula>$I25="確認中"</formula>
+      <formula>$I26="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="8" priority="10">
-      <formula>$I25="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B25">
+      <formula>$I26="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26">
     <cfRule type="expression" dxfId="7" priority="7">
-      <formula>$I25="確認中"</formula>
+      <formula>$I26="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="6" priority="8">
-      <formula>$I25="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F25">
+      <formula>$I26="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F26">
     <cfRule type="expression" dxfId="5" priority="5">
-      <formula>$I25="確認中"</formula>
+      <formula>$I26="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="6">
-      <formula>$I25="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G25:H25">
+      <formula>$I26="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26:H26">
     <cfRule type="expression" dxfId="3" priority="3">
-      <formula>$I25="確認中"</formula>
+      <formula>$I26="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="4">
-      <formula>$I25="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I25">
+      <formula>$I26="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I26">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$I25="確認中"</formula>
+      <formula>$I26="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$I25="済み"</formula>
+      <formula>$I26="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
@@ -5964,4 +10452,122 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AP171"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37:D39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="B1" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+    </row>
+    <row r="2" spans="1:42" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A2" s="28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="AP4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="AF5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B114" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D115" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="167" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B167" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="169" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="I169" t="s">
+        <v>79</v>
+      </c>
+      <c r="K169" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="170" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="I170" t="s">
+        <v>81</v>
+      </c>
+      <c r="K170" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="171" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="I171" t="s">
+        <v>83</v>
+      </c>
+      <c r="K171" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="J1:N1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="R1:V1"/>
+    <mergeCell ref="W1:Y1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/質疑表/TOYOTIRE_質疑表 _平.xlsx
+++ b/質疑表/TOYOTIRE_質疑表 _平.xlsx
@@ -17,6 +17,7 @@
     <sheet name="No13" sheetId="26" r:id="rId3"/>
     <sheet name="No16" sheetId="27" r:id="rId4"/>
     <sheet name="No22" sheetId="29" r:id="rId5"/>
+    <sheet name="No23" sheetId="30" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_Toc99549776" localSheetId="0">'障害・要望管理表（今後はこちらに起票）'!$E$7</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="87">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -1208,6 +1209,20 @@
     </rPh>
     <rPh sb="81" eb="83">
       <t>ブブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「円弧配列メニュー案01」シートに「Fixed from character」の構成内容がありますが、AdvanceCADのメニューにある「INMETRO」は不要でしょうか。
+（「No23」シートの赤枠部分になります。）</t>
+    <rPh sb="40" eb="42">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>フヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1502,6 +1517,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1511,14 +1529,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="241">
+  <dxfs count="247">
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -8058,6 +8118,130 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1914525" cy="4133850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>209551</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>200026</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="904875" y="1638301"/>
+          <a:ext cx="1133475" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -8326,8 +8510,8 @@
   </sheetPr>
   <dimension ref="A3:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -8347,11 +8531,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
@@ -9128,18 +9312,32 @@
       <c r="K26" s="5"/>
       <c r="L26" s="9"/>
     </row>
-    <row r="27" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:12" s="20" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
         <v>23</v>
       </c>
       <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="10"/>
+      <c r="C27" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27" s="5">
+        <v>44839</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="J27" s="3"/>
       <c r="K27" s="5"/>
       <c r="L27" s="9"/>
@@ -9358,384 +9556,408 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="C4 C6 C41:C1048576">
-    <cfRule type="containsText" dxfId="240" priority="796" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="246" priority="802" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:L4 A8 A10 A12 A14 L32 J19:J25 K10:L10 D10:H10 J11:L18 J6:L6 A6:D6 A3 D3:L3 A41:L1048576 E11 B10:B11 D12:E12 D13:F13 E14 D15:F15 A16:A32 E16:E20 E23:F23 E24">
-    <cfRule type="expression" dxfId="239" priority="794">
+    <cfRule type="expression" dxfId="245" priority="800">
       <formula>$I3="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="238" priority="795">
+    <cfRule type="expression" dxfId="244" priority="801">
       <formula>$I3="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="containsText" dxfId="237" priority="309" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="243" priority="315" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:I5 I10 K5:L5 I27:I38">
-    <cfRule type="expression" dxfId="236" priority="307">
+  <conditionalFormatting sqref="C5:I5 I10 K5:L5 I28:I38">
+    <cfRule type="expression" dxfId="242" priority="313">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="235" priority="308">
+    <cfRule type="expression" dxfId="241" priority="314">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5 A7 A9 A11 A13 A15">
-    <cfRule type="expression" dxfId="234" priority="305">
+    <cfRule type="expression" dxfId="240" priority="311">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="233" priority="306">
+    <cfRule type="expression" dxfId="239" priority="312">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7 C9:C10 C13 C15">
-    <cfRule type="containsText" dxfId="232" priority="249" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="238" priority="255" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:F9 C10 J10 J7:L9 C7 D8:F8 C13 C15">
-    <cfRule type="expression" dxfId="231" priority="247">
+    <cfRule type="expression" dxfId="237" priority="253">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="230" priority="248">
+    <cfRule type="expression" dxfId="236" priority="254">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:C35 C38:C40">
-    <cfRule type="containsText" dxfId="229" priority="244" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="235" priority="250" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27:B31 B32:D32 H32 A33:H35 A39:L40 B38:E38 J38 J26:J35 A36:A40">
-    <cfRule type="expression" dxfId="228" priority="242">
+    <cfRule type="expression" dxfId="234" priority="248">
       <formula>$I26="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="227" priority="243">
+    <cfRule type="expression" dxfId="233" priority="249">
       <formula>$I26="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27:C31">
-    <cfRule type="containsText" dxfId="226" priority="241" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="232" priority="247" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C27)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C27:H30 C31 E31:H31 E25 D26:E26">
+  <conditionalFormatting sqref="C31 E31:H31 E25 D26:E26 C28:H30 C27:E27">
+    <cfRule type="expression" dxfId="231" priority="245">
+      <formula>$I25="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="230" priority="246">
+      <formula>$I25="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="expression" dxfId="229" priority="243">
+      <formula>$I32="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="228" priority="244">
+      <formula>$I32="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32:G32">
+    <cfRule type="expression" dxfId="227" priority="241">
+      <formula>$I32="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="226" priority="242">
+      <formula>$I32="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32">
     <cfRule type="expression" dxfId="225" priority="239">
-      <formula>$I25="確認中"</formula>
+      <formula>$I32="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="224" priority="240">
-      <formula>$I25="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="expression" dxfId="223" priority="237">
-      <formula>$I32="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="222" priority="238">
       <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F32:G32">
-    <cfRule type="expression" dxfId="221" priority="235">
-      <formula>$I32="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="220" priority="236">
-      <formula>$I32="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K32">
-    <cfRule type="expression" dxfId="219" priority="233">
-      <formula>$I32="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="218" priority="234">
-      <formula>$I32="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C36:C37">
-    <cfRule type="containsText" dxfId="217" priority="232" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="223" priority="238" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:H36 B37:E37 J36:J37">
+    <cfRule type="expression" dxfId="222" priority="236">
+      <formula>$I36="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="221" priority="237">
+      <formula>$I36="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37:H38">
+    <cfRule type="expression" dxfId="220" priority="234">
+      <formula>$I37="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="219" priority="235">
+      <formula>$I37="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K19:L31">
+    <cfRule type="expression" dxfId="218" priority="232">
+      <formula>$I19="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="217" priority="233">
+      <formula>$I19="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K33:L38">
     <cfRule type="expression" dxfId="216" priority="230">
-      <formula>$I36="確認中"</formula>
+      <formula>$I33="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="215" priority="231">
-      <formula>$I36="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F37:H38">
+      <formula>$I33="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
     <cfRule type="expression" dxfId="214" priority="228">
-      <formula>$I37="確認中"</formula>
+      <formula>$I31="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="213" priority="229">
-      <formula>$I37="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K19:L31">
+      <formula>$I31="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
     <cfRule type="expression" dxfId="212" priority="226">
-      <formula>$I19="確認中"</formula>
+      <formula>$I6="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="211" priority="227">
-      <formula>$I19="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K33:L38">
+      <formula>$I6="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
     <cfRule type="expression" dxfId="210" priority="224">
-      <formula>$I33="確認中"</formula>
+      <formula>$I7="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="209" priority="225">
-      <formula>$I33="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
-    <cfRule type="expression" dxfId="208" priority="222">
-      <formula>$I31="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="207" priority="223">
-      <formula>$I31="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="206" priority="220">
+      <formula>$I7="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5">
+    <cfRule type="expression" dxfId="208" priority="212">
+      <formula>$I5="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="207" priority="213">
+      <formula>$I5="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="expression" dxfId="206" priority="216">
+      <formula>$I7="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="205" priority="217">
+      <formula>$I7="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6:I6">
+    <cfRule type="expression" dxfId="204" priority="210">
       <formula>$I6="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="205" priority="221">
+    <cfRule type="expression" dxfId="203" priority="211">
       <formula>$I6="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="204" priority="218">
+  <conditionalFormatting sqref="E6">
+    <cfRule type="expression" dxfId="202" priority="208">
+      <formula>$I6="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="201" priority="209">
+      <formula>$I6="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5">
+    <cfRule type="expression" dxfId="200" priority="206">
+      <formula>$I5="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="199" priority="207">
+      <formula>$I5="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7">
+    <cfRule type="expression" dxfId="198" priority="204">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="203" priority="219">
+    <cfRule type="expression" dxfId="197" priority="205">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="202" priority="206">
-      <formula>$I5="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="201" priority="207">
-      <formula>$I5="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="200" priority="210">
+  <conditionalFormatting sqref="G7:I7">
+    <cfRule type="expression" dxfId="196" priority="202">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="199" priority="211">
+    <cfRule type="expression" dxfId="195" priority="203">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6:I6">
-    <cfRule type="expression" dxfId="198" priority="204">
-      <formula>$I6="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="197" priority="205">
-      <formula>$I6="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="expression" dxfId="196" priority="202">
-      <formula>$I6="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="195" priority="203">
-      <formula>$I6="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J5">
+  <conditionalFormatting sqref="B8">
     <cfRule type="expression" dxfId="194" priority="200">
-      <formula>$I5="確認中"</formula>
+      <formula>$I8="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="193" priority="201">
-      <formula>$I5="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7">
-    <cfRule type="expression" dxfId="192" priority="198">
+      <formula>$I8="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="containsText" dxfId="192" priority="199" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="expression" dxfId="191" priority="197">
+      <formula>$I8="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="190" priority="198">
+      <formula>$I8="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:I8">
+    <cfRule type="expression" dxfId="189" priority="195">
+      <formula>$I8="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="188" priority="196">
+      <formula>$I8="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9">
+    <cfRule type="expression" dxfId="187" priority="193">
+      <formula>$I9="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="186" priority="194">
+      <formula>$I9="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9:I9">
+    <cfRule type="expression" dxfId="185" priority="191">
+      <formula>$I9="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="184" priority="192">
+      <formula>$I9="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="expression" dxfId="183" priority="189">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="191" priority="199">
+    <cfRule type="expression" dxfId="182" priority="190">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7:I7">
-    <cfRule type="expression" dxfId="190" priority="196">
-      <formula>$I7="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="189" priority="197">
-      <formula>$I7="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="188" priority="194">
-      <formula>$I8="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="187" priority="195">
-      <formula>$I8="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="containsText" dxfId="186" priority="193" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="185" priority="191">
-      <formula>$I8="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="184" priority="192">
-      <formula>$I8="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8:I8">
-    <cfRule type="expression" dxfId="183" priority="189">
-      <formula>$I8="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="182" priority="190">
-      <formula>$I8="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9">
+  <conditionalFormatting sqref="D11">
     <cfRule type="expression" dxfId="181" priority="187">
-      <formula>$I9="確認中"</formula>
+      <formula>$I11="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="180" priority="188">
-      <formula>$I9="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G9:I9">
-    <cfRule type="expression" dxfId="179" priority="185">
-      <formula>$I9="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="178" priority="186">
-      <formula>$I9="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="expression" dxfId="177" priority="183">
-      <formula>$I7="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="176" priority="184">
-      <formula>$I7="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="175" priority="181">
+      <formula>$I11="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
+    <cfRule type="containsText" dxfId="179" priority="186" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
+    <cfRule type="expression" dxfId="178" priority="184">
       <formula>$I11="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="182">
+    <cfRule type="expression" dxfId="177" priority="185">
       <formula>$I11="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
-    <cfRule type="containsText" dxfId="173" priority="180" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C11)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
+  <conditionalFormatting sqref="F11:H11">
+    <cfRule type="expression" dxfId="176" priority="182">
+      <formula>$I11="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="175" priority="183">
+      <formula>$I11="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11">
+    <cfRule type="expression" dxfId="174" priority="180">
+      <formula>$I11="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="173" priority="181">
+      <formula>$I11="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12">
     <cfRule type="expression" dxfId="172" priority="178">
-      <formula>$I11="確認中"</formula>
+      <formula>$I12="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="171" priority="179">
-      <formula>$I11="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11:H11">
-    <cfRule type="expression" dxfId="170" priority="176">
-      <formula>$I11="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="169" priority="177">
-      <formula>$I11="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I11">
-    <cfRule type="expression" dxfId="168" priority="174">
-      <formula>$I11="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="167" priority="175">
-      <formula>$I11="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12">
-    <cfRule type="expression" dxfId="166" priority="172">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="containsText" dxfId="170" priority="177" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="expression" dxfId="169" priority="175">
       <formula>$I12="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="173">
+    <cfRule type="expression" dxfId="168" priority="176">
       <formula>$I12="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="containsText" dxfId="164" priority="171" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
+  <conditionalFormatting sqref="F12:H12">
+    <cfRule type="expression" dxfId="167" priority="173">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="166" priority="174">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12">
+    <cfRule type="expression" dxfId="165" priority="171">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="164" priority="172">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13">
     <cfRule type="expression" dxfId="163" priority="169">
-      <formula>$I12="確認中"</formula>
+      <formula>$I13="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="162" priority="170">
-      <formula>$I12="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F12:H12">
+      <formula>$I13="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13:H13">
     <cfRule type="expression" dxfId="161" priority="167">
-      <formula>$I12="確認中"</formula>
+      <formula>$I13="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="160" priority="168">
-      <formula>$I12="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I12">
+      <formula>$I13="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
     <cfRule type="expression" dxfId="159" priority="165">
-      <formula>$I12="確認中"</formula>
+      <formula>$I13="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="158" priority="166">
-      <formula>$I12="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B13">
+      <formula>$I13="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
     <cfRule type="expression" dxfId="157" priority="163">
-      <formula>$I13="確認中"</formula>
+      <formula>$I14="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="156" priority="164">
-      <formula>$I13="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G13:H13">
-    <cfRule type="expression" dxfId="155" priority="161">
-      <formula>$I13="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="154" priority="162">
-      <formula>$I13="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="153" priority="159">
-      <formula>$I13="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="152" priority="160">
-      <formula>$I13="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="151" priority="157">
+      <formula>$I14="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="containsText" dxfId="155" priority="162" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="expression" dxfId="154" priority="160">
       <formula>$I14="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="158">
+    <cfRule type="expression" dxfId="153" priority="161">
       <formula>$I14="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="containsText" dxfId="149" priority="156" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C14)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
+  <conditionalFormatting sqref="B14">
+    <cfRule type="expression" dxfId="152" priority="158">
+      <formula>$I14="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="151" priority="159">
+      <formula>$I14="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
+    <cfRule type="expression" dxfId="150" priority="156">
+      <formula>$I14="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="149" priority="157">
+      <formula>$I14="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14:H14">
     <cfRule type="expression" dxfId="148" priority="154">
       <formula>$I14="確認中"</formula>
     </cfRule>
@@ -9743,7 +9965,7 @@
       <formula>$I14="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
+  <conditionalFormatting sqref="I14">
     <cfRule type="expression" dxfId="146" priority="152">
       <formula>$I14="確認中"</formula>
     </cfRule>
@@ -9751,68 +9973,68 @@
       <formula>$I14="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
+  <conditionalFormatting sqref="B15">
     <cfRule type="expression" dxfId="144" priority="150">
-      <formula>$I14="確認中"</formula>
+      <formula>$I15="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="143" priority="151">
-      <formula>$I14="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G14:H14">
+      <formula>$I15="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15:H15">
     <cfRule type="expression" dxfId="142" priority="148">
-      <formula>$I14="確認中"</formula>
+      <formula>$I15="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="141" priority="149">
-      <formula>$I14="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I14">
+      <formula>$I15="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
     <cfRule type="expression" dxfId="140" priority="146">
-      <formula>$I14="確認中"</formula>
+      <formula>$I15="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="139" priority="147">
-      <formula>$I14="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15">
+      <formula>$I15="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
     <cfRule type="expression" dxfId="138" priority="144">
-      <formula>$I15="確認中"</formula>
+      <formula>$I16="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="137" priority="145">
-      <formula>$I15="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G15:H15">
-    <cfRule type="expression" dxfId="136" priority="142">
-      <formula>$I15="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="135" priority="143">
-      <formula>$I15="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I15">
-    <cfRule type="expression" dxfId="134" priority="140">
-      <formula>$I15="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="133" priority="141">
-      <formula>$I15="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="132" priority="138">
+      <formula>$I16="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="containsText" dxfId="136" priority="143" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="expression" dxfId="135" priority="141">
       <formula>$I16="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="131" priority="139">
+    <cfRule type="expression" dxfId="134" priority="142">
       <formula>$I16="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="containsText" dxfId="130" priority="137" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
+  <conditionalFormatting sqref="B16">
+    <cfRule type="expression" dxfId="133" priority="139">
+      <formula>$I16="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="132" priority="140">
+      <formula>$I16="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16">
+    <cfRule type="expression" dxfId="131" priority="137">
+      <formula>$I16="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="130" priority="138">
+      <formula>$I16="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16:H16">
     <cfRule type="expression" dxfId="129" priority="135">
       <formula>$I16="確認中"</formula>
     </cfRule>
@@ -9820,7 +10042,7 @@
       <formula>$I16="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16">
+  <conditionalFormatting sqref="I16">
     <cfRule type="expression" dxfId="127" priority="133">
       <formula>$I16="確認中"</formula>
     </cfRule>
@@ -9828,44 +10050,44 @@
       <formula>$I16="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F16">
+  <conditionalFormatting sqref="D17">
     <cfRule type="expression" dxfId="125" priority="131">
-      <formula>$I16="確認中"</formula>
+      <formula>$I17="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="124" priority="132">
-      <formula>$I16="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16:H16">
-    <cfRule type="expression" dxfId="123" priority="129">
-      <formula>$I16="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="122" priority="130">
-      <formula>$I16="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I16">
-    <cfRule type="expression" dxfId="121" priority="127">
-      <formula>$I16="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="120" priority="128">
-      <formula>$I16="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="119" priority="125">
+      <formula>$I17="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
+    <cfRule type="containsText" dxfId="123" priority="130" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
+    <cfRule type="expression" dxfId="122" priority="128">
       <formula>$I17="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="126">
+    <cfRule type="expression" dxfId="121" priority="129">
       <formula>$I17="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C17">
-    <cfRule type="containsText" dxfId="117" priority="124" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C17)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17">
+  <conditionalFormatting sqref="F17">
+    <cfRule type="expression" dxfId="120" priority="126">
+      <formula>$I17="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="119" priority="127">
+      <formula>$I17="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17:H17">
+    <cfRule type="expression" dxfId="118" priority="124">
+      <formula>$I17="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="117" priority="125">
+      <formula>$I17="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17">
     <cfRule type="expression" dxfId="116" priority="122">
       <formula>$I17="確認中"</formula>
     </cfRule>
@@ -9873,44 +10095,44 @@
       <formula>$I17="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F17">
+  <conditionalFormatting sqref="D18">
     <cfRule type="expression" dxfId="114" priority="120">
-      <formula>$I17="確認中"</formula>
+      <formula>$I18="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="113" priority="121">
-      <formula>$I17="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G17:H17">
-    <cfRule type="expression" dxfId="112" priority="118">
-      <formula>$I17="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="111" priority="119">
-      <formula>$I17="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I17">
-    <cfRule type="expression" dxfId="110" priority="116">
-      <formula>$I17="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="109" priority="117">
-      <formula>$I17="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="108" priority="114">
+      <formula>$I18="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
+    <cfRule type="containsText" dxfId="112" priority="119" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
+    <cfRule type="expression" dxfId="111" priority="117">
       <formula>$I18="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="115">
+    <cfRule type="expression" dxfId="110" priority="118">
       <formula>$I18="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
-    <cfRule type="containsText" dxfId="106" priority="113" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C18)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
+  <conditionalFormatting sqref="F18">
+    <cfRule type="expression" dxfId="109" priority="115">
+      <formula>$I18="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="108" priority="116">
+      <formula>$I18="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18:H18">
+    <cfRule type="expression" dxfId="107" priority="113">
+      <formula>$I18="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="106" priority="114">
+      <formula>$I18="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18">
     <cfRule type="expression" dxfId="105" priority="111">
       <formula>$I18="確認中"</formula>
     </cfRule>
@@ -9918,44 +10140,44 @@
       <formula>$I18="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
+  <conditionalFormatting sqref="D19">
     <cfRule type="expression" dxfId="103" priority="109">
-      <formula>$I18="確認中"</formula>
+      <formula>$I19="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="102" priority="110">
-      <formula>$I18="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G18:H18">
-    <cfRule type="expression" dxfId="101" priority="107">
-      <formula>$I18="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="100" priority="108">
-      <formula>$I18="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I18">
-    <cfRule type="expression" dxfId="99" priority="105">
-      <formula>$I18="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="98" priority="106">
-      <formula>$I18="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
-    <cfRule type="expression" dxfId="97" priority="103">
+      <formula>$I19="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="containsText" dxfId="101" priority="108" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="expression" dxfId="100" priority="106">
       <formula>$I19="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="104">
+    <cfRule type="expression" dxfId="99" priority="107">
       <formula>$I19="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="containsText" dxfId="95" priority="102" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C19)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
+  <conditionalFormatting sqref="F19">
+    <cfRule type="expression" dxfId="98" priority="104">
+      <formula>$I19="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="97" priority="105">
+      <formula>$I19="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19:H19">
+    <cfRule type="expression" dxfId="96" priority="102">
+      <formula>$I19="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="95" priority="103">
+      <formula>$I19="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19">
     <cfRule type="expression" dxfId="94" priority="100">
       <formula>$I19="確認中"</formula>
     </cfRule>
@@ -9963,44 +10185,44 @@
       <formula>$I19="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F19">
+  <conditionalFormatting sqref="D20">
     <cfRule type="expression" dxfId="92" priority="98">
-      <formula>$I19="確認中"</formula>
+      <formula>$I20="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="91" priority="99">
-      <formula>$I19="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G19:H19">
-    <cfRule type="expression" dxfId="90" priority="96">
-      <formula>$I19="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="89" priority="97">
-      <formula>$I19="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I19">
-    <cfRule type="expression" dxfId="88" priority="94">
-      <formula>$I19="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="87" priority="95">
-      <formula>$I19="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
-    <cfRule type="expression" dxfId="86" priority="92">
+      <formula>$I20="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="containsText" dxfId="90" priority="97" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="expression" dxfId="89" priority="95">
       <formula>$I20="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="93">
+    <cfRule type="expression" dxfId="88" priority="96">
       <formula>$I20="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="containsText" dxfId="84" priority="91" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
+  <conditionalFormatting sqref="F20">
+    <cfRule type="expression" dxfId="87" priority="93">
+      <formula>$I20="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="86" priority="94">
+      <formula>$I20="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20:H20">
+    <cfRule type="expression" dxfId="85" priority="91">
+      <formula>$I20="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="84" priority="92">
+      <formula>$I20="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20">
     <cfRule type="expression" dxfId="83" priority="89">
       <formula>$I20="確認中"</formula>
     </cfRule>
@@ -10008,73 +10230,73 @@
       <formula>$I20="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
+  <conditionalFormatting sqref="D22">
     <cfRule type="expression" dxfId="81" priority="87">
-      <formula>$I20="確認中"</formula>
+      <formula>$I22="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="80" priority="88">
-      <formula>$I20="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G20:H20">
-    <cfRule type="expression" dxfId="79" priority="85">
-      <formula>$I20="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="78" priority="86">
-      <formula>$I20="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
-    <cfRule type="expression" dxfId="77" priority="83">
-      <formula>$I20="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="76" priority="84">
-      <formula>$I20="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="expression" dxfId="75" priority="81">
+      <formula>$I22="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22">
+    <cfRule type="containsText" dxfId="79" priority="86" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22">
+    <cfRule type="expression" dxfId="78" priority="84">
       <formula>$I22="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="82">
+    <cfRule type="expression" dxfId="77" priority="85">
       <formula>$I22="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
-    <cfRule type="containsText" dxfId="73" priority="80" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C22)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
-    <cfRule type="expression" dxfId="72" priority="78">
-      <formula>$I22="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="71" priority="79">
-      <formula>$I22="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="expression" dxfId="70" priority="70">
+    <cfRule type="expression" dxfId="76" priority="76">
       <formula>$I21="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="71">
+    <cfRule type="expression" dxfId="75" priority="77">
       <formula>$I21="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="expression" dxfId="68" priority="68">
+    <cfRule type="expression" dxfId="74" priority="74">
       <formula>$I21="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="69">
+    <cfRule type="expression" dxfId="73" priority="75">
       <formula>$I21="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21">
-    <cfRule type="containsText" dxfId="66" priority="67" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="72" priority="73" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21">
+    <cfRule type="expression" dxfId="71" priority="71">
+      <formula>$I21="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="70" priority="72">
+      <formula>$I21="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="expression" dxfId="69" priority="69">
+      <formula>$I21="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="68" priority="70">
+      <formula>$I21="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G21:H21">
+    <cfRule type="expression" dxfId="67" priority="67">
+      <formula>$I21="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="68">
+      <formula>$I21="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21">
     <cfRule type="expression" dxfId="65" priority="65">
       <formula>$I21="確認中"</formula>
     </cfRule>
@@ -10082,31 +10304,31 @@
       <formula>$I21="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
+  <conditionalFormatting sqref="F22">
     <cfRule type="expression" dxfId="63" priority="63">
-      <formula>$I21="確認中"</formula>
+      <formula>$I22="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="62" priority="64">
-      <formula>$I21="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G21:H21">
+      <formula>$I22="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22:H22">
     <cfRule type="expression" dxfId="61" priority="61">
-      <formula>$I21="確認中"</formula>
+      <formula>$I22="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="60" priority="62">
-      <formula>$I21="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I21">
+      <formula>$I22="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22">
     <cfRule type="expression" dxfId="59" priority="59">
-      <formula>$I21="確認中"</formula>
+      <formula>$I22="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="58" priority="60">
-      <formula>$I21="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F22">
+      <formula>$I22="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
     <cfRule type="expression" dxfId="57" priority="57">
       <formula>$I22="確認中"</formula>
     </cfRule>
@@ -10114,97 +10336,97 @@
       <formula>$I22="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G22:H22">
+  <conditionalFormatting sqref="B17:B22">
     <cfRule type="expression" dxfId="55" priority="55">
-      <formula>$I22="確認中"</formula>
+      <formula>$I17="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="54" priority="56">
-      <formula>$I22="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I22">
+      <formula>$I17="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23:H23">
     <cfRule type="expression" dxfId="53" priority="53">
-      <formula>$I22="確認中"</formula>
+      <formula>$I23="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="52" priority="54">
-      <formula>$I22="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
+      <formula>$I23="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23">
     <cfRule type="expression" dxfId="51" priority="51">
-      <formula>$I22="確認中"</formula>
+      <formula>$I23="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="50" priority="52">
-      <formula>$I22="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B17:B22">
+      <formula>$I23="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23">
     <cfRule type="expression" dxfId="49" priority="49">
-      <formula>$I17="確認中"</formula>
+      <formula>$I23="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="48" priority="50">
-      <formula>$I17="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G23:H23">
-    <cfRule type="expression" dxfId="47" priority="47">
+      <formula>$I23="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="containsText" dxfId="47" priority="48" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="expression" dxfId="46" priority="46">
       <formula>$I23="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="48">
+    <cfRule type="expression" dxfId="45" priority="47">
       <formula>$I23="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I23">
-    <cfRule type="expression" dxfId="45" priority="45">
+  <conditionalFormatting sqref="B23">
+    <cfRule type="expression" dxfId="44" priority="44">
       <formula>$I23="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="46">
+    <cfRule type="expression" dxfId="43" priority="45">
       <formula>$I23="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="43" priority="43">
-      <formula>$I23="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="44">
-      <formula>$I23="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
-    <cfRule type="containsText" dxfId="41" priority="42" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C23)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="40" priority="40">
-      <formula>$I23="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="39" priority="41">
-      <formula>$I23="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23">
-    <cfRule type="expression" dxfId="38" priority="38">
-      <formula>$I23="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="37" priority="39">
-      <formula>$I23="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="expression" dxfId="36" priority="36">
+    <cfRule type="expression" dxfId="42" priority="42">
       <formula>$I24="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="37">
+    <cfRule type="expression" dxfId="41" priority="43">
       <formula>$I24="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="40" priority="41" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
+    <cfRule type="expression" dxfId="39" priority="39">
+      <formula>$I24="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="40">
+      <formula>$I24="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24">
+    <cfRule type="expression" dxfId="37" priority="37">
+      <formula>$I24="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="38">
+      <formula>$I24="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
+    <cfRule type="expression" dxfId="35" priority="35">
+      <formula>$I24="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="36">
+      <formula>$I24="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24:H24">
     <cfRule type="expression" dxfId="33" priority="33">
       <formula>$I24="確認中"</formula>
     </cfRule>
@@ -10212,7 +10434,7 @@
       <formula>$I24="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B24">
+  <conditionalFormatting sqref="I24">
     <cfRule type="expression" dxfId="31" priority="31">
       <formula>$I24="確認中"</formula>
     </cfRule>
@@ -10220,44 +10442,44 @@
       <formula>$I24="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
+  <conditionalFormatting sqref="D25">
     <cfRule type="expression" dxfId="29" priority="29">
-      <formula>$I24="確認中"</formula>
+      <formula>$I25="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="28" priority="30">
-      <formula>$I24="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G24:H24">
-    <cfRule type="expression" dxfId="27" priority="27">
-      <formula>$I24="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="28">
-      <formula>$I24="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I24">
-    <cfRule type="expression" dxfId="25" priority="25">
-      <formula>$I24="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="26">
-      <formula>$I24="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25">
-    <cfRule type="expression" dxfId="23" priority="23">
+      <formula>$I25="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="containsText" dxfId="27" priority="28" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="expression" dxfId="26" priority="26">
       <formula>$I25="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="24">
+    <cfRule type="expression" dxfId="25" priority="27">
       <formula>$I25="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
-    <cfRule type="containsText" dxfId="21" priority="22" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C25)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
+  <conditionalFormatting sqref="B25">
+    <cfRule type="expression" dxfId="24" priority="24">
+      <formula>$I25="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="23" priority="25">
+      <formula>$I25="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25">
+    <cfRule type="expression" dxfId="22" priority="22">
+      <formula>$I25="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="23">
+      <formula>$I25="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G25:H25">
     <cfRule type="expression" dxfId="20" priority="20">
       <formula>$I25="確認中"</formula>
     </cfRule>
@@ -10265,7 +10487,7 @@
       <formula>$I25="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B25">
+  <conditionalFormatting sqref="I25">
     <cfRule type="expression" dxfId="18" priority="18">
       <formula>$I25="確認中"</formula>
     </cfRule>
@@ -10273,36 +10495,36 @@
       <formula>$I25="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F25">
-    <cfRule type="expression" dxfId="16" priority="16">
-      <formula>$I25="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="15" priority="17">
-      <formula>$I25="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G25:H25">
-    <cfRule type="expression" dxfId="14" priority="14">
-      <formula>$I25="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="15">
-      <formula>$I25="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I25">
-    <cfRule type="expression" dxfId="12" priority="12">
-      <formula>$I25="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="11" priority="13">
-      <formula>$I25="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
+    <cfRule type="expression" dxfId="15" priority="15">
+      <formula>$I26="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="16">
+      <formula>$I26="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26">
+    <cfRule type="expression" dxfId="13" priority="13">
+      <formula>$I26="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="14">
+      <formula>$I26="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F26">
+    <cfRule type="expression" dxfId="11" priority="11">
+      <formula>$I26="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="12">
+      <formula>$I26="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26:H26">
     <cfRule type="expression" dxfId="9" priority="9">
       <formula>$I26="確認中"</formula>
     </cfRule>
@@ -10310,7 +10532,7 @@
       <formula>$I26="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B26">
+  <conditionalFormatting sqref="I26">
     <cfRule type="expression" dxfId="7" priority="7">
       <formula>$I26="確認中"</formula>
     </cfRule>
@@ -10318,28 +10540,28 @@
       <formula>$I26="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F26">
+  <conditionalFormatting sqref="F27">
     <cfRule type="expression" dxfId="5" priority="5">
-      <formula>$I26="確認中"</formula>
+      <formula>$I27="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="6">
-      <formula>$I26="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G26:H26">
+      <formula>$I27="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27:H27">
     <cfRule type="expression" dxfId="3" priority="3">
-      <formula>$I26="確認中"</formula>
+      <formula>$I27="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="4">
-      <formula>$I26="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I26">
+      <formula>$I27="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$I26="確認中"</formula>
+      <formula>$I27="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$I26="済み"</formula>
+      <formula>$I27="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
@@ -10459,51 +10681,51 @@
   <dimension ref="A1:AP171"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37:D39"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27" t="s">
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27" t="s">
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27" t="s">
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27" t="s">
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
     </row>
     <row r="2" spans="1:42" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="25" t="s">
         <v>73</v>
       </c>
     </row>
@@ -10558,16 +10780,32 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="W1:Y1"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="J1:N1"/>
     <mergeCell ref="O1:Q1"/>
     <mergeCell ref="R1:V1"/>
-    <mergeCell ref="W1:Y1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/質疑表/TOYOTIRE_質疑表 _平.xlsx
+++ b/質疑表/TOYOTIRE_質疑表 _平.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="88">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -1223,6 +1223,40 @@
     </rPh>
     <rPh sb="79" eb="81">
       <t>フヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「円弧配列メニュー案01」シートの「基準円」作図と削除設定画面に「3つ必要」という吹き出しがありますが、どのような項目が必要となりますでしょうか。</t>
+    <rPh sb="18" eb="21">
+      <t>キジュンエン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>サクズ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ヒツヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1533,7 +1567,67 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="247">
+  <dxfs count="255">
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -8510,8 +8604,8 @@
   </sheetPr>
   <dimension ref="A3:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9316,7 +9410,9 @@
       <c r="A27" s="2">
         <v>23</v>
       </c>
-      <c r="B27" s="9"/>
+      <c r="B27" s="23" t="s">
+        <v>19</v>
+      </c>
       <c r="C27" s="9" t="s">
         <v>13</v>
       </c>
@@ -9342,18 +9438,34 @@
       <c r="K27" s="5"/>
       <c r="L27" s="9"/>
     </row>
-    <row r="28" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:12" s="20" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
         <v>24</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="10"/>
+      <c r="B28" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F28" s="5">
+        <v>44839</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="J28" s="3"/>
       <c r="K28" s="5"/>
       <c r="L28" s="9"/>
@@ -9556,384 +9668,416 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="C4 C6 C41:C1048576">
-    <cfRule type="containsText" dxfId="246" priority="802" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="254" priority="810" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:L4 A8 A10 A12 A14 L32 J19:J25 K10:L10 D10:H10 J11:L18 J6:L6 A6:D6 A3 D3:L3 A41:L1048576 E11 B10:B11 D12:E12 D13:F13 E14 D15:F15 A16:A32 E16:E20 E23:F23 E24">
-    <cfRule type="expression" dxfId="245" priority="800">
+    <cfRule type="expression" dxfId="253" priority="808">
       <formula>$I3="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="244" priority="801">
+    <cfRule type="expression" dxfId="252" priority="809">
       <formula>$I3="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="containsText" dxfId="243" priority="315" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="251" priority="323" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:I5 I10 K5:L5 I28:I38">
-    <cfRule type="expression" dxfId="242" priority="313">
+  <conditionalFormatting sqref="C5:I5 I10 K5:L5 I29:I38">
+    <cfRule type="expression" dxfId="250" priority="321">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="241" priority="314">
+    <cfRule type="expression" dxfId="249" priority="322">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5 A7 A9 A11 A13 A15">
-    <cfRule type="expression" dxfId="240" priority="311">
+    <cfRule type="expression" dxfId="248" priority="319">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="239" priority="312">
+    <cfRule type="expression" dxfId="247" priority="320">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7 C9:C10 C13 C15">
-    <cfRule type="containsText" dxfId="238" priority="255" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="246" priority="263" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:F9 C10 J10 J7:L9 C7 D8:F8 C13 C15">
-    <cfRule type="expression" dxfId="237" priority="253">
+    <cfRule type="expression" dxfId="245" priority="261">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="236" priority="254">
+    <cfRule type="expression" dxfId="244" priority="262">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:C35 C38:C40">
-    <cfRule type="containsText" dxfId="235" priority="250" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="243" priority="258" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C32)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27:B31 B32:D32 H32 A33:H35 A39:L40 B38:E38 J38 J26:J35 A36:A40">
-    <cfRule type="expression" dxfId="234" priority="248">
+  <conditionalFormatting sqref="B29:B31 B32:D32 H32 A33:H35 A39:L40 B38:E38 J38 J26:J35 A36:A40">
+    <cfRule type="expression" dxfId="242" priority="256">
       <formula>$I26="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="233" priority="249">
+    <cfRule type="expression" dxfId="241" priority="257">
       <formula>$I26="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27:C31">
-    <cfRule type="containsText" dxfId="232" priority="247" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="240" priority="255" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C27)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C31 E31:H31 E25 D26:E26 C28:H30 C27:E27">
-    <cfRule type="expression" dxfId="231" priority="245">
+  <conditionalFormatting sqref="C31 E31:H31 E25 D26:E26 C29:H30 C27:E28">
+    <cfRule type="expression" dxfId="239" priority="253">
       <formula>$I25="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="230" priority="246">
+    <cfRule type="expression" dxfId="238" priority="254">
       <formula>$I25="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="expression" dxfId="229" priority="243">
+    <cfRule type="expression" dxfId="237" priority="251">
       <formula>$I32="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="228" priority="244">
+    <cfRule type="expression" dxfId="236" priority="252">
       <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32:G32">
-    <cfRule type="expression" dxfId="227" priority="241">
+    <cfRule type="expression" dxfId="235" priority="249">
       <formula>$I32="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="226" priority="242">
+    <cfRule type="expression" dxfId="234" priority="250">
       <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32">
-    <cfRule type="expression" dxfId="225" priority="239">
+    <cfRule type="expression" dxfId="233" priority="247">
       <formula>$I32="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="224" priority="240">
+    <cfRule type="expression" dxfId="232" priority="248">
       <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:C37">
-    <cfRule type="containsText" dxfId="223" priority="238" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="231" priority="246" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:H36 B37:E37 J36:J37">
+    <cfRule type="expression" dxfId="230" priority="244">
+      <formula>$I36="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="229" priority="245">
+      <formula>$I36="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37:H38">
+    <cfRule type="expression" dxfId="228" priority="242">
+      <formula>$I37="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="227" priority="243">
+      <formula>$I37="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K19:L31">
+    <cfRule type="expression" dxfId="226" priority="240">
+      <formula>$I19="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="225" priority="241">
+      <formula>$I19="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K33:L38">
+    <cfRule type="expression" dxfId="224" priority="238">
+      <formula>$I33="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="223" priority="239">
+      <formula>$I33="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
     <cfRule type="expression" dxfId="222" priority="236">
-      <formula>$I36="確認中"</formula>
+      <formula>$I31="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="221" priority="237">
-      <formula>$I36="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F37:H38">
+      <formula>$I31="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
     <cfRule type="expression" dxfId="220" priority="234">
-      <formula>$I37="確認中"</formula>
+      <formula>$I6="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="219" priority="235">
-      <formula>$I37="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K19:L31">
+      <formula>$I6="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
     <cfRule type="expression" dxfId="218" priority="232">
-      <formula>$I19="確認中"</formula>
+      <formula>$I7="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="217" priority="233">
-      <formula>$I19="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K33:L38">
-    <cfRule type="expression" dxfId="216" priority="230">
-      <formula>$I33="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="215" priority="231">
-      <formula>$I33="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
-    <cfRule type="expression" dxfId="214" priority="228">
-      <formula>$I31="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="213" priority="229">
-      <formula>$I31="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="212" priority="226">
+      <formula>$I7="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5">
+    <cfRule type="expression" dxfId="216" priority="220">
+      <formula>$I5="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="215" priority="221">
+      <formula>$I5="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="expression" dxfId="214" priority="224">
+      <formula>$I7="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="213" priority="225">
+      <formula>$I7="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6:I6">
+    <cfRule type="expression" dxfId="212" priority="218">
       <formula>$I6="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="211" priority="227">
+    <cfRule type="expression" dxfId="211" priority="219">
       <formula>$I6="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="210" priority="224">
+  <conditionalFormatting sqref="E6">
+    <cfRule type="expression" dxfId="210" priority="216">
+      <formula>$I6="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="209" priority="217">
+      <formula>$I6="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5">
+    <cfRule type="expression" dxfId="208" priority="214">
+      <formula>$I5="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="207" priority="215">
+      <formula>$I5="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7">
+    <cfRule type="expression" dxfId="206" priority="212">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="209" priority="225">
+    <cfRule type="expression" dxfId="205" priority="213">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="208" priority="212">
-      <formula>$I5="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="207" priority="213">
-      <formula>$I5="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="206" priority="216">
+  <conditionalFormatting sqref="G7:I7">
+    <cfRule type="expression" dxfId="204" priority="210">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="205" priority="217">
+    <cfRule type="expression" dxfId="203" priority="211">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6:I6">
-    <cfRule type="expression" dxfId="204" priority="210">
-      <formula>$I6="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="203" priority="211">
-      <formula>$I6="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="B8">
     <cfRule type="expression" dxfId="202" priority="208">
-      <formula>$I6="確認中"</formula>
+      <formula>$I8="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="201" priority="209">
-      <formula>$I6="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J5">
-    <cfRule type="expression" dxfId="200" priority="206">
-      <formula>$I5="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="199" priority="207">
-      <formula>$I5="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7">
-    <cfRule type="expression" dxfId="198" priority="204">
+      <formula>$I8="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="containsText" dxfId="200" priority="207" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="expression" dxfId="199" priority="205">
+      <formula>$I8="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="198" priority="206">
+      <formula>$I8="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:I8">
+    <cfRule type="expression" dxfId="197" priority="203">
+      <formula>$I8="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="196" priority="204">
+      <formula>$I8="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9">
+    <cfRule type="expression" dxfId="195" priority="201">
+      <formula>$I9="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="194" priority="202">
+      <formula>$I9="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9:I9">
+    <cfRule type="expression" dxfId="193" priority="199">
+      <formula>$I9="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="192" priority="200">
+      <formula>$I9="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="expression" dxfId="191" priority="197">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="197" priority="205">
+    <cfRule type="expression" dxfId="190" priority="198">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7:I7">
-    <cfRule type="expression" dxfId="196" priority="202">
-      <formula>$I7="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="195" priority="203">
-      <formula>$I7="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="194" priority="200">
-      <formula>$I8="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="193" priority="201">
-      <formula>$I8="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="containsText" dxfId="192" priority="199" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="191" priority="197">
-      <formula>$I8="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="190" priority="198">
-      <formula>$I8="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8:I8">
+  <conditionalFormatting sqref="D11">
     <cfRule type="expression" dxfId="189" priority="195">
-      <formula>$I8="確認中"</formula>
+      <formula>$I11="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="188" priority="196">
-      <formula>$I8="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="187" priority="193">
-      <formula>$I9="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="186" priority="194">
-      <formula>$I9="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G9:I9">
-    <cfRule type="expression" dxfId="185" priority="191">
-      <formula>$I9="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="184" priority="192">
-      <formula>$I9="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="expression" dxfId="183" priority="189">
-      <formula>$I7="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="182" priority="190">
-      <formula>$I7="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="181" priority="187">
+      <formula>$I11="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
+    <cfRule type="containsText" dxfId="187" priority="194" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
+    <cfRule type="expression" dxfId="186" priority="192">
       <formula>$I11="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="180" priority="188">
+    <cfRule type="expression" dxfId="185" priority="193">
       <formula>$I11="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
-    <cfRule type="containsText" dxfId="179" priority="186" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C11)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="178" priority="184">
+  <conditionalFormatting sqref="F11:H11">
+    <cfRule type="expression" dxfId="184" priority="190">
       <formula>$I11="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="177" priority="185">
+    <cfRule type="expression" dxfId="183" priority="191">
       <formula>$I11="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11:H11">
-    <cfRule type="expression" dxfId="176" priority="182">
+  <conditionalFormatting sqref="I11">
+    <cfRule type="expression" dxfId="182" priority="188">
       <formula>$I11="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="175" priority="183">
+    <cfRule type="expression" dxfId="181" priority="189">
       <formula>$I11="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I11">
-    <cfRule type="expression" dxfId="174" priority="180">
-      <formula>$I11="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="173" priority="181">
-      <formula>$I11="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="expression" dxfId="172" priority="178">
+    <cfRule type="expression" dxfId="180" priority="186">
       <formula>$I12="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="179">
+    <cfRule type="expression" dxfId="179" priority="187">
       <formula>$I12="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="containsText" dxfId="170" priority="177" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="178" priority="185" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
+    <cfRule type="expression" dxfId="177" priority="183">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="176" priority="184">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12:H12">
+    <cfRule type="expression" dxfId="175" priority="181">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="174" priority="182">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12">
+    <cfRule type="expression" dxfId="173" priority="179">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="172" priority="180">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13">
+    <cfRule type="expression" dxfId="171" priority="177">
+      <formula>$I13="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="170" priority="178">
+      <formula>$I13="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13:H13">
     <cfRule type="expression" dxfId="169" priority="175">
-      <formula>$I12="確認中"</formula>
+      <formula>$I13="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="168" priority="176">
-      <formula>$I12="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F12:H12">
+      <formula>$I13="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
     <cfRule type="expression" dxfId="167" priority="173">
-      <formula>$I12="確認中"</formula>
+      <formula>$I13="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="166" priority="174">
-      <formula>$I12="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I12">
+      <formula>$I13="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
     <cfRule type="expression" dxfId="165" priority="171">
-      <formula>$I12="確認中"</formula>
+      <formula>$I14="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="164" priority="172">
-      <formula>$I12="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B13">
-    <cfRule type="expression" dxfId="163" priority="169">
-      <formula>$I13="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="162" priority="170">
-      <formula>$I13="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G13:H13">
-    <cfRule type="expression" dxfId="161" priority="167">
-      <formula>$I13="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="160" priority="168">
-      <formula>$I13="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="159" priority="165">
-      <formula>$I13="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="158" priority="166">
-      <formula>$I13="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="157" priority="163">
+      <formula>$I14="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="containsText" dxfId="163" priority="170" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="expression" dxfId="162" priority="168">
       <formula>$I14="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="164">
+    <cfRule type="expression" dxfId="161" priority="169">
       <formula>$I14="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="containsText" dxfId="155" priority="162" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C14)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
+  <conditionalFormatting sqref="B14">
+    <cfRule type="expression" dxfId="160" priority="166">
+      <formula>$I14="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="159" priority="167">
+      <formula>$I14="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
+    <cfRule type="expression" dxfId="158" priority="164">
+      <formula>$I14="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="157" priority="165">
+      <formula>$I14="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14:H14">
+    <cfRule type="expression" dxfId="156" priority="162">
+      <formula>$I14="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="155" priority="163">
+      <formula>$I14="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14">
     <cfRule type="expression" dxfId="154" priority="160">
       <formula>$I14="確認中"</formula>
     </cfRule>
@@ -9941,76 +10085,76 @@
       <formula>$I14="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
+  <conditionalFormatting sqref="B15">
     <cfRule type="expression" dxfId="152" priority="158">
-      <formula>$I14="確認中"</formula>
+      <formula>$I15="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="151" priority="159">
-      <formula>$I14="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
+      <formula>$I15="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15:H15">
     <cfRule type="expression" dxfId="150" priority="156">
-      <formula>$I14="確認中"</formula>
+      <formula>$I15="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="149" priority="157">
-      <formula>$I14="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G14:H14">
+      <formula>$I15="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
     <cfRule type="expression" dxfId="148" priority="154">
-      <formula>$I14="確認中"</formula>
+      <formula>$I15="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="147" priority="155">
-      <formula>$I14="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I14">
+      <formula>$I15="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
     <cfRule type="expression" dxfId="146" priority="152">
-      <formula>$I14="確認中"</formula>
+      <formula>$I16="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="145" priority="153">
-      <formula>$I14="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15">
-    <cfRule type="expression" dxfId="144" priority="150">
-      <formula>$I15="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="143" priority="151">
-      <formula>$I15="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G15:H15">
-    <cfRule type="expression" dxfId="142" priority="148">
-      <formula>$I15="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="141" priority="149">
-      <formula>$I15="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I15">
-    <cfRule type="expression" dxfId="140" priority="146">
-      <formula>$I15="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="139" priority="147">
-      <formula>$I15="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="138" priority="144">
+      <formula>$I16="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="containsText" dxfId="144" priority="151" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="expression" dxfId="143" priority="149">
       <formula>$I16="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="137" priority="145">
+    <cfRule type="expression" dxfId="142" priority="150">
       <formula>$I16="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="containsText" dxfId="136" priority="143" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
+  <conditionalFormatting sqref="B16">
+    <cfRule type="expression" dxfId="141" priority="147">
+      <formula>$I16="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="140" priority="148">
+      <formula>$I16="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16">
+    <cfRule type="expression" dxfId="139" priority="145">
+      <formula>$I16="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="138" priority="146">
+      <formula>$I16="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16:H16">
+    <cfRule type="expression" dxfId="137" priority="143">
+      <formula>$I16="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="136" priority="144">
+      <formula>$I16="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
     <cfRule type="expression" dxfId="135" priority="141">
       <formula>$I16="確認中"</formula>
     </cfRule>
@@ -10018,391 +10162,391 @@
       <formula>$I16="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16">
+  <conditionalFormatting sqref="D17">
     <cfRule type="expression" dxfId="133" priority="139">
-      <formula>$I16="確認中"</formula>
+      <formula>$I17="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="132" priority="140">
-      <formula>$I16="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F16">
-    <cfRule type="expression" dxfId="131" priority="137">
-      <formula>$I16="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="130" priority="138">
-      <formula>$I16="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16:H16">
-    <cfRule type="expression" dxfId="129" priority="135">
-      <formula>$I16="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="128" priority="136">
-      <formula>$I16="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I16">
-    <cfRule type="expression" dxfId="127" priority="133">
-      <formula>$I16="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="126" priority="134">
-      <formula>$I16="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="125" priority="131">
+      <formula>$I17="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
+    <cfRule type="containsText" dxfId="131" priority="138" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
+    <cfRule type="expression" dxfId="130" priority="136">
       <formula>$I17="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="132">
+    <cfRule type="expression" dxfId="129" priority="137">
       <formula>$I17="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C17">
-    <cfRule type="containsText" dxfId="123" priority="130" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C17)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17">
+  <conditionalFormatting sqref="F17">
+    <cfRule type="expression" dxfId="128" priority="134">
+      <formula>$I17="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="127" priority="135">
+      <formula>$I17="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17:H17">
+    <cfRule type="expression" dxfId="126" priority="132">
+      <formula>$I17="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="125" priority="133">
+      <formula>$I17="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17">
+    <cfRule type="expression" dxfId="124" priority="130">
+      <formula>$I17="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="123" priority="131">
+      <formula>$I17="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
     <cfRule type="expression" dxfId="122" priority="128">
+      <formula>$I18="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="121" priority="129">
+      <formula>$I18="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
+    <cfRule type="containsText" dxfId="120" priority="127" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
+    <cfRule type="expression" dxfId="119" priority="125">
+      <formula>$I18="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="118" priority="126">
+      <formula>$I18="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18">
+    <cfRule type="expression" dxfId="117" priority="123">
+      <formula>$I18="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="116" priority="124">
+      <formula>$I18="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18:H18">
+    <cfRule type="expression" dxfId="115" priority="121">
+      <formula>$I18="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="114" priority="122">
+      <formula>$I18="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18">
+    <cfRule type="expression" dxfId="113" priority="119">
+      <formula>$I18="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="112" priority="120">
+      <formula>$I18="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
+    <cfRule type="expression" dxfId="111" priority="117">
+      <formula>$I19="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="110" priority="118">
+      <formula>$I19="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="containsText" dxfId="109" priority="116" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="expression" dxfId="108" priority="114">
+      <formula>$I19="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="107" priority="115">
+      <formula>$I19="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19">
+    <cfRule type="expression" dxfId="106" priority="112">
+      <formula>$I19="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="105" priority="113">
+      <formula>$I19="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19:H19">
+    <cfRule type="expression" dxfId="104" priority="110">
+      <formula>$I19="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="103" priority="111">
+      <formula>$I19="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19">
+    <cfRule type="expression" dxfId="102" priority="108">
+      <formula>$I19="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="101" priority="109">
+      <formula>$I19="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
+    <cfRule type="expression" dxfId="100" priority="106">
+      <formula>$I20="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="99" priority="107">
+      <formula>$I20="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="containsText" dxfId="98" priority="105" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="expression" dxfId="97" priority="103">
+      <formula>$I20="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="96" priority="104">
+      <formula>$I20="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="expression" dxfId="95" priority="101">
+      <formula>$I20="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="94" priority="102">
+      <formula>$I20="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20:H20">
+    <cfRule type="expression" dxfId="93" priority="99">
+      <formula>$I20="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="92" priority="100">
+      <formula>$I20="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20">
+    <cfRule type="expression" dxfId="91" priority="97">
+      <formula>$I20="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="90" priority="98">
+      <formula>$I20="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22">
+    <cfRule type="expression" dxfId="89" priority="95">
+      <formula>$I22="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="88" priority="96">
+      <formula>$I22="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22">
+    <cfRule type="containsText" dxfId="87" priority="94" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22">
+    <cfRule type="expression" dxfId="86" priority="92">
+      <formula>$I22="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="85" priority="93">
+      <formula>$I22="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21">
+    <cfRule type="expression" dxfId="84" priority="84">
+      <formula>$I21="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="83" priority="85">
+      <formula>$I21="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21">
+    <cfRule type="expression" dxfId="82" priority="82">
+      <formula>$I21="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="81" priority="83">
+      <formula>$I21="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="containsText" dxfId="80" priority="81" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="expression" dxfId="79" priority="79">
+      <formula>$I21="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="78" priority="80">
+      <formula>$I21="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="expression" dxfId="77" priority="77">
+      <formula>$I21="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="76" priority="78">
+      <formula>$I21="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G21:H21">
+    <cfRule type="expression" dxfId="75" priority="75">
+      <formula>$I21="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="74" priority="76">
+      <formula>$I21="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21">
+    <cfRule type="expression" dxfId="73" priority="73">
+      <formula>$I21="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="72" priority="74">
+      <formula>$I21="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22">
+    <cfRule type="expression" dxfId="71" priority="71">
+      <formula>$I22="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="70" priority="72">
+      <formula>$I22="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22:H22">
+    <cfRule type="expression" dxfId="69" priority="69">
+      <formula>$I22="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="68" priority="70">
+      <formula>$I22="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22">
+    <cfRule type="expression" dxfId="67" priority="67">
+      <formula>$I22="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="68">
+      <formula>$I22="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="expression" dxfId="65" priority="65">
+      <formula>$I22="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="64" priority="66">
+      <formula>$I22="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17:B22">
+    <cfRule type="expression" dxfId="63" priority="63">
       <formula>$I17="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="129">
+    <cfRule type="expression" dxfId="62" priority="64">
       <formula>$I17="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F17">
-    <cfRule type="expression" dxfId="120" priority="126">
-      <formula>$I17="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="119" priority="127">
-      <formula>$I17="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G17:H17">
-    <cfRule type="expression" dxfId="118" priority="124">
-      <formula>$I17="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="117" priority="125">
-      <formula>$I17="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I17">
-    <cfRule type="expression" dxfId="116" priority="122">
-      <formula>$I17="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="115" priority="123">
-      <formula>$I17="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="114" priority="120">
-      <formula>$I18="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="113" priority="121">
-      <formula>$I18="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
-    <cfRule type="containsText" dxfId="112" priority="119" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C18)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="111" priority="117">
-      <formula>$I18="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="110" priority="118">
-      <formula>$I18="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
-    <cfRule type="expression" dxfId="109" priority="115">
-      <formula>$I18="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="108" priority="116">
-      <formula>$I18="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G18:H18">
-    <cfRule type="expression" dxfId="107" priority="113">
-      <formula>$I18="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="106" priority="114">
-      <formula>$I18="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I18">
-    <cfRule type="expression" dxfId="105" priority="111">
-      <formula>$I18="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="104" priority="112">
-      <formula>$I18="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
-    <cfRule type="expression" dxfId="103" priority="109">
-      <formula>$I19="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="102" priority="110">
-      <formula>$I19="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="containsText" dxfId="101" priority="108" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C19)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="100" priority="106">
-      <formula>$I19="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="99" priority="107">
-      <formula>$I19="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F19">
-    <cfRule type="expression" dxfId="98" priority="104">
-      <formula>$I19="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="97" priority="105">
-      <formula>$I19="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G19:H19">
-    <cfRule type="expression" dxfId="96" priority="102">
-      <formula>$I19="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="95" priority="103">
-      <formula>$I19="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I19">
-    <cfRule type="expression" dxfId="94" priority="100">
-      <formula>$I19="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="93" priority="101">
-      <formula>$I19="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
-    <cfRule type="expression" dxfId="92" priority="98">
-      <formula>$I20="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="91" priority="99">
-      <formula>$I20="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="containsText" dxfId="90" priority="97" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="89" priority="95">
-      <formula>$I20="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="88" priority="96">
-      <formula>$I20="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="expression" dxfId="87" priority="93">
-      <formula>$I20="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="86" priority="94">
-      <formula>$I20="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G20:H20">
-    <cfRule type="expression" dxfId="85" priority="91">
-      <formula>$I20="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="84" priority="92">
-      <formula>$I20="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
-    <cfRule type="expression" dxfId="83" priority="89">
-      <formula>$I20="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="82" priority="90">
-      <formula>$I20="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="expression" dxfId="81" priority="87">
-      <formula>$I22="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="80" priority="88">
-      <formula>$I22="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
-    <cfRule type="containsText" dxfId="79" priority="86" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C22)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
-    <cfRule type="expression" dxfId="78" priority="84">
-      <formula>$I22="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="77" priority="85">
-      <formula>$I22="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
-    <cfRule type="expression" dxfId="76" priority="76">
-      <formula>$I21="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="75" priority="77">
-      <formula>$I21="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D21">
-    <cfRule type="expression" dxfId="74" priority="74">
-      <formula>$I21="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="73" priority="75">
-      <formula>$I21="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="containsText" dxfId="72" priority="73" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C21)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="71" priority="71">
-      <formula>$I21="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="70" priority="72">
-      <formula>$I21="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
-    <cfRule type="expression" dxfId="69" priority="69">
-      <formula>$I21="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="68" priority="70">
-      <formula>$I21="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G21:H21">
-    <cfRule type="expression" dxfId="67" priority="67">
-      <formula>$I21="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="66" priority="68">
-      <formula>$I21="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I21">
-    <cfRule type="expression" dxfId="65" priority="65">
-      <formula>$I21="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="64" priority="66">
-      <formula>$I21="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F22">
-    <cfRule type="expression" dxfId="63" priority="63">
-      <formula>$I22="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="62" priority="64">
-      <formula>$I22="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G22:H22">
+  <conditionalFormatting sqref="G23:H23">
     <cfRule type="expression" dxfId="61" priority="61">
-      <formula>$I22="確認中"</formula>
+      <formula>$I23="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="60" priority="62">
-      <formula>$I22="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I22">
+      <formula>$I23="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23">
     <cfRule type="expression" dxfId="59" priority="59">
-      <formula>$I22="確認中"</formula>
+      <formula>$I23="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="58" priority="60">
-      <formula>$I22="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
+      <formula>$I23="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23">
     <cfRule type="expression" dxfId="57" priority="57">
-      <formula>$I22="確認中"</formula>
+      <formula>$I23="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="56" priority="58">
-      <formula>$I22="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B17:B22">
-    <cfRule type="expression" dxfId="55" priority="55">
-      <formula>$I17="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="54" priority="56">
-      <formula>$I17="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G23:H23">
-    <cfRule type="expression" dxfId="53" priority="53">
+      <formula>$I23="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="containsText" dxfId="55" priority="56" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="expression" dxfId="54" priority="54">
       <formula>$I23="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="54">
+    <cfRule type="expression" dxfId="53" priority="55">
       <formula>$I23="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I23">
-    <cfRule type="expression" dxfId="51" priority="51">
+  <conditionalFormatting sqref="B23">
+    <cfRule type="expression" dxfId="52" priority="52">
       <formula>$I23="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="52">
+    <cfRule type="expression" dxfId="51" priority="53">
       <formula>$I23="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="49" priority="49">
-      <formula>$I23="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="48" priority="50">
-      <formula>$I23="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
-    <cfRule type="containsText" dxfId="47" priority="48" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C23)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="46" priority="46">
-      <formula>$I23="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="45" priority="47">
-      <formula>$I23="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23">
-    <cfRule type="expression" dxfId="44" priority="44">
-      <formula>$I23="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="43" priority="45">
-      <formula>$I23="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="expression" dxfId="42" priority="42">
+    <cfRule type="expression" dxfId="50" priority="50">
       <formula>$I24="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="43">
+    <cfRule type="expression" dxfId="49" priority="51">
       <formula>$I24="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="containsText" dxfId="40" priority="41" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="48" priority="49" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
+    <cfRule type="expression" dxfId="47" priority="47">
+      <formula>$I24="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="48">
+      <formula>$I24="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24">
+    <cfRule type="expression" dxfId="45" priority="45">
+      <formula>$I24="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="46">
+      <formula>$I24="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
+    <cfRule type="expression" dxfId="43" priority="43">
+      <formula>$I24="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="44">
+      <formula>$I24="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24:H24">
+    <cfRule type="expression" dxfId="41" priority="41">
+      <formula>$I24="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="42">
+      <formula>$I24="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24">
     <cfRule type="expression" dxfId="39" priority="39">
       <formula>$I24="確認中"</formula>
     </cfRule>
@@ -10410,52 +10554,52 @@
       <formula>$I24="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B24">
+  <conditionalFormatting sqref="D25">
     <cfRule type="expression" dxfId="37" priority="37">
-      <formula>$I24="確認中"</formula>
+      <formula>$I25="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="36" priority="38">
-      <formula>$I24="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
-    <cfRule type="expression" dxfId="35" priority="35">
-      <formula>$I24="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="36">
-      <formula>$I24="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G24:H24">
-    <cfRule type="expression" dxfId="33" priority="33">
-      <formula>$I24="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="32" priority="34">
-      <formula>$I24="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I24">
-    <cfRule type="expression" dxfId="31" priority="31">
-      <formula>$I24="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="32">
-      <formula>$I24="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25">
-    <cfRule type="expression" dxfId="29" priority="29">
+      <formula>$I25="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="containsText" dxfId="35" priority="36" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="expression" dxfId="34" priority="34">
       <formula>$I25="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="30">
+    <cfRule type="expression" dxfId="33" priority="35">
       <formula>$I25="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
-    <cfRule type="containsText" dxfId="27" priority="28" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C25)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
+  <conditionalFormatting sqref="B25">
+    <cfRule type="expression" dxfId="32" priority="32">
+      <formula>$I25="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="33">
+      <formula>$I25="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25">
+    <cfRule type="expression" dxfId="30" priority="30">
+      <formula>$I25="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="29" priority="31">
+      <formula>$I25="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G25:H25">
+    <cfRule type="expression" dxfId="28" priority="28">
+      <formula>$I25="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="29">
+      <formula>$I25="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25">
     <cfRule type="expression" dxfId="26" priority="26">
       <formula>$I25="確認中"</formula>
     </cfRule>
@@ -10463,44 +10607,44 @@
       <formula>$I25="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B25">
-    <cfRule type="expression" dxfId="24" priority="24">
-      <formula>$I25="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="23" priority="25">
-      <formula>$I25="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F25">
-    <cfRule type="expression" dxfId="22" priority="22">
-      <formula>$I25="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="23">
-      <formula>$I25="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G25:H25">
-    <cfRule type="expression" dxfId="20" priority="20">
-      <formula>$I25="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="19" priority="21">
-      <formula>$I25="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I25">
-    <cfRule type="expression" dxfId="18" priority="18">
-      <formula>$I25="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="17" priority="19">
-      <formula>$I25="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="24" priority="25" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
+    <cfRule type="expression" dxfId="23" priority="23">
+      <formula>$I26="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="24">
+      <formula>$I26="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26">
+    <cfRule type="expression" dxfId="21" priority="21">
+      <formula>$I26="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="22">
+      <formula>$I26="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F26">
+    <cfRule type="expression" dxfId="19" priority="19">
+      <formula>$I26="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="20">
+      <formula>$I26="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26:H26">
+    <cfRule type="expression" dxfId="17" priority="17">
+      <formula>$I26="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="18">
+      <formula>$I26="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I26">
     <cfRule type="expression" dxfId="15" priority="15">
       <formula>$I26="確認中"</formula>
     </cfRule>
@@ -10508,60 +10652,60 @@
       <formula>$I26="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B26">
+  <conditionalFormatting sqref="F27">
     <cfRule type="expression" dxfId="13" priority="13">
-      <formula>$I26="確認中"</formula>
+      <formula>$I27="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="12" priority="14">
-      <formula>$I26="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F26">
+      <formula>$I27="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27:H27">
     <cfRule type="expression" dxfId="11" priority="11">
-      <formula>$I26="確認中"</formula>
+      <formula>$I27="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="10" priority="12">
-      <formula>$I26="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G26:H26">
+      <formula>$I27="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27">
     <cfRule type="expression" dxfId="9" priority="9">
-      <formula>$I26="確認中"</formula>
+      <formula>$I27="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="8" priority="10">
-      <formula>$I26="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I26">
+      <formula>$I27="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27:B28">
     <cfRule type="expression" dxfId="7" priority="7">
-      <formula>$I26="確認中"</formula>
+      <formula>$I27="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="6" priority="8">
-      <formula>$I26="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F27">
+      <formula>$I27="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28">
     <cfRule type="expression" dxfId="5" priority="5">
-      <formula>$I27="確認中"</formula>
+      <formula>$I28="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="6">
-      <formula>$I27="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G27:H27">
+      <formula>$I28="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28:H28">
     <cfRule type="expression" dxfId="3" priority="3">
-      <formula>$I27="確認中"</formula>
+      <formula>$I28="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="4">
-      <formula>$I27="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I27">
+      <formula>$I28="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$I27="確認中"</formula>
+      <formula>$I28="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$I27="済み"</formula>
+      <formula>$I28="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">

--- a/質疑表/TOYOTIRE_質疑表 _平.xlsx
+++ b/質疑表/TOYOTIRE_質疑表 _平.xlsx
@@ -13,11 +13,12 @@
   </bookViews>
   <sheets>
     <sheet name="障害・要望管理表（今後はこちらに起票）" sheetId="24" r:id="rId1"/>
-    <sheet name="No6、No7" sheetId="25" r:id="rId2"/>
-    <sheet name="No13" sheetId="26" r:id="rId3"/>
-    <sheet name="No16" sheetId="27" r:id="rId4"/>
-    <sheet name="No22" sheetId="29" r:id="rId5"/>
-    <sheet name="No23" sheetId="30" r:id="rId6"/>
+    <sheet name="メニュー案" sheetId="31" r:id="rId2"/>
+    <sheet name="No6、No7" sheetId="25" r:id="rId3"/>
+    <sheet name="No13" sheetId="26" r:id="rId4"/>
+    <sheet name="No16" sheetId="27" r:id="rId5"/>
+    <sheet name="No22" sheetId="29" r:id="rId6"/>
+    <sheet name="No23" sheetId="30" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_Toc99549776" localSheetId="0">'障害・要望管理表（今後はこちらに起票）'!$E$7</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="94">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -1259,6 +1260,95 @@
       <t>ヒツヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字登録／呼出</t>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヨビダシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> は追加メニューを示す。</t>
+    <rPh sb="2" eb="4">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>シメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>別シート「メニュー案」に「刻印文字登録/検索」、「編集文字登録」、「Plate fixed」を反映したメニュー案を提示いたしますので、ご検討の程、宜しくお願い致します。</t>
+    <rPh sb="0" eb="1">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コクイン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ハンエイ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>アン</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>テイジ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ケントウ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>ホド</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>ヨロ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>ネガ</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>イタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要望</t>
   </si>
 </sst>
 </file>
@@ -1475,7 +1565,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1563,11 +1653,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="255">
+  <dxfs count="263">
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3552,6 +3711,6715 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>472109</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>23494</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>223629</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="L 字 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23F471B7-1D34-4D99-A0AE-9B6907106060}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="472109" y="509269"/>
+          <a:ext cx="24197641" cy="3057635"/>
+        </a:xfrm>
+        <a:prstGeom prst="corner">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 80031"/>
+            <a:gd name="adj2" fmla="val 50542"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>51995</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>369793</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>162971</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46D186EE-A835-4391-97C5-25AEBDAB13BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="737795" y="496981"/>
+          <a:ext cx="1003598" cy="389890"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="just">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1050" kern="100">
+              <a:effectLst/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Arc</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Arrangement</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1050" kern="100">
+            <a:effectLst/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5080</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>181611</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5080</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>231913</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直線コネクタ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17DE0817-9472-44B2-A1A1-E57388C3F691}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2748280" y="905511"/>
+          <a:ext cx="0" cy="2669677"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>552451</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>101004</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>593913</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>150718</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C771959-A671-49FE-886C-9D1C4CB73BE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="552451" y="3206154"/>
+          <a:ext cx="2098862" cy="287839"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" kern="100">
+              <a:effectLst/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Reference drawing</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:effectLst/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>390313</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>325331</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{235753B1-1BF6-4089-B31A-476D2881D9A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1076113" y="1249680"/>
+          <a:ext cx="1306618" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Reference Line</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>390313</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152064</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>325331</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>50090</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{411FBEEC-6E9F-4FCC-A39C-AF4AF2E98193}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1076113" y="2066589"/>
+          <a:ext cx="1306618" cy="374276"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" kern="100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Reference</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" kern="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> Circle</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>89645</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>79078</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>156391</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1292354D-EE23-4886-9770-907DE9913FF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2832845" y="3184228"/>
+          <a:ext cx="3234580" cy="315438"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="100" baseline="0">
+              <a:effectLst/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Lettering </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="100">
+              <a:effectLst/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>preparation</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:effectLst/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114806</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>157625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A2F74A3-C1A2-4481-9B6A-D29ECD477ECB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8963025" y="3219956"/>
+          <a:ext cx="3295650" cy="280944"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" kern="100">
+              <a:effectLst/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Arangement</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:effectLst/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>280147</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>78105</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9BA6296-D7E3-4548-A22D-332B8618965D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9195547" y="1228725"/>
+          <a:ext cx="1472453" cy="287655"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Arc</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>  placement</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>12476</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>181611</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>12476</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>223630</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線コネクタ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76B00881-A982-4C3F-8E30-56FC59A5975A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="21272276" y="905511"/>
+          <a:ext cx="0" cy="2661394"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>16279</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>181611</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>16279</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>231913</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1D46E8A-A1C6-4E14-B9B7-8AF096673A97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="12360679" y="905511"/>
+          <a:ext cx="0" cy="2669677"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>398163</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>324971</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28015</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A6210DE-E16F-4E2D-B0A1-1241344517D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1083963" y="1619250"/>
+          <a:ext cx="1298408" cy="323290"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Delete</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>201707</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>67199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>451724</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114848</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3439984-6327-4F5E-9022-B3A56F943556}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2944907" y="1267349"/>
+          <a:ext cx="1621617" cy="285774"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Fixed form character</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>393681</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>28015</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>320489</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>113179</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5408A711-D59D-40F3-A58B-EE30C013F714}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1079481" y="2418790"/>
+          <a:ext cx="1298408" cy="323289"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Delete</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>181536</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>225347</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>58817</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="正方形/長方形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A026DB3-E3CA-485C-83A5-109107397685}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2924736" y="1663622"/>
+          <a:ext cx="1704414" cy="309720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Template</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>188258</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>199987</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>438275</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9511</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="正方形/長方形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C2F4E56-AB51-4646-9777-38ADAC4F8A71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2931458" y="2114512"/>
+          <a:ext cx="1621617" cy="285774"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Editing "CH"</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>194982</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>2204</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>49852</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="正方形/長方形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF8A383F-E76D-40E2-95C3-3D51781E74E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2938182" y="2392979"/>
+          <a:ext cx="1614768" cy="285773"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Brand Balloon</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>377107</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>27117</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>414130</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>3727</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="正方形/長方形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{188941BD-162E-435F-B1C5-E07E963EBD34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10664107" y="1227267"/>
+          <a:ext cx="1408623" cy="214735"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" kern="100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Target "CH"</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>225288</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>414130</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>175590</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="正方形/長方形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C214E0E4-22F7-4C39-A634-C5C49B71CBC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10668001" y="1425438"/>
+          <a:ext cx="1404729" cy="188427"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" kern="100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Radial direction</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>384800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>174421</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>411152</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>150737</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="正方形/長方形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37139F33-226F-46CF-9A16-5D43652DEC5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10671800" y="1612696"/>
+          <a:ext cx="1397952" cy="214441"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" kern="100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>DIA direction</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>283882</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>65368</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>381560</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>111724</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="正方形/長方形 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{677650DC-DB0B-4A93-8A45-32E0D3C82FAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9199282" y="2218018"/>
+          <a:ext cx="1469278" cy="284481"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" kern="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>P</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>lacement</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" kern="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" kern="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>"modi"</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>381494</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>159026</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>414130</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>125896</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="正方形/長方形 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0DEC4A2-7BA9-4098-90BF-EF7A38F5EA29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10668494" y="2787926"/>
+          <a:ext cx="1404236" cy="204995"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" kern="100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Move</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>377506</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>136664</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>422412</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="正方形/長方形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91BAFD2F-5CA8-4031-B408-5E0B63C5DEAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10664506" y="3003689"/>
+          <a:ext cx="1416506" cy="196711"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" kern="100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Delete</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>101003</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>138951</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="テキスト ボックス 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF42F60B-A93B-4D9C-803B-2E67307E7BAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12458700" y="3206153"/>
+          <a:ext cx="1866899" cy="276073"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" kern="100">
+              <a:effectLst/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Table</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" kern="100" baseline="0">
+              <a:effectLst/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> drawing</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:effectLst/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>209176</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>21852</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>306854</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>68207</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="正方形/長方形 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2D6256B-5A1C-4EB1-BD29-2587F2C8AD37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12553576" y="1222002"/>
+          <a:ext cx="1469278" cy="284480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" kern="100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Code table</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>215152</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76536</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>302559</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>161701</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="正方形/長方形 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C38D310-818E-4421-B9BA-72CA0BA26880}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12559552" y="1514811"/>
+          <a:ext cx="1459007" cy="323290"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Delete</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>3509</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>176008</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>3509</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>215348</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直線コネクタ 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81B3F626-6F7D-4918-BE95-4C875FF8D4EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="14405309" y="899908"/>
+          <a:ext cx="0" cy="2658715"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>168093</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>215348</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="直線コネクタ 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74F91133-C15E-4271-AA2D-70298704D91A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8915400" y="891993"/>
+          <a:ext cx="0" cy="2666630"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>510336</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>525576</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>207895</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="正方形/長方形 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7E9FBEA-3614-4218-AD0F-9AC06EBE8B57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4625136" y="1666875"/>
+          <a:ext cx="1386840" cy="217420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Template  1</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>517058</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>188497</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>174762</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="正方形/長方形 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69DAA1B2-4A1A-41FE-9420-D557BED040E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4631858" y="1864897"/>
+          <a:ext cx="1378417" cy="224390"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Template  2</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>512576</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>177487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>527816</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>127133</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="正方形/長方形 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B03C65E-F31E-4E30-8FDA-4DDBD0CBAD92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4627376" y="2092012"/>
+          <a:ext cx="1386840" cy="187771"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Template  3</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>89258</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>127206</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="テキスト ボックス 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3ED2DB33-E5D6-42DC-AECE-23D47E54E7D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14468475" y="3194408"/>
+          <a:ext cx="3286125" cy="276073"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" kern="100">
+              <a:effectLst/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Conservation management</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:effectLst/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>351118</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>48383</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>448795</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>96809</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="正方形/長方形 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C15AAE2E-DA8E-426F-8EE0-8F30621C02B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14752918" y="1248533"/>
+          <a:ext cx="1469277" cy="286551"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" kern="100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Drawing "resist"</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>448142</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>54209</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>463383</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>105363</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="正方形/長方形 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6059392-D9D7-4985-8D19-29527BFFE85F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16221542" y="1254359"/>
+          <a:ext cx="1386841" cy="289279"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" kern="100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>NEW</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>443752</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>110629</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>459441</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>156911</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="正方形/長方形 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB175474-E109-4259-BB4D-4F21580B024C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16217152" y="1548904"/>
+          <a:ext cx="1387289" cy="284407"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" kern="100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Revision number</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>450474</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>150972</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>459440</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>197253</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="正方形/長方形 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30015962-9D0D-43E5-8D41-5A42EA5A87CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16223874" y="1827372"/>
+          <a:ext cx="1380566" cy="284406"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" kern="100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>modyfy</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>302558</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>138109</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>425823</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>236891</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="二等辺三角形 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A257C9C-0FC7-4871-9970-BBA40E378A9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="16075958" y="1338259"/>
+          <a:ext cx="123265" cy="98782"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>94967</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>437589</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>207308</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="二等辺三角形 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{366C7F73-39C0-4487-A08E-63BAB4A24B14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="4429124" y="1771367"/>
+          <a:ext cx="123265" cy="112341"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>208429</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>113180</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>331694</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>214033</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="二等辺三角形 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3116707-7459-4CC5-A92D-668A384B2D95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="10495429" y="1313330"/>
+          <a:ext cx="123265" cy="100853"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>237565</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>360830</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19611</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="二等辺三角形 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2A4FAEC-6D1C-4D0F-9A36-261B4318C174}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="10524565" y="2309533"/>
+          <a:ext cx="123265" cy="100853"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>293593</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38436</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>391270</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>81990</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="正方形/長方形 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{836AD0AB-E179-4ACD-B28F-40AD3DC64F64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21553393" y="1238586"/>
+          <a:ext cx="1469277" cy="281679"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" kern="100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Group</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>384802</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>149571</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>411154</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>101048</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="正方形/長方形 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37139F33-226F-46CF-9A16-5D43652DEC5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10671802" y="1825971"/>
+          <a:ext cx="1397952" cy="189602"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" kern="100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Create</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>512576</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>129862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>527816</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>77438</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="正方形/長方形 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B03C65E-F31E-4E30-8FDA-4DDBD0CBAD92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4627376" y="2282512"/>
+          <a:ext cx="1386840" cy="185701"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>Plate</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>377106</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>43681</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>414130</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>3727</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="正方形/長方形 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{188941BD-162E-435F-B1C5-E07E963EBD34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10664106" y="2196331"/>
+          <a:ext cx="1408624" cy="198171"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" kern="100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Target "CH"</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>3728</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>414130</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>192156</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="正方形/長方形 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C214E0E4-22F7-4C39-A634-C5C49B71CBC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10668000" y="2394503"/>
+          <a:ext cx="1404730" cy="188428"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" kern="100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Radial direction</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>384799</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>190987</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>411151</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>167302</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="正方形/長方形 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37139F33-226F-46CF-9A16-5D43652DEC5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10671799" y="2581762"/>
+          <a:ext cx="1397952" cy="214440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" kern="100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>DIA direction</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>474178</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>573570</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>127138</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="正方形/長方形 47"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4588978" y="2238376"/>
+          <a:ext cx="1470992" cy="279537"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>331304</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>109332</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>505239</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>150743</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="正方形/長方形 48"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10618304" y="1785732"/>
+          <a:ext cx="1545535" cy="279536"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>331303</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>3728</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>505238</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>200439</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="正方形/長方形 49"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10618303" y="2156378"/>
+          <a:ext cx="1545535" cy="672961"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>223633</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>8284</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>24848</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="正方形/長方形 50"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="3805033"/>
+          <a:ext cx="694084" cy="277465"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>169208</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>128584</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>292473</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>227366</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="二等辺三角形 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A257C9C-0FC7-4871-9970-BBA40E378A9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="22800608" y="1328734"/>
+          <a:ext cx="123265" cy="98782"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>400051</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>25263</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>433180</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>213690</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="正方形/長方形 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C214E0E4-22F7-4C39-A634-C5C49B71CBC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23031451" y="1225413"/>
+          <a:ext cx="1404729" cy="188427"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" kern="100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Base editing "CH"</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>403850</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>212521</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>430202</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>188837</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="正方形/長方形 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37139F33-226F-46CF-9A16-5D43652DEC5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23035250" y="1412671"/>
+          <a:ext cx="1397952" cy="214441"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" kern="100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Add editing "CH"</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>403852</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>187671</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>430204</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>139148</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="正方形/長方形 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37139F33-226F-46CF-9A16-5D43652DEC5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23035252" y="1625946"/>
+          <a:ext cx="1397952" cy="189602"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" kern="100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Relative position</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>350354</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>524289</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>188843</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="正方形/長方形 55"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22981754" y="1181100"/>
+          <a:ext cx="1545535" cy="684143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>299757</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>202229</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>11752</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="正方形/長方形 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF8A383F-E76D-40E2-95C3-3D51781E74E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21559557" y="2116754"/>
+          <a:ext cx="1500468" cy="285773"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Brand Balloon</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>217004</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="正方形/長方形 57"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21476804" y="2066926"/>
+          <a:ext cx="1649896" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>224873</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="直線コネクタ 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74F91133-C15E-4271-AA2D-70298704D91A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6115050" y="1123950"/>
+          <a:ext cx="0" cy="2444198"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>105281</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>657224</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>148100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="テキスト ボックス 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A2F74A3-C1A2-4481-9B6A-D29ECD477ECB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6229349" y="3210431"/>
+          <a:ext cx="2657475" cy="280944"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" kern="100">
+              <a:effectLst/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Plate fixed</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:effectLst/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>6272</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>77867</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="正方形/長方形 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A026DB3-E3CA-485C-83A5-109107397685}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6191250" y="1206422"/>
+          <a:ext cx="1295400" cy="309720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Place</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>624636</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>639876</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>226945</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="正方形/長方形 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7E9FBEA-3614-4218-AD0F-9AC06EBE8B57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7482636" y="1209675"/>
+          <a:ext cx="1386840" cy="217420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>Plate PIC</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>631358</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>207547</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>193812</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69DAA1B2-4A1A-41FE-9420-D557BED040E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7489358" y="1407697"/>
+          <a:ext cx="1378417" cy="224390"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>Placement PIC</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114017</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>551889</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>226358</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="二等辺三角形 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{366C7F73-39C0-4487-A08E-63BAB4A24B14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="7286624" y="1314167"/>
+          <a:ext cx="123265" cy="112341"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>15797</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>87392</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="正方形/長方形 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A026DB3-E3CA-485C-83A5-109107397685}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6200775" y="1692197"/>
+          <a:ext cx="1295400" cy="309720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Modify</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>225347</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>58817</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="正方形/長方形 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A026DB3-E3CA-485C-83A5-109107397685}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6210300" y="2139872"/>
+          <a:ext cx="1295400" cy="309720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Move</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>664677</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>209551</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>638174</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="正方形/長方形 66"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6151077" y="1171576"/>
+          <a:ext cx="2716697" cy="2343149"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>22001</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>181611</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>22001</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>223630</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="直線コネクタ 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76B00881-A982-4C3F-8E30-56FC59A5975A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="17852801" y="905511"/>
+          <a:ext cx="0" cy="2661394"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>198718</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>96008</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>296395</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>144434</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="正方形/長方形 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C15AAE2E-DA8E-426F-8EE0-8F30621C02B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18029518" y="1296158"/>
+          <a:ext cx="1469277" cy="286551"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" kern="100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Primitive "CH"</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>112058</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>176209</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>235323</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>36866</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="二等辺三角形 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A257C9C-0FC7-4871-9970-BBA40E378A9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="19314458" y="1376359"/>
+          <a:ext cx="123265" cy="98782"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>300907</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>600801</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="正方形/長方形 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{188941BD-162E-435F-B1C5-E07E963EBD34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19503307" y="1295400"/>
+          <a:ext cx="1671494" cy="180976"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" kern="100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Frame drawing</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>219076</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="正方形/長方形 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C214E0E4-22F7-4C39-A634-C5C49B71CBC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19507201" y="1476375"/>
+          <a:ext cx="1666874" cy="180976"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" kern="100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Character "regist"</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="正方形/長方形 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C214E0E4-22F7-4C39-A634-C5C49B71CBC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19507201" y="1657350"/>
+          <a:ext cx="1666874" cy="180976"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" kern="100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Character search</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>198718</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76958</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>296395</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>125384</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="正方形/長方形 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C15AAE2E-DA8E-426F-8EE0-8F30621C02B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18029518" y="1991483"/>
+          <a:ext cx="1469277" cy="286551"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" kern="100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Editing "CH"</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>112058</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>157159</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>235323</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>17816</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="二等辺三角形 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A257C9C-0FC7-4871-9970-BBA40E378A9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="19314458" y="2071684"/>
+          <a:ext cx="123265" cy="98782"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>300906</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>79924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>600465</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="正方形/長方形 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{188941BD-162E-435F-B1C5-E07E963EBD34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19503306" y="1994449"/>
+          <a:ext cx="1671159" cy="186776"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" kern="100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>First character</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>219074</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="正方形/長方形 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C214E0E4-22F7-4C39-A634-C5C49B71CBC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19507201" y="2190750"/>
+          <a:ext cx="1666873" cy="180974"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" kern="100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Additional character</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>89258</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>127206</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="テキスト ボックス 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3ED2DB33-E5D6-42DC-AECE-23D47E54E7D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17916525" y="3194408"/>
+          <a:ext cx="3286125" cy="276073"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" kern="100">
+              <a:effectLst/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Character regist</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:effectLst/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="正方形/長方形 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C214E0E4-22F7-4C39-A634-C5C49B71CBC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19507201" y="2381250"/>
+          <a:ext cx="1666873" cy="180974"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" kern="100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Before adding character</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="正方形/長方形 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C214E0E4-22F7-4C39-A634-C5C49B71CBC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19507201" y="2571750"/>
+          <a:ext cx="1666873" cy="180974"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" kern="100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Auto Dimensions</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="正方形/長方形 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C214E0E4-22F7-4C39-A634-C5C49B71CBC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19507201" y="2762250"/>
+          <a:ext cx="1666874" cy="180976"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" kern="100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Character "regist"</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>83653</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>22778</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="正方形/長方形 81"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17914453" y="1222928"/>
+          <a:ext cx="3307247" cy="2301322"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -3804,7 +10672,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3923,7 +10791,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4087,7 +10955,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8212,7 +15080,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -8605,7 +15473,7 @@
   <dimension ref="A3:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9470,18 +16338,34 @@
       <c r="K28" s="5"/>
       <c r="L28" s="9"/>
     </row>
-    <row r="29" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:12" s="20" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
         <v>25</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="10"/>
+      <c r="B29" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F29" s="5">
+        <v>44839</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="J29" s="3"/>
       <c r="K29" s="5"/>
       <c r="L29" s="9"/>
@@ -9668,384 +16552,416 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="C4 C6 C41:C1048576">
-    <cfRule type="containsText" dxfId="254" priority="810" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="262" priority="818" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:L4 A8 A10 A12 A14 L32 J19:J25 K10:L10 D10:H10 J11:L18 J6:L6 A6:D6 A3 D3:L3 A41:L1048576 E11 B10:B11 D12:E12 D13:F13 E14 D15:F15 A16:A32 E16:E20 E23:F23 E24">
-    <cfRule type="expression" dxfId="253" priority="808">
+    <cfRule type="expression" dxfId="261" priority="816">
       <formula>$I3="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="252" priority="809">
+    <cfRule type="expression" dxfId="260" priority="817">
       <formula>$I3="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="containsText" dxfId="251" priority="323" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="259" priority="331" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:I5 I10 K5:L5 I29:I38">
-    <cfRule type="expression" dxfId="250" priority="321">
+  <conditionalFormatting sqref="C5:I5 I10 K5:L5 I30:I38">
+    <cfRule type="expression" dxfId="258" priority="329">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="249" priority="322">
+    <cfRule type="expression" dxfId="257" priority="330">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5 A7 A9 A11 A13 A15">
-    <cfRule type="expression" dxfId="248" priority="319">
+    <cfRule type="expression" dxfId="256" priority="327">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="247" priority="320">
+    <cfRule type="expression" dxfId="255" priority="328">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7 C9:C10 C13 C15">
-    <cfRule type="containsText" dxfId="246" priority="263" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="254" priority="271" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:F9 C10 J10 J7:L9 C7 D8:F8 C13 C15">
-    <cfRule type="expression" dxfId="245" priority="261">
+    <cfRule type="expression" dxfId="253" priority="269">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="244" priority="262">
+    <cfRule type="expression" dxfId="252" priority="270">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:C35 C38:C40">
-    <cfRule type="containsText" dxfId="243" priority="258" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="251" priority="266" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C32)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B29:B31 B32:D32 H32 A33:H35 A39:L40 B38:E38 J38 J26:J35 A36:A40">
-    <cfRule type="expression" dxfId="242" priority="256">
+  <conditionalFormatting sqref="B30:B31 B32:D32 H32 A33:H35 A39:L40 B38:E38 J38 J26:J35 A36:A40">
+    <cfRule type="expression" dxfId="250" priority="264">
       <formula>$I26="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="241" priority="257">
+    <cfRule type="expression" dxfId="249" priority="265">
       <formula>$I26="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27:C31">
-    <cfRule type="containsText" dxfId="240" priority="255" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="248" priority="263" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C27)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C31 E31:H31 E25 D26:E26 C29:H30 C27:E28">
-    <cfRule type="expression" dxfId="239" priority="253">
+  <conditionalFormatting sqref="C31 E31:H31 E25 D26:E26 C30:H30 C27:E29 H29">
+    <cfRule type="expression" dxfId="247" priority="261">
       <formula>$I25="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="238" priority="254">
+    <cfRule type="expression" dxfId="246" priority="262">
       <formula>$I25="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="expression" dxfId="237" priority="251">
+    <cfRule type="expression" dxfId="245" priority="259">
       <formula>$I32="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="236" priority="252">
+    <cfRule type="expression" dxfId="244" priority="260">
       <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32:G32">
-    <cfRule type="expression" dxfId="235" priority="249">
+    <cfRule type="expression" dxfId="243" priority="257">
       <formula>$I32="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="234" priority="250">
+    <cfRule type="expression" dxfId="242" priority="258">
       <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32">
-    <cfRule type="expression" dxfId="233" priority="247">
+    <cfRule type="expression" dxfId="241" priority="255">
       <formula>$I32="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="232" priority="248">
+    <cfRule type="expression" dxfId="240" priority="256">
       <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:C37">
-    <cfRule type="containsText" dxfId="231" priority="246" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="239" priority="254" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:H36 B37:E37 J36:J37">
-    <cfRule type="expression" dxfId="230" priority="244">
+    <cfRule type="expression" dxfId="238" priority="252">
       <formula>$I36="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="229" priority="245">
+    <cfRule type="expression" dxfId="237" priority="253">
       <formula>$I36="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37:H38">
-    <cfRule type="expression" dxfId="228" priority="242">
+    <cfRule type="expression" dxfId="236" priority="250">
       <formula>$I37="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="227" priority="243">
+    <cfRule type="expression" dxfId="235" priority="251">
       <formula>$I37="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19:L31">
-    <cfRule type="expression" dxfId="226" priority="240">
+    <cfRule type="expression" dxfId="234" priority="248">
       <formula>$I19="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="225" priority="241">
+    <cfRule type="expression" dxfId="233" priority="249">
       <formula>$I19="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33:L38">
-    <cfRule type="expression" dxfId="224" priority="238">
+    <cfRule type="expression" dxfId="232" priority="246">
       <formula>$I33="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="223" priority="239">
+    <cfRule type="expression" dxfId="231" priority="247">
       <formula>$I33="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="expression" dxfId="222" priority="236">
+    <cfRule type="expression" dxfId="230" priority="244">
       <formula>$I31="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="221" priority="237">
+    <cfRule type="expression" dxfId="229" priority="245">
       <formula>$I31="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="220" priority="234">
+    <cfRule type="expression" dxfId="228" priority="242">
       <formula>$I6="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="219" priority="235">
+    <cfRule type="expression" dxfId="227" priority="243">
       <formula>$I6="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="218" priority="232">
+    <cfRule type="expression" dxfId="226" priority="240">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="217" priority="233">
+    <cfRule type="expression" dxfId="225" priority="241">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="216" priority="220">
+    <cfRule type="expression" dxfId="224" priority="228">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="215" priority="221">
+    <cfRule type="expression" dxfId="223" priority="229">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="214" priority="224">
+    <cfRule type="expression" dxfId="222" priority="232">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="213" priority="225">
+    <cfRule type="expression" dxfId="221" priority="233">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:I6">
-    <cfRule type="expression" dxfId="212" priority="218">
+    <cfRule type="expression" dxfId="220" priority="226">
       <formula>$I6="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="211" priority="219">
+    <cfRule type="expression" dxfId="219" priority="227">
       <formula>$I6="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="expression" dxfId="210" priority="216">
+    <cfRule type="expression" dxfId="218" priority="224">
       <formula>$I6="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="209" priority="217">
+    <cfRule type="expression" dxfId="217" priority="225">
       <formula>$I6="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="expression" dxfId="208" priority="214">
+    <cfRule type="expression" dxfId="216" priority="222">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="207" priority="215">
+    <cfRule type="expression" dxfId="215" priority="223">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="expression" dxfId="206" priority="212">
+    <cfRule type="expression" dxfId="214" priority="220">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="205" priority="213">
+    <cfRule type="expression" dxfId="213" priority="221">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:I7">
-    <cfRule type="expression" dxfId="204" priority="210">
+    <cfRule type="expression" dxfId="212" priority="218">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="203" priority="211">
+    <cfRule type="expression" dxfId="211" priority="219">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="202" priority="208">
+    <cfRule type="expression" dxfId="210" priority="216">
       <formula>$I8="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="201" priority="209">
+    <cfRule type="expression" dxfId="209" priority="217">
       <formula>$I8="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="containsText" dxfId="200" priority="207" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="208" priority="215" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="199" priority="205">
+    <cfRule type="expression" dxfId="207" priority="213">
       <formula>$I8="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="198" priority="206">
+    <cfRule type="expression" dxfId="206" priority="214">
       <formula>$I8="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:I8">
-    <cfRule type="expression" dxfId="197" priority="203">
+    <cfRule type="expression" dxfId="205" priority="211">
       <formula>$I8="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="196" priority="204">
+    <cfRule type="expression" dxfId="204" priority="212">
       <formula>$I8="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="195" priority="201">
+    <cfRule type="expression" dxfId="203" priority="209">
       <formula>$I9="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="194" priority="202">
+    <cfRule type="expression" dxfId="202" priority="210">
       <formula>$I9="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:I9">
-    <cfRule type="expression" dxfId="193" priority="199">
+    <cfRule type="expression" dxfId="201" priority="207">
       <formula>$I9="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="192" priority="200">
+    <cfRule type="expression" dxfId="200" priority="208">
       <formula>$I9="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="expression" dxfId="191" priority="197">
+    <cfRule type="expression" dxfId="199" priority="205">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="190" priority="198">
+    <cfRule type="expression" dxfId="198" priority="206">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="189" priority="195">
+    <cfRule type="expression" dxfId="197" priority="203">
       <formula>$I11="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="188" priority="196">
+    <cfRule type="expression" dxfId="196" priority="204">
       <formula>$I11="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="containsText" dxfId="187" priority="194" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="195" priority="202" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="186" priority="192">
+    <cfRule type="expression" dxfId="194" priority="200">
       <formula>$I11="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="185" priority="193">
+    <cfRule type="expression" dxfId="193" priority="201">
       <formula>$I11="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:H11">
-    <cfRule type="expression" dxfId="184" priority="190">
+    <cfRule type="expression" dxfId="192" priority="198">
       <formula>$I11="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="183" priority="191">
+    <cfRule type="expression" dxfId="191" priority="199">
       <formula>$I11="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="expression" dxfId="182" priority="188">
+    <cfRule type="expression" dxfId="190" priority="196">
       <formula>$I11="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="181" priority="189">
+    <cfRule type="expression" dxfId="189" priority="197">
       <formula>$I11="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="expression" dxfId="180" priority="186">
+    <cfRule type="expression" dxfId="188" priority="194">
       <formula>$I12="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="179" priority="187">
+    <cfRule type="expression" dxfId="187" priority="195">
       <formula>$I12="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="containsText" dxfId="178" priority="185" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="186" priority="193" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="177" priority="183">
+    <cfRule type="expression" dxfId="185" priority="191">
       <formula>$I12="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="176" priority="184">
+    <cfRule type="expression" dxfId="184" priority="192">
       <formula>$I12="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:H12">
-    <cfRule type="expression" dxfId="175" priority="181">
+    <cfRule type="expression" dxfId="183" priority="189">
       <formula>$I12="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="182">
+    <cfRule type="expression" dxfId="182" priority="190">
       <formula>$I12="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="expression" dxfId="173" priority="179">
+    <cfRule type="expression" dxfId="181" priority="187">
       <formula>$I12="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="180">
+    <cfRule type="expression" dxfId="180" priority="188">
       <formula>$I12="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="expression" dxfId="171" priority="177">
+    <cfRule type="expression" dxfId="179" priority="185">
       <formula>$I13="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="170" priority="178">
+    <cfRule type="expression" dxfId="178" priority="186">
       <formula>$I13="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13:H13">
-    <cfRule type="expression" dxfId="169" priority="175">
+    <cfRule type="expression" dxfId="177" priority="183">
       <formula>$I13="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="176">
+    <cfRule type="expression" dxfId="176" priority="184">
       <formula>$I13="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="167" priority="173">
+    <cfRule type="expression" dxfId="175" priority="181">
       <formula>$I13="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="174">
+    <cfRule type="expression" dxfId="174" priority="182">
       <formula>$I13="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="165" priority="171">
+    <cfRule type="expression" dxfId="173" priority="179">
       <formula>$I14="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="164" priority="172">
+    <cfRule type="expression" dxfId="172" priority="180">
       <formula>$I14="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="containsText" dxfId="163" priority="170" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="171" priority="178" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
+    <cfRule type="expression" dxfId="170" priority="176">
+      <formula>$I14="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="169" priority="177">
+      <formula>$I14="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14">
+    <cfRule type="expression" dxfId="168" priority="174">
+      <formula>$I14="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="167" priority="175">
+      <formula>$I14="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
+    <cfRule type="expression" dxfId="166" priority="172">
+      <formula>$I14="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="165" priority="173">
+      <formula>$I14="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14:H14">
+    <cfRule type="expression" dxfId="164" priority="170">
+      <formula>$I14="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="163" priority="171">
+      <formula>$I14="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14">
     <cfRule type="expression" dxfId="162" priority="168">
       <formula>$I14="確認中"</formula>
     </cfRule>
@@ -10053,76 +16969,76 @@
       <formula>$I14="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
+  <conditionalFormatting sqref="B15">
     <cfRule type="expression" dxfId="160" priority="166">
-      <formula>$I14="確認中"</formula>
+      <formula>$I15="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="159" priority="167">
-      <formula>$I14="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
-    <cfRule type="expression" dxfId="158" priority="164">
-      <formula>$I14="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="157" priority="165">
-      <formula>$I14="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G14:H14">
-    <cfRule type="expression" dxfId="156" priority="162">
-      <formula>$I14="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="155" priority="163">
-      <formula>$I14="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I14">
-    <cfRule type="expression" dxfId="154" priority="160">
-      <formula>$I14="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="153" priority="161">
-      <formula>$I14="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15">
-    <cfRule type="expression" dxfId="152" priority="158">
-      <formula>$I15="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="151" priority="159">
       <formula>$I15="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:H15">
-    <cfRule type="expression" dxfId="150" priority="156">
+    <cfRule type="expression" dxfId="158" priority="164">
       <formula>$I15="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="149" priority="157">
+    <cfRule type="expression" dxfId="157" priority="165">
       <formula>$I15="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="expression" dxfId="148" priority="154">
+    <cfRule type="expression" dxfId="156" priority="162">
       <formula>$I15="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="155">
+    <cfRule type="expression" dxfId="155" priority="163">
       <formula>$I15="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="146" priority="152">
+    <cfRule type="expression" dxfId="154" priority="160">
       <formula>$I16="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="153">
+    <cfRule type="expression" dxfId="153" priority="161">
       <formula>$I16="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="containsText" dxfId="144" priority="151" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="152" priority="159" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
+    <cfRule type="expression" dxfId="151" priority="157">
+      <formula>$I16="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="150" priority="158">
+      <formula>$I16="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16">
+    <cfRule type="expression" dxfId="149" priority="155">
+      <formula>$I16="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="148" priority="156">
+      <formula>$I16="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16">
+    <cfRule type="expression" dxfId="147" priority="153">
+      <formula>$I16="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="146" priority="154">
+      <formula>$I16="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16:H16">
+    <cfRule type="expression" dxfId="145" priority="151">
+      <formula>$I16="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="144" priority="152">
+      <formula>$I16="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
     <cfRule type="expression" dxfId="143" priority="149">
       <formula>$I16="確認中"</formula>
     </cfRule>
@@ -10130,391 +17046,391 @@
       <formula>$I16="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16">
+  <conditionalFormatting sqref="D17">
     <cfRule type="expression" dxfId="141" priority="147">
-      <formula>$I16="確認中"</formula>
+      <formula>$I17="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="140" priority="148">
-      <formula>$I16="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F16">
-    <cfRule type="expression" dxfId="139" priority="145">
-      <formula>$I16="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="138" priority="146">
-      <formula>$I16="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16:H16">
-    <cfRule type="expression" dxfId="137" priority="143">
-      <formula>$I16="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="136" priority="144">
-      <formula>$I16="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I16">
-    <cfRule type="expression" dxfId="135" priority="141">
-      <formula>$I16="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="134" priority="142">
-      <formula>$I16="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="133" priority="139">
-      <formula>$I17="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="132" priority="140">
       <formula>$I17="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="containsText" dxfId="131" priority="138" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="139" priority="146" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="130" priority="136">
+    <cfRule type="expression" dxfId="138" priority="144">
       <formula>$I17="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="137">
+    <cfRule type="expression" dxfId="137" priority="145">
       <formula>$I17="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="expression" dxfId="128" priority="134">
+    <cfRule type="expression" dxfId="136" priority="142">
       <formula>$I17="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="135">
+    <cfRule type="expression" dxfId="135" priority="143">
       <formula>$I17="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17:H17">
-    <cfRule type="expression" dxfId="126" priority="132">
+    <cfRule type="expression" dxfId="134" priority="140">
       <formula>$I17="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="133">
+    <cfRule type="expression" dxfId="133" priority="141">
       <formula>$I17="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17">
-    <cfRule type="expression" dxfId="124" priority="130">
+    <cfRule type="expression" dxfId="132" priority="138">
       <formula>$I17="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="131">
+    <cfRule type="expression" dxfId="131" priority="139">
       <formula>$I17="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="122" priority="128">
+    <cfRule type="expression" dxfId="130" priority="136">
       <formula>$I18="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="129">
+    <cfRule type="expression" dxfId="129" priority="137">
       <formula>$I18="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="containsText" dxfId="120" priority="127" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="128" priority="135" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="119" priority="125">
+    <cfRule type="expression" dxfId="127" priority="133">
       <formula>$I18="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="126">
+    <cfRule type="expression" dxfId="126" priority="134">
       <formula>$I18="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="expression" dxfId="117" priority="123">
+    <cfRule type="expression" dxfId="125" priority="131">
       <formula>$I18="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="124">
+    <cfRule type="expression" dxfId="124" priority="132">
       <formula>$I18="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:H18">
-    <cfRule type="expression" dxfId="115" priority="121">
+    <cfRule type="expression" dxfId="123" priority="129">
       <formula>$I18="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="122">
+    <cfRule type="expression" dxfId="122" priority="130">
       <formula>$I18="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18">
-    <cfRule type="expression" dxfId="113" priority="119">
+    <cfRule type="expression" dxfId="121" priority="127">
       <formula>$I18="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="120">
+    <cfRule type="expression" dxfId="120" priority="128">
       <formula>$I18="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="expression" dxfId="111" priority="117">
+    <cfRule type="expression" dxfId="119" priority="125">
       <formula>$I19="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="118">
+    <cfRule type="expression" dxfId="118" priority="126">
       <formula>$I19="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="containsText" dxfId="109" priority="116" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="117" priority="124" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="108" priority="114">
+    <cfRule type="expression" dxfId="116" priority="122">
       <formula>$I19="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="115">
+    <cfRule type="expression" dxfId="115" priority="123">
       <formula>$I19="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="expression" dxfId="106" priority="112">
+    <cfRule type="expression" dxfId="114" priority="120">
       <formula>$I19="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="113">
+    <cfRule type="expression" dxfId="113" priority="121">
       <formula>$I19="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19:H19">
-    <cfRule type="expression" dxfId="104" priority="110">
+    <cfRule type="expression" dxfId="112" priority="118">
       <formula>$I19="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="111">
+    <cfRule type="expression" dxfId="111" priority="119">
       <formula>$I19="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19">
-    <cfRule type="expression" dxfId="102" priority="108">
+    <cfRule type="expression" dxfId="110" priority="116">
       <formula>$I19="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="109">
+    <cfRule type="expression" dxfId="109" priority="117">
       <formula>$I19="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="expression" dxfId="100" priority="106">
+    <cfRule type="expression" dxfId="108" priority="114">
       <formula>$I20="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="107">
+    <cfRule type="expression" dxfId="107" priority="115">
       <formula>$I20="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="containsText" dxfId="98" priority="105" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="106" priority="113" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="97" priority="103">
+    <cfRule type="expression" dxfId="105" priority="111">
       <formula>$I20="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="104">
+    <cfRule type="expression" dxfId="104" priority="112">
       <formula>$I20="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="expression" dxfId="95" priority="101">
+    <cfRule type="expression" dxfId="103" priority="109">
       <formula>$I20="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="102">
+    <cfRule type="expression" dxfId="102" priority="110">
       <formula>$I20="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20:H20">
-    <cfRule type="expression" dxfId="93" priority="99">
+    <cfRule type="expression" dxfId="101" priority="107">
       <formula>$I20="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="100">
+    <cfRule type="expression" dxfId="100" priority="108">
       <formula>$I20="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="expression" dxfId="91" priority="97">
+    <cfRule type="expression" dxfId="99" priority="105">
       <formula>$I20="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="98">
+    <cfRule type="expression" dxfId="98" priority="106">
       <formula>$I20="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="expression" dxfId="89" priority="95">
+    <cfRule type="expression" dxfId="97" priority="103">
       <formula>$I22="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="96">
+    <cfRule type="expression" dxfId="96" priority="104">
       <formula>$I22="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22">
-    <cfRule type="containsText" dxfId="87" priority="94" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="95" priority="102" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22">
-    <cfRule type="expression" dxfId="86" priority="92">
+    <cfRule type="expression" dxfId="94" priority="100">
       <formula>$I22="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="93">
+    <cfRule type="expression" dxfId="93" priority="101">
       <formula>$I22="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="expression" dxfId="84" priority="84">
+    <cfRule type="expression" dxfId="92" priority="92">
       <formula>$I21="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="85">
+    <cfRule type="expression" dxfId="91" priority="93">
       <formula>$I21="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="expression" dxfId="82" priority="82">
+    <cfRule type="expression" dxfId="90" priority="90">
       <formula>$I21="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="83">
+    <cfRule type="expression" dxfId="89" priority="91">
       <formula>$I21="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21">
-    <cfRule type="containsText" dxfId="80" priority="81" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="88" priority="89" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="79" priority="79">
+    <cfRule type="expression" dxfId="87" priority="87">
       <formula>$I21="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="80">
+    <cfRule type="expression" dxfId="86" priority="88">
       <formula>$I21="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="expression" dxfId="77" priority="77">
+    <cfRule type="expression" dxfId="85" priority="85">
       <formula>$I21="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="78">
+    <cfRule type="expression" dxfId="84" priority="86">
       <formula>$I21="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21:H21">
-    <cfRule type="expression" dxfId="75" priority="75">
+    <cfRule type="expression" dxfId="83" priority="83">
       <formula>$I21="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="76">
+    <cfRule type="expression" dxfId="82" priority="84">
       <formula>$I21="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21">
-    <cfRule type="expression" dxfId="73" priority="73">
+    <cfRule type="expression" dxfId="81" priority="81">
       <formula>$I21="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="74">
+    <cfRule type="expression" dxfId="80" priority="82">
       <formula>$I21="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="expression" dxfId="71" priority="71">
+    <cfRule type="expression" dxfId="79" priority="79">
       <formula>$I22="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="72">
+    <cfRule type="expression" dxfId="78" priority="80">
       <formula>$I22="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22:H22">
-    <cfRule type="expression" dxfId="69" priority="69">
+    <cfRule type="expression" dxfId="77" priority="77">
       <formula>$I22="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="70">
+    <cfRule type="expression" dxfId="76" priority="78">
       <formula>$I22="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22">
-    <cfRule type="expression" dxfId="67" priority="67">
+    <cfRule type="expression" dxfId="75" priority="75">
       <formula>$I22="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="68">
+    <cfRule type="expression" dxfId="74" priority="76">
       <formula>$I22="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="expression" dxfId="65" priority="65">
+    <cfRule type="expression" dxfId="73" priority="73">
       <formula>$I22="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="66">
+    <cfRule type="expression" dxfId="72" priority="74">
       <formula>$I22="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B22">
-    <cfRule type="expression" dxfId="63" priority="63">
+    <cfRule type="expression" dxfId="71" priority="71">
       <formula>$I17="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="64">
+    <cfRule type="expression" dxfId="70" priority="72">
       <formula>$I17="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23:H23">
-    <cfRule type="expression" dxfId="61" priority="61">
+    <cfRule type="expression" dxfId="69" priority="69">
       <formula>$I23="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="62">
+    <cfRule type="expression" dxfId="68" priority="70">
       <formula>$I23="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="expression" dxfId="59" priority="59">
+    <cfRule type="expression" dxfId="67" priority="67">
       <formula>$I23="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="60">
+    <cfRule type="expression" dxfId="66" priority="68">
       <formula>$I23="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="57" priority="57">
+    <cfRule type="expression" dxfId="65" priority="65">
       <formula>$I23="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="58">
+    <cfRule type="expression" dxfId="64" priority="66">
       <formula>$I23="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="containsText" dxfId="55" priority="56" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="63" priority="64" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="54" priority="54">
+    <cfRule type="expression" dxfId="62" priority="62">
       <formula>$I23="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="55">
+    <cfRule type="expression" dxfId="61" priority="63">
       <formula>$I23="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="expression" dxfId="52" priority="52">
+    <cfRule type="expression" dxfId="60" priority="60">
       <formula>$I23="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="53">
+    <cfRule type="expression" dxfId="59" priority="61">
       <formula>$I23="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="expression" dxfId="50" priority="50">
+    <cfRule type="expression" dxfId="58" priority="58">
       <formula>$I24="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="51">
+    <cfRule type="expression" dxfId="57" priority="59">
       <formula>$I24="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="containsText" dxfId="48" priority="49" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="56" priority="57" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
+    <cfRule type="expression" dxfId="55" priority="55">
+      <formula>$I24="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="56">
+      <formula>$I24="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24">
+    <cfRule type="expression" dxfId="53" priority="53">
+      <formula>$I24="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="54">
+      <formula>$I24="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
+    <cfRule type="expression" dxfId="51" priority="51">
+      <formula>$I24="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="52">
+      <formula>$I24="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24:H24">
+    <cfRule type="expression" dxfId="49" priority="49">
+      <formula>$I24="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="50">
+      <formula>$I24="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24">
     <cfRule type="expression" dxfId="47" priority="47">
       <formula>$I24="確認中"</formula>
     </cfRule>
@@ -10522,52 +17438,52 @@
       <formula>$I24="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B24">
+  <conditionalFormatting sqref="D25">
     <cfRule type="expression" dxfId="45" priority="45">
-      <formula>$I24="確認中"</formula>
+      <formula>$I25="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="44" priority="46">
-      <formula>$I24="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
-    <cfRule type="expression" dxfId="43" priority="43">
-      <formula>$I24="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="44">
-      <formula>$I24="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G24:H24">
-    <cfRule type="expression" dxfId="41" priority="41">
-      <formula>$I24="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="40" priority="42">
-      <formula>$I24="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I24">
-    <cfRule type="expression" dxfId="39" priority="39">
-      <formula>$I24="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="38" priority="40">
-      <formula>$I24="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25">
-    <cfRule type="expression" dxfId="37" priority="37">
-      <formula>$I25="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="38">
       <formula>$I25="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="containsText" dxfId="35" priority="36" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="43" priority="44" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
+    <cfRule type="expression" dxfId="42" priority="42">
+      <formula>$I25="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="41" priority="43">
+      <formula>$I25="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25">
+    <cfRule type="expression" dxfId="40" priority="40">
+      <formula>$I25="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="41">
+      <formula>$I25="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25">
+    <cfRule type="expression" dxfId="38" priority="38">
+      <formula>$I25="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="39">
+      <formula>$I25="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G25:H25">
+    <cfRule type="expression" dxfId="36" priority="36">
+      <formula>$I25="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="35" priority="37">
+      <formula>$I25="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25">
     <cfRule type="expression" dxfId="34" priority="34">
       <formula>$I25="確認中"</formula>
     </cfRule>
@@ -10575,44 +17491,44 @@
       <formula>$I25="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B25">
-    <cfRule type="expression" dxfId="32" priority="32">
-      <formula>$I25="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="31" priority="33">
-      <formula>$I25="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F25">
-    <cfRule type="expression" dxfId="30" priority="30">
-      <formula>$I25="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="29" priority="31">
-      <formula>$I25="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G25:H25">
-    <cfRule type="expression" dxfId="28" priority="28">
-      <formula>$I25="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="27" priority="29">
-      <formula>$I25="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I25">
-    <cfRule type="expression" dxfId="26" priority="26">
-      <formula>$I25="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="27">
-      <formula>$I25="済み"</formula>
+  <conditionalFormatting sqref="C26">
+    <cfRule type="containsText" dxfId="32" priority="33" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="containsText" dxfId="24" priority="25" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C26)))</formula>
+    <cfRule type="expression" dxfId="31" priority="31">
+      <formula>$I26="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="32">
+      <formula>$I26="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26">
+  <conditionalFormatting sqref="B26">
+    <cfRule type="expression" dxfId="29" priority="29">
+      <formula>$I26="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="30">
+      <formula>$I26="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F26">
+    <cfRule type="expression" dxfId="27" priority="27">
+      <formula>$I26="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="28">
+      <formula>$I26="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26:H26">
+    <cfRule type="expression" dxfId="25" priority="25">
+      <formula>$I26="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="26">
+      <formula>$I26="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I26">
     <cfRule type="expression" dxfId="23" priority="23">
       <formula>$I26="確認中"</formula>
     </cfRule>
@@ -10620,92 +17536,92 @@
       <formula>$I26="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B26">
+  <conditionalFormatting sqref="F27">
     <cfRule type="expression" dxfId="21" priority="21">
-      <formula>$I26="確認中"</formula>
+      <formula>$I27="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="20" priority="22">
-      <formula>$I26="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F26">
-    <cfRule type="expression" dxfId="19" priority="19">
-      <formula>$I26="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="20">
-      <formula>$I26="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G26:H26">
-    <cfRule type="expression" dxfId="17" priority="17">
-      <formula>$I26="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="18">
-      <formula>$I26="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I26">
-    <cfRule type="expression" dxfId="15" priority="15">
-      <formula>$I26="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="16">
-      <formula>$I26="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F27">
-    <cfRule type="expression" dxfId="13" priority="13">
-      <formula>$I27="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="14">
       <formula>$I27="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:H27">
-    <cfRule type="expression" dxfId="11" priority="11">
+    <cfRule type="expression" dxfId="19" priority="19">
       <formula>$I27="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="12">
+    <cfRule type="expression" dxfId="18" priority="20">
       <formula>$I27="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27">
-    <cfRule type="expression" dxfId="9" priority="9">
+    <cfRule type="expression" dxfId="17" priority="17">
       <formula>$I27="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="10">
+    <cfRule type="expression" dxfId="16" priority="18">
       <formula>$I27="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27:B28">
-    <cfRule type="expression" dxfId="7" priority="7">
+    <cfRule type="expression" dxfId="15" priority="15">
       <formula>$I27="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8">
+    <cfRule type="expression" dxfId="14" priority="16">
       <formula>$I27="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="13" priority="13">
       <formula>$I28="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="12" priority="14">
       <formula>$I28="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:H28">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="11" priority="11">
       <formula>$I28="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="10" priority="12">
       <formula>$I28="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28">
+    <cfRule type="expression" dxfId="9" priority="9">
+      <formula>$I28="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="10">
+      <formula>$I28="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29">
+    <cfRule type="expression" dxfId="7" priority="7">
+      <formula>$I29="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="8">
+      <formula>$I29="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29">
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>$I29="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>$I29="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>$I29="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>$I29="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$I28="確認中"</formula>
+      <formula>$I29="確認中"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$I28="済み"</formula>
+      <formula>$I29="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
@@ -10725,6 +17641,104 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AY17"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE21" sqref="AE21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:51" x14ac:dyDescent="0.4">
+      <c r="B1" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG1" s="28"/>
+      <c r="AH1" s="28"/>
+      <c r="AI1" s="28"/>
+      <c r="AJ1" s="28"/>
+    </row>
+    <row r="2" spans="1:51" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A2" s="25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:51" x14ac:dyDescent="0.4">
+      <c r="AY4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:51" x14ac:dyDescent="0.4">
+      <c r="AO5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="AF1:AJ1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:M1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="V1:Z1"/>
+    <mergeCell ref="AA1:AE1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q20"/>
   <sheetViews>
@@ -10790,7 +17804,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -10804,7 +17818,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -10820,7 +17834,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP171"/>
   <sheetViews>
@@ -10938,7 +17952,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/質疑表/TOYOTIRE_質疑表 _平.xlsx
+++ b/質疑表/TOYOTIRE_質疑表 _平.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="96">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -1350,12 +1350,26 @@
   <si>
     <t>要望</t>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以下は、元のメニューです。</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1388,6 +1402,15 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
@@ -1565,7 +1588,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1642,6 +1665,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10416,6 +10442,3906 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>685799</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>23495</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>666748</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>61595</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="L 字 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23F471B7-1D34-4D99-A0AE-9B6907106060}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685799" y="509270"/>
+          <a:ext cx="28098749" cy="2419350"/>
+        </a:xfrm>
+        <a:prstGeom prst="corner">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 80031"/>
+            <a:gd name="adj2" fmla="val 50542"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>51995</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>369793</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>162971</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="テキスト ボックス 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46D186EE-A835-4391-97C5-25AEBDAB13BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="737795" y="496981"/>
+          <a:ext cx="1003598" cy="389890"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="just">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1050" kern="100">
+              <a:effectLst/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Arc</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Arrangement</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1050" kern="100">
+            <a:effectLst/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5080</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>181611</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5080</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="85" name="直線コネクタ 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17DE0817-9472-44B2-A1A1-E57388C3F691}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2748280" y="905511"/>
+          <a:ext cx="0" cy="2018665"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>100853</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>168087</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>593912</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>217801</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="テキスト ボックス 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C771959-A671-49FE-886C-9D1C4CB73BE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="786653" y="2558862"/>
+          <a:ext cx="1864659" cy="287839"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" kern="100">
+              <a:effectLst/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Reference drawing</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:effectLst/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>390313</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>325331</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>1905</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="87" name="正方形/長方形 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{235753B1-1BF6-4089-B31A-476D2881D9A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1076113" y="1068705"/>
+          <a:ext cx="1306618" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Reference Line</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>390313</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>209214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>325331</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>107240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="正方形/長方形 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{411FBEEC-6E9F-4FCC-A39C-AF4AF2E98193}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1076113" y="1885614"/>
+          <a:ext cx="1306618" cy="374276"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" kern="100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Reference</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" kern="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> Circle</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>89645</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>179293</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>414616</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>16411</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="テキスト ボックス 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1292354D-EE23-4886-9770-907DE9913FF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2832845" y="2570068"/>
+          <a:ext cx="1696571" cy="313368"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="100" baseline="0">
+              <a:effectLst/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Lettering </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="100">
+              <a:effectLst/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>preparation</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:effectLst/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>231587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>658345</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>34211</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="テキスト ボックス 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A2F74A3-C1A2-4481-9B6A-D29ECD477ECB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6619875" y="2622362"/>
+          <a:ext cx="1582270" cy="278874"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" kern="100">
+              <a:effectLst/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Arangement</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:effectLst/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>280147</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>1905</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="正方形/長方形 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9BA6296-D7E3-4548-A22D-332B8618965D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6452347" y="1152525"/>
+          <a:ext cx="1472453" cy="287655"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Arc</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>  placement</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>12476</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>181611</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>12476</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="92" name="直線コネクタ 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76B00881-A982-4C3F-8E30-56FC59A5975A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="15100076" y="905511"/>
+          <a:ext cx="0" cy="2018665"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>16398</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>181611</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>16398</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="93" name="直線コネクタ 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0924107C-46AB-456A-A5D3-417B276DD2A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="17161398" y="905511"/>
+          <a:ext cx="0" cy="2018665"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>4445</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>181611</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>4445</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="94" name="直線コネクタ 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F5BD7FD-2043-40D6-BDDD-644895DE7421}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="18521045" y="905511"/>
+          <a:ext cx="0" cy="2018665"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>181611</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="95" name="直線コネクタ 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0793CD67-FB0F-46B8-9A6C-0B07E3733722}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="22637750" y="905511"/>
+          <a:ext cx="0" cy="2018665"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>664845</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>181611</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>664845</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="96" name="直線コネクタ 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{756FFEA1-7531-4A1B-84EA-5C64AB165634}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="24667845" y="905511"/>
+          <a:ext cx="0" cy="2018665"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>19685</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>181611</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>19685</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="97" name="直線コネクタ 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2416C95-692B-4E5E-90D4-9108448BB0CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="26765885" y="905511"/>
+          <a:ext cx="0" cy="2018665"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>16279</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>181611</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>16279</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="98" name="直線コネクタ 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1D46E8A-A1C6-4E14-B9B7-8AF096673A97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9617479" y="905511"/>
+          <a:ext cx="0" cy="2018665"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>4445</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>181611</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>4445</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="99" name="直線コネクタ 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E5A1E0A-F10A-4527-9D4B-06361135CF70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="20578445" y="905511"/>
+          <a:ext cx="0" cy="2018665"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>398163</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>324971</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>85165</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="100" name="正方形/長方形 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A6210DE-E16F-4E2D-B0A1-1241344517D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1083963" y="1438275"/>
+          <a:ext cx="1298408" cy="323290"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Delete</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>201707</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>171974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>451724</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>219623</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="101" name="正方形/長方形 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3439984-6327-4F5E-9022-B3A56F943556}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2944907" y="1133999"/>
+          <a:ext cx="1621617" cy="285774"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Fixed form character</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>393681</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>85165</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>320489</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>170329</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="102" name="正方形/長方形 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5408A711-D59D-40F3-A58B-EE30C013F714}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1079481" y="2237815"/>
+          <a:ext cx="1298408" cy="323289"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Delete</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>181535</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>115943</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>549088</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>163592</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="103" name="正方形/長方形 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A026DB3-E3CA-485C-83A5-109107397685}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2924735" y="1554218"/>
+          <a:ext cx="1739153" cy="285774"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Template</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>188258</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>66637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>438275</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>114286</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="104" name="正方形/長方形 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C2F4E56-AB51-4646-9777-38ADAC4F8A71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2931458" y="1981162"/>
+          <a:ext cx="1621617" cy="285774"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Editing "CH"</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>194982</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>106979</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>448235</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>154627</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="105" name="正方形/長方形 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF8A383F-E76D-40E2-95C3-3D51781E74E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2938182" y="2259629"/>
+          <a:ext cx="1624853" cy="285773"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Brand Balloon</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>385390</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>189042</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>400630</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="106" name="正方形/長方形 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{188941BD-162E-435F-B1C5-E07E963EBD34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7929190" y="1151067"/>
+          <a:ext cx="1386840" cy="287208"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" kern="100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Target "CH"</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>5266</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>407353</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>51548</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="107" name="正方形/長方形 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C214E0E4-22F7-4C39-A634-C5C49B71CBC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7924801" y="1443541"/>
+          <a:ext cx="1397952" cy="284407"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" kern="100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Radial direction</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>376517</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>56815</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>402869</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>103096</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="108" name="正方形/長方形 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37139F33-226F-46CF-9A16-5D43652DEC5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7920317" y="1733215"/>
+          <a:ext cx="1397952" cy="284406"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" kern="100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>DIA direction</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>283882</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>227293</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>381560</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>35524</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="109" name="正方形/長方形 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{677650DC-DB0B-4A93-8A45-32E0D3C82FAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6456082" y="2141818"/>
+          <a:ext cx="1469278" cy="284481"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" kern="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>P</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>lacement</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" kern="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" kern="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>"modi"</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>389777</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>228638</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>412954</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>42211</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="110" name="正方形/長方形 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0DEC4A2-7BA9-4098-90BF-EF7A38F5EA29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7933577" y="2143163"/>
+          <a:ext cx="1394777" cy="289823"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" kern="100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Move</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>394073</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>19463</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>417250</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>72094</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="111" name="正方形/長方形 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91BAFD2F-5CA8-4031-B408-5E0B63C5DEAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7937873" y="2410238"/>
+          <a:ext cx="1394777" cy="290756"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" kern="100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Delete</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>293967</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>168086</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>504637</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>206034</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="112" name="テキスト ボックス 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF42F60B-A93B-4D9C-803B-2E67307E7BAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9895167" y="2558861"/>
+          <a:ext cx="1582270" cy="276073"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" kern="100">
+              <a:effectLst/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Table</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" kern="100" baseline="0">
+              <a:effectLst/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> drawing</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:effectLst/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>209176</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>212352</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>306854</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>20582</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="113" name="正方形/長方形 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2D6256B-5A1C-4EB1-BD29-2587F2C8AD37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9810376" y="1174377"/>
+          <a:ext cx="1469278" cy="284480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" kern="100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Code table</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>215152</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38436</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>302559</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>123601</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="114" name="正方形/長方形 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C38D310-818E-4421-B9BA-72CA0BA26880}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9816352" y="1476711"/>
+          <a:ext cx="1459007" cy="323290"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Delete</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>3509</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>176008</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>3509</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>51548</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="115" name="直線コネクタ 114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81B3F626-6F7D-4918-BE95-4C875FF8D4EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11662109" y="899908"/>
+          <a:ext cx="0" cy="2018665"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>168093</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>43633</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="116" name="直線コネクタ 115">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74F91133-C15E-4271-AA2D-70298704D91A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6172200" y="891993"/>
+          <a:ext cx="0" cy="2018665"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>557961</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>573201</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>158341</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="117" name="正方形/長方形 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7E9FBEA-3614-4218-AD0F-9AC06EBE8B57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4672761" y="1550334"/>
+          <a:ext cx="1386840" cy="284407"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Template  1</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>564683</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>163606</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>209887</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="118" name="正方形/長方形 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69DAA1B2-4A1A-41FE-9420-D557BED040E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4679483" y="1840006"/>
+          <a:ext cx="1378417" cy="284406"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Template  2</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>560201</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>226359</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>575441</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>37317</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="119" name="正方形/長方形 118">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B03C65E-F31E-4E30-8FDA-4DDBD0CBAD92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4675001" y="2140884"/>
+          <a:ext cx="1386840" cy="287208"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Template  3</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>470647</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>172907</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>560294</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>210855</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="120" name="テキスト ボックス 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3ED2DB33-E5D6-42DC-AECE-23D47E54E7D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12129247" y="2563682"/>
+          <a:ext cx="2147047" cy="276073"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" kern="100">
+              <a:effectLst/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Conservation management</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:effectLst/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>351118</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>223557</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>448795</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>31787</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="121" name="正方形/長方形 120">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C15AAE2E-DA8E-426F-8EE0-8F30621C02B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12009718" y="1185582"/>
+          <a:ext cx="1469277" cy="284480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" kern="100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Drawing "resist"</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>448142</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>229383</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>463383</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>40341</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="122" name="正方形/長方形 121">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6059392-D9D7-4985-8D19-29527BFFE85F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13478342" y="1191408"/>
+          <a:ext cx="1386841" cy="287208"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" kern="100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>NEW</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>443752</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>45607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>459441</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>91889</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="123" name="正方形/長方形 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB175474-E109-4259-BB4D-4F21580B024C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13473952" y="1483882"/>
+          <a:ext cx="1387289" cy="284407"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" kern="100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Revision number</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>450474</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>85950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>459440</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>132231</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="124" name="正方形/長方形 123">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30015962-9D0D-43E5-8D41-5A42EA5A87CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13480674" y="1762350"/>
+          <a:ext cx="1380566" cy="284406"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" kern="100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>modyfy</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>302558</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>425823</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="125" name="二等辺三角形 124">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A257C9C-0FC7-4871-9970-BBA40E378A9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="13332758" y="1289797"/>
+          <a:ext cx="123265" cy="100853"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>208429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>466165</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>73959</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="126" name="二等辺三角形 125">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{366C7F73-39C0-4487-A08E-63BAB4A24B14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="4457700" y="1646704"/>
+          <a:ext cx="123265" cy="103655"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>208429</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>17930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>331694</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>118783</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="127" name="二等辺三角形 126">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3116707-7459-4CC5-A92D-668A384B2D95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="7752229" y="1218080"/>
+          <a:ext cx="123265" cy="100853"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>237565</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>80683</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>360830</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>181536</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="128" name="二等辺三角形 127">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2A4FAEC-6D1C-4D0F-9A36-261B4318C174}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="7781365" y="2233333"/>
+          <a:ext cx="123265" cy="100853"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>293593</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>38436</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>391270</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>81990</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="129" name="正方形/長方形 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{836AD0AB-E179-4ACD-B28F-40AD3DC64F64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15381193" y="1238586"/>
+          <a:ext cx="1469277" cy="281679"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" kern="100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Group</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="130" name="下矢印 129"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4800600" y="3886200"/>
+          <a:ext cx="790575" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -15473,7 +19399,7 @@
   <dimension ref="A3:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -15493,11 +19419,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
@@ -16355,7 +20281,7 @@
         <v>92</v>
       </c>
       <c r="F29" s="5">
-        <v>44839</v>
+        <v>44848</v>
       </c>
       <c r="G29" s="9" t="s">
         <v>44</v>
@@ -17642,64 +21568,64 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY17"/>
+  <dimension ref="A1:AY27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE21" sqref="AE21"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.4">
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="29" t="s">
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="28" t="s">
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28" t="s">
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28" t="s">
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="29" t="s">
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="AB1" s="30"/>
-      <c r="AC1" s="30"/>
-      <c r="AD1" s="30"/>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="28" t="s">
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="32"/>
+      <c r="AF1" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="28"/>
-      <c r="AI1" s="28"/>
-      <c r="AJ1" s="28"/>
+      <c r="AG1" s="29"/>
+      <c r="AH1" s="29"/>
+      <c r="AI1" s="29"/>
+      <c r="AJ1" s="29"/>
     </row>
     <row r="2" spans="1:51" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A2" s="25" t="s">
@@ -17716,13 +21642,71 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.4">
       <c r="C17" t="s">
         <v>91</v>
       </c>
     </row>
+    <row r="21" spans="1:42" ht="24" x14ac:dyDescent="0.4">
+      <c r="B21" s="26" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="B23" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="S23" s="29"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="29"/>
+      <c r="V23" s="29"/>
+      <c r="W23" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="X23" s="29"/>
+      <c r="Y23" s="29"/>
+    </row>
+    <row r="24" spans="1:42" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A24" s="25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="AP26" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="AF27" t="s">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="13">
     <mergeCell ref="AF1:AJ1"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:M1"/>
@@ -17730,6 +21714,12 @@
     <mergeCell ref="S1:U1"/>
     <mergeCell ref="V1:Z1"/>
     <mergeCell ref="AA1:AE1"/>
+    <mergeCell ref="W23:Y23"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:N23"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="R23:V23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17845,42 +21835,42 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28" t="s">
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28" t="s">
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28" t="s">
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28" t="s">
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28" t="s">
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
     </row>
     <row r="2" spans="1:42" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A2" s="25" t="s">

--- a/質疑表/TOYOTIRE_質疑表 _平.xlsx
+++ b/質疑表/TOYOTIRE_質疑表 _平.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17160" windowHeight="11475" tabRatio="898"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17160" windowHeight="11475" tabRatio="898" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="障害・要望管理表（今後はこちらに起票）" sheetId="24" r:id="rId1"/>
-    <sheet name="2022 10 18 SCメニュー案" sheetId="32" r:id="rId2"/>
+    <sheet name="2022 10 18 SCメニュー案" sheetId="33" r:id="rId2"/>
     <sheet name="メニュー案" sheetId="31" r:id="rId3"/>
     <sheet name="No6、No7" sheetId="25" r:id="rId4"/>
     <sheet name="No13" sheetId="26" r:id="rId5"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="134">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -1366,47 +1366,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>刻印文字登録</t>
-    <rPh sb="0" eb="2">
-      <t>コクイン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>編集文字登録</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>（2022/10/18  SCメニュー案）</t>
-    <rPh sb="19" eb="20">
-      <t>アン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve"> は提案させて頂く箇所を示します。</t>
     <rPh sb="2" eb="4">
       <t>テイアン</t>
@@ -1419,266 +1378,6 @@
     </rPh>
     <rPh sb="12" eb="13">
       <t>シメ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>配置する「編集文字」の呼出をおこないます。</t>
-    <rPh sb="0" eb="2">
-      <t>ハイチ</t>
-    </rPh>
-    <rPh sb="5" eb="9">
-      <t>ヘンシュウモジ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヨビダシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>②</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「編集文字」の配置基準線を設定します。</t>
-    <rPh sb="1" eb="5">
-      <t>ヘンシュウモジ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ハイチ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>キジュンセン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>③</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>配置する「編集文字」に対し、替え駒の配置・サイズ変更・移動を行います。</t>
-    <rPh sb="0" eb="2">
-      <t>ハイチ</t>
-    </rPh>
-    <rPh sb="5" eb="9">
-      <t>ヘンシュウモジ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>コマ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ハイチ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>④</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AT-B図面の「Title」情報はAutoCADのカスタムプロパティに設定する予定ですのでメニュー対象外としたいと考えております。</t>
-    <rPh sb="4" eb="6">
-      <t>ズメン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ヨテイ</t>
-    </rPh>
-    <rPh sb="49" eb="52">
-      <t>タイショウガイ</t>
-    </rPh>
-    <rPh sb="57" eb="58">
-      <t>カンガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>⑤</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「編集文字」のグループ化を行う為の、基準文字・追加文字・グループ化の相対距離を設定します。</t>
-    <rPh sb="1" eb="5">
-      <t>ヘンシュウモジ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>タメ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>キジュン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ソウタイ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>キョリ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>⑥</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「刻印文字」の登録における、登録対象文字の指定と登録処理の呼出を行います。</t>
-    <rPh sb="1" eb="3">
-      <t>コクイン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ヨビダシ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>⑦</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「編集文字」を構成する「刻印文字」の呼出を行います。</t>
-    <rPh sb="1" eb="5">
-      <t>ヘンシュウモジ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>コウセイ</t>
-    </rPh>
-    <rPh sb="12" eb="16">
-      <t>コクインモジ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ヨビダシ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>⑧</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「編集文字」の登録を配置し、ご提示の「One character」から「Additional character」(追加文字指定)と「Before adding character」(追加直前文字指定)に変更しております。</t>
-    <rPh sb="7" eb="9">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ハイチ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>テイジ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="92" eb="94">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="94" eb="96">
-      <t>チョクゼン</t>
-    </rPh>
-    <rPh sb="96" eb="98">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="98" eb="100">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="102" eb="104">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>以下は、10/17 TOYO様ご提示のメニューです。</t>
-    <rPh sb="0" eb="2">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>サマ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>テイジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1718,10 +1417,6 @@
     <rPh sb="8" eb="9">
       <t>ダ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1795,12 +1490,461 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>刻印文字登録・呼出</t>
+    <rPh sb="0" eb="2">
+      <t>コクイン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヨビダシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集文字登録・呼出</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヨビダシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（2022/10/18  SCメニュー案）</t>
+    <rPh sb="19" eb="20">
+      <t>アン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配置する「編集文字」の呼出を行います。（編集文字の編集は、「編集文字登録」グループ[右端のグループ]で行います。）</t>
+    <rPh sb="0" eb="2">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>ヘンシュウモジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヨビダシ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="30" eb="34">
+      <t>ヘンシュウモジ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ハシ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「編集文字」の配置基準線を設定します。</t>
+    <rPh sb="1" eb="5">
+      <t>ヘンシュウモジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>キジュンセン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「文字列の準備」として配置する「編集文字」に対し、替え駒の配置・サイズ変更・移動を行います。</t>
+    <rPh sb="1" eb="4">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>ヘンシュウモジ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>コマ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>④</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AT-B図面の「Title」情報はAutoCADのカスタムプロパティに設定する予定ですのでメニュー対象外としたいと考えております。</t>
+    <rPh sb="4" eb="6">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="49" eb="52">
+      <t>タイショウガイ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑤</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「編集文字」のグループ化を行う為の、基準文字・追加文字・グループ化の相対距離を設定します。</t>
+    <rPh sb="1" eb="5">
+      <t>ヘンシュウモジ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キジュン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ソウタイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>キョリ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑥</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グループ化する「編集文字」の風船番号の設定を行います。</t>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>フウセン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑦</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「刻印文字」の文字枠の設定を行います。</t>
+    <rPh sb="1" eb="3">
+      <t>コクイン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>モジワク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑧</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「編集文字」の登録を配置し、ご提示の「One character」から「Additional character」(追加文字指定)と「Before adding character」(追加直前文字指定)に変更しております。</t>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>テイジ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>チョクゼン</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑨</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「編集文字」の検索を行います。（グループ和名に合わせております。）</t>
+    <rPh sb="7" eb="9">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ワメイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>は、他に10/14時点で追加した箇所を示します。</t>
+    <rPh sb="2" eb="3">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジテン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カショ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>シメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ⓐ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>替え駒を呼出（作成）します。</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コマ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヨビダシ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ⓑ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集文字を円弧上に配置します。</t>
+    <rPh sb="0" eb="4">
+      <t>ヘンシュウモジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>エンコ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ⓒ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>円弧上に配置された文字の指定・径方向位置・主方向位置を変更します。</t>
+    <rPh sb="0" eb="3">
+      <t>エンコウエ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>ケイホウコウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>シュ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以下は、10/17 TOYO様ご提示のメニューです。</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>サマ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>テイジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1870,6 +2014,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1891,7 +2043,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -2106,13 +2258,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2194,33 +2374,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2254,7 +2407,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -9043,14 +9253,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>132043</xdr:colOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>255868</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>134108</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>229720</xdr:colOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>182534</xdr:rowOff>
     </xdr:to>
@@ -9067,357 +9277,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21391843" y="1334258"/>
-          <a:ext cx="1469277" cy="286551"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr">
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" kern="100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Primitive "CH"</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
-            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>45383</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>214309</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>168648</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>74966</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="二等辺三角形 57">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A257C9C-0FC7-4871-9970-BBA40E378A9E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="22676783" y="1414459"/>
-          <a:ext cx="123265" cy="98782"/>
-        </a:xfrm>
-        <a:prstGeom prst="triangle">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>234232</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>534126</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="59" name="正方形/長方形 58">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{188941BD-162E-435F-B1C5-E07E963EBD34}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="22865632" y="1333500"/>
-          <a:ext cx="1671494" cy="180976"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr">
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" kern="100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Frame drawing</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
-            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>238126</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="正方形/長方形 59">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C214E0E4-22F7-4C39-A634-C5C49B71CBC7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="22869526" y="1514475"/>
-          <a:ext cx="1666874" cy="180976"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr">
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" kern="100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Character "regist"</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
-            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>255868</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>19808</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>68234</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="61" name="正方形/長方形 60">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C15AAE2E-DA8E-426F-8EE0-8F30621C02B8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="24944668" y="1934333"/>
+          <a:off x="24944668" y="1334258"/>
           <a:ext cx="1611032" cy="286551"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9489,18 +9349,18 @@
     <xdr:from>
       <xdr:col>38</xdr:col>
       <xdr:colOff>293033</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>109534</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>223834</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>416298</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>208316</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>84491</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="62" name="二等辺三角形 61">
+        <xdr:cNvPr id="58" name="二等辺三角形 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A257C9C-0FC7-4871-9970-BBA40E378A9E}"/>
@@ -9511,7 +9371,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="26353433" y="2024059"/>
+          <a:off x="26353433" y="1423984"/>
           <a:ext cx="123265" cy="98782"/>
         </a:xfrm>
         <a:prstGeom prst="triangle">
@@ -9557,18 +9417,18 @@
     <xdr:from>
       <xdr:col>38</xdr:col>
       <xdr:colOff>500931</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>22774</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>137074</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
       <xdr:colOff>114690</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="正方形/長方形 62">
+        <xdr:cNvPr id="59" name="正方形/長方形 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{188941BD-162E-435F-B1C5-E07E963EBD34}"/>
@@ -9579,7 +9439,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="26561331" y="1937299"/>
+          <a:off x="26561331" y="1337224"/>
           <a:ext cx="1671159" cy="186776"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9651,18 +9511,18 @@
     <xdr:from>
       <xdr:col>38</xdr:col>
       <xdr:colOff>504826</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
       <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="64" name="正方形/長方形 63">
+        <xdr:cNvPr id="60" name="正方形/長方形 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C214E0E4-22F7-4C39-A634-C5C49B71CBC7}"/>
@@ -9673,7 +9533,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="26565226" y="2133600"/>
+          <a:off x="26565226" y="1533525"/>
           <a:ext cx="1666873" cy="180974"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9745,18 +9605,18 @@
     <xdr:from>
       <xdr:col>38</xdr:col>
       <xdr:colOff>504826</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
       <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>228599</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="65" name="正方形/長方形 64">
+        <xdr:cNvPr id="61" name="正方形/長方形 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C214E0E4-22F7-4C39-A634-C5C49B71CBC7}"/>
@@ -9767,7 +9627,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="26565226" y="2324100"/>
+          <a:off x="26565226" y="1724025"/>
           <a:ext cx="1666873" cy="180974"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9839,18 +9699,18 @@
     <xdr:from>
       <xdr:col>38</xdr:col>
       <xdr:colOff>504826</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
       <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="66" name="正方形/長方形 65">
+        <xdr:cNvPr id="62" name="正方形/長方形 61">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C214E0E4-22F7-4C39-A634-C5C49B71CBC7}"/>
@@ -9861,7 +9721,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="26565226" y="2514600"/>
+          <a:off x="26565226" y="1914525"/>
           <a:ext cx="1666873" cy="180974"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9931,114 +9791,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>504826</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="67" name="正方形/長方形 66">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C214E0E4-22F7-4C39-A634-C5C49B71CBC7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="26565226" y="2705100"/>
-          <a:ext cx="1666874" cy="180976"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr">
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" kern="100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Character "regist"</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
-            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2240</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>23495</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
       <xdr:colOff>666748</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>61595</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="68" name="L 字 67">
+        <xdr:cNvPr id="63" name="L 字 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23F471B7-1D34-4D99-A0AE-9B6907106060}"/>
@@ -10049,7 +9815,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="688040" y="8919845"/>
+          <a:off x="688040" y="11082020"/>
           <a:ext cx="30153908" cy="4086225"/>
         </a:xfrm>
         <a:prstGeom prst="corner">
@@ -10097,18 +9863,18 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>51995</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>369793</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>162971</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="69" name="テキスト ボックス 14">
+        <xdr:cNvPr id="64" name="テキスト ボックス 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46D186EE-A835-4391-97C5-25AEBDAB13BC}"/>
@@ -10119,7 +9885,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="737795" y="8907556"/>
+          <a:off x="737795" y="11069731"/>
           <a:ext cx="1003598" cy="389890"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10208,18 +9974,18 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>5080</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>181611</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>5080</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="70" name="直線コネクタ 69">
+        <xdr:cNvPr id="65" name="直線コネクタ 64">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17DE0817-9472-44B2-A1A1-E57388C3F691}"/>
@@ -10230,7 +9996,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2748280" y="9316086"/>
+          <a:off x="2748280" y="11478261"/>
           <a:ext cx="0" cy="3685540"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -10263,18 +10029,18 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>100853</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>165652</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>593912</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>217801</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="71" name="テキスト ボックス 55">
+        <xdr:cNvPr id="66" name="テキスト ボックス 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C771959-A671-49FE-886C-9D1C4CB73BE9}"/>
@@ -10285,7 +10051,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="786653" y="12633877"/>
+          <a:off x="786653" y="14796052"/>
           <a:ext cx="1864659" cy="290274"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10350,18 +10116,18 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>390313</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>325331</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>1905</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="72" name="正方形/長方形 71">
+        <xdr:cNvPr id="67" name="正方形/長方形 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{235753B1-1BF6-4089-B31A-476D2881D9A5}"/>
@@ -10372,7 +10138,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1076113" y="9479280"/>
+          <a:off x="1076113" y="11641455"/>
           <a:ext cx="1306618" cy="371475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10442,18 +10208,18 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>379107</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>186803</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>314125</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>84829</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="73" name="正方形/長方形 72">
+        <xdr:cNvPr id="68" name="正方形/長方形 67">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{411FBEEC-6E9F-4FCC-A39C-AF4AF2E98193}"/>
@@ -10464,7 +10230,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1064907" y="10273778"/>
+          <a:off x="1064907" y="12435953"/>
           <a:ext cx="1306618" cy="374276"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10545,18 +10311,18 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>156880</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>182217</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>481851</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>27617</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="74" name="テキスト ボックス 59">
+        <xdr:cNvPr id="69" name="テキスト ボックス 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1292354D-EE23-4886-9770-907DE9913FF6}"/>
@@ -10567,7 +10333,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3585880" y="12650442"/>
+          <a:off x="3585880" y="14812617"/>
           <a:ext cx="1696571" cy="321650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10640,18 +10406,18 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>178733</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>223630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>389403</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>34211</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="75" name="テキスト ボックス 83">
+        <xdr:cNvPr id="70" name="テキスト ボックス 83">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A2F74A3-C1A2-4481-9B6A-D29ECD477ECB}"/>
@@ -10662,7 +10428,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7036733" y="12691855"/>
+          <a:off x="7036733" y="14854030"/>
           <a:ext cx="1582270" cy="286831"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10727,18 +10493,18 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>280147</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>1905</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="76" name="正方形/長方形 75">
+        <xdr:cNvPr id="71" name="正方形/長方形 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9BA6296-D7E3-4548-A22D-332B8618965D}"/>
@@ -10749,7 +10515,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6452347" y="9563100"/>
+          <a:off x="6452347" y="11725275"/>
           <a:ext cx="1472453" cy="287655"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10833,18 +10599,18 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>12476</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>181611</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>12476</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="77" name="直線コネクタ 76">
+        <xdr:cNvPr id="72" name="直線コネクタ 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76B00881-A982-4C3F-8E30-56FC59A5975A}"/>
@@ -10855,7 +10621,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="15100076" y="9316086"/>
+          <a:off x="15100076" y="11478261"/>
           <a:ext cx="0" cy="3685540"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -10888,18 +10654,18 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>16398</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>181611</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>16398</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="78" name="直線コネクタ 77">
+        <xdr:cNvPr id="73" name="直線コネクタ 72">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0924107C-46AB-456A-A5D3-417B276DD2A9}"/>
@@ -10910,7 +10676,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="17161398" y="9316086"/>
+          <a:off x="17161398" y="11478261"/>
           <a:ext cx="0" cy="3685540"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -10943,18 +10709,18 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>4445</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>181611</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>4445</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="79" name="直線コネクタ 78">
+        <xdr:cNvPr id="74" name="直線コネクタ 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F5BD7FD-2043-40D6-BDDD-644895DE7421}"/>
@@ -10965,7 +10731,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="19892645" y="9316086"/>
+          <a:off x="19892645" y="11478261"/>
           <a:ext cx="0" cy="3685540"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -10998,18 +10764,18 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>181611</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="80" name="直線コネクタ 79">
+        <xdr:cNvPr id="75" name="直線コネクタ 74">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0793CD67-FB0F-46B8-9A6C-0B07E3733722}"/>
@@ -11020,7 +10786,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="24695150" y="9316086"/>
+          <a:off x="24695150" y="11478261"/>
           <a:ext cx="0" cy="3685540"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -11053,18 +10819,18 @@
     <xdr:from>
       <xdr:col>38</xdr:col>
       <xdr:colOff>664845</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>181611</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>664845</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="81" name="直線コネクタ 80">
+        <xdr:cNvPr id="76" name="直線コネクタ 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{756FFEA1-7531-4A1B-84EA-5C64AB165634}"/>
@@ -11075,7 +10841,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="26725245" y="9316086"/>
+          <a:off x="26725245" y="11478261"/>
           <a:ext cx="0" cy="3685540"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -11108,18 +10874,18 @@
     <xdr:from>
       <xdr:col>42</xdr:col>
       <xdr:colOff>19685</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>181611</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>19685</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="82" name="直線コネクタ 81">
+        <xdr:cNvPr id="77" name="直線コネクタ 76">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2416C95-692B-4E5E-90D4-9108448BB0CF}"/>
@@ -11130,7 +10896,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="28823285" y="9316086"/>
+          <a:off x="28823285" y="11478261"/>
           <a:ext cx="0" cy="3685540"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -11163,18 +10929,18 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>16279</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>181611</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>16279</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="83" name="直線コネクタ 82">
+        <xdr:cNvPr id="78" name="直線コネクタ 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1D46E8A-A1C6-4E14-B9B7-8AF096673A97}"/>
@@ -11185,7 +10951,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9617479" y="9316086"/>
+          <a:off x="9617479" y="11478261"/>
           <a:ext cx="0" cy="3685540"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -11218,18 +10984,18 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>4445</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>181611</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>4445</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="84" name="直線コネクタ 83">
+        <xdr:cNvPr id="79" name="直線コネクタ 78">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E5A1E0A-F10A-4527-9D4B-06361135CF70}"/>
@@ -11240,7 +11006,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="22635845" y="9316086"/>
+          <a:off x="22635845" y="11478261"/>
           <a:ext cx="0" cy="3685540"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -11273,18 +11039,18 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>201707</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>171974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>451724</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>219623</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="85" name="正方形/長方形 84">
+        <xdr:cNvPr id="80" name="正方形/長方形 79">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3439984-6327-4F5E-9022-B3A56F943556}"/>
@@ -11295,7 +11061,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2944907" y="9544574"/>
+          <a:off x="2944907" y="11706749"/>
           <a:ext cx="1621617" cy="285774"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11353,18 +11119,18 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>382475</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>73959</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>309283</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>159123</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="86" name="正方形/長方形 85">
+        <xdr:cNvPr id="81" name="正方形/長方形 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5408A711-D59D-40F3-A58B-EE30C013F714}"/>
@@ -11375,7 +11141,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1068275" y="10637184"/>
+          <a:off x="1068275" y="12799359"/>
           <a:ext cx="1298408" cy="323289"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11453,18 +11219,18 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>181535</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>115943</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>549088</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>163592</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="87" name="正方形/長方形 86">
+        <xdr:cNvPr id="82" name="正方形/長方形 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A026DB3-E3CA-485C-83A5-109107397685}"/>
@@ -11475,7 +11241,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2924735" y="9964793"/>
+          <a:off x="2924735" y="12126968"/>
           <a:ext cx="1739153" cy="285774"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11533,18 +11299,18 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>188258</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>178695</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>537882</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>226345</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="88" name="正方形/長方形 87">
+        <xdr:cNvPr id="83" name="正方形/長方形 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C2F4E56-AB51-4646-9777-38ADAC4F8A71}"/>
@@ -11555,7 +11321,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2931458" y="11218170"/>
+          <a:off x="2931458" y="13380345"/>
           <a:ext cx="1721224" cy="285775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11613,18 +11379,18 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>194983</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>31362</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="89" name="正方形/長方形 88">
+        <xdr:cNvPr id="84" name="正方形/長方形 83">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF8A383F-E76D-40E2-95C3-3D51781E74E5}"/>
@@ -11635,7 +11401,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2938183" y="11515725"/>
+          <a:off x="2938183" y="13677900"/>
           <a:ext cx="1710017" cy="269487"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11693,18 +11459,18 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>385390</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>189042</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>400630</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="90" name="正方形/長方形 89">
+        <xdr:cNvPr id="85" name="正方形/長方形 84">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{188941BD-162E-435F-B1C5-E07E963EBD34}"/>
@@ -11715,7 +11481,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7929190" y="9561642"/>
+          <a:off x="7929190" y="11723817"/>
           <a:ext cx="1386840" cy="287208"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11787,18 +11553,18 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>381001</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>5266</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>407353</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>51548</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="91" name="正方形/長方形 90">
+        <xdr:cNvPr id="86" name="正方形/長方形 85">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C214E0E4-22F7-4C39-A634-C5C49B71CBC7}"/>
@@ -11809,7 +11575,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7924801" y="9854116"/>
+          <a:off x="7924801" y="12016291"/>
           <a:ext cx="1397952" cy="284407"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11881,18 +11647,18 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>376517</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>56815</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>402869</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>103096</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="92" name="正方形/長方形 91">
+        <xdr:cNvPr id="87" name="正方形/長方形 86">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37139F33-226F-46CF-9A16-5D43652DEC5E}"/>
@@ -11903,7 +11669,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7920317" y="10143790"/>
+          <a:off x="7920317" y="12305965"/>
           <a:ext cx="1397952" cy="284406"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11975,18 +11741,18 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>261470</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>14381</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>359148</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>57935</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="93" name="正方形/長方形 92">
+        <xdr:cNvPr id="88" name="正方形/長方形 87">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{677650DC-DB0B-4A93-8A45-32E0D3C82FAC}"/>
@@ -11997,7 +11763,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6433670" y="10815731"/>
+          <a:off x="6433670" y="12977906"/>
           <a:ext cx="1469278" cy="281679"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12105,18 +11871,18 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>356159</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>138992</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>379336</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>187888</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="94" name="正方形/長方形 93">
+        <xdr:cNvPr id="89" name="正方形/長方形 88">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0DEC4A2-7BA9-4098-90BF-EF7A38F5EA29}"/>
@@ -12127,7 +11893,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7899959" y="11416592"/>
+          <a:off x="7899959" y="13578767"/>
           <a:ext cx="1394777" cy="287021"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12199,18 +11965,18 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>360455</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>165140</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>383632</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>190501</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="95" name="正方形/長方形 94">
+        <xdr:cNvPr id="90" name="正方形/長方形 89">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91BAFD2F-5CA8-4031-B408-5E0B63C5DEAF}"/>
@@ -12221,7 +11987,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7904255" y="11680865"/>
+          <a:off x="7904255" y="13843040"/>
           <a:ext cx="1394777" cy="263486"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12293,18 +12059,18 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>293967</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>107674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>504637</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>206033</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="96" name="テキスト ボックス 83">
+        <xdr:cNvPr id="91" name="テキスト ボックス 83">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF42F60B-A93B-4D9C-803B-2E67307E7BAF}"/>
@@ -12315,7 +12081,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9895167" y="12575899"/>
+          <a:off x="9895167" y="14738074"/>
           <a:ext cx="1582270" cy="336484"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12388,18 +12154,18 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>209176</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>212352</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>306854</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>20582</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="97" name="正方形/長方形 96">
+        <xdr:cNvPr id="92" name="正方形/長方形 91">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2D6256B-5A1C-4EB1-BD29-2587F2C8AD37}"/>
@@ -12410,7 +12176,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9810376" y="9584952"/>
+          <a:off x="9810376" y="11747127"/>
           <a:ext cx="1469278" cy="284480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12482,18 +12248,18 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>215152</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>38436</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>302559</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>123601</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="98" name="正方形/長方形 97">
+        <xdr:cNvPr id="93" name="正方形/長方形 92">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C38D310-818E-4421-B9BA-72CA0BA26880}"/>
@@ -12504,7 +12270,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9816352" y="9887286"/>
+          <a:off x="9816352" y="12049461"/>
           <a:ext cx="1459007" cy="323290"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12582,18 +12348,18 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>3509</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>176008</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>3509</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>51548</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="99" name="直線コネクタ 98">
+        <xdr:cNvPr id="94" name="直線コネクタ 93">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81B3F626-6F7D-4918-BE95-4C875FF8D4EF}"/>
@@ -12604,7 +12370,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="11662109" y="9310483"/>
+          <a:off x="11662109" y="11472658"/>
           <a:ext cx="0" cy="3685540"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -12637,18 +12403,18 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>168093</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>43633</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="100" name="直線コネクタ 99">
+        <xdr:cNvPr id="95" name="直線コネクタ 94">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74F91133-C15E-4271-AA2D-70298704D91A}"/>
@@ -12659,7 +12425,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6172200" y="9302568"/>
+          <a:off x="6172200" y="11464743"/>
           <a:ext cx="0" cy="3685540"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -12692,18 +12458,18 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>557961</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>112059</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>573201</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>158341</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="101" name="正方形/長方形 100">
+        <xdr:cNvPr id="96" name="正方形/長方形 95">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7E9FBEA-3614-4218-AD0F-9AC06EBE8B57}"/>
@@ -12714,7 +12480,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4672761" y="9960909"/>
+          <a:off x="4672761" y="12123084"/>
           <a:ext cx="1386840" cy="284407"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12776,18 +12542,18 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>564683</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>163606</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>209887</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="102" name="正方形/長方形 101">
+        <xdr:cNvPr id="97" name="正方形/長方形 96">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69DAA1B2-4A1A-41FE-9420-D557BED040E1}"/>
@@ -12798,7 +12564,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4679483" y="10250581"/>
+          <a:off x="4679483" y="12412756"/>
           <a:ext cx="1378417" cy="284406"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12860,18 +12626,18 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>560201</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>226359</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>575441</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>37317</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="103" name="正方形/長方形 102">
+        <xdr:cNvPr id="98" name="正方形/長方形 97">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B03C65E-F31E-4E30-8FDA-4DDBD0CBAD92}"/>
@@ -12882,7 +12648,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4675001" y="10551459"/>
+          <a:off x="4675001" y="12713634"/>
           <a:ext cx="1386840" cy="287208"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12944,18 +12710,18 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>470647</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>66260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>560294</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>210854</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="104" name="テキスト ボックス 83">
+        <xdr:cNvPr id="99" name="テキスト ボックス 83">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3ED2DB33-E5D6-42DC-AECE-23D47E54E7D4}"/>
@@ -12966,7 +12732,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12129247" y="12534485"/>
+          <a:off x="12129247" y="14696660"/>
           <a:ext cx="2147047" cy="382719"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13031,18 +12797,18 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>339913</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>212351</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>437590</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>20581</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="105" name="正方形/長方形 104">
+        <xdr:cNvPr id="100" name="正方形/長方形 99">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C15AAE2E-DA8E-426F-8EE0-8F30621C02B8}"/>
@@ -13053,7 +12819,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11998513" y="10299326"/>
+          <a:off x="11998513" y="12461501"/>
           <a:ext cx="1469277" cy="284480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13125,18 +12891,18 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>436937</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>218177</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>452178</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>29135</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="106" name="正方形/長方形 105">
+        <xdr:cNvPr id="101" name="正方形/長方形 100">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6059392-D9D7-4985-8D19-29527BFFE85F}"/>
@@ -13147,7 +12913,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13467137" y="10305152"/>
+          <a:off x="13467137" y="12467327"/>
           <a:ext cx="1386841" cy="287208"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13219,18 +12985,18 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>432547</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>34401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>448236</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>80684</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="107" name="正方形/長方形 106">
+        <xdr:cNvPr id="102" name="正方形/長方形 101">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB175474-E109-4259-BB4D-4F21580B024C}"/>
@@ -13241,7 +13007,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13462747" y="10597626"/>
+          <a:off x="13462747" y="12759801"/>
           <a:ext cx="1387289" cy="284408"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13313,18 +13079,18 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>439269</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>74745</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>448235</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>121025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="108" name="正方形/長方形 107">
+        <xdr:cNvPr id="103" name="正方形/長方形 102">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30015962-9D0D-43E5-8D41-5A42EA5A87CB}"/>
@@ -13335,7 +13101,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13469469" y="10876095"/>
+          <a:off x="13469469" y="13038270"/>
           <a:ext cx="1380566" cy="284405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13407,18 +13173,18 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>291353</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>78442</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>414618</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>179295</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="109" name="二等辺三角形 108">
+        <xdr:cNvPr id="104" name="二等辺三角形 103">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A257C9C-0FC7-4871-9970-BBA40E378A9E}"/>
@@ -13429,7 +13195,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="13321553" y="10403542"/>
+          <a:off x="13321553" y="12565717"/>
           <a:ext cx="123265" cy="100853"/>
         </a:xfrm>
         <a:prstGeom prst="triangle">
@@ -13475,18 +13241,18 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>208429</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>466165</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>73959</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="110" name="二等辺三角形 109">
+        <xdr:cNvPr id="105" name="二等辺三角形 104">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{366C7F73-39C0-4487-A08E-63BAB4A24B14}"/>
@@ -13497,7 +13263,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="4457700" y="10057279"/>
+          <a:off x="4457700" y="12219454"/>
           <a:ext cx="123265" cy="103655"/>
         </a:xfrm>
         <a:prstGeom prst="triangle">
@@ -13543,18 +13309,18 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>208429</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>17930</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>331694</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>118783</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="111" name="二等辺三角形 110">
+        <xdr:cNvPr id="106" name="二等辺三角形 105">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3116707-7459-4CC5-A92D-668A384B2D95}"/>
@@ -13565,7 +13331,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="7752229" y="9628655"/>
+          <a:off x="7752229" y="11790830"/>
           <a:ext cx="123265" cy="100853"/>
         </a:xfrm>
         <a:prstGeom prst="triangle">
@@ -13611,18 +13377,18 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>215153</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>103095</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>338418</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>203948</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="112" name="二等辺三角形 111">
+        <xdr:cNvPr id="107" name="二等辺三角形 106">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2A4FAEC-6D1C-4D0F-9A36-261B4318C174}"/>
@@ -13633,7 +13399,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="7758953" y="10904445"/>
+          <a:off x="7758953" y="13066620"/>
           <a:ext cx="123265" cy="100853"/>
         </a:xfrm>
         <a:prstGeom prst="triangle">
@@ -13679,18 +13445,18 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>293593</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>38436</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>391270</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>81990</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="113" name="正方形/長方形 112">
+        <xdr:cNvPr id="108" name="正方形/長方形 107">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{836AD0AB-E179-4ACD-B28F-40AD3DC64F64}"/>
@@ -13701,7 +13467,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15381193" y="9649161"/>
+          <a:off x="15381193" y="11811336"/>
           <a:ext cx="1469277" cy="281679"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13773,18 +13539,18 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>484093</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>16024</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>50552</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>63674</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="114" name="正方形/長方形 113">
+        <xdr:cNvPr id="109" name="正方形/長方形 108">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{435A9344-A58C-4F46-B536-4CD515AB6DF6}"/>
@@ -13795,7 +13561,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17629093" y="9626749"/>
+          <a:off x="17629093" y="11788924"/>
           <a:ext cx="1623859" cy="285775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13853,18 +13619,18 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>502023</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>67571</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>68482</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>115221</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="115" name="正方形/長方形 114">
+        <xdr:cNvPr id="110" name="正方形/長方形 109">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B080E6C1-E9E8-4BCE-BC98-454E2AAA065E}"/>
@@ -13875,7 +13641,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17647023" y="10154546"/>
+          <a:off x="17647023" y="12316721"/>
           <a:ext cx="1623859" cy="285775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13933,18 +13699,18 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>506505</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>60848</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>72964</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>108498</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="116" name="正方形/長方形 115">
+        <xdr:cNvPr id="111" name="正方形/長方形 110">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A681A03B-C15B-4327-9151-B0C4F701FB1A}"/>
@@ -13955,7 +13721,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20394705" y="9671573"/>
+          <a:off x="20394705" y="11833748"/>
           <a:ext cx="1623859" cy="285775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14013,18 +13779,18 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>560201</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>24653</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>575441</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>56029</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="117" name="正方形/長方形 116">
+        <xdr:cNvPr id="112" name="正方形/長方形 111">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53D058AB-3B3E-463E-92BE-98A025D92A06}"/>
@@ -14035,7 +13801,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4675001" y="10826003"/>
+          <a:off x="4675001" y="12988178"/>
           <a:ext cx="1386840" cy="269501"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14097,18 +13863,18 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>257734</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>303117</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>224119</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="118" name="正方形/長方形 117">
+        <xdr:cNvPr id="113" name="正方形/長方形 112">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC15B477-51F7-49DF-9198-C31311BD3086}"/>
@@ -14119,7 +13885,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6429934" y="11706225"/>
+          <a:off x="6429934" y="13868400"/>
           <a:ext cx="1416983" cy="271744"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14227,18 +13993,18 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>400405</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>226358</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>327213</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>76198</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="119" name="正方形/長方形 118">
+        <xdr:cNvPr id="114" name="正方形/長方形 113">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A45B5815-FC84-4185-9328-092322B58950}"/>
@@ -14249,7 +14015,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1086205" y="9837083"/>
+          <a:off x="1086205" y="11999258"/>
           <a:ext cx="1298408" cy="326090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14327,18 +14093,18 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>358588</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>11205</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>389208</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>216179</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="120" name="正方形/長方形 119">
+        <xdr:cNvPr id="115" name="正方形/長方形 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8226484F-0962-4F5E-8663-B768D29F0388}"/>
@@ -14349,7 +14115,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7902388" y="10812555"/>
+          <a:off x="7902388" y="12974730"/>
           <a:ext cx="1402220" cy="204974"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14421,18 +14187,18 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>362482</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>216180</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>389208</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>176088</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="121" name="正方形/長方形 120">
+        <xdr:cNvPr id="116" name="正方形/長方形 115">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED931359-4CDD-45DF-87C5-1D1CB6B70E55}"/>
@@ -14443,7 +14209,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7906282" y="11017530"/>
+          <a:off x="7906282" y="13179705"/>
           <a:ext cx="1398326" cy="198033"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14515,18 +14281,18 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>366281</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>174919</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>386229</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>160839</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="122" name="正方形/長方形 121">
+        <xdr:cNvPr id="117" name="正方形/長方形 116">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C239355-980D-4C5E-963F-FB00F3F8E59D}"/>
@@ -14537,7 +14303,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7910081" y="11214394"/>
+          <a:off x="7910081" y="13376569"/>
           <a:ext cx="1391548" cy="224045"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14609,18 +14375,18 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>347382</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>44823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>438657</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>102854</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="123" name="正方形/長方形 122">
+        <xdr:cNvPr id="118" name="正方形/長方形 117">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BF9C6BB-9AB2-427C-A41B-CD617E5D5082}"/>
@@ -14631,7 +14397,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12005982" y="9655548"/>
+          <a:off x="12005982" y="11817723"/>
           <a:ext cx="1462875" cy="296156"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14703,18 +14469,18 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>100854</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>400947</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>61936</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="124" name="正方形/長方形 123">
+        <xdr:cNvPr id="119" name="正方形/長方形 118">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03E4250B-091A-423F-80B9-43ECE354AD50}"/>
@@ -14725,7 +14491,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7924799" y="10425954"/>
+          <a:off x="7924799" y="12588129"/>
           <a:ext cx="1391548" cy="199207"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14797,18 +14563,18 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>517711</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>230356</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>593911</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>100853</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="125" name="正方形/長方形 124">
+        <xdr:cNvPr id="120" name="正方形/長方形 119">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8425F9F-F5C9-4149-A64E-794ADDC69F79}"/>
@@ -14819,7 +14585,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4632511" y="10793581"/>
+          <a:off x="4632511" y="12955756"/>
           <a:ext cx="1447800" cy="346747"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14863,18 +14629,18 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>356347</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>68992</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>432547</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>100853</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="126" name="正方形/長方形 125">
+        <xdr:cNvPr id="121" name="正方形/長方形 120">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3D8ED42-1B0A-4ECE-A71D-F20A3F0DAA84}"/>
@@ -14885,7 +14651,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7900147" y="10394092"/>
+          <a:off x="7900147" y="12556267"/>
           <a:ext cx="1447800" cy="269986"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14929,18 +14695,18 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>340659</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>221391</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>416859</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>168088</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="127" name="正方形/長方形 126">
+        <xdr:cNvPr id="122" name="正方形/長方形 121">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8015C36-1117-4749-90A9-56B2B175C5E2}"/>
@@ -14951,7 +14717,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7884459" y="10784616"/>
+          <a:off x="7884459" y="12946791"/>
           <a:ext cx="1447800" cy="661072"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14995,18 +14761,18 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>313765</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>11205</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>470647</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="128" name="正方形/長方形 127">
+        <xdr:cNvPr id="123" name="正方形/長方形 122">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{348D358C-8839-471A-8933-62B36EAC5ED1}"/>
@@ -15017,7 +14783,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11972365" y="9621930"/>
+          <a:off x="11972365" y="11784105"/>
           <a:ext cx="1528482" cy="350185"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15061,18 +14827,18 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>537883</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>553123</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>1459</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="129" name="正方形/長方形 128">
+        <xdr:cNvPr id="124" name="正方形/長方形 123">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47BB72C6-99A6-491F-A802-34835CC04BE3}"/>
@@ -15083,7 +14849,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4652683" y="11229975"/>
+          <a:off x="4652683" y="13392150"/>
           <a:ext cx="1386840" cy="287209"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15145,18 +14911,18 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>369795</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>44823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>493060</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>145677</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="130" name="二等辺三角形 129">
+        <xdr:cNvPr id="125" name="二等辺三角形 124">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACD0BF02-391F-42C7-AB79-7A62B398DFE9}"/>
@@ -15167,7 +14933,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="4484595" y="11322423"/>
+          <a:off x="4484595" y="13484598"/>
           <a:ext cx="123265" cy="100854"/>
         </a:xfrm>
         <a:prstGeom prst="triangle">
@@ -15213,18 +14979,18 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>566057</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>190501</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>581297</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>1459</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="131" name="正方形/長方形 130">
+        <xdr:cNvPr id="126" name="正方形/長方形 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7F4EAC7-487C-471B-888D-4CF59B4DC5B9}"/>
@@ -15235,7 +15001,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4680857" y="11468101"/>
+          <a:off x="4680857" y="13630276"/>
           <a:ext cx="1386840" cy="287208"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15297,18 +15063,18 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>566057</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>206829</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>581297</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>229913</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="132" name="正方形/長方形 131">
+        <xdr:cNvPr id="127" name="正方形/長方形 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53C74B7C-22FF-4798-8396-B9E532EBA433}"/>
@@ -15319,7 +15085,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4680857" y="11722554"/>
+          <a:off x="4680857" y="13884729"/>
           <a:ext cx="1386840" cy="261209"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15381,18 +15147,18 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>567371</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>227849</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>582611</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>14451</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="133" name="正方形/長方形 132">
+        <xdr:cNvPr id="128" name="正方形/長方形 127">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50066D27-7B2D-42D4-8197-81DB092AB34C}"/>
@@ -15403,7 +15169,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4682171" y="11981699"/>
+          <a:off x="4682171" y="14143874"/>
           <a:ext cx="1386840" cy="262852"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15465,18 +15231,18 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>519173</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>181148</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>595373</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>49696</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="134" name="正方形/長方形 133">
+        <xdr:cNvPr id="129" name="正方形/長方形 128">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71713220-2081-4D2D-B7E0-5204A8D3F369}"/>
@@ -15487,7 +15253,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4633973" y="11220623"/>
+          <a:off x="4633973" y="13382798"/>
           <a:ext cx="1447800" cy="1059173"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15542,7 +15308,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="135" name="正方形/長方形 134"/>
+        <xdr:cNvPr id="130" name="正方形/長方形 129"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -15591,23 +15357,23 @@
     <xdr:from>
       <xdr:col>37</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>200026</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="136" name="テキスト ボックス 135"/>
+        <xdr:cNvPr id="131" name="テキスト ボックス 130"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="25479375" y="2466976"/>
+          <a:off x="25479375" y="1866901"/>
           <a:ext cx="257175" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15669,7 +15435,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="137" name="正方形/長方形 136">
+        <xdr:cNvPr id="132" name="正方形/長方形 131">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69DAA1B2-4A1A-41FE-9420-D557BED040E1}"/>
@@ -15747,7 +15513,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="138" name="正方形/長方形 137">
+        <xdr:cNvPr id="133" name="正方形/長方形 132">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69DAA1B2-4A1A-41FE-9420-D557BED040E1}"/>
@@ -15825,7 +15591,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="139" name="正方形/長方形 138"/>
+        <xdr:cNvPr id="134" name="正方形/長方形 133"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -15885,7 +15651,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="140" name="テキスト ボックス 139"/>
+        <xdr:cNvPr id="135" name="テキスト ボックス 134"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -15952,7 +15718,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="141" name="テキスト ボックス 140"/>
+        <xdr:cNvPr id="136" name="テキスト ボックス 135"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -16019,7 +15785,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="142" name="正方形/長方形 141">
+        <xdr:cNvPr id="137" name="正方形/長方形 136">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B080E6C1-E9E8-4BCE-BC98-454E2AAA065E}"/>
@@ -16099,7 +15865,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="143" name="正方形/長方形 142"/>
+        <xdr:cNvPr id="138" name="正方形/長方形 137"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -16171,7 +15937,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="144" name="テキスト ボックス 143"/>
+        <xdr:cNvPr id="139" name="テキスト ボックス 138"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -16238,7 +16004,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="145" name="正方形/長方形 144"/>
+        <xdr:cNvPr id="140" name="正方形/長方形 139"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -16298,7 +16064,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="146" name="テキスト ボックス 145"/>
+        <xdr:cNvPr id="141" name="テキスト ボックス 140"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -16365,7 +16131,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="147" name="直線コネクタ 146">
+        <xdr:cNvPr id="142" name="直線コネクタ 141">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76B00881-A982-4C3F-8E30-56FC59A5975A}"/>
@@ -16408,25 +16174,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>45553</xdr:colOff>
+      <xdr:colOff>226528</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
+      <xdr:rowOff>66676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="148" name="正方形/長方形 147"/>
+        <xdr:cNvPr id="143" name="正方形/長方形 142"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21305353" y="1257301"/>
-          <a:ext cx="3335822" cy="838199"/>
+          <a:off x="21486328" y="1266826"/>
+          <a:ext cx="2545247" cy="438149"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16467,25 +16233,295 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="149" name="テキスト ボックス 148"/>
+        <xdr:cNvPr id="144" name="テキスト ボックス 143"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="22288500" y="1790701"/>
+          <a:off x="23564850" y="1371601"/>
+          <a:ext cx="257175" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>⑦</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>368673</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>153296</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>620932</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>200946</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="145" name="正方形/長方形 144">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B080E6C1-E9E8-4BCE-BC98-454E2AAA065E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21628473" y="1353446"/>
+          <a:ext cx="1623859" cy="285775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Frame</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> drawing</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>12476</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>229236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>12476</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="146" name="直線コネクタ 145">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76B00881-A982-4C3F-8E30-56FC59A5975A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="28816076" y="953136"/>
+          <a:ext cx="0" cy="3152139"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>131278</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76202</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="147" name="正方形/長方形 146"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17962078" y="2466977"/>
+          <a:ext cx="2421422" cy="447674"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>200026</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="148" name="テキスト ボックス 147"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19983450" y="2581276"/>
           <a:ext cx="257175" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16535,287 +16571,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>235323</xdr:colOff>
+      <xdr:colOff>131277</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>143771</xdr:rowOff>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>487582</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>191421</xdr:rowOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>219074</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="150" name="正方形/長方形 149">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B080E6C1-E9E8-4BCE-BC98-454E2AAA065E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="149" name="正方形/長方形 148"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="24924123" y="1343921"/>
-          <a:ext cx="1623859" cy="285775"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Primitive "CH"  "search"</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>12476</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>229236</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>12476</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="151" name="直線コネクタ 150">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76B00881-A982-4C3F-8E30-56FC59A5975A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="28816076" y="953136"/>
-          <a:ext cx="0" cy="3152139"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>121753</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>66677</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="152" name="正方形/長方形 151"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="24810553" y="1266827"/>
-          <a:ext cx="2421422" cy="447674"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>180976</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>190501</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="153" name="テキスト ボックス 152"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="26831925" y="1381126"/>
-          <a:ext cx="257175" cy="247650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>⑦</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>131277</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>219074</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="154" name="正方形/長方形 153"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="24820077" y="1819276"/>
-          <a:ext cx="3516797" cy="1152524"/>
+          <a:off x="24820077" y="1219201"/>
+          <a:ext cx="3516797" cy="981074"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16869,7 +16643,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="155" name="正方形/長方形 154"/>
+        <xdr:cNvPr id="150" name="正方形/長方形 149"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -16929,7 +16703,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="156" name="テキスト ボックス 155"/>
+        <xdr:cNvPr id="151" name="テキスト ボックス 150"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -16996,7 +16770,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="157" name="正方形/長方形 156">
+        <xdr:cNvPr id="152" name="正方形/長方形 151">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B080E6C1-E9E8-4BCE-BC98-454E2AAA065E}"/>
@@ -17064,25 +16838,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>161923</xdr:rowOff>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>171447</xdr:rowOff>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>76197</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="158" name="下矢印 157"/>
+        <xdr:cNvPr id="153" name="下矢印 152"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4629150" y="7077073"/>
-          <a:ext cx="847725" cy="723899"/>
+          <a:off x="4600575" y="8877300"/>
+          <a:ext cx="847725" cy="752472"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -17119,18 +16893,18 @@
     <xdr:from>
       <xdr:col>38</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>221392</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>97567</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
       <xdr:colOff>171449</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="159" name="正方形/長方形 158">
+        <xdr:cNvPr id="154" name="正方形/長方形 153">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3D8ED42-1B0A-4ECE-A71D-F20A3F0DAA84}"/>
@@ -17141,7 +16915,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="26441400" y="2135917"/>
+          <a:off x="26441400" y="1535842"/>
           <a:ext cx="1847849" cy="388208"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -17176,6 +16950,749 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>378198</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38996</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>630457</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>86646</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="155" name="正方形/長方形 154">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B080E6C1-E9E8-4BCE-BC98-454E2AAA065E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21637998" y="2191646"/>
+          <a:ext cx="1623859" cy="285775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Primitive "CH"  "search"</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>368673</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>105671</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>620932</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>153321</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="156" name="正方形/長方形 155">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B080E6C1-E9E8-4BCE-BC98-454E2AAA065E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21628473" y="1782071"/>
+          <a:ext cx="1623859" cy="285775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Primitive "CH"  "regist"</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>242607</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>154604</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>202252</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="157" name="正方形/長方形 156">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF8A383F-E76D-40E2-95C3-3D51781E74E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18073407" y="2545379"/>
+          <a:ext cx="1614768" cy="285773"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Brand Balloon</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>277905</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>3698</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>530164</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>51348</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="158" name="正方形/長方形 157">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A681A03B-C15B-4327-9151-B0C4F701FB1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24966705" y="2394473"/>
+          <a:ext cx="1623859" cy="285775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Editing "CH"  "resist"</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>273423</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>58046</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>525682</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>105696</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="159" name="正方形/長方形 158">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B080E6C1-E9E8-4BCE-BC98-454E2AAA065E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24962223" y="2925071"/>
+          <a:ext cx="1623859" cy="285775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Editing "CH"  "search"</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>178903</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>209551</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="160" name="正方形/長方形 159"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24867703" y="2838451"/>
+          <a:ext cx="2545247" cy="438149"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="161" name="テキスト ボックス 160"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26946225" y="2943226"/>
+          <a:ext cx="257175" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>⑨</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="162" name="正方形/長方形 161"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4238625" y="2314574"/>
+          <a:ext cx="1809750" cy="219076"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Ⓐ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19048</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="163" name="正方形/長方形 162"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10096499" y="1933573"/>
+          <a:ext cx="1924051" cy="228601"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Ⓑ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152398</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="164" name="正方形/長方形 163"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10582274" y="2305048"/>
+          <a:ext cx="1695451" cy="619127"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Ⓒ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -32846,7 +33363,7 @@
   </sheetPr>
   <dimension ref="A3:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
@@ -32867,11 +33384,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
@@ -33752,13 +34269,13 @@
         <v>19</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="F30" s="5">
         <v>44852</v>
@@ -35072,70 +35589,70 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY40"/>
+  <dimension ref="A1:AY49"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.4">
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="30" t="s">
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="29" t="s">
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29" t="s">
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29" t="s">
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="33" t="s">
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="35"/>
-      <c r="AF1" s="29" t="s">
-        <v>96</v>
+      <c r="AB1" s="45"/>
+      <c r="AC1" s="45"/>
+      <c r="AD1" s="45"/>
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="40" t="s">
+        <v>102</v>
       </c>
-      <c r="AG1" s="29"/>
-      <c r="AH1" s="29"/>
-      <c r="AI1" s="29"/>
-      <c r="AJ1" s="29"/>
-      <c r="AK1" s="29" t="s">
-        <v>97</v>
+      <c r="AG1" s="40"/>
+      <c r="AH1" s="40"/>
+      <c r="AI1" s="40"/>
+      <c r="AJ1" s="40"/>
+      <c r="AK1" s="40" t="s">
+        <v>103</v>
       </c>
-      <c r="AL1" s="29"/>
-      <c r="AM1" s="29"/>
-      <c r="AN1" s="29"/>
-      <c r="AO1" s="29"/>
-      <c r="AP1" s="29"/>
+      <c r="AL1" s="40"/>
+      <c r="AM1" s="40"/>
+      <c r="AN1" s="40"/>
+      <c r="AO1" s="40"/>
+      <c r="AP1" s="40"/>
     </row>
     <row r="2" spans="1:51" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A2" s="25" t="s">
@@ -35144,298 +35661,459 @@
     </row>
     <row r="4" spans="1:51" x14ac:dyDescent="0.4">
       <c r="AY4" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.4">
       <c r="AO5" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.4">
       <c r="C20" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B22" s="36" t="s">
-        <v>102</v>
+      <c r="B22" s="27" t="s">
+        <v>106</v>
       </c>
-      <c r="C22" s="37" t="s">
-        <v>103</v>
+      <c r="C22" s="28" t="s">
+        <v>107</v>
       </c>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="38"/>
-      <c r="O22" s="38"/>
-      <c r="P22" s="38"/>
-      <c r="Q22" s="38"/>
-      <c r="R22" s="38"/>
-      <c r="S22" s="39"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="30"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B23" s="40" t="s">
-        <v>104</v>
+      <c r="B23" s="31" t="s">
+        <v>108</v>
       </c>
-      <c r="C23" s="37" t="s">
-        <v>105</v>
+      <c r="C23" s="28" t="s">
+        <v>109</v>
       </c>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="38"/>
-      <c r="P23" s="38"/>
-      <c r="Q23" s="38"/>
-      <c r="R23" s="38"/>
-      <c r="S23" s="39"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="30"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B24" s="40" t="s">
-        <v>106</v>
+      <c r="B24" s="31" t="s">
+        <v>110</v>
       </c>
-      <c r="C24" s="41" t="s">
-        <v>107</v>
+      <c r="C24" s="32" t="s">
+        <v>111</v>
       </c>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="42"/>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="42"/>
-      <c r="S24" s="43"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="33"/>
+      <c r="S24" s="34"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B25" s="40" t="s">
-        <v>108</v>
+      <c r="B25" s="31" t="s">
+        <v>112</v>
       </c>
-      <c r="C25" s="41" t="s">
-        <v>109</v>
+      <c r="C25" s="32" t="s">
+        <v>113</v>
       </c>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="42"/>
-      <c r="O25" s="42"/>
-      <c r="P25" s="42"/>
-      <c r="Q25" s="42"/>
-      <c r="R25" s="42"/>
-      <c r="S25" s="43"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="33"/>
+      <c r="R25" s="33"/>
+      <c r="S25" s="34"/>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B26" s="40" t="s">
-        <v>110</v>
+      <c r="B26" s="31" t="s">
+        <v>114</v>
       </c>
-      <c r="C26" s="41" t="s">
-        <v>111</v>
+      <c r="C26" s="32" t="s">
+        <v>115</v>
       </c>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="42"/>
-      <c r="N26" s="42"/>
-      <c r="O26" s="42"/>
-      <c r="P26" s="42"/>
-      <c r="Q26" s="42"/>
-      <c r="R26" s="42"/>
-      <c r="S26" s="43"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="33"/>
+      <c r="Q26" s="33"/>
+      <c r="R26" s="33"/>
+      <c r="S26" s="34"/>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B27" s="40" t="s">
-        <v>112</v>
+      <c r="B27" s="31" t="s">
+        <v>116</v>
       </c>
-      <c r="C27" s="44" t="s">
-        <v>113</v>
+      <c r="C27" s="35" t="s">
+        <v>117</v>
       </c>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="45"/>
-      <c r="K27" s="45"/>
-      <c r="L27" s="45"/>
-      <c r="M27" s="45"/>
-      <c r="N27" s="45"/>
-      <c r="O27" s="45"/>
-      <c r="P27" s="45"/>
-      <c r="Q27" s="45"/>
-      <c r="R27" s="45"/>
-      <c r="S27" s="46"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="36"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="37"/>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B28" s="40" t="s">
-        <v>114</v>
+      <c r="B28" s="31" t="s">
+        <v>118</v>
       </c>
-      <c r="C28" s="44" t="s">
-        <v>115</v>
+      <c r="C28" s="35" t="s">
+        <v>119</v>
       </c>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="45"/>
-      <c r="M28" s="45"/>
-      <c r="N28" s="45"/>
-      <c r="O28" s="45"/>
-      <c r="P28" s="45"/>
-      <c r="Q28" s="45"/>
-      <c r="R28" s="45"/>
-      <c r="S28" s="46"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="37"/>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B29" s="47" t="s">
-        <v>116</v>
+      <c r="B29" s="31" t="s">
+        <v>120</v>
       </c>
-      <c r="C29" s="44" t="s">
-        <v>117</v>
+      <c r="C29" s="35" t="s">
+        <v>121</v>
       </c>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="45"/>
-      <c r="M29" s="45"/>
-      <c r="N29" s="45"/>
-      <c r="O29" s="45"/>
-      <c r="P29" s="45"/>
-      <c r="Q29" s="45"/>
-      <c r="R29" s="45"/>
-      <c r="S29" s="46"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="36"/>
+      <c r="R29" s="36"/>
+      <c r="S29" s="37"/>
     </row>
-    <row r="34" spans="1:45" ht="24" x14ac:dyDescent="0.4">
-      <c r="B34" s="26" t="s">
-        <v>118</v>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B30" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="36"/>
+      <c r="Q30" s="36"/>
+      <c r="R30" s="36"/>
+      <c r="S30" s="37"/>
+    </row>
+    <row r="31" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="48"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="49"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="49"/>
+      <c r="O31" s="49"/>
+      <c r="P31" s="49"/>
+      <c r="Q31" s="49"/>
+      <c r="R31" s="49"/>
+      <c r="S31" s="49"/>
+    </row>
+    <row r="32" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="50"/>
+      <c r="C32" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="49"/>
+      <c r="M32" s="49"/>
+      <c r="N32" s="49"/>
+      <c r="O32" s="49"/>
+      <c r="P32" s="49"/>
+      <c r="Q32" s="49"/>
+      <c r="R32" s="49"/>
+      <c r="S32" s="49"/>
+    </row>
+    <row r="33" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="B33" s="48"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="49"/>
+      <c r="M33" s="49"/>
+      <c r="N33" s="49"/>
+      <c r="O33" s="49"/>
+      <c r="P33" s="49"/>
+      <c r="Q33" s="49"/>
+      <c r="R33" s="49"/>
+      <c r="S33" s="49"/>
+    </row>
+    <row r="34" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="B34" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="C34" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="49"/>
+      <c r="L34" s="49"/>
+      <c r="M34" s="49"/>
+      <c r="N34" s="49"/>
+      <c r="O34" s="49"/>
+      <c r="P34" s="49"/>
+      <c r="Q34" s="49"/>
+      <c r="R34" s="49"/>
+      <c r="S34" s="49"/>
+    </row>
+    <row r="35" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="B35" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="C35" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="49"/>
+      <c r="L35" s="49"/>
+      <c r="M35" s="49"/>
+      <c r="N35" s="49"/>
+      <c r="O35" s="49"/>
+      <c r="P35" s="49"/>
+      <c r="Q35" s="49"/>
+      <c r="R35" s="49"/>
+      <c r="S35" s="49"/>
+    </row>
+    <row r="36" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="B36" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="C36" s="56" t="s">
+        <v>130</v>
+      </c>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="37"/>
+    </row>
+    <row r="37" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="B37" s="57"/>
+      <c r="C37" s="51"/>
+    </row>
+    <row r="38" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="B38" s="57"/>
+      <c r="C38" s="51"/>
+    </row>
+    <row r="39" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="B39" s="57"/>
+      <c r="C39" s="51"/>
+    </row>
+    <row r="43" spans="1:45" ht="24" x14ac:dyDescent="0.4">
+      <c r="B43" s="26" t="s">
+        <v>131</v>
       </c>
     </row>
-    <row r="36" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="B36" s="29" t="s">
+    <row r="45" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="B45" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29" t="s">
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29" t="s">
+      <c r="F45" s="40"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="40"/>
+      <c r="J45" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="29"/>
-      <c r="N36" s="29"/>
-      <c r="O36" s="29" t="s">
+      <c r="K45" s="40"/>
+      <c r="L45" s="40"/>
+      <c r="M45" s="40"/>
+      <c r="N45" s="40"/>
+      <c r="O45" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="P36" s="29"/>
-      <c r="Q36" s="29"/>
-      <c r="R36" s="29" t="s">
+      <c r="P45" s="40"/>
+      <c r="Q45" s="40"/>
+      <c r="R45" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="S36" s="29"/>
-      <c r="T36" s="29"/>
-      <c r="U36" s="29"/>
-      <c r="V36" s="29"/>
-      <c r="W36" s="29" t="s">
+      <c r="S45" s="40"/>
+      <c r="T45" s="40"/>
+      <c r="U45" s="40"/>
+      <c r="V45" s="40"/>
+      <c r="W45" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="X36" s="29"/>
-      <c r="Y36" s="29"/>
-      <c r="Z36" s="30" t="s">
-        <v>119</v>
+      <c r="X45" s="40"/>
+      <c r="Y45" s="40"/>
+      <c r="Z45" s="41" t="s">
+        <v>97</v>
       </c>
-      <c r="AA36" s="31"/>
-      <c r="AB36" s="31"/>
-      <c r="AC36" s="32"/>
-      <c r="AD36" s="30" t="s">
-        <v>120</v>
+      <c r="AA45" s="42"/>
+      <c r="AB45" s="42"/>
+      <c r="AC45" s="43"/>
+      <c r="AD45" s="41" t="s">
+        <v>98</v>
       </c>
-      <c r="AE36" s="31"/>
-      <c r="AF36" s="31"/>
-      <c r="AG36" s="32"/>
+      <c r="AE45" s="42"/>
+      <c r="AF45" s="42"/>
+      <c r="AG45" s="43"/>
     </row>
-    <row r="37" spans="1:45" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A37" s="25" t="s">
+    <row r="46" spans="1:45" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A46" s="25" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="AS39" t="s">
-        <v>98</v>
+    <row r="48" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="AS48" t="s">
+        <v>132</v>
       </c>
     </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="AI40" t="s">
-        <v>121</v>
+    <row r="49" spans="35:35" x14ac:dyDescent="0.4">
+      <c r="AI49" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
     <mergeCell ref="AF1:AJ1"/>
     <mergeCell ref="AK1:AP1"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:I36"/>
-    <mergeCell ref="J36:N36"/>
-    <mergeCell ref="O36:Q36"/>
-    <mergeCell ref="R36:V36"/>
-    <mergeCell ref="W36:Y36"/>
-    <mergeCell ref="Z36:AC36"/>
-    <mergeCell ref="AD36:AG36"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="E45:I45"/>
+    <mergeCell ref="J45:N45"/>
+    <mergeCell ref="O45:Q45"/>
+    <mergeCell ref="R45:V45"/>
+    <mergeCell ref="W45:Y45"/>
+    <mergeCell ref="Z45:AC45"/>
+    <mergeCell ref="AD45:AG45"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:M1"/>
     <mergeCell ref="N1:R1"/>
@@ -35454,62 +36132,62 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.4">
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="30" t="s">
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="29" t="s">
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29" t="s">
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29" t="s">
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="30" t="s">
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="29" t="s">
+      <c r="AB1" s="42"/>
+      <c r="AC1" s="42"/>
+      <c r="AD1" s="42"/>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="AG1" s="29"/>
-      <c r="AH1" s="29"/>
-      <c r="AI1" s="29"/>
-      <c r="AJ1" s="29"/>
+      <c r="AG1" s="40"/>
+      <c r="AH1" s="40"/>
+      <c r="AI1" s="40"/>
+      <c r="AJ1" s="40"/>
     </row>
     <row r="2" spans="1:51" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A2" s="25" t="s">
@@ -35537,42 +36215,42 @@
       </c>
     </row>
     <row r="23" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29" t="s">
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29" t="s">
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29" t="s">
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="29" t="s">
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="S23" s="29"/>
-      <c r="T23" s="29"/>
-      <c r="U23" s="29"/>
-      <c r="V23" s="29"/>
-      <c r="W23" s="29" t="s">
+      <c r="S23" s="40"/>
+      <c r="T23" s="40"/>
+      <c r="U23" s="40"/>
+      <c r="V23" s="40"/>
+      <c r="W23" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="X23" s="29"/>
-      <c r="Y23" s="29"/>
+      <c r="X23" s="40"/>
+      <c r="Y23" s="40"/>
     </row>
     <row r="24" spans="1:42" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A24" s="25" t="s">
@@ -35591,12 +36269,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="W23:Y23"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:N23"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="R23:V23"/>
     <mergeCell ref="AF1:AJ1"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:M1"/>
@@ -35604,6 +36276,12 @@
     <mergeCell ref="S1:U1"/>
     <mergeCell ref="V1:Z1"/>
     <mergeCell ref="AA1:AE1"/>
+    <mergeCell ref="W23:Y23"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:N23"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="R23:V23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35719,42 +36397,42 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29" t="s">
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29" t="s">
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29" t="s">
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29" t="s">
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29" t="s">
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
     </row>
     <row r="2" spans="1:42" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A2" s="25" t="s">

--- a/質疑表/TOYOTIRE_質疑表 _平.xlsx
+++ b/質疑表/TOYOTIRE_質疑表 _平.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17160" windowHeight="11475" tabRatio="898" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17160" windowHeight="11475" tabRatio="898"/>
   </bookViews>
   <sheets>
     <sheet name="障害・要望管理表（今後はこちらに起票）" sheetId="24" r:id="rId1"/>
-    <sheet name="2022 10 18 SCメニュー案" sheetId="33" r:id="rId2"/>
-    <sheet name="メニュー案" sheetId="31" r:id="rId3"/>
-    <sheet name="No6、No7" sheetId="25" r:id="rId4"/>
-    <sheet name="No13" sheetId="26" r:id="rId5"/>
-    <sheet name="No16" sheetId="27" r:id="rId6"/>
-    <sheet name="No22" sheetId="29" r:id="rId7"/>
-    <sheet name="No23" sheetId="30" r:id="rId8"/>
+    <sheet name="2022 10 25 円弧配列メニュー追加要望" sheetId="34" r:id="rId2"/>
+    <sheet name="2022 10 18 SCメニュー案" sheetId="33" r:id="rId3"/>
+    <sheet name="メニュー案" sheetId="31" r:id="rId4"/>
+    <sheet name="No6、No7" sheetId="25" r:id="rId5"/>
+    <sheet name="No13" sheetId="26" r:id="rId6"/>
+    <sheet name="No16" sheetId="27" r:id="rId7"/>
+    <sheet name="No22" sheetId="29" r:id="rId8"/>
+    <sheet name="No23" sheetId="30" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_Toc99549776" localSheetId="0">'障害・要望管理表（今後はこちらに起票）'!$E$7</definedName>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="140">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -1937,6 +1938,153 @@
   </si>
   <si>
     <t>　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>221025_円弧配列_C表メニューTOYO案.xlsx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>別シート「2022 10 25 円弧配列メニュー追加要望」の①にあります追加メニューは、呼出した編集文字の図面上で編集する目的という事で宜しいでしょうか。（配置した編集文字の編集は「Placement "modi"」メニューで行う）</t>
+    <rPh sb="0" eb="1">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>モクテキ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>ヨロ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="82" eb="86">
+      <t>ヘンシュウモジ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>別シート「2022 10 25 円弧配列メニュー追加要望」の②の「Editing ”CH”」-「Move」の処理では、編集文字中の選択した原始文字より右側が移動しますが、この動作は仕様通りでしょうか。</t>
+    <rPh sb="54" eb="56">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="59" eb="63">
+      <t>ヘンシュウモジ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="69" eb="73">
+      <t>ゲンシモジ</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>別シート「2022 10 25 円弧配列メニュー追加要望」の③の「Editing ”CH”」-「Replacement」に「Relative position (相対位置)」と「Absolute position (絶対位置)」の指定がありますが、それぞれどの位置を指していますでしょうか。</t>
+    <rPh sb="81" eb="85">
+      <t>ソウタイイチ</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>ゼッタイ</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="130" eb="132">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="133" eb="134">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>別シート「2022 10 25 円弧配列メニュー追加要望」の④の「Editing ”CH”」-「Delete」に「One character」と「Multi calacrer」の指定がありますが、「One character」は１文字削除、「Multi calacrer」は、複数文字の削除という事で宜しいでしょうか。</t>
+    <rPh sb="89" eb="91">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="138" eb="140">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="140" eb="142">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="143" eb="145">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="148" eb="149">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="150" eb="151">
+      <t>ヨロ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2407,33 +2555,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2467,11 +2588,458 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="273">
+  <dxfs count="328">
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4594,6 +5162,1277 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>132230</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>22336</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1681</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>207234</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3B23A53-460B-45F3-A57F-03A6054DF98B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="818030" y="736711"/>
+          <a:ext cx="1926851" cy="184898"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" kern="100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Replacement</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>132230</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>210035</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>12888</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>148403</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{762E1351-1FF3-4F86-A045-1F862F0C7649}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="818030" y="924410"/>
+          <a:ext cx="1938058" cy="176493"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" kern="100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Delete</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>132230</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>159609</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1681</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>100778</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6F2EB20-1B97-4532-BF2D-B2843681E80E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="818030" y="1112109"/>
+          <a:ext cx="1926851" cy="179294"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" kern="100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>The entire width</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>127747</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76685</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>682998</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>23458</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0B10CF7-A9A3-4CE1-880D-C2020407FCAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="813547" y="552935"/>
+          <a:ext cx="1926851" cy="184898"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" kern="100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Move</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>82924</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>202750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FCCC8BC-1955-4B03-9502-F610578519E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="476250"/>
+          <a:ext cx="2140324" cy="917125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>472887</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>177538</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>17928</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9449</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="吹き出し: 四角形 172">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D197576E-C75A-445D-80DD-B2CAE519E19E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1844487" y="1606288"/>
+          <a:ext cx="1602441" cy="1736911"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -17492"/>
+            <a:gd name="adj2" fmla="val -72814"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>25.Oct.2022</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>TOYO</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>追加要望</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(Editing "CH" 4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>項目</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Move</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Replacement</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Delete</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>The entire width</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="171450" y="142874"/>
+          <a:ext cx="3476625" cy="3438525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4391025" y="361950"/>
+          <a:ext cx="1924050" cy="4162425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>466726</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447676</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3895726" y="142874"/>
+          <a:ext cx="2724150" cy="4552951"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>②</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7458075" y="390525"/>
+          <a:ext cx="1905000" cy="4152900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6896101" y="152399"/>
+          <a:ext cx="2724150" cy="4552951"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>③</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8391526" y="1238250"/>
+          <a:ext cx="1152524" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>247651</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="正方形/長方形 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="266701" y="5029199"/>
+          <a:ext cx="2724150" cy="4552951"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>④</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="図 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685800" y="5229225"/>
+          <a:ext cx="1905000" cy="4143375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>257176</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="正方形/長方形 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1628776" y="5276850"/>
+          <a:ext cx="1152524" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="図 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4191000" y="5076825"/>
+          <a:ext cx="1914525" cy="4143375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>209551</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>228599</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="正方形/長方形 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3638551" y="4991099"/>
+          <a:ext cx="2724150" cy="4552951"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>⑤</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
       <xdr:row>2</xdr:row>
@@ -17701,7 +19540,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -28310,7 +30149,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -28563,7 +30402,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -28682,7 +30521,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -28846,7 +30685,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -32971,7 +34810,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -33363,8 +35202,8 @@
   </sheetPr>
   <dimension ref="A3:L40"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -33384,11 +35223,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
@@ -34293,66 +36132,130 @@
       <c r="K30" s="5"/>
       <c r="L30" s="9"/>
     </row>
-    <row r="31" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:12" s="20" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="19">
         <v>27</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="10"/>
+      <c r="B31" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F31" s="5">
+        <v>44860</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="J31" s="3"/>
       <c r="K31" s="5"/>
       <c r="L31" s="9"/>
     </row>
-    <row r="32" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:12" s="20" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
         <v>28</v>
       </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="10"/>
+      <c r="B32" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F32" s="5">
+        <v>44860</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="J32" s="3"/>
       <c r="K32" s="5"/>
       <c r="L32" s="9"/>
     </row>
-    <row r="33" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:12" s="20" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
         <v>29</v>
       </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="10"/>
+      <c r="B33" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F33" s="5">
+        <v>44860</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="J33" s="3"/>
       <c r="K33" s="5"/>
       <c r="L33" s="9"/>
     </row>
-    <row r="34" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:12" s="20" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="2">
         <v>30</v>
       </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="10"/>
+      <c r="B34" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F34" s="5">
+        <v>44860</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="J34" s="3"/>
       <c r="K34" s="5"/>
       <c r="L34" s="9"/>
@@ -34459,1116 +36362,1331 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="C4 C6 C41:C1048576">
-    <cfRule type="containsText" dxfId="272" priority="828" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="327" priority="883" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:L4 A8 A10 A12 A14 L32 J19:J25 K10:L10 D10:H10 J11:L18 J6:L6 A6:D6 A3 D3:L3 A41:L1048576 E11 B10:B11 D12:E12 D13:F13 E14 D15:F15 A16:A32 E16:E20 E23:F23 E24">
-    <cfRule type="expression" dxfId="271" priority="826">
+    <cfRule type="expression" dxfId="326" priority="881">
       <formula>$I3="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="270" priority="827">
+    <cfRule type="expression" dxfId="325" priority="882">
       <formula>$I3="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="containsText" dxfId="269" priority="341" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="324" priority="396" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:I5 I10 K5:L5 I31:I38">
-    <cfRule type="expression" dxfId="268" priority="339">
+  <conditionalFormatting sqref="C5:I5 I10 K5:L5 I35:I38">
+    <cfRule type="expression" dxfId="323" priority="394">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="267" priority="340">
+    <cfRule type="expression" dxfId="322" priority="395">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5 A7 A9 A11 A13 A15">
-    <cfRule type="expression" dxfId="266" priority="337">
+    <cfRule type="expression" dxfId="321" priority="392">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="265" priority="338">
+    <cfRule type="expression" dxfId="320" priority="393">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7 C9:C10 C13 C15">
-    <cfRule type="containsText" dxfId="264" priority="281" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="319" priority="336" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:F9 C10 J10 J7:L9 C7 D8:F8 C13 C15">
-    <cfRule type="expression" dxfId="263" priority="279">
+    <cfRule type="expression" dxfId="318" priority="334">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="262" priority="280">
+    <cfRule type="expression" dxfId="317" priority="335">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C32:C35 C38:C40">
-    <cfRule type="containsText" dxfId="261" priority="276" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C32)))</formula>
+  <conditionalFormatting sqref="C35 C38:C40">
+    <cfRule type="containsText" dxfId="316" priority="331" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C35)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B31 B32:D32 H32 A33:H35 A39:L40 B38:E38 J38 J26:J35 A36:A40">
-    <cfRule type="expression" dxfId="260" priority="274">
+  <conditionalFormatting sqref="A35:H35 A39:L40 B38:E38 J38 J26:J35 A36:A40 E33 A33:A34">
+    <cfRule type="expression" dxfId="315" priority="329">
       <formula>$I26="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="259" priority="275">
+    <cfRule type="expression" dxfId="314" priority="330">
       <formula>$I26="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27:C31">
-    <cfRule type="containsText" dxfId="258" priority="273" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="313" priority="328" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C27)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C31 E31:H31 E25 D26:E26 C27:E30 H29">
-    <cfRule type="expression" dxfId="257" priority="271">
+  <conditionalFormatting sqref="C31 E31:F31 E25 D26:E26 C27:E30 H29">
+    <cfRule type="expression" dxfId="312" priority="326">
       <formula>$I25="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="256" priority="272">
+    <cfRule type="expression" dxfId="311" priority="327">
       <formula>$I25="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="expression" dxfId="255" priority="269">
+    <cfRule type="expression" dxfId="310" priority="324">
       <formula>$I32="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="254" priority="270">
-      <formula>$I32="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F32:G32">
-    <cfRule type="expression" dxfId="253" priority="267">
-      <formula>$I32="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="252" priority="268">
+    <cfRule type="expression" dxfId="309" priority="325">
       <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32">
-    <cfRule type="expression" dxfId="251" priority="265">
+    <cfRule type="expression" dxfId="306" priority="320">
       <formula>$I32="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="250" priority="266">
+    <cfRule type="expression" dxfId="305" priority="321">
       <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:C37">
-    <cfRule type="containsText" dxfId="249" priority="264" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="304" priority="319" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:H36 B37:E37 J36:J37">
-    <cfRule type="expression" dxfId="248" priority="262">
+    <cfRule type="expression" dxfId="303" priority="317">
       <formula>$I36="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="247" priority="263">
+    <cfRule type="expression" dxfId="302" priority="318">
       <formula>$I36="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37:H38">
-    <cfRule type="expression" dxfId="246" priority="260">
+    <cfRule type="expression" dxfId="301" priority="315">
       <formula>$I37="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="245" priority="261">
+    <cfRule type="expression" dxfId="300" priority="316">
       <formula>$I37="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19:L31">
-    <cfRule type="expression" dxfId="244" priority="258">
+    <cfRule type="expression" dxfId="299" priority="313">
       <formula>$I19="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="243" priority="259">
+    <cfRule type="expression" dxfId="298" priority="314">
       <formula>$I19="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33:L38">
-    <cfRule type="expression" dxfId="242" priority="256">
+    <cfRule type="expression" dxfId="297" priority="311">
       <formula>$I33="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="241" priority="257">
+    <cfRule type="expression" dxfId="296" priority="312">
       <formula>$I33="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="expression" dxfId="240" priority="254">
+    <cfRule type="expression" dxfId="295" priority="309">
       <formula>$I31="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="239" priority="255">
+    <cfRule type="expression" dxfId="294" priority="310">
       <formula>$I31="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="238" priority="252">
+    <cfRule type="expression" dxfId="293" priority="307">
       <formula>$I6="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="237" priority="253">
+    <cfRule type="expression" dxfId="292" priority="308">
       <formula>$I6="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="236" priority="250">
+    <cfRule type="expression" dxfId="291" priority="305">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="235" priority="251">
+    <cfRule type="expression" dxfId="290" priority="306">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="234" priority="238">
+    <cfRule type="expression" dxfId="289" priority="293">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="233" priority="239">
+    <cfRule type="expression" dxfId="288" priority="294">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="232" priority="242">
+    <cfRule type="expression" dxfId="287" priority="297">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="231" priority="243">
+    <cfRule type="expression" dxfId="286" priority="298">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:I6">
-    <cfRule type="expression" dxfId="230" priority="236">
+    <cfRule type="expression" dxfId="285" priority="291">
       <formula>$I6="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="229" priority="237">
+    <cfRule type="expression" dxfId="284" priority="292">
       <formula>$I6="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="expression" dxfId="228" priority="234">
+    <cfRule type="expression" dxfId="283" priority="289">
       <formula>$I6="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="227" priority="235">
+    <cfRule type="expression" dxfId="282" priority="290">
       <formula>$I6="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="expression" dxfId="226" priority="232">
+    <cfRule type="expression" dxfId="281" priority="287">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="225" priority="233">
+    <cfRule type="expression" dxfId="280" priority="288">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="expression" dxfId="224" priority="230">
+    <cfRule type="expression" dxfId="279" priority="285">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="223" priority="231">
+    <cfRule type="expression" dxfId="278" priority="286">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:I7">
-    <cfRule type="expression" dxfId="222" priority="228">
+    <cfRule type="expression" dxfId="277" priority="283">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="221" priority="229">
+    <cfRule type="expression" dxfId="276" priority="284">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="220" priority="226">
+    <cfRule type="expression" dxfId="275" priority="281">
       <formula>$I8="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="219" priority="227">
+    <cfRule type="expression" dxfId="274" priority="282">
       <formula>$I8="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="containsText" dxfId="218" priority="225" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="273" priority="280" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="217" priority="223">
+    <cfRule type="expression" dxfId="272" priority="278">
       <formula>$I8="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="216" priority="224">
+    <cfRule type="expression" dxfId="271" priority="279">
       <formula>$I8="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:I8">
-    <cfRule type="expression" dxfId="215" priority="221">
+    <cfRule type="expression" dxfId="270" priority="276">
       <formula>$I8="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="214" priority="222">
+    <cfRule type="expression" dxfId="269" priority="277">
       <formula>$I8="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="213" priority="219">
+    <cfRule type="expression" dxfId="268" priority="274">
       <formula>$I9="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="212" priority="220">
+    <cfRule type="expression" dxfId="267" priority="275">
       <formula>$I9="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:I9">
-    <cfRule type="expression" dxfId="211" priority="217">
+    <cfRule type="expression" dxfId="266" priority="272">
       <formula>$I9="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="210" priority="218">
+    <cfRule type="expression" dxfId="265" priority="273">
       <formula>$I9="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="expression" dxfId="209" priority="215">
+    <cfRule type="expression" dxfId="264" priority="270">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="208" priority="216">
+    <cfRule type="expression" dxfId="263" priority="271">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="207" priority="213">
+    <cfRule type="expression" dxfId="262" priority="268">
       <formula>$I11="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="206" priority="214">
+    <cfRule type="expression" dxfId="261" priority="269">
       <formula>$I11="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="containsText" dxfId="205" priority="212" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="260" priority="267" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="204" priority="210">
+    <cfRule type="expression" dxfId="259" priority="265">
       <formula>$I11="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="203" priority="211">
+    <cfRule type="expression" dxfId="258" priority="266">
       <formula>$I11="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:H11">
-    <cfRule type="expression" dxfId="202" priority="208">
+    <cfRule type="expression" dxfId="257" priority="263">
       <formula>$I11="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="201" priority="209">
+    <cfRule type="expression" dxfId="256" priority="264">
       <formula>$I11="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="expression" dxfId="200" priority="206">
+    <cfRule type="expression" dxfId="255" priority="261">
       <formula>$I11="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="199" priority="207">
+    <cfRule type="expression" dxfId="254" priority="262">
       <formula>$I11="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="expression" dxfId="198" priority="204">
+    <cfRule type="expression" dxfId="253" priority="259">
       <formula>$I12="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="197" priority="205">
+    <cfRule type="expression" dxfId="252" priority="260">
       <formula>$I12="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="containsText" dxfId="196" priority="203" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="251" priority="258" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="195" priority="201">
+    <cfRule type="expression" dxfId="250" priority="256">
       <formula>$I12="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="194" priority="202">
+    <cfRule type="expression" dxfId="249" priority="257">
       <formula>$I12="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:H12">
-    <cfRule type="expression" dxfId="193" priority="199">
+    <cfRule type="expression" dxfId="248" priority="254">
       <formula>$I12="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="192" priority="200">
+    <cfRule type="expression" dxfId="247" priority="255">
       <formula>$I12="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="expression" dxfId="191" priority="197">
+    <cfRule type="expression" dxfId="246" priority="252">
       <formula>$I12="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="190" priority="198">
+    <cfRule type="expression" dxfId="245" priority="253">
       <formula>$I12="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="expression" dxfId="189" priority="195">
+    <cfRule type="expression" dxfId="244" priority="250">
       <formula>$I13="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="188" priority="196">
+    <cfRule type="expression" dxfId="243" priority="251">
       <formula>$I13="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13:H13">
-    <cfRule type="expression" dxfId="187" priority="193">
+    <cfRule type="expression" dxfId="242" priority="248">
       <formula>$I13="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="186" priority="194">
+    <cfRule type="expression" dxfId="241" priority="249">
       <formula>$I13="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="185" priority="191">
+    <cfRule type="expression" dxfId="240" priority="246">
       <formula>$I13="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="184" priority="192">
+    <cfRule type="expression" dxfId="239" priority="247">
       <formula>$I13="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="183" priority="189">
+    <cfRule type="expression" dxfId="238" priority="244">
       <formula>$I14="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="182" priority="190">
+    <cfRule type="expression" dxfId="237" priority="245">
       <formula>$I14="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="containsText" dxfId="181" priority="188" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="236" priority="243" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="180" priority="186">
+    <cfRule type="expression" dxfId="235" priority="241">
       <formula>$I14="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="179" priority="187">
+    <cfRule type="expression" dxfId="234" priority="242">
       <formula>$I14="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="expression" dxfId="178" priority="184">
+    <cfRule type="expression" dxfId="233" priority="239">
       <formula>$I14="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="177" priority="185">
+    <cfRule type="expression" dxfId="232" priority="240">
       <formula>$I14="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="expression" dxfId="176" priority="182">
+    <cfRule type="expression" dxfId="231" priority="237">
       <formula>$I14="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="175" priority="183">
+    <cfRule type="expression" dxfId="230" priority="238">
       <formula>$I14="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14:H14">
-    <cfRule type="expression" dxfId="174" priority="180">
+    <cfRule type="expression" dxfId="229" priority="235">
       <formula>$I14="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="173" priority="181">
+    <cfRule type="expression" dxfId="228" priority="236">
       <formula>$I14="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="expression" dxfId="172" priority="178">
+    <cfRule type="expression" dxfId="227" priority="233">
       <formula>$I14="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="179">
+    <cfRule type="expression" dxfId="226" priority="234">
       <formula>$I14="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="expression" dxfId="170" priority="176">
+    <cfRule type="expression" dxfId="225" priority="231">
       <formula>$I15="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="169" priority="177">
+    <cfRule type="expression" dxfId="224" priority="232">
       <formula>$I15="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:H15">
-    <cfRule type="expression" dxfId="168" priority="174">
+    <cfRule type="expression" dxfId="223" priority="229">
       <formula>$I15="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="167" priority="175">
+    <cfRule type="expression" dxfId="222" priority="230">
       <formula>$I15="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="expression" dxfId="166" priority="172">
+    <cfRule type="expression" dxfId="221" priority="227">
       <formula>$I15="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="173">
+    <cfRule type="expression" dxfId="220" priority="228">
       <formula>$I15="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="164" priority="170">
+    <cfRule type="expression" dxfId="219" priority="225">
       <formula>$I16="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="171">
+    <cfRule type="expression" dxfId="218" priority="226">
       <formula>$I16="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="containsText" dxfId="162" priority="169" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="217" priority="224" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="161" priority="167">
+    <cfRule type="expression" dxfId="216" priority="222">
       <formula>$I16="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="168">
+    <cfRule type="expression" dxfId="215" priority="223">
       <formula>$I16="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="expression" dxfId="159" priority="165">
+    <cfRule type="expression" dxfId="214" priority="220">
       <formula>$I16="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="158" priority="166">
+    <cfRule type="expression" dxfId="213" priority="221">
       <formula>$I16="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="expression" dxfId="157" priority="163">
+    <cfRule type="expression" dxfId="212" priority="218">
       <formula>$I16="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="164">
+    <cfRule type="expression" dxfId="211" priority="219">
       <formula>$I16="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:H16">
-    <cfRule type="expression" dxfId="155" priority="161">
+    <cfRule type="expression" dxfId="210" priority="216">
       <formula>$I16="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="162">
+    <cfRule type="expression" dxfId="209" priority="217">
       <formula>$I16="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="expression" dxfId="153" priority="159">
+    <cfRule type="expression" dxfId="208" priority="214">
       <formula>$I16="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="152" priority="160">
+    <cfRule type="expression" dxfId="207" priority="215">
       <formula>$I16="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="151" priority="157">
+    <cfRule type="expression" dxfId="206" priority="212">
       <formula>$I17="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="158">
+    <cfRule type="expression" dxfId="205" priority="213">
       <formula>$I17="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="containsText" dxfId="149" priority="156" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="204" priority="211" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="148" priority="154">
+    <cfRule type="expression" dxfId="203" priority="209">
       <formula>$I17="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="155">
+    <cfRule type="expression" dxfId="202" priority="210">
       <formula>$I17="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="expression" dxfId="146" priority="152">
+    <cfRule type="expression" dxfId="201" priority="207">
       <formula>$I17="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="153">
+    <cfRule type="expression" dxfId="200" priority="208">
       <formula>$I17="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17:H17">
-    <cfRule type="expression" dxfId="144" priority="150">
+    <cfRule type="expression" dxfId="199" priority="205">
       <formula>$I17="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="143" priority="151">
+    <cfRule type="expression" dxfId="198" priority="206">
       <formula>$I17="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17">
-    <cfRule type="expression" dxfId="142" priority="148">
+    <cfRule type="expression" dxfId="197" priority="203">
       <formula>$I17="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="149">
+    <cfRule type="expression" dxfId="196" priority="204">
       <formula>$I17="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="140" priority="146">
+    <cfRule type="expression" dxfId="195" priority="201">
       <formula>$I18="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="147">
+    <cfRule type="expression" dxfId="194" priority="202">
       <formula>$I18="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="containsText" dxfId="138" priority="145" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="193" priority="200" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="137" priority="143">
+    <cfRule type="expression" dxfId="192" priority="198">
       <formula>$I18="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="144">
+    <cfRule type="expression" dxfId="191" priority="199">
       <formula>$I18="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="expression" dxfId="135" priority="141">
+    <cfRule type="expression" dxfId="190" priority="196">
       <formula>$I18="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="142">
+    <cfRule type="expression" dxfId="189" priority="197">
       <formula>$I18="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:H18">
-    <cfRule type="expression" dxfId="133" priority="139">
+    <cfRule type="expression" dxfId="188" priority="194">
       <formula>$I18="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="140">
+    <cfRule type="expression" dxfId="187" priority="195">
       <formula>$I18="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18">
-    <cfRule type="expression" dxfId="131" priority="137">
+    <cfRule type="expression" dxfId="186" priority="192">
       <formula>$I18="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="138">
+    <cfRule type="expression" dxfId="185" priority="193">
       <formula>$I18="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="expression" dxfId="129" priority="135">
+    <cfRule type="expression" dxfId="184" priority="190">
       <formula>$I19="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="136">
+    <cfRule type="expression" dxfId="183" priority="191">
       <formula>$I19="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="containsText" dxfId="127" priority="134" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="182" priority="189" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="126" priority="132">
+    <cfRule type="expression" dxfId="181" priority="187">
       <formula>$I19="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="133">
+    <cfRule type="expression" dxfId="180" priority="188">
       <formula>$I19="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="expression" dxfId="124" priority="130">
+    <cfRule type="expression" dxfId="179" priority="185">
       <formula>$I19="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="131">
+    <cfRule type="expression" dxfId="178" priority="186">
       <formula>$I19="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19:H19">
-    <cfRule type="expression" dxfId="122" priority="128">
+    <cfRule type="expression" dxfId="177" priority="183">
       <formula>$I19="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="129">
+    <cfRule type="expression" dxfId="176" priority="184">
       <formula>$I19="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19">
-    <cfRule type="expression" dxfId="120" priority="126">
+    <cfRule type="expression" dxfId="175" priority="181">
       <formula>$I19="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="119" priority="127">
+    <cfRule type="expression" dxfId="174" priority="182">
       <formula>$I19="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="expression" dxfId="118" priority="124">
+    <cfRule type="expression" dxfId="173" priority="179">
       <formula>$I20="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="125">
+    <cfRule type="expression" dxfId="172" priority="180">
       <formula>$I20="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="containsText" dxfId="116" priority="123" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="171" priority="178" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="115" priority="121">
+    <cfRule type="expression" dxfId="170" priority="176">
       <formula>$I20="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="122">
+    <cfRule type="expression" dxfId="169" priority="177">
       <formula>$I20="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="expression" dxfId="113" priority="119">
+    <cfRule type="expression" dxfId="168" priority="174">
       <formula>$I20="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="120">
+    <cfRule type="expression" dxfId="167" priority="175">
       <formula>$I20="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20:H20">
-    <cfRule type="expression" dxfId="111" priority="117">
+    <cfRule type="expression" dxfId="166" priority="172">
       <formula>$I20="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="118">
+    <cfRule type="expression" dxfId="165" priority="173">
       <formula>$I20="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="expression" dxfId="109" priority="115">
+    <cfRule type="expression" dxfId="164" priority="170">
       <formula>$I20="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="116">
+    <cfRule type="expression" dxfId="163" priority="171">
       <formula>$I20="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="expression" dxfId="107" priority="113">
+    <cfRule type="expression" dxfId="162" priority="168">
       <formula>$I22="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="114">
+    <cfRule type="expression" dxfId="161" priority="169">
       <formula>$I22="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22">
-    <cfRule type="containsText" dxfId="105" priority="112" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="160" priority="167" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22">
-    <cfRule type="expression" dxfId="104" priority="110">
+    <cfRule type="expression" dxfId="159" priority="165">
       <formula>$I22="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="111">
+    <cfRule type="expression" dxfId="158" priority="166">
       <formula>$I22="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="expression" dxfId="102" priority="102">
+    <cfRule type="expression" dxfId="157" priority="157">
       <formula>$I21="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="103">
+    <cfRule type="expression" dxfId="156" priority="158">
       <formula>$I21="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="expression" dxfId="100" priority="100">
+    <cfRule type="expression" dxfId="155" priority="155">
       <formula>$I21="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="101">
+    <cfRule type="expression" dxfId="154" priority="156">
       <formula>$I21="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21">
-    <cfRule type="containsText" dxfId="98" priority="99" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="153" priority="154" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="97" priority="97">
+    <cfRule type="expression" dxfId="152" priority="152">
       <formula>$I21="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="98">
+    <cfRule type="expression" dxfId="151" priority="153">
       <formula>$I21="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="expression" dxfId="95" priority="95">
+    <cfRule type="expression" dxfId="150" priority="150">
       <formula>$I21="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="96">
+    <cfRule type="expression" dxfId="149" priority="151">
       <formula>$I21="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21:H21">
-    <cfRule type="expression" dxfId="93" priority="93">
+    <cfRule type="expression" dxfId="148" priority="148">
       <formula>$I21="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="94">
+    <cfRule type="expression" dxfId="147" priority="149">
       <formula>$I21="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21">
-    <cfRule type="expression" dxfId="91" priority="91">
+    <cfRule type="expression" dxfId="146" priority="146">
       <formula>$I21="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="92">
+    <cfRule type="expression" dxfId="145" priority="147">
       <formula>$I21="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="expression" dxfId="89" priority="89">
+    <cfRule type="expression" dxfId="144" priority="144">
       <formula>$I22="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="90">
+    <cfRule type="expression" dxfId="143" priority="145">
       <formula>$I22="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22:H22">
-    <cfRule type="expression" dxfId="87" priority="87">
+    <cfRule type="expression" dxfId="142" priority="142">
       <formula>$I22="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="88">
+    <cfRule type="expression" dxfId="141" priority="143">
       <formula>$I22="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22">
-    <cfRule type="expression" dxfId="85" priority="85">
+    <cfRule type="expression" dxfId="140" priority="140">
       <formula>$I22="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="86">
+    <cfRule type="expression" dxfId="139" priority="141">
       <formula>$I22="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="expression" dxfId="83" priority="83">
+    <cfRule type="expression" dxfId="138" priority="138">
       <formula>$I22="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="84">
+    <cfRule type="expression" dxfId="137" priority="139">
       <formula>$I22="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B22">
-    <cfRule type="expression" dxfId="81" priority="81">
+    <cfRule type="expression" dxfId="136" priority="136">
       <formula>$I17="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="82">
+    <cfRule type="expression" dxfId="135" priority="137">
       <formula>$I17="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23:H23">
-    <cfRule type="expression" dxfId="79" priority="79">
+    <cfRule type="expression" dxfId="134" priority="134">
       <formula>$I23="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="80">
+    <cfRule type="expression" dxfId="133" priority="135">
       <formula>$I23="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="expression" dxfId="77" priority="77">
+    <cfRule type="expression" dxfId="132" priority="132">
       <formula>$I23="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="78">
+    <cfRule type="expression" dxfId="131" priority="133">
       <formula>$I23="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="75" priority="75">
+    <cfRule type="expression" dxfId="130" priority="130">
       <formula>$I23="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="76">
+    <cfRule type="expression" dxfId="129" priority="131">
       <formula>$I23="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="containsText" dxfId="73" priority="74" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="128" priority="129" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="72" priority="72">
+    <cfRule type="expression" dxfId="127" priority="127">
       <formula>$I23="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="73">
+    <cfRule type="expression" dxfId="126" priority="128">
       <formula>$I23="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="expression" dxfId="70" priority="70">
+    <cfRule type="expression" dxfId="125" priority="125">
       <formula>$I23="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="71">
+    <cfRule type="expression" dxfId="124" priority="126">
       <formula>$I23="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="expression" dxfId="68" priority="68">
+    <cfRule type="expression" dxfId="123" priority="123">
       <formula>$I24="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="69">
+    <cfRule type="expression" dxfId="122" priority="124">
       <formula>$I24="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="containsText" dxfId="66" priority="67" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="121" priority="122" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="65" priority="65">
+    <cfRule type="expression" dxfId="120" priority="120">
       <formula>$I24="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="66">
+    <cfRule type="expression" dxfId="119" priority="121">
       <formula>$I24="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="expression" dxfId="63" priority="63">
+    <cfRule type="expression" dxfId="118" priority="118">
       <formula>$I24="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="64">
+    <cfRule type="expression" dxfId="117" priority="119">
       <formula>$I24="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="expression" dxfId="61" priority="61">
+    <cfRule type="expression" dxfId="116" priority="116">
       <formula>$I24="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="62">
+    <cfRule type="expression" dxfId="115" priority="117">
       <formula>$I24="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24:H24">
-    <cfRule type="expression" dxfId="59" priority="59">
+    <cfRule type="expression" dxfId="114" priority="114">
       <formula>$I24="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="60">
+    <cfRule type="expression" dxfId="113" priority="115">
       <formula>$I24="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24">
-    <cfRule type="expression" dxfId="57" priority="57">
+    <cfRule type="expression" dxfId="112" priority="112">
       <formula>$I24="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="58">
+    <cfRule type="expression" dxfId="111" priority="113">
       <formula>$I24="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="expression" dxfId="55" priority="55">
+    <cfRule type="expression" dxfId="110" priority="110">
       <formula>$I25="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="56">
+    <cfRule type="expression" dxfId="109" priority="111">
       <formula>$I25="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="containsText" dxfId="53" priority="54" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="108" priority="109" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="52" priority="52">
+    <cfRule type="expression" dxfId="107" priority="107">
       <formula>$I25="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="53">
+    <cfRule type="expression" dxfId="106" priority="108">
       <formula>$I25="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="expression" dxfId="50" priority="50">
+    <cfRule type="expression" dxfId="105" priority="105">
       <formula>$I25="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="51">
+    <cfRule type="expression" dxfId="104" priority="106">
       <formula>$I25="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="expression" dxfId="48" priority="48">
+    <cfRule type="expression" dxfId="103" priority="103">
       <formula>$I25="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="49">
+    <cfRule type="expression" dxfId="102" priority="104">
       <formula>$I25="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25:H25">
-    <cfRule type="expression" dxfId="46" priority="46">
+    <cfRule type="expression" dxfId="101" priority="101">
       <formula>$I25="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="47">
+    <cfRule type="expression" dxfId="100" priority="102">
       <formula>$I25="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25">
-    <cfRule type="expression" dxfId="44" priority="44">
+    <cfRule type="expression" dxfId="99" priority="99">
       <formula>$I25="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="45">
+    <cfRule type="expression" dxfId="98" priority="100">
       <formula>$I25="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="containsText" dxfId="42" priority="43" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="97" priority="98" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="expression" dxfId="41" priority="41">
+    <cfRule type="expression" dxfId="96" priority="96">
       <formula>$I26="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="42">
+    <cfRule type="expression" dxfId="95" priority="97">
       <formula>$I26="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="expression" dxfId="39" priority="39">
+    <cfRule type="expression" dxfId="94" priority="94">
       <formula>$I26="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="40">
+    <cfRule type="expression" dxfId="93" priority="95">
       <formula>$I26="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="expression" dxfId="37" priority="37">
+    <cfRule type="expression" dxfId="92" priority="92">
       <formula>$I26="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="38">
+    <cfRule type="expression" dxfId="91" priority="93">
       <formula>$I26="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26:H26">
-    <cfRule type="expression" dxfId="35" priority="35">
+    <cfRule type="expression" dxfId="90" priority="90">
       <formula>$I26="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="36">
+    <cfRule type="expression" dxfId="89" priority="91">
       <formula>$I26="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26">
-    <cfRule type="expression" dxfId="33" priority="33">
+    <cfRule type="expression" dxfId="88" priority="88">
       <formula>$I26="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="34">
+    <cfRule type="expression" dxfId="87" priority="89">
       <formula>$I26="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="expression" dxfId="31" priority="31">
+    <cfRule type="expression" dxfId="86" priority="86">
       <formula>$I27="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="32">
+    <cfRule type="expression" dxfId="85" priority="87">
       <formula>$I27="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:H27">
-    <cfRule type="expression" dxfId="29" priority="29">
+    <cfRule type="expression" dxfId="84" priority="84">
       <formula>$I27="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="30">
+    <cfRule type="expression" dxfId="83" priority="85">
       <formula>$I27="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27">
-    <cfRule type="expression" dxfId="27" priority="27">
+    <cfRule type="expression" dxfId="82" priority="82">
       <formula>$I27="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="28">
+    <cfRule type="expression" dxfId="81" priority="83">
       <formula>$I27="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27:B28">
-    <cfRule type="expression" dxfId="25" priority="25">
+    <cfRule type="expression" dxfId="80" priority="80">
       <formula>$I27="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="26">
+    <cfRule type="expression" dxfId="79" priority="81">
       <formula>$I27="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="expression" dxfId="23" priority="23">
+    <cfRule type="expression" dxfId="78" priority="78">
       <formula>$I28="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="24">
+    <cfRule type="expression" dxfId="77" priority="79">
       <formula>$I28="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:H28">
-    <cfRule type="expression" dxfId="21" priority="21">
+    <cfRule type="expression" dxfId="76" priority="76">
       <formula>$I28="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="22">
+    <cfRule type="expression" dxfId="75" priority="77">
       <formula>$I28="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28">
-    <cfRule type="expression" dxfId="19" priority="19">
+    <cfRule type="expression" dxfId="74" priority="74">
       <formula>$I28="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="20">
+    <cfRule type="expression" dxfId="73" priority="75">
       <formula>$I28="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="expression" dxfId="17" priority="17">
+    <cfRule type="expression" dxfId="72" priority="72">
       <formula>$I29="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="18">
+    <cfRule type="expression" dxfId="71" priority="73">
       <formula>$I29="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="expression" dxfId="15" priority="15">
+    <cfRule type="expression" dxfId="70" priority="70">
       <formula>$I29="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="16">
+    <cfRule type="expression" dxfId="69" priority="71">
       <formula>$I29="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="expression" dxfId="13" priority="13">
+    <cfRule type="expression" dxfId="68" priority="68">
       <formula>$I29="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="14">
+    <cfRule type="expression" dxfId="67" priority="69">
       <formula>$I29="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29">
-    <cfRule type="expression" dxfId="11" priority="11">
+    <cfRule type="expression" dxfId="66" priority="66">
       <formula>$I29="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="12">
+    <cfRule type="expression" dxfId="65" priority="67">
       <formula>$I29="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="expression" dxfId="9" priority="9">
+    <cfRule type="expression" dxfId="64" priority="64">
       <formula>$I30="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="10">
+    <cfRule type="expression" dxfId="63" priority="65">
       <formula>$I30="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="expression" dxfId="7" priority="7">
+    <cfRule type="expression" dxfId="62" priority="62">
       <formula>$I30="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8">
+    <cfRule type="expression" dxfId="61" priority="63">
       <formula>$I30="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="60" priority="60">
       <formula>$I30="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="59" priority="61">
       <formula>$I30="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="58" priority="58">
       <formula>$I30="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="57" priority="59">
       <formula>$I30="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="56" priority="56">
       <formula>$I30="確認中"</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="55" priority="57">
+      <formula>$I30="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B31">
+    <cfRule type="expression" dxfId="54" priority="54">
+      <formula>$I31="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="53" priority="55">
+      <formula>$I31="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G31">
+    <cfRule type="expression" dxfId="52" priority="52">
+      <formula>$I31="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="51" priority="53">
+      <formula>$I31="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31">
+    <cfRule type="expression" dxfId="50" priority="50">
+      <formula>$I31="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="49" priority="51">
+      <formula>$I31="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31">
+    <cfRule type="expression" dxfId="48" priority="48">
+      <formula>$I31="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="47" priority="49">
+      <formula>$I31="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="expression" dxfId="46" priority="46">
+      <formula>$I32="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="47">
+      <formula>$I32="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="containsText" dxfId="44" priority="45" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="expression" dxfId="43" priority="43">
+      <formula>$I32="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="44">
+      <formula>$I32="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32">
+    <cfRule type="expression" dxfId="41" priority="41">
+      <formula>$I32="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="42">
+      <formula>$I32="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32">
+    <cfRule type="expression" dxfId="39" priority="39">
+      <formula>$I32="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="40">
+      <formula>$I32="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32">
+    <cfRule type="expression" dxfId="37" priority="37">
+      <formula>$I32="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="38">
+      <formula>$I32="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32">
+    <cfRule type="expression" dxfId="35" priority="35">
+      <formula>$I32="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="36">
+      <formula>$I32="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32">
+    <cfRule type="expression" dxfId="33" priority="33">
+      <formula>$I32="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="34">
+      <formula>$I32="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33">
+    <cfRule type="expression" dxfId="31" priority="31">
+      <formula>$I33="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="32">
+      <formula>$I33="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G33">
+    <cfRule type="expression" dxfId="29" priority="29">
+      <formula>$I33="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="30">
+      <formula>$I33="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H33">
+    <cfRule type="expression" dxfId="27" priority="27">
+      <formula>$I33="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="28">
+      <formula>$I33="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I33">
+    <cfRule type="expression" dxfId="25" priority="25">
+      <formula>$I33="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="26">
+      <formula>$I33="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33">
+    <cfRule type="expression" dxfId="23" priority="23">
+      <formula>$I33="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="24">
+      <formula>$I33="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
+    <cfRule type="containsText" dxfId="21" priority="22" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C33)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
+    <cfRule type="expression" dxfId="20" priority="20">
+      <formula>$I33="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="21">
+      <formula>$I33="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33">
+    <cfRule type="expression" dxfId="18" priority="18">
+      <formula>$I33="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="19">
+      <formula>$I33="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="expression" dxfId="16" priority="16">
+      <formula>$I34="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="17">
+      <formula>$I34="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F34">
+    <cfRule type="expression" dxfId="14" priority="14">
+      <formula>$I34="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="15">
+      <formula>$I34="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G34">
+    <cfRule type="expression" dxfId="12" priority="12">
+      <formula>$I34="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="13">
+      <formula>$I34="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H34">
+    <cfRule type="expression" dxfId="10" priority="10">
+      <formula>$I34="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="11">
+      <formula>$I34="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I34">
+    <cfRule type="expression" dxfId="8" priority="8">
+      <formula>$I34="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="9">
+      <formula>$I34="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34">
+    <cfRule type="expression" dxfId="6" priority="6">
+      <formula>$I34="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="7">
+      <formula>$I34="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>$I34="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>$I34="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$I34="確認中"</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$I30="済み"</formula>
+      <formula>$I34="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
@@ -35589,70 +37707,92 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="J11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="11" spans="10:10" x14ac:dyDescent="0.4">
+      <c r="J11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.4">
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="41" t="s">
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="40" t="s">
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40" t="s">
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40" t="s">
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="44" t="s">
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="AB1" s="45"/>
-      <c r="AC1" s="45"/>
-      <c r="AD1" s="45"/>
-      <c r="AE1" s="46"/>
-      <c r="AF1" s="40" t="s">
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="57"/>
+      <c r="AF1" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="AG1" s="40"/>
-      <c r="AH1" s="40"/>
-      <c r="AI1" s="40"/>
-      <c r="AJ1" s="40"/>
-      <c r="AK1" s="40" t="s">
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="51"/>
+      <c r="AI1" s="51"/>
+      <c r="AJ1" s="51"/>
+      <c r="AK1" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="AL1" s="40"/>
-      <c r="AM1" s="40"/>
-      <c r="AN1" s="40"/>
-      <c r="AO1" s="40"/>
-      <c r="AP1" s="40"/>
+      <c r="AL1" s="51"/>
+      <c r="AM1" s="51"/>
+      <c r="AN1" s="51"/>
+      <c r="AO1" s="51"/>
+      <c r="AP1" s="51"/>
     </row>
     <row r="2" spans="1:51" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A2" s="25" t="s">
@@ -35872,7 +38012,7 @@
       <c r="S29" s="37"/>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B30" s="47" t="s">
+      <c r="B30" s="38" t="s">
         <v>122</v>
       </c>
       <c r="C30" s="35" t="s">
@@ -35896,72 +38036,72 @@
       <c r="S30" s="37"/>
     </row>
     <row r="31" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="48"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="49"/>
-      <c r="L31" s="49"/>
-      <c r="M31" s="49"/>
-      <c r="N31" s="49"/>
-      <c r="O31" s="49"/>
-      <c r="P31" s="49"/>
-      <c r="Q31" s="49"/>
-      <c r="R31" s="49"/>
-      <c r="S31" s="49"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="40"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="40"/>
+      <c r="S31" s="40"/>
     </row>
     <row r="32" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="50"/>
-      <c r="C32" s="51" t="s">
+      <c r="B32" s="41"/>
+      <c r="C32" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="49"/>
-      <c r="L32" s="49"/>
-      <c r="M32" s="49"/>
-      <c r="N32" s="49"/>
-      <c r="O32" s="49"/>
-      <c r="P32" s="49"/>
-      <c r="Q32" s="49"/>
-      <c r="R32" s="49"/>
-      <c r="S32" s="49"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="40"/>
+      <c r="S32" s="40"/>
     </row>
     <row r="33" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="B33" s="48"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="49"/>
-      <c r="L33" s="49"/>
-      <c r="M33" s="49"/>
-      <c r="N33" s="49"/>
-      <c r="O33" s="49"/>
-      <c r="P33" s="49"/>
-      <c r="Q33" s="49"/>
-      <c r="R33" s="49"/>
-      <c r="S33" s="49"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="40"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="40"/>
+      <c r="S33" s="40"/>
     </row>
     <row r="34" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="B34" s="52" t="s">
+      <c r="B34" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="C34" s="53" t="s">
+      <c r="C34" s="44" t="s">
         <v>126</v>
       </c>
       <c r="D34" s="29"/>
@@ -35971,21 +38111,21 @@
       <c r="H34" s="29"/>
       <c r="I34" s="29"/>
       <c r="J34" s="30"/>
-      <c r="K34" s="49"/>
-      <c r="L34" s="49"/>
-      <c r="M34" s="49"/>
-      <c r="N34" s="49"/>
-      <c r="O34" s="49"/>
-      <c r="P34" s="49"/>
-      <c r="Q34" s="49"/>
-      <c r="R34" s="49"/>
-      <c r="S34" s="49"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="40"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="40"/>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="40"/>
+      <c r="S34" s="40"/>
     </row>
     <row r="35" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="B35" s="52" t="s">
+      <c r="B35" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="C35" s="54" t="s">
+      <c r="C35" s="45" t="s">
         <v>128</v>
       </c>
       <c r="D35" s="33"/>
@@ -35995,21 +38135,21 @@
       <c r="H35" s="33"/>
       <c r="I35" s="33"/>
       <c r="J35" s="34"/>
-      <c r="K35" s="49"/>
-      <c r="L35" s="49"/>
-      <c r="M35" s="49"/>
-      <c r="N35" s="49"/>
-      <c r="O35" s="49"/>
-      <c r="P35" s="49"/>
-      <c r="Q35" s="49"/>
-      <c r="R35" s="49"/>
-      <c r="S35" s="49"/>
+      <c r="K35" s="40"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="40"/>
+      <c r="O35" s="40"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="40"/>
+      <c r="R35" s="40"/>
+      <c r="S35" s="40"/>
     </row>
     <row r="36" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="B36" s="55" t="s">
+      <c r="B36" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="C36" s="56" t="s">
+      <c r="C36" s="47" t="s">
         <v>130</v>
       </c>
       <c r="D36" s="36"/>
@@ -36021,16 +38161,16 @@
       <c r="J36" s="37"/>
     </row>
     <row r="37" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="B37" s="57"/>
-      <c r="C37" s="51"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="42"/>
     </row>
     <row r="38" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="B38" s="57"/>
-      <c r="C38" s="51"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="42"/>
     </row>
     <row r="39" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="B39" s="57"/>
-      <c r="C39" s="51"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="42"/>
     </row>
     <row r="43" spans="1:45" ht="24" x14ac:dyDescent="0.4">
       <c r="B43" s="26" t="s">
@@ -36038,54 +38178,54 @@
       </c>
     </row>
     <row r="45" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="B45" s="40" t="s">
+      <c r="B45" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="C45" s="40"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="40" t="s">
+      <c r="C45" s="51"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="F45" s="40"/>
-      <c r="G45" s="40"/>
-      <c r="H45" s="40"/>
-      <c r="I45" s="40"/>
-      <c r="J45" s="40" t="s">
+      <c r="F45" s="51"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="51"/>
+      <c r="I45" s="51"/>
+      <c r="J45" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="K45" s="40"/>
-      <c r="L45" s="40"/>
-      <c r="M45" s="40"/>
-      <c r="N45" s="40"/>
-      <c r="O45" s="40" t="s">
+      <c r="K45" s="51"/>
+      <c r="L45" s="51"/>
+      <c r="M45" s="51"/>
+      <c r="N45" s="51"/>
+      <c r="O45" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="P45" s="40"/>
-      <c r="Q45" s="40"/>
-      <c r="R45" s="40" t="s">
+      <c r="P45" s="51"/>
+      <c r="Q45" s="51"/>
+      <c r="R45" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="S45" s="40"/>
-      <c r="T45" s="40"/>
-      <c r="U45" s="40"/>
-      <c r="V45" s="40"/>
-      <c r="W45" s="40" t="s">
+      <c r="S45" s="51"/>
+      <c r="T45" s="51"/>
+      <c r="U45" s="51"/>
+      <c r="V45" s="51"/>
+      <c r="W45" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="X45" s="40"/>
-      <c r="Y45" s="40"/>
-      <c r="Z45" s="41" t="s">
+      <c r="X45" s="51"/>
+      <c r="Y45" s="51"/>
+      <c r="Z45" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="AA45" s="42"/>
-      <c r="AB45" s="42"/>
-      <c r="AC45" s="43"/>
-      <c r="AD45" s="41" t="s">
+      <c r="AA45" s="53"/>
+      <c r="AB45" s="53"/>
+      <c r="AC45" s="54"/>
+      <c r="AD45" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="AE45" s="42"/>
-      <c r="AF45" s="42"/>
-      <c r="AG45" s="43"/>
+      <c r="AE45" s="53"/>
+      <c r="AF45" s="53"/>
+      <c r="AG45" s="54"/>
     </row>
     <row r="46" spans="1:45" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A46" s="25" t="s">
@@ -36128,7 +38268,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY27"/>
   <sheetViews>
@@ -36139,55 +38279,55 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.4">
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="41" t="s">
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="40" t="s">
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40" t="s">
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40" t="s">
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="41" t="s">
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="AB1" s="42"/>
-      <c r="AC1" s="42"/>
-      <c r="AD1" s="42"/>
-      <c r="AE1" s="43"/>
-      <c r="AF1" s="40" t="s">
+      <c r="AB1" s="53"/>
+      <c r="AC1" s="53"/>
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="54"/>
+      <c r="AF1" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="AG1" s="40"/>
-      <c r="AH1" s="40"/>
-      <c r="AI1" s="40"/>
-      <c r="AJ1" s="40"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="51"/>
+      <c r="AI1" s="51"/>
+      <c r="AJ1" s="51"/>
     </row>
     <row r="2" spans="1:51" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A2" s="25" t="s">
@@ -36215,42 +38355,42 @@
       </c>
     </row>
     <row r="23" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="B23" s="40" t="s">
+      <c r="B23" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40" t="s">
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40" t="s">
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40" t="s">
+      <c r="K23" s="51"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="40" t="s">
+      <c r="P23" s="51"/>
+      <c r="Q23" s="51"/>
+      <c r="R23" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="S23" s="40"/>
-      <c r="T23" s="40"/>
-      <c r="U23" s="40"/>
-      <c r="V23" s="40"/>
-      <c r="W23" s="40" t="s">
+      <c r="S23" s="51"/>
+      <c r="T23" s="51"/>
+      <c r="U23" s="51"/>
+      <c r="V23" s="51"/>
+      <c r="W23" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="X23" s="40"/>
-      <c r="Y23" s="40"/>
+      <c r="X23" s="51"/>
+      <c r="Y23" s="51"/>
     </row>
     <row r="24" spans="1:42" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A24" s="25" t="s">
@@ -36269,6 +38409,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="W23:Y23"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:N23"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="R23:V23"/>
     <mergeCell ref="AF1:AJ1"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:M1"/>
@@ -36276,12 +38422,6 @@
     <mergeCell ref="S1:U1"/>
     <mergeCell ref="V1:Z1"/>
     <mergeCell ref="AA1:AE1"/>
-    <mergeCell ref="W23:Y23"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:N23"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="R23:V23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -36290,7 +38430,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q20"/>
   <sheetViews>
@@ -36356,7 +38496,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -36370,7 +38510,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -36386,7 +38526,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP171"/>
   <sheetViews>
@@ -36397,42 +38537,42 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40" t="s">
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40" t="s">
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40" t="s">
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40" t="s">
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40" t="s">
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
     </row>
     <row r="2" spans="1:42" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A2" s="25" t="s">
@@ -36504,7 +38644,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/質疑表/TOYOTIRE_質疑表 _平.xlsx
+++ b/質疑表/TOYOTIRE_質疑表 _平.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="141">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -2084,6 +2084,13 @@
     </rPh>
     <rPh sb="150" eb="151">
       <t>ヨロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>別シート「2022 10 25 円弧配列メニュー追加要望」の⑤の「change row specifide」jはどのような指定でしょうか。</t>
+    <rPh sb="61" eb="63">
+      <t>シテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2619,7 +2626,137 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="328">
+  <dxfs count="343">
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -5001,21 +5138,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -6421,6 +6543,70 @@
             </a:rPr>
             <a:t>⑤</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>352426</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="正方形/長方形 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5153026" y="5048249"/>
+          <a:ext cx="1152524" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -35203,7 +35389,7 @@
   <dimension ref="A3:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -36260,18 +36446,34 @@
       <c r="K34" s="5"/>
       <c r="L34" s="9"/>
     </row>
-    <row r="35" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:12" s="20" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="2">
         <v>31</v>
       </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="10"/>
+      <c r="B35" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F35" s="5">
+        <v>44862</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="J35" s="3"/>
       <c r="K35" s="5"/>
       <c r="L35" s="9"/>
@@ -36362,1331 +36564,1400 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="C4 C6 C41:C1048576">
-    <cfRule type="containsText" dxfId="327" priority="883" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="342" priority="900" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:L4 A8 A10 A12 A14 L32 J19:J25 K10:L10 D10:H10 J11:L18 J6:L6 A6:D6 A3 D3:L3 A41:L1048576 E11 B10:B11 D12:E12 D13:F13 E14 D15:F15 A16:A32 E16:E20 E23:F23 E24">
-    <cfRule type="expression" dxfId="326" priority="881">
+    <cfRule type="expression" dxfId="341" priority="898">
       <formula>$I3="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="325" priority="882">
+    <cfRule type="expression" dxfId="340" priority="899">
       <formula>$I3="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="containsText" dxfId="324" priority="396" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="339" priority="413" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:I5 I10 K5:L5 I35:I38">
-    <cfRule type="expression" dxfId="323" priority="394">
+  <conditionalFormatting sqref="C5:I5 I10 K5:L5 I36:I38">
+    <cfRule type="expression" dxfId="338" priority="411">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="322" priority="395">
+    <cfRule type="expression" dxfId="337" priority="412">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5 A7 A9 A11 A13 A15">
-    <cfRule type="expression" dxfId="321" priority="392">
+    <cfRule type="expression" dxfId="336" priority="409">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="320" priority="393">
+    <cfRule type="expression" dxfId="335" priority="410">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7 C9:C10 C13 C15">
-    <cfRule type="containsText" dxfId="319" priority="336" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="334" priority="353" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:F9 C10 J10 J7:L9 C7 D8:F8 C13 C15">
-    <cfRule type="expression" dxfId="318" priority="334">
+    <cfRule type="expression" dxfId="333" priority="351">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="317" priority="335">
+    <cfRule type="expression" dxfId="332" priority="352">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C35 C38:C40">
-    <cfRule type="containsText" dxfId="316" priority="331" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C35)))</formula>
+  <conditionalFormatting sqref="C38:C40">
+    <cfRule type="containsText" dxfId="331" priority="348" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C38)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A35:H35 A39:L40 B38:E38 J38 J26:J35 A36:A40 E33 A33:A34">
-    <cfRule type="expression" dxfId="315" priority="329">
+  <conditionalFormatting sqref="A39:L40 B38:E38 J38 J26:J35 E33 A33:A40">
+    <cfRule type="expression" dxfId="330" priority="346">
       <formula>$I26="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="314" priority="330">
+    <cfRule type="expression" dxfId="329" priority="347">
       <formula>$I26="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27:C31">
-    <cfRule type="containsText" dxfId="313" priority="328" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="328" priority="345" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31 E31:F31 E25 D26:E26 C27:E30 H29">
-    <cfRule type="expression" dxfId="312" priority="326">
+    <cfRule type="expression" dxfId="327" priority="343">
       <formula>$I25="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="311" priority="327">
+    <cfRule type="expression" dxfId="326" priority="344">
       <formula>$I25="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="expression" dxfId="310" priority="324">
+    <cfRule type="expression" dxfId="325" priority="341">
       <formula>$I32="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="309" priority="325">
+    <cfRule type="expression" dxfId="324" priority="342">
       <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32">
-    <cfRule type="expression" dxfId="306" priority="320">
+    <cfRule type="expression" dxfId="323" priority="337">
       <formula>$I32="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="305" priority="321">
+    <cfRule type="expression" dxfId="322" priority="338">
       <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:C37">
-    <cfRule type="containsText" dxfId="304" priority="319" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="321" priority="336" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:H36 B37:E37 J36:J37">
-    <cfRule type="expression" dxfId="303" priority="317">
+    <cfRule type="expression" dxfId="320" priority="334">
       <formula>$I36="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="302" priority="318">
+    <cfRule type="expression" dxfId="319" priority="335">
       <formula>$I36="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37:H38">
-    <cfRule type="expression" dxfId="301" priority="315">
+    <cfRule type="expression" dxfId="318" priority="332">
       <formula>$I37="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="300" priority="316">
+    <cfRule type="expression" dxfId="317" priority="333">
       <formula>$I37="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19:L31">
-    <cfRule type="expression" dxfId="299" priority="313">
+    <cfRule type="expression" dxfId="316" priority="330">
       <formula>$I19="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="298" priority="314">
+    <cfRule type="expression" dxfId="315" priority="331">
       <formula>$I19="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33:L38">
-    <cfRule type="expression" dxfId="297" priority="311">
+    <cfRule type="expression" dxfId="314" priority="328">
       <formula>$I33="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="296" priority="312">
+    <cfRule type="expression" dxfId="313" priority="329">
       <formula>$I33="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="expression" dxfId="295" priority="309">
+    <cfRule type="expression" dxfId="312" priority="326">
       <formula>$I31="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="294" priority="310">
+    <cfRule type="expression" dxfId="311" priority="327">
       <formula>$I31="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="293" priority="307">
+    <cfRule type="expression" dxfId="310" priority="324">
       <formula>$I6="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="292" priority="308">
+    <cfRule type="expression" dxfId="309" priority="325">
       <formula>$I6="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="291" priority="305">
+    <cfRule type="expression" dxfId="308" priority="322">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="290" priority="306">
+    <cfRule type="expression" dxfId="307" priority="323">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="289" priority="293">
+    <cfRule type="expression" dxfId="306" priority="310">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="288" priority="294">
+    <cfRule type="expression" dxfId="305" priority="311">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="287" priority="297">
+    <cfRule type="expression" dxfId="304" priority="314">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="286" priority="298">
+    <cfRule type="expression" dxfId="303" priority="315">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:I6">
-    <cfRule type="expression" dxfId="285" priority="291">
+    <cfRule type="expression" dxfId="302" priority="308">
       <formula>$I6="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="284" priority="292">
+    <cfRule type="expression" dxfId="301" priority="309">
       <formula>$I6="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="expression" dxfId="283" priority="289">
+    <cfRule type="expression" dxfId="300" priority="306">
       <formula>$I6="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="282" priority="290">
+    <cfRule type="expression" dxfId="299" priority="307">
       <formula>$I6="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="expression" dxfId="281" priority="287">
+    <cfRule type="expression" dxfId="298" priority="304">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="280" priority="288">
+    <cfRule type="expression" dxfId="297" priority="305">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="expression" dxfId="279" priority="285">
+    <cfRule type="expression" dxfId="296" priority="302">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="278" priority="286">
+    <cfRule type="expression" dxfId="295" priority="303">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:I7">
-    <cfRule type="expression" dxfId="277" priority="283">
+    <cfRule type="expression" dxfId="294" priority="300">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="276" priority="284">
+    <cfRule type="expression" dxfId="293" priority="301">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="275" priority="281">
+    <cfRule type="expression" dxfId="292" priority="298">
       <formula>$I8="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="274" priority="282">
+    <cfRule type="expression" dxfId="291" priority="299">
       <formula>$I8="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="containsText" dxfId="273" priority="280" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="290" priority="297" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="272" priority="278">
+    <cfRule type="expression" dxfId="289" priority="295">
       <formula>$I8="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="271" priority="279">
+    <cfRule type="expression" dxfId="288" priority="296">
       <formula>$I8="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:I8">
-    <cfRule type="expression" dxfId="270" priority="276">
+    <cfRule type="expression" dxfId="287" priority="293">
       <formula>$I8="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="269" priority="277">
+    <cfRule type="expression" dxfId="286" priority="294">
       <formula>$I8="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="268" priority="274">
+    <cfRule type="expression" dxfId="285" priority="291">
       <formula>$I9="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="267" priority="275">
+    <cfRule type="expression" dxfId="284" priority="292">
       <formula>$I9="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:I9">
-    <cfRule type="expression" dxfId="266" priority="272">
+    <cfRule type="expression" dxfId="283" priority="289">
       <formula>$I9="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="265" priority="273">
+    <cfRule type="expression" dxfId="282" priority="290">
       <formula>$I9="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="expression" dxfId="264" priority="270">
+    <cfRule type="expression" dxfId="281" priority="287">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="263" priority="271">
+    <cfRule type="expression" dxfId="280" priority="288">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="262" priority="268">
+    <cfRule type="expression" dxfId="279" priority="285">
       <formula>$I11="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="261" priority="269">
+    <cfRule type="expression" dxfId="278" priority="286">
       <formula>$I11="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="containsText" dxfId="260" priority="267" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="277" priority="284" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="259" priority="265">
+    <cfRule type="expression" dxfId="276" priority="282">
       <formula>$I11="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="258" priority="266">
+    <cfRule type="expression" dxfId="275" priority="283">
       <formula>$I11="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:H11">
-    <cfRule type="expression" dxfId="257" priority="263">
+    <cfRule type="expression" dxfId="274" priority="280">
       <formula>$I11="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="256" priority="264">
+    <cfRule type="expression" dxfId="273" priority="281">
       <formula>$I11="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="expression" dxfId="255" priority="261">
+    <cfRule type="expression" dxfId="272" priority="278">
       <formula>$I11="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="254" priority="262">
+    <cfRule type="expression" dxfId="271" priority="279">
       <formula>$I11="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="expression" dxfId="253" priority="259">
+    <cfRule type="expression" dxfId="270" priority="276">
       <formula>$I12="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="252" priority="260">
+    <cfRule type="expression" dxfId="269" priority="277">
       <formula>$I12="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="containsText" dxfId="251" priority="258" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="268" priority="275" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="250" priority="256">
+    <cfRule type="expression" dxfId="267" priority="273">
       <formula>$I12="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="249" priority="257">
+    <cfRule type="expression" dxfId="266" priority="274">
       <formula>$I12="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:H12">
-    <cfRule type="expression" dxfId="248" priority="254">
+    <cfRule type="expression" dxfId="265" priority="271">
       <formula>$I12="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="247" priority="255">
+    <cfRule type="expression" dxfId="264" priority="272">
       <formula>$I12="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="expression" dxfId="246" priority="252">
+    <cfRule type="expression" dxfId="263" priority="269">
       <formula>$I12="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="245" priority="253">
+    <cfRule type="expression" dxfId="262" priority="270">
       <formula>$I12="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="expression" dxfId="244" priority="250">
+    <cfRule type="expression" dxfId="261" priority="267">
       <formula>$I13="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="243" priority="251">
+    <cfRule type="expression" dxfId="260" priority="268">
       <formula>$I13="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13:H13">
-    <cfRule type="expression" dxfId="242" priority="248">
+    <cfRule type="expression" dxfId="259" priority="265">
       <formula>$I13="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="241" priority="249">
+    <cfRule type="expression" dxfId="258" priority="266">
       <formula>$I13="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="240" priority="246">
+    <cfRule type="expression" dxfId="257" priority="263">
       <formula>$I13="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="239" priority="247">
+    <cfRule type="expression" dxfId="256" priority="264">
       <formula>$I13="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="238" priority="244">
+    <cfRule type="expression" dxfId="255" priority="261">
       <formula>$I14="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="237" priority="245">
+    <cfRule type="expression" dxfId="254" priority="262">
       <formula>$I14="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="containsText" dxfId="236" priority="243" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="253" priority="260" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="235" priority="241">
+    <cfRule type="expression" dxfId="252" priority="258">
       <formula>$I14="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="234" priority="242">
+    <cfRule type="expression" dxfId="251" priority="259">
       <formula>$I14="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="expression" dxfId="233" priority="239">
+    <cfRule type="expression" dxfId="250" priority="256">
       <formula>$I14="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="232" priority="240">
+    <cfRule type="expression" dxfId="249" priority="257">
       <formula>$I14="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="expression" dxfId="231" priority="237">
+    <cfRule type="expression" dxfId="248" priority="254">
       <formula>$I14="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="230" priority="238">
+    <cfRule type="expression" dxfId="247" priority="255">
       <formula>$I14="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14:H14">
-    <cfRule type="expression" dxfId="229" priority="235">
+    <cfRule type="expression" dxfId="246" priority="252">
       <formula>$I14="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="228" priority="236">
+    <cfRule type="expression" dxfId="245" priority="253">
       <formula>$I14="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="expression" dxfId="227" priority="233">
+    <cfRule type="expression" dxfId="244" priority="250">
       <formula>$I14="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="226" priority="234">
+    <cfRule type="expression" dxfId="243" priority="251">
       <formula>$I14="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="expression" dxfId="225" priority="231">
+    <cfRule type="expression" dxfId="242" priority="248">
       <formula>$I15="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="224" priority="232">
+    <cfRule type="expression" dxfId="241" priority="249">
       <formula>$I15="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:H15">
-    <cfRule type="expression" dxfId="223" priority="229">
+    <cfRule type="expression" dxfId="240" priority="246">
       <formula>$I15="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="222" priority="230">
+    <cfRule type="expression" dxfId="239" priority="247">
       <formula>$I15="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="expression" dxfId="221" priority="227">
+    <cfRule type="expression" dxfId="238" priority="244">
       <formula>$I15="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="220" priority="228">
+    <cfRule type="expression" dxfId="237" priority="245">
       <formula>$I15="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="219" priority="225">
+    <cfRule type="expression" dxfId="236" priority="242">
       <formula>$I16="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="218" priority="226">
+    <cfRule type="expression" dxfId="235" priority="243">
       <formula>$I16="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="containsText" dxfId="217" priority="224" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="234" priority="241" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="216" priority="222">
+    <cfRule type="expression" dxfId="233" priority="239">
       <formula>$I16="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="215" priority="223">
+    <cfRule type="expression" dxfId="232" priority="240">
       <formula>$I16="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="expression" dxfId="214" priority="220">
+    <cfRule type="expression" dxfId="231" priority="237">
       <formula>$I16="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="213" priority="221">
+    <cfRule type="expression" dxfId="230" priority="238">
       <formula>$I16="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="expression" dxfId="212" priority="218">
+    <cfRule type="expression" dxfId="229" priority="235">
       <formula>$I16="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="211" priority="219">
+    <cfRule type="expression" dxfId="228" priority="236">
       <formula>$I16="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:H16">
-    <cfRule type="expression" dxfId="210" priority="216">
+    <cfRule type="expression" dxfId="227" priority="233">
       <formula>$I16="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="209" priority="217">
+    <cfRule type="expression" dxfId="226" priority="234">
       <formula>$I16="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="expression" dxfId="208" priority="214">
+    <cfRule type="expression" dxfId="225" priority="231">
       <formula>$I16="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="207" priority="215">
+    <cfRule type="expression" dxfId="224" priority="232">
       <formula>$I16="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="206" priority="212">
+    <cfRule type="expression" dxfId="223" priority="229">
       <formula>$I17="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="205" priority="213">
+    <cfRule type="expression" dxfId="222" priority="230">
       <formula>$I17="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="containsText" dxfId="204" priority="211" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="221" priority="228" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="203" priority="209">
+    <cfRule type="expression" dxfId="220" priority="226">
       <formula>$I17="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="202" priority="210">
+    <cfRule type="expression" dxfId="219" priority="227">
       <formula>$I17="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="expression" dxfId="201" priority="207">
+    <cfRule type="expression" dxfId="218" priority="224">
       <formula>$I17="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="200" priority="208">
+    <cfRule type="expression" dxfId="217" priority="225">
       <formula>$I17="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17:H17">
-    <cfRule type="expression" dxfId="199" priority="205">
+    <cfRule type="expression" dxfId="216" priority="222">
       <formula>$I17="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="198" priority="206">
+    <cfRule type="expression" dxfId="215" priority="223">
       <formula>$I17="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17">
-    <cfRule type="expression" dxfId="197" priority="203">
+    <cfRule type="expression" dxfId="214" priority="220">
       <formula>$I17="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="196" priority="204">
+    <cfRule type="expression" dxfId="213" priority="221">
       <formula>$I17="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="195" priority="201">
+    <cfRule type="expression" dxfId="212" priority="218">
       <formula>$I18="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="194" priority="202">
+    <cfRule type="expression" dxfId="211" priority="219">
       <formula>$I18="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="containsText" dxfId="193" priority="200" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="210" priority="217" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="192" priority="198">
+    <cfRule type="expression" dxfId="209" priority="215">
       <formula>$I18="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="191" priority="199">
+    <cfRule type="expression" dxfId="208" priority="216">
       <formula>$I18="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="expression" dxfId="190" priority="196">
+    <cfRule type="expression" dxfId="207" priority="213">
       <formula>$I18="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="189" priority="197">
+    <cfRule type="expression" dxfId="206" priority="214">
       <formula>$I18="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:H18">
-    <cfRule type="expression" dxfId="188" priority="194">
+    <cfRule type="expression" dxfId="205" priority="211">
       <formula>$I18="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="187" priority="195">
+    <cfRule type="expression" dxfId="204" priority="212">
       <formula>$I18="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18">
-    <cfRule type="expression" dxfId="186" priority="192">
+    <cfRule type="expression" dxfId="203" priority="209">
       <formula>$I18="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="185" priority="193">
+    <cfRule type="expression" dxfId="202" priority="210">
       <formula>$I18="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="expression" dxfId="184" priority="190">
+    <cfRule type="expression" dxfId="201" priority="207">
       <formula>$I19="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="183" priority="191">
+    <cfRule type="expression" dxfId="200" priority="208">
       <formula>$I19="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="containsText" dxfId="182" priority="189" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="199" priority="206" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="181" priority="187">
+    <cfRule type="expression" dxfId="198" priority="204">
       <formula>$I19="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="180" priority="188">
+    <cfRule type="expression" dxfId="197" priority="205">
       <formula>$I19="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="expression" dxfId="179" priority="185">
+    <cfRule type="expression" dxfId="196" priority="202">
       <formula>$I19="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="186">
+    <cfRule type="expression" dxfId="195" priority="203">
       <formula>$I19="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19:H19">
-    <cfRule type="expression" dxfId="177" priority="183">
+    <cfRule type="expression" dxfId="194" priority="200">
       <formula>$I19="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="176" priority="184">
+    <cfRule type="expression" dxfId="193" priority="201">
       <formula>$I19="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19">
-    <cfRule type="expression" dxfId="175" priority="181">
+    <cfRule type="expression" dxfId="192" priority="198">
       <formula>$I19="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="182">
+    <cfRule type="expression" dxfId="191" priority="199">
       <formula>$I19="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="expression" dxfId="173" priority="179">
+    <cfRule type="expression" dxfId="190" priority="196">
       <formula>$I20="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="180">
+    <cfRule type="expression" dxfId="189" priority="197">
       <formula>$I20="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="containsText" dxfId="171" priority="178" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="188" priority="195" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="170" priority="176">
+    <cfRule type="expression" dxfId="187" priority="193">
       <formula>$I20="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="169" priority="177">
+    <cfRule type="expression" dxfId="186" priority="194">
       <formula>$I20="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="expression" dxfId="168" priority="174">
+    <cfRule type="expression" dxfId="185" priority="191">
       <formula>$I20="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="167" priority="175">
+    <cfRule type="expression" dxfId="184" priority="192">
       <formula>$I20="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20:H20">
-    <cfRule type="expression" dxfId="166" priority="172">
+    <cfRule type="expression" dxfId="183" priority="189">
       <formula>$I20="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="173">
+    <cfRule type="expression" dxfId="182" priority="190">
       <formula>$I20="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="expression" dxfId="164" priority="170">
+    <cfRule type="expression" dxfId="181" priority="187">
       <formula>$I20="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="171">
+    <cfRule type="expression" dxfId="180" priority="188">
       <formula>$I20="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="expression" dxfId="162" priority="168">
+    <cfRule type="expression" dxfId="179" priority="185">
       <formula>$I22="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="161" priority="169">
+    <cfRule type="expression" dxfId="178" priority="186">
       <formula>$I22="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22">
-    <cfRule type="containsText" dxfId="160" priority="167" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="177" priority="184" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22">
-    <cfRule type="expression" dxfId="159" priority="165">
+    <cfRule type="expression" dxfId="176" priority="182">
       <formula>$I22="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="158" priority="166">
+    <cfRule type="expression" dxfId="175" priority="183">
       <formula>$I22="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="expression" dxfId="157" priority="157">
+    <cfRule type="expression" dxfId="174" priority="174">
       <formula>$I21="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="158">
+    <cfRule type="expression" dxfId="173" priority="175">
       <formula>$I21="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="expression" dxfId="155" priority="155">
+    <cfRule type="expression" dxfId="172" priority="172">
       <formula>$I21="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="156">
+    <cfRule type="expression" dxfId="171" priority="173">
       <formula>$I21="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21">
-    <cfRule type="containsText" dxfId="153" priority="154" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="170" priority="171" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="152" priority="152">
+    <cfRule type="expression" dxfId="169" priority="169">
       <formula>$I21="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="151" priority="153">
+    <cfRule type="expression" dxfId="168" priority="170">
       <formula>$I21="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="expression" dxfId="150" priority="150">
+    <cfRule type="expression" dxfId="167" priority="167">
       <formula>$I21="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="149" priority="151">
+    <cfRule type="expression" dxfId="166" priority="168">
       <formula>$I21="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21:H21">
-    <cfRule type="expression" dxfId="148" priority="148">
+    <cfRule type="expression" dxfId="165" priority="165">
       <formula>$I21="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="149">
+    <cfRule type="expression" dxfId="164" priority="166">
       <formula>$I21="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21">
-    <cfRule type="expression" dxfId="146" priority="146">
+    <cfRule type="expression" dxfId="163" priority="163">
       <formula>$I21="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="147">
+    <cfRule type="expression" dxfId="162" priority="164">
       <formula>$I21="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="expression" dxfId="144" priority="144">
+    <cfRule type="expression" dxfId="161" priority="161">
       <formula>$I22="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="143" priority="145">
+    <cfRule type="expression" dxfId="160" priority="162">
       <formula>$I22="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22:H22">
-    <cfRule type="expression" dxfId="142" priority="142">
+    <cfRule type="expression" dxfId="159" priority="159">
       <formula>$I22="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="143">
+    <cfRule type="expression" dxfId="158" priority="160">
       <formula>$I22="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22">
-    <cfRule type="expression" dxfId="140" priority="140">
+    <cfRule type="expression" dxfId="157" priority="157">
       <formula>$I22="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="141">
+    <cfRule type="expression" dxfId="156" priority="158">
       <formula>$I22="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="expression" dxfId="138" priority="138">
+    <cfRule type="expression" dxfId="155" priority="155">
       <formula>$I22="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="137" priority="139">
+    <cfRule type="expression" dxfId="154" priority="156">
       <formula>$I22="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B22">
-    <cfRule type="expression" dxfId="136" priority="136">
+    <cfRule type="expression" dxfId="153" priority="153">
       <formula>$I17="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="137">
+    <cfRule type="expression" dxfId="152" priority="154">
       <formula>$I17="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23:H23">
-    <cfRule type="expression" dxfId="134" priority="134">
+    <cfRule type="expression" dxfId="151" priority="151">
       <formula>$I23="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="135">
+    <cfRule type="expression" dxfId="150" priority="152">
       <formula>$I23="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="expression" dxfId="132" priority="132">
+    <cfRule type="expression" dxfId="149" priority="149">
       <formula>$I23="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="131" priority="133">
+    <cfRule type="expression" dxfId="148" priority="150">
       <formula>$I23="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="130" priority="130">
+    <cfRule type="expression" dxfId="147" priority="147">
       <formula>$I23="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="131">
+    <cfRule type="expression" dxfId="146" priority="148">
       <formula>$I23="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="containsText" dxfId="128" priority="129" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="145" priority="146" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="127" priority="127">
+    <cfRule type="expression" dxfId="144" priority="144">
       <formula>$I23="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="128">
+    <cfRule type="expression" dxfId="143" priority="145">
       <formula>$I23="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="expression" dxfId="125" priority="125">
+    <cfRule type="expression" dxfId="142" priority="142">
       <formula>$I23="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="126">
+    <cfRule type="expression" dxfId="141" priority="143">
       <formula>$I23="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="expression" dxfId="123" priority="123">
+    <cfRule type="expression" dxfId="140" priority="140">
       <formula>$I24="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="124">
+    <cfRule type="expression" dxfId="139" priority="141">
       <formula>$I24="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="containsText" dxfId="121" priority="122" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="138" priority="139" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="120" priority="120">
+    <cfRule type="expression" dxfId="137" priority="137">
       <formula>$I24="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="119" priority="121">
+    <cfRule type="expression" dxfId="136" priority="138">
       <formula>$I24="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="expression" dxfId="118" priority="118">
+    <cfRule type="expression" dxfId="135" priority="135">
       <formula>$I24="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="119">
+    <cfRule type="expression" dxfId="134" priority="136">
       <formula>$I24="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="expression" dxfId="116" priority="116">
+    <cfRule type="expression" dxfId="133" priority="133">
       <formula>$I24="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="117">
+    <cfRule type="expression" dxfId="132" priority="134">
       <formula>$I24="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24:H24">
-    <cfRule type="expression" dxfId="114" priority="114">
+    <cfRule type="expression" dxfId="131" priority="131">
       <formula>$I24="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="115">
+    <cfRule type="expression" dxfId="130" priority="132">
       <formula>$I24="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24">
-    <cfRule type="expression" dxfId="112" priority="112">
+    <cfRule type="expression" dxfId="129" priority="129">
       <formula>$I24="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="113">
+    <cfRule type="expression" dxfId="128" priority="130">
       <formula>$I24="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="expression" dxfId="110" priority="110">
+    <cfRule type="expression" dxfId="127" priority="127">
       <formula>$I25="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="111">
+    <cfRule type="expression" dxfId="126" priority="128">
       <formula>$I25="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="containsText" dxfId="108" priority="109" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="125" priority="126" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="107" priority="107">
+    <cfRule type="expression" dxfId="124" priority="124">
       <formula>$I25="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="108">
+    <cfRule type="expression" dxfId="123" priority="125">
       <formula>$I25="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="expression" dxfId="105" priority="105">
+    <cfRule type="expression" dxfId="122" priority="122">
       <formula>$I25="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="106">
+    <cfRule type="expression" dxfId="121" priority="123">
       <formula>$I25="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="expression" dxfId="103" priority="103">
+    <cfRule type="expression" dxfId="120" priority="120">
       <formula>$I25="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="104">
+    <cfRule type="expression" dxfId="119" priority="121">
       <formula>$I25="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25:H25">
-    <cfRule type="expression" dxfId="101" priority="101">
+    <cfRule type="expression" dxfId="118" priority="118">
       <formula>$I25="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="102">
+    <cfRule type="expression" dxfId="117" priority="119">
       <formula>$I25="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25">
-    <cfRule type="expression" dxfId="99" priority="99">
+    <cfRule type="expression" dxfId="116" priority="116">
       <formula>$I25="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="100">
+    <cfRule type="expression" dxfId="115" priority="117">
       <formula>$I25="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="containsText" dxfId="97" priority="98" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="114" priority="115" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="expression" dxfId="96" priority="96">
+    <cfRule type="expression" dxfId="113" priority="113">
       <formula>$I26="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="97">
+    <cfRule type="expression" dxfId="112" priority="114">
       <formula>$I26="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="expression" dxfId="94" priority="94">
+    <cfRule type="expression" dxfId="111" priority="111">
       <formula>$I26="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="95">
+    <cfRule type="expression" dxfId="110" priority="112">
       <formula>$I26="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="expression" dxfId="92" priority="92">
+    <cfRule type="expression" dxfId="109" priority="109">
       <formula>$I26="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="93">
+    <cfRule type="expression" dxfId="108" priority="110">
       <formula>$I26="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26:H26">
-    <cfRule type="expression" dxfId="90" priority="90">
+    <cfRule type="expression" dxfId="107" priority="107">
       <formula>$I26="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="91">
+    <cfRule type="expression" dxfId="106" priority="108">
       <formula>$I26="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26">
-    <cfRule type="expression" dxfId="88" priority="88">
+    <cfRule type="expression" dxfId="105" priority="105">
       <formula>$I26="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="89">
+    <cfRule type="expression" dxfId="104" priority="106">
       <formula>$I26="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="expression" dxfId="86" priority="86">
+    <cfRule type="expression" dxfId="103" priority="103">
       <formula>$I27="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="87">
+    <cfRule type="expression" dxfId="102" priority="104">
       <formula>$I27="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:H27">
-    <cfRule type="expression" dxfId="84" priority="84">
+    <cfRule type="expression" dxfId="101" priority="101">
       <formula>$I27="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="85">
+    <cfRule type="expression" dxfId="100" priority="102">
       <formula>$I27="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27">
-    <cfRule type="expression" dxfId="82" priority="82">
+    <cfRule type="expression" dxfId="99" priority="99">
       <formula>$I27="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="83">
+    <cfRule type="expression" dxfId="98" priority="100">
       <formula>$I27="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27:B28">
-    <cfRule type="expression" dxfId="80" priority="80">
+    <cfRule type="expression" dxfId="97" priority="97">
       <formula>$I27="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="81">
+    <cfRule type="expression" dxfId="96" priority="98">
       <formula>$I27="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="expression" dxfId="78" priority="78">
+    <cfRule type="expression" dxfId="95" priority="95">
       <formula>$I28="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="79">
+    <cfRule type="expression" dxfId="94" priority="96">
       <formula>$I28="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:H28">
-    <cfRule type="expression" dxfId="76" priority="76">
+    <cfRule type="expression" dxfId="93" priority="93">
       <formula>$I28="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="77">
+    <cfRule type="expression" dxfId="92" priority="94">
       <formula>$I28="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28">
-    <cfRule type="expression" dxfId="74" priority="74">
+    <cfRule type="expression" dxfId="91" priority="91">
       <formula>$I28="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="75">
+    <cfRule type="expression" dxfId="90" priority="92">
       <formula>$I28="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="expression" dxfId="72" priority="72">
+    <cfRule type="expression" dxfId="89" priority="89">
       <formula>$I29="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="73">
+    <cfRule type="expression" dxfId="88" priority="90">
       <formula>$I29="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="expression" dxfId="70" priority="70">
+    <cfRule type="expression" dxfId="87" priority="87">
       <formula>$I29="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="71">
+    <cfRule type="expression" dxfId="86" priority="88">
       <formula>$I29="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="expression" dxfId="68" priority="68">
+    <cfRule type="expression" dxfId="85" priority="85">
       <formula>$I29="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="69">
+    <cfRule type="expression" dxfId="84" priority="86">
       <formula>$I29="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29">
-    <cfRule type="expression" dxfId="66" priority="66">
+    <cfRule type="expression" dxfId="83" priority="83">
       <formula>$I29="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="67">
+    <cfRule type="expression" dxfId="82" priority="84">
       <formula>$I29="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="expression" dxfId="64" priority="64">
+    <cfRule type="expression" dxfId="81" priority="81">
       <formula>$I30="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="65">
+    <cfRule type="expression" dxfId="80" priority="82">
       <formula>$I30="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="expression" dxfId="62" priority="62">
+    <cfRule type="expression" dxfId="79" priority="79">
       <formula>$I30="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="63">
+    <cfRule type="expression" dxfId="78" priority="80">
       <formula>$I30="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="expression" dxfId="60" priority="60">
+    <cfRule type="expression" dxfId="77" priority="77">
       <formula>$I30="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="61">
+    <cfRule type="expression" dxfId="76" priority="78">
       <formula>$I30="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30">
-    <cfRule type="expression" dxfId="58" priority="58">
+    <cfRule type="expression" dxfId="75" priority="75">
       <formula>$I30="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="59">
+    <cfRule type="expression" dxfId="74" priority="76">
       <formula>$I30="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="expression" dxfId="56" priority="56">
+    <cfRule type="expression" dxfId="73" priority="73">
       <formula>$I30="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="57">
+    <cfRule type="expression" dxfId="72" priority="74">
       <formula>$I30="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="expression" dxfId="54" priority="54">
+    <cfRule type="expression" dxfId="71" priority="71">
       <formula>$I31="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="55">
+    <cfRule type="expression" dxfId="70" priority="72">
       <formula>$I31="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="expression" dxfId="52" priority="52">
+    <cfRule type="expression" dxfId="69" priority="69">
       <formula>$I31="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="53">
+    <cfRule type="expression" dxfId="68" priority="70">
       <formula>$I31="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="expression" dxfId="50" priority="50">
+    <cfRule type="expression" dxfId="67" priority="67">
       <formula>$I31="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="51">
+    <cfRule type="expression" dxfId="66" priority="68">
       <formula>$I31="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31">
-    <cfRule type="expression" dxfId="48" priority="48">
+    <cfRule type="expression" dxfId="65" priority="65">
       <formula>$I31="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="49">
+    <cfRule type="expression" dxfId="64" priority="66">
       <formula>$I31="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="expression" dxfId="46" priority="46">
+    <cfRule type="expression" dxfId="63" priority="63">
       <formula>$I32="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="47">
+    <cfRule type="expression" dxfId="62" priority="64">
       <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="containsText" dxfId="44" priority="45" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="61" priority="62" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="expression" dxfId="43" priority="43">
+    <cfRule type="expression" dxfId="60" priority="60">
       <formula>$I32="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="44">
+    <cfRule type="expression" dxfId="59" priority="61">
       <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="expression" dxfId="41" priority="41">
+    <cfRule type="expression" dxfId="58" priority="58">
       <formula>$I32="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="42">
+    <cfRule type="expression" dxfId="57" priority="59">
       <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="expression" dxfId="39" priority="39">
+    <cfRule type="expression" dxfId="56" priority="56">
       <formula>$I32="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="40">
+    <cfRule type="expression" dxfId="55" priority="57">
       <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="expression" dxfId="37" priority="37">
+    <cfRule type="expression" dxfId="54" priority="54">
       <formula>$I32="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="38">
+    <cfRule type="expression" dxfId="53" priority="55">
       <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="expression" dxfId="35" priority="35">
+    <cfRule type="expression" dxfId="52" priority="52">
       <formula>$I32="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="36">
+    <cfRule type="expression" dxfId="51" priority="53">
       <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32">
-    <cfRule type="expression" dxfId="33" priority="33">
+    <cfRule type="expression" dxfId="50" priority="50">
       <formula>$I32="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="34">
+    <cfRule type="expression" dxfId="49" priority="51">
       <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="expression" dxfId="31" priority="31">
+    <cfRule type="expression" dxfId="48" priority="48">
       <formula>$I33="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="32">
+    <cfRule type="expression" dxfId="47" priority="49">
       <formula>$I33="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33">
-    <cfRule type="expression" dxfId="29" priority="29">
+    <cfRule type="expression" dxfId="46" priority="46">
       <formula>$I33="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="30">
+    <cfRule type="expression" dxfId="45" priority="47">
       <formula>$I33="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="expression" dxfId="27" priority="27">
+    <cfRule type="expression" dxfId="44" priority="44">
       <formula>$I33="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="28">
+    <cfRule type="expression" dxfId="43" priority="45">
       <formula>$I33="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33">
-    <cfRule type="expression" dxfId="25" priority="25">
+    <cfRule type="expression" dxfId="42" priority="42">
       <formula>$I33="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="26">
+    <cfRule type="expression" dxfId="41" priority="43">
       <formula>$I33="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="23" priority="23">
+    <cfRule type="expression" dxfId="40" priority="40">
       <formula>$I33="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="24">
+    <cfRule type="expression" dxfId="39" priority="41">
       <formula>$I33="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="containsText" dxfId="21" priority="22" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="38" priority="39" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="20" priority="20">
+    <cfRule type="expression" dxfId="37" priority="37">
       <formula>$I33="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="21">
+    <cfRule type="expression" dxfId="36" priority="38">
       <formula>$I33="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="expression" dxfId="18" priority="18">
+    <cfRule type="expression" dxfId="35" priority="35">
       <formula>$I33="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="19">
+    <cfRule type="expression" dxfId="34" priority="36">
       <formula>$I33="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="expression" dxfId="16" priority="16">
+    <cfRule type="expression" dxfId="33" priority="33">
       <formula>$I34="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="17">
+    <cfRule type="expression" dxfId="32" priority="34">
       <formula>$I34="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="expression" dxfId="14" priority="14">
+    <cfRule type="expression" dxfId="31" priority="31">
       <formula>$I34="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="15">
+    <cfRule type="expression" dxfId="30" priority="32">
       <formula>$I34="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="expression" dxfId="12" priority="12">
+    <cfRule type="expression" dxfId="29" priority="29">
       <formula>$I34="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="13">
+    <cfRule type="expression" dxfId="28" priority="30">
       <formula>$I34="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="expression" dxfId="10" priority="10">
+    <cfRule type="expression" dxfId="27" priority="27">
       <formula>$I34="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="11">
+    <cfRule type="expression" dxfId="26" priority="28">
       <formula>$I34="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34">
-    <cfRule type="expression" dxfId="8" priority="8">
+    <cfRule type="expression" dxfId="25" priority="25">
       <formula>$I34="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="9">
+    <cfRule type="expression" dxfId="24" priority="26">
       <formula>$I34="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="23" priority="23">
       <formula>$I34="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="22" priority="24">
       <formula>$I34="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="21" priority="22" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="20" priority="20">
       <formula>$I34="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="19" priority="21">
       <formula>$I34="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="18" priority="18">
       <formula>$I34="確認中"</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="17" priority="19">
+      <formula>$I34="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F35">
+    <cfRule type="expression" dxfId="16" priority="16">
+      <formula>$I35="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="17">
+      <formula>$I35="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G35">
+    <cfRule type="expression" dxfId="14" priority="14">
+      <formula>$I35="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="15">
+      <formula>$I35="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H35">
+    <cfRule type="expression" dxfId="12" priority="12">
+      <formula>$I35="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="13">
+      <formula>$I35="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35">
+    <cfRule type="expression" dxfId="10" priority="10">
+      <formula>$I35="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="11">
+      <formula>$I35="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35">
+    <cfRule type="expression" dxfId="8" priority="8">
+      <formula>$I35="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="9">
+      <formula>$I35="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35">
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>$I35="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>$I35="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>$I35="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>$I35="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$I35="確認中"</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$I34="済み"</formula>
+      <formula>$I35="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
@@ -37709,7 +37980,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -38409,12 +38680,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="W23:Y23"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:N23"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="R23:V23"/>
     <mergeCell ref="AF1:AJ1"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:M1"/>
@@ -38422,6 +38687,12 @@
     <mergeCell ref="S1:U1"/>
     <mergeCell ref="V1:Z1"/>
     <mergeCell ref="AA1:AE1"/>
+    <mergeCell ref="W23:Y23"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:N23"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="R23:V23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/質疑表/TOYOTIRE_質疑表 _平.xlsx
+++ b/質疑表/TOYOTIRE_質疑表 _平.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="165">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -2091,6 +2091,303 @@
     <t>別シート「2022 10 25 円弧配列メニュー追加要望」の⑤の「change row specifide」jはどのような指定でしょうか。</t>
     <rPh sb="61" eb="63">
       <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11/16打合せAuto CADモデル空間レイアウト案に関して</t>
+  </si>
+  <si>
+    <t>TOYO島津</t>
+  </si>
+  <si>
+    <t>モデル空間レイアウト案の図面左側PIC枠(文字BLOCK)の枠サイズは、ギリギリまで小さくして全体表示時の見やすさを改善したい。</t>
+  </si>
+  <si>
+    <t>PIC番号は、バルーン番号と同じPIC番号にし、PIC内の図の有無を確認することで、円弧配置したかどうかのチェックができるようにしたい。</t>
+  </si>
+  <si>
+    <t>円弧配置した後、PIC番号の文字の色が変わる、もしくは、文字の色が変わる等、円弧配置したかどうかをチェックできるようにできないか？</t>
+  </si>
+  <si>
+    <t>93,94</t>
+  </si>
+  <si>
+    <t>PIC番号は、バルーン番号と同じPIC番号にし、PIC内の図の有無を確認することで、円弧配置したかどうかのチェックができるようにできないか？</t>
+  </si>
+  <si>
+    <t>11/16打合せ時、「PIC枠のサイズは、後から変更できる。」とのSC様のコメントがありました。
+例えば、数種類のPIC枠の内、1種類のPIC枠の高さや幅の寸法を変更すると、一括で同じ寸法の関連するPIC枠の寸法が一括で変わってしまいますでしょうか？</t>
+  </si>
+  <si>
+    <t>PIC番号を、バルーン番号と同じPIC番号にした場合、読み込む必要のないPICは空PICになります。空PICが多く配置されると、図面全体視した際、一つ一つのPICが小さくなり見にくくなるため、空PICができた場合は、空PICを非表示にして詰めることで全体表示時の見やすさを改善する事はできるでしょうか？</t>
+  </si>
+  <si>
+    <t>PICの枠外に描いた図を、レイアウト表示（図枠表示）する事はできるでしょうか？</t>
+  </si>
+  <si>
+    <t>トラック・バス用の円弧配列図面(AT-B図面)では、PIC.2やPIC.3サイズが最大で1685×1200[mm]のものがあります。特定のPICだけ大きくしたり、トラック・バス用図面だけPIC.サイズの構成を変更することは可能でしょうか？</t>
+  </si>
+  <si>
+    <t>PIC枠の表示と非表示を切り替える事は可能か？
+（PIC枠 非表示の際は、文字のBLOCKを詰めて表示し、見やすくしできますか？）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・PIC枠の表示と非表示を切り替える事は可能か？
+  設定ファイルに定義追加することで可能です。
+・（PIC枠 非表示の際は、文字のBLOCKを詰めて表示し、見やすくしできますか？）
+  可能です。</t>
+    <rPh sb="27" eb="29">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PIC枠のサイズは、設定ファイルに設定した値を変更することになりますが、枠に収まらなかった場合は、設定を変えてAutoCADの再起動となります。</t>
+    <rPh sb="3" eb="4">
+      <t>ワク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ワク</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>オサ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="63" eb="66">
+      <t>サイキドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>可能ですが、全てのバルーン番号をご提示頂く必要があります。</t>
+    <rPh sb="0" eb="2">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>テイジ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>イタダ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SC平</t>
+    <rPh sb="2" eb="3">
+      <t>タイラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>可能です。</t>
+    <rPh sb="0" eb="2">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.93と重複。</t>
+    <rPh sb="6" eb="8">
+      <t>ジュウフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PIC枠のサイズは、設定ファイルに設定する方向で検討していますので、後から変更可能とは、同ファイルの設定値の変更を指しています。
+従いまして、手作業で枠のサイズを変更しても、他のPIC枠に影響はありません。</t>
+    <rPh sb="3" eb="4">
+      <t>ワク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ケントウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ドウ</t>
+    </rPh>
+    <rPh sb="50" eb="53">
+      <t>セッテイチ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>シタガ</t>
+    </rPh>
+    <rPh sb="71" eb="74">
+      <t>テサギョウ</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>ワク</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>ワク</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>エイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11/16打合せ時、「PIC枠のサイズは、後から変更できる。」とのSC様のコメントがありました。
+例えば、PIC枠のコーナー端部を選択し、ドラックでPIC枠のサイズを変更することは可能でしょうか？
+その場合、数種類のPIC枠の内、1種類のPIC枠の高さや幅の寸法を変更すると、一括で同じ寸法の関連するPIC枠の寸法が一括で変わってしまいますでしょうか？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・PIC枠のコーナー端部を選択し、ドラックでPIC枠のサイズを変更することは可能でしょうか？
+  対応しておりませんが、AutoCADの尺度変更でサイズの変更は可能です。
+・一括で同じ寸法の関連するPIC枠の寸法が一括で変わってしまいますでしょうか？
+  No.96で回答しております。</t>
+    <rPh sb="49" eb="51">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>シャクド</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="134" eb="136">
+      <t>カイトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空PICを非表示にするのであれば、空PICは初めから表示しないということで宜しいかと思います。（読み込んだ分のPICのみ表示）</t>
+    <rPh sb="0" eb="1">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ヨロ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビューポートから図の拡大／縮小／移動が可能です。</t>
+    <rPh sb="8" eb="9">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カクダイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュクショウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイヤのサイズに応じたテンプレートを準備すれば可能です。</t>
+    <rPh sb="8" eb="9">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カノウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2178,7 +2475,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2194,6 +2491,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2447,7 +2750,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2622,11 +2925,39 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="343">
+  <dxfs count="346">
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -35386,10 +35717,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A3:L40"/>
+  <dimension ref="A3:L45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37:L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -36478,298 +36809,575 @@
       <c r="K35" s="5"/>
       <c r="L35" s="9"/>
     </row>
-    <row r="36" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="2">
-        <v>31</v>
+    <row r="36" spans="1:12" ht="88.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="58">
+        <v>91</v>
       </c>
       <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="9"/>
+      <c r="C36" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F36" s="5">
+        <v>44882</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I36" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="K36" s="5">
+        <v>44887</v>
+      </c>
+      <c r="L36" s="9" t="s">
+        <v>156</v>
+      </c>
     </row>
-    <row r="37" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="2">
-        <v>32</v>
+    <row r="37" spans="1:12" ht="50.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="58">
+        <v>92</v>
       </c>
       <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="9"/>
+      <c r="C37" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F37" s="5">
+        <v>44882</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="I37" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="K37" s="5">
+        <v>44887</v>
+      </c>
+      <c r="L37" s="9" t="s">
+        <v>156</v>
+      </c>
     </row>
-    <row r="38" spans="1:12" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="2">
-        <v>33</v>
+    <row r="38" spans="1:12" ht="50.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="58">
+        <v>93</v>
       </c>
       <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="9"/>
+      <c r="C38" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F38" s="5">
+        <v>44882</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="I38" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K38" s="5">
+        <v>44887</v>
+      </c>
+      <c r="L38" s="9" t="s">
+        <v>156</v>
+      </c>
     </row>
-    <row r="39" spans="1:12" s="20" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="2">
-        <v>34</v>
-      </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="9"/>
+    <row r="39" spans="1:12" ht="50.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="58">
+        <v>94</v>
+      </c>
+      <c r="B39" s="9">
+        <v>93</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F39" s="5">
+        <v>44882</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I39" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="K39" s="5">
+        <v>44887</v>
+      </c>
+      <c r="L39" s="9" t="s">
+        <v>156</v>
+      </c>
     </row>
-    <row r="40" spans="1:12" s="20" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="2">
-        <v>35</v>
-      </c>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="9"/>
+    <row r="40" spans="1:12" ht="50.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="58">
+        <v>95</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F40" s="5">
+        <v>44882</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I40" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="K40" s="5">
+        <v>44887</v>
+      </c>
+      <c r="L40" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="58">
+        <v>96</v>
+      </c>
+      <c r="B41" s="9">
+        <v>92</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F41" s="5">
+        <v>44882</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I41" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="K41" s="5">
+        <v>44887</v>
+      </c>
+      <c r="L41" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="58">
+        <v>97</v>
+      </c>
+      <c r="B42" s="9">
+        <v>96</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F42" s="5">
+        <v>44882</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I42" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K42" s="5">
+        <v>44887</v>
+      </c>
+      <c r="L42" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="58">
+        <v>98</v>
+      </c>
+      <c r="B43" s="9">
+        <v>95</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F43" s="5">
+        <v>44882</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="K43" s="5">
+        <v>44887</v>
+      </c>
+      <c r="L43" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="50.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="58">
+        <v>99</v>
+      </c>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F44" s="5">
+        <v>44882</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I44" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="K44" s="5">
+        <v>44887</v>
+      </c>
+      <c r="L44" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="58">
+        <v>100</v>
+      </c>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F45" s="5">
+        <v>44882</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I45" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="K45" s="5">
+        <v>44887</v>
+      </c>
+      <c r="L45" s="9" t="s">
+        <v>156</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A3:C3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="C4 C6 C41:C1048576">
-    <cfRule type="containsText" dxfId="342" priority="900" operator="containsText" text="高">
+  <conditionalFormatting sqref="C4 C6 C46:C1048576">
+    <cfRule type="containsText" dxfId="345" priority="903" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:L4 A8 A10 A12 A14 L32 J19:J25 K10:L10 D10:H10 J11:L18 J6:L6 A6:D6 A3 D3:L3 A41:L1048576 E11 B10:B11 D12:E12 D13:F13 E14 D15:F15 A16:A32 E16:E20 E23:F23 E24">
-    <cfRule type="expression" dxfId="341" priority="898">
+  <conditionalFormatting sqref="A4:L4 A8 A10 A12 A14 L32 J19:J25 K10:L10 D10:H10 J11:L18 J6:L6 A6:D6 A3 D3:L3 A46:L1048576 E11 B10:B11 D12:E12 D13:F13 E14 D15:F15 A16:A32 E16:E20 E23:F23 E24">
+    <cfRule type="expression" dxfId="344" priority="901">
       <formula>$I3="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="340" priority="899">
+    <cfRule type="expression" dxfId="343" priority="902">
       <formula>$I3="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="containsText" dxfId="339" priority="413" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="342" priority="416" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:I5 I10 K5:L5 I36:I38">
-    <cfRule type="expression" dxfId="338" priority="411">
+  <conditionalFormatting sqref="C5:I5 I10 K5:L5">
+    <cfRule type="expression" dxfId="341" priority="414">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="337" priority="412">
+    <cfRule type="expression" dxfId="340" priority="415">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5 A7 A9 A11 A13 A15">
-    <cfRule type="expression" dxfId="336" priority="409">
+    <cfRule type="expression" dxfId="339" priority="412">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="335" priority="410">
+    <cfRule type="expression" dxfId="338" priority="413">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7 C9:C10 C13 C15">
-    <cfRule type="containsText" dxfId="334" priority="353" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="337" priority="356" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:F9 C10 J10 J7:L9 C7 D8:F8 C13 C15">
-    <cfRule type="expression" dxfId="333" priority="351">
+    <cfRule type="expression" dxfId="336" priority="354">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="332" priority="352">
+    <cfRule type="expression" dxfId="335" priority="355">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C38:C40">
-    <cfRule type="containsText" dxfId="331" priority="348" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A39:L40 B38:E38 J38 J26:J35 E33 A33:A40">
-    <cfRule type="expression" dxfId="330" priority="346">
+  <conditionalFormatting sqref="J26:J35 E33 A33:A35">
+    <cfRule type="expression" dxfId="333" priority="349">
       <formula>$I26="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="329" priority="347">
+    <cfRule type="expression" dxfId="332" priority="350">
       <formula>$I26="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27:C31">
-    <cfRule type="containsText" dxfId="328" priority="345" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="331" priority="348" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31 E31:F31 E25 D26:E26 C27:E30 H29">
-    <cfRule type="expression" dxfId="327" priority="343">
+    <cfRule type="expression" dxfId="330" priority="346">
       <formula>$I25="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="326" priority="344">
+    <cfRule type="expression" dxfId="329" priority="347">
       <formula>$I25="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="expression" dxfId="325" priority="341">
+    <cfRule type="expression" dxfId="328" priority="344">
       <formula>$I32="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="324" priority="342">
+    <cfRule type="expression" dxfId="327" priority="345">
       <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32">
-    <cfRule type="expression" dxfId="323" priority="337">
+    <cfRule type="expression" dxfId="326" priority="340">
       <formula>$I32="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="322" priority="338">
+    <cfRule type="expression" dxfId="325" priority="341">
       <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C36:C37">
-    <cfRule type="containsText" dxfId="321" priority="336" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B36:H36 B37:E37 J36:J37">
-    <cfRule type="expression" dxfId="320" priority="334">
-      <formula>$I36="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="319" priority="335">
-      <formula>$I36="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F37:H38">
-    <cfRule type="expression" dxfId="318" priority="332">
-      <formula>$I37="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="317" priority="333">
-      <formula>$I37="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K19:L31">
-    <cfRule type="expression" dxfId="316" priority="330">
+    <cfRule type="expression" dxfId="319" priority="333">
       <formula>$I19="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="315" priority="331">
+    <cfRule type="expression" dxfId="318" priority="334">
       <formula>$I19="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K33:L38">
-    <cfRule type="expression" dxfId="314" priority="328">
+  <conditionalFormatting sqref="K33:L35">
+    <cfRule type="expression" dxfId="317" priority="331">
       <formula>$I33="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="313" priority="329">
+    <cfRule type="expression" dxfId="316" priority="332">
       <formula>$I33="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="expression" dxfId="312" priority="326">
+    <cfRule type="expression" dxfId="315" priority="329">
       <formula>$I31="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="311" priority="327">
+    <cfRule type="expression" dxfId="314" priority="330">
       <formula>$I31="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="310" priority="324">
+    <cfRule type="expression" dxfId="313" priority="327">
       <formula>$I6="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="309" priority="325">
+    <cfRule type="expression" dxfId="312" priority="328">
       <formula>$I6="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="308" priority="322">
+    <cfRule type="expression" dxfId="311" priority="325">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="307" priority="323">
+    <cfRule type="expression" dxfId="310" priority="326">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="306" priority="310">
+    <cfRule type="expression" dxfId="309" priority="313">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="305" priority="311">
+    <cfRule type="expression" dxfId="308" priority="314">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="304" priority="314">
+    <cfRule type="expression" dxfId="307" priority="317">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="303" priority="315">
+    <cfRule type="expression" dxfId="306" priority="318">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:I6">
-    <cfRule type="expression" dxfId="302" priority="308">
+    <cfRule type="expression" dxfId="305" priority="311">
       <formula>$I6="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="301" priority="309">
+    <cfRule type="expression" dxfId="304" priority="312">
       <formula>$I6="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="expression" dxfId="300" priority="306">
+    <cfRule type="expression" dxfId="303" priority="309">
       <formula>$I6="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="299" priority="307">
+    <cfRule type="expression" dxfId="302" priority="310">
       <formula>$I6="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="expression" dxfId="298" priority="304">
+    <cfRule type="expression" dxfId="301" priority="307">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="297" priority="305">
+    <cfRule type="expression" dxfId="300" priority="308">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="expression" dxfId="296" priority="302">
+    <cfRule type="expression" dxfId="299" priority="305">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="295" priority="303">
+    <cfRule type="expression" dxfId="298" priority="306">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:I7">
-    <cfRule type="expression" dxfId="294" priority="300">
+    <cfRule type="expression" dxfId="297" priority="303">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="293" priority="301">
+    <cfRule type="expression" dxfId="296" priority="304">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
+    <cfRule type="expression" dxfId="295" priority="301">
+      <formula>$I8="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="294" priority="302">
+      <formula>$I8="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="containsText" dxfId="293" priority="300" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
     <cfRule type="expression" dxfId="292" priority="298">
       <formula>$I8="確認中"</formula>
     </cfRule>
@@ -36777,52 +37385,52 @@
       <formula>$I8="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="containsText" dxfId="290" priority="297" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="289" priority="295">
+  <conditionalFormatting sqref="G8:I8">
+    <cfRule type="expression" dxfId="290" priority="296">
       <formula>$I8="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="288" priority="296">
-      <formula>$I8="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8:I8">
-    <cfRule type="expression" dxfId="287" priority="293">
-      <formula>$I8="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="286" priority="294">
+    <cfRule type="expression" dxfId="289" priority="297">
       <formula>$I8="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="285" priority="291">
+    <cfRule type="expression" dxfId="288" priority="294">
       <formula>$I9="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="284" priority="292">
+    <cfRule type="expression" dxfId="287" priority="295">
       <formula>$I9="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:I9">
-    <cfRule type="expression" dxfId="283" priority="289">
+    <cfRule type="expression" dxfId="286" priority="292">
       <formula>$I9="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="282" priority="290">
+    <cfRule type="expression" dxfId="285" priority="293">
       <formula>$I9="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="expression" dxfId="281" priority="287">
+    <cfRule type="expression" dxfId="284" priority="290">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="280" priority="288">
+    <cfRule type="expression" dxfId="283" priority="291">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
+    <cfRule type="expression" dxfId="282" priority="288">
+      <formula>$I11="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="281" priority="289">
+      <formula>$I11="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
+    <cfRule type="containsText" dxfId="280" priority="287" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
     <cfRule type="expression" dxfId="279" priority="285">
       <formula>$I11="確認中"</formula>
     </cfRule>
@@ -36830,36 +37438,36 @@
       <formula>$I11="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
-    <cfRule type="containsText" dxfId="277" priority="284" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C11)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="276" priority="282">
+  <conditionalFormatting sqref="F11:H11">
+    <cfRule type="expression" dxfId="277" priority="283">
       <formula>$I11="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="275" priority="283">
-      <formula>$I11="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11:H11">
-    <cfRule type="expression" dxfId="274" priority="280">
-      <formula>$I11="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="273" priority="281">
+    <cfRule type="expression" dxfId="276" priority="284">
       <formula>$I11="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="expression" dxfId="272" priority="278">
+    <cfRule type="expression" dxfId="275" priority="281">
       <formula>$I11="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="271" priority="279">
+    <cfRule type="expression" dxfId="274" priority="282">
       <formula>$I11="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
+    <cfRule type="expression" dxfId="273" priority="279">
+      <formula>$I12="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="272" priority="280">
+      <formula>$I12="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="containsText" dxfId="271" priority="278" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
     <cfRule type="expression" dxfId="270" priority="276">
       <formula>$I12="確認中"</formula>
     </cfRule>
@@ -36867,60 +37475,60 @@
       <formula>$I12="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="containsText" dxfId="268" priority="275" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="267" priority="273">
+  <conditionalFormatting sqref="F12:H12">
+    <cfRule type="expression" dxfId="268" priority="274">
       <formula>$I12="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="266" priority="274">
-      <formula>$I12="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F12:H12">
-    <cfRule type="expression" dxfId="265" priority="271">
-      <formula>$I12="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="264" priority="272">
+    <cfRule type="expression" dxfId="267" priority="275">
       <formula>$I12="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="expression" dxfId="263" priority="269">
+    <cfRule type="expression" dxfId="266" priority="272">
       <formula>$I12="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="262" priority="270">
+    <cfRule type="expression" dxfId="265" priority="273">
       <formula>$I12="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="expression" dxfId="261" priority="267">
+    <cfRule type="expression" dxfId="264" priority="270">
       <formula>$I13="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="260" priority="268">
+    <cfRule type="expression" dxfId="263" priority="271">
       <formula>$I13="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13:H13">
-    <cfRule type="expression" dxfId="259" priority="265">
+    <cfRule type="expression" dxfId="262" priority="268">
       <formula>$I13="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="258" priority="266">
+    <cfRule type="expression" dxfId="261" priority="269">
       <formula>$I13="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="257" priority="263">
+    <cfRule type="expression" dxfId="260" priority="266">
       <formula>$I13="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="256" priority="264">
+    <cfRule type="expression" dxfId="259" priority="267">
       <formula>$I13="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
+    <cfRule type="expression" dxfId="258" priority="264">
+      <formula>$I14="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="257" priority="265">
+      <formula>$I14="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="containsText" dxfId="256" priority="263" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
     <cfRule type="expression" dxfId="255" priority="261">
       <formula>$I14="確認中"</formula>
     </cfRule>
@@ -36928,76 +37536,76 @@
       <formula>$I14="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="containsText" dxfId="253" priority="260" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C14)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="252" priority="258">
+  <conditionalFormatting sqref="B14">
+    <cfRule type="expression" dxfId="253" priority="259">
       <formula>$I14="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="251" priority="259">
-      <formula>$I14="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
-    <cfRule type="expression" dxfId="250" priority="256">
-      <formula>$I14="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="249" priority="257">
+    <cfRule type="expression" dxfId="252" priority="260">
       <formula>$I14="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="expression" dxfId="248" priority="254">
+    <cfRule type="expression" dxfId="251" priority="257">
       <formula>$I14="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="247" priority="255">
+    <cfRule type="expression" dxfId="250" priority="258">
       <formula>$I14="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14:H14">
-    <cfRule type="expression" dxfId="246" priority="252">
+    <cfRule type="expression" dxfId="249" priority="255">
       <formula>$I14="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="245" priority="253">
+    <cfRule type="expression" dxfId="248" priority="256">
       <formula>$I14="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="expression" dxfId="244" priority="250">
+    <cfRule type="expression" dxfId="247" priority="253">
       <formula>$I14="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="243" priority="251">
+    <cfRule type="expression" dxfId="246" priority="254">
       <formula>$I14="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="expression" dxfId="242" priority="248">
+    <cfRule type="expression" dxfId="245" priority="251">
       <formula>$I15="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="241" priority="249">
+    <cfRule type="expression" dxfId="244" priority="252">
       <formula>$I15="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:H15">
-    <cfRule type="expression" dxfId="240" priority="246">
+    <cfRule type="expression" dxfId="243" priority="249">
       <formula>$I15="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="239" priority="247">
+    <cfRule type="expression" dxfId="242" priority="250">
       <formula>$I15="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="expression" dxfId="238" priority="244">
+    <cfRule type="expression" dxfId="241" priority="247">
       <formula>$I15="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="237" priority="245">
+    <cfRule type="expression" dxfId="240" priority="248">
       <formula>$I15="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
+    <cfRule type="expression" dxfId="239" priority="245">
+      <formula>$I16="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="238" priority="246">
+      <formula>$I16="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="containsText" dxfId="237" priority="244" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
     <cfRule type="expression" dxfId="236" priority="242">
       <formula>$I16="確認中"</formula>
     </cfRule>
@@ -37005,52 +37613,52 @@
       <formula>$I16="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="containsText" dxfId="234" priority="241" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="233" priority="239">
+  <conditionalFormatting sqref="B16">
+    <cfRule type="expression" dxfId="234" priority="240">
       <formula>$I16="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="232" priority="240">
-      <formula>$I16="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16">
-    <cfRule type="expression" dxfId="231" priority="237">
-      <formula>$I16="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="230" priority="238">
+    <cfRule type="expression" dxfId="233" priority="241">
       <formula>$I16="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="expression" dxfId="229" priority="235">
+    <cfRule type="expression" dxfId="232" priority="238">
       <formula>$I16="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="228" priority="236">
+    <cfRule type="expression" dxfId="231" priority="239">
       <formula>$I16="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:H16">
-    <cfRule type="expression" dxfId="227" priority="233">
+    <cfRule type="expression" dxfId="230" priority="236">
       <formula>$I16="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="226" priority="234">
+    <cfRule type="expression" dxfId="229" priority="237">
       <formula>$I16="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="expression" dxfId="225" priority="231">
+    <cfRule type="expression" dxfId="228" priority="234">
       <formula>$I16="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="224" priority="232">
+    <cfRule type="expression" dxfId="227" priority="235">
       <formula>$I16="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
+    <cfRule type="expression" dxfId="226" priority="232">
+      <formula>$I17="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="225" priority="233">
+      <formula>$I17="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
+    <cfRule type="containsText" dxfId="224" priority="231" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
     <cfRule type="expression" dxfId="223" priority="229">
       <formula>$I17="確認中"</formula>
     </cfRule>
@@ -37058,44 +37666,44 @@
       <formula>$I17="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C17">
-    <cfRule type="containsText" dxfId="221" priority="228" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C17)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="220" priority="226">
+  <conditionalFormatting sqref="F17">
+    <cfRule type="expression" dxfId="221" priority="227">
       <formula>$I17="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="219" priority="227">
-      <formula>$I17="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F17">
-    <cfRule type="expression" dxfId="218" priority="224">
-      <formula>$I17="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="217" priority="225">
+    <cfRule type="expression" dxfId="220" priority="228">
       <formula>$I17="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17:H17">
-    <cfRule type="expression" dxfId="216" priority="222">
+    <cfRule type="expression" dxfId="219" priority="225">
       <formula>$I17="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="215" priority="223">
+    <cfRule type="expression" dxfId="218" priority="226">
       <formula>$I17="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17">
-    <cfRule type="expression" dxfId="214" priority="220">
+    <cfRule type="expression" dxfId="217" priority="223">
       <formula>$I17="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="213" priority="221">
+    <cfRule type="expression" dxfId="216" priority="224">
       <formula>$I17="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
+    <cfRule type="expression" dxfId="215" priority="221">
+      <formula>$I18="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="214" priority="222">
+      <formula>$I18="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
+    <cfRule type="containsText" dxfId="213" priority="220" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
     <cfRule type="expression" dxfId="212" priority="218">
       <formula>$I18="確認中"</formula>
     </cfRule>
@@ -37103,44 +37711,44 @@
       <formula>$I18="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
-    <cfRule type="containsText" dxfId="210" priority="217" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C18)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="209" priority="215">
+  <conditionalFormatting sqref="F18">
+    <cfRule type="expression" dxfId="210" priority="216">
       <formula>$I18="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="208" priority="216">
-      <formula>$I18="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
-    <cfRule type="expression" dxfId="207" priority="213">
-      <formula>$I18="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="206" priority="214">
+    <cfRule type="expression" dxfId="209" priority="217">
       <formula>$I18="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:H18">
-    <cfRule type="expression" dxfId="205" priority="211">
+    <cfRule type="expression" dxfId="208" priority="214">
       <formula>$I18="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="204" priority="212">
+    <cfRule type="expression" dxfId="207" priority="215">
       <formula>$I18="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18">
-    <cfRule type="expression" dxfId="203" priority="209">
+    <cfRule type="expression" dxfId="206" priority="212">
       <formula>$I18="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="202" priority="210">
+    <cfRule type="expression" dxfId="205" priority="213">
       <formula>$I18="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
+    <cfRule type="expression" dxfId="204" priority="210">
+      <formula>$I19="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="203" priority="211">
+      <formula>$I19="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="containsText" dxfId="202" priority="209" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
     <cfRule type="expression" dxfId="201" priority="207">
       <formula>$I19="確認中"</formula>
     </cfRule>
@@ -37148,44 +37756,44 @@
       <formula>$I19="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="containsText" dxfId="199" priority="206" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C19)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="198" priority="204">
+  <conditionalFormatting sqref="F19">
+    <cfRule type="expression" dxfId="199" priority="205">
       <formula>$I19="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="197" priority="205">
-      <formula>$I19="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F19">
-    <cfRule type="expression" dxfId="196" priority="202">
-      <formula>$I19="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="195" priority="203">
+    <cfRule type="expression" dxfId="198" priority="206">
       <formula>$I19="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19:H19">
-    <cfRule type="expression" dxfId="194" priority="200">
+    <cfRule type="expression" dxfId="197" priority="203">
       <formula>$I19="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="193" priority="201">
+    <cfRule type="expression" dxfId="196" priority="204">
       <formula>$I19="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19">
-    <cfRule type="expression" dxfId="192" priority="198">
+    <cfRule type="expression" dxfId="195" priority="201">
       <formula>$I19="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="191" priority="199">
+    <cfRule type="expression" dxfId="194" priority="202">
       <formula>$I19="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
+    <cfRule type="expression" dxfId="193" priority="199">
+      <formula>$I20="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="192" priority="200">
+      <formula>$I20="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="containsText" dxfId="191" priority="198" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
     <cfRule type="expression" dxfId="190" priority="196">
       <formula>$I20="確認中"</formula>
     </cfRule>
@@ -37193,44 +37801,44 @@
       <formula>$I20="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="containsText" dxfId="188" priority="195" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="187" priority="193">
+  <conditionalFormatting sqref="F20">
+    <cfRule type="expression" dxfId="188" priority="194">
       <formula>$I20="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="186" priority="194">
-      <formula>$I20="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="expression" dxfId="185" priority="191">
-      <formula>$I20="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="184" priority="192">
+    <cfRule type="expression" dxfId="187" priority="195">
       <formula>$I20="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20:H20">
-    <cfRule type="expression" dxfId="183" priority="189">
+    <cfRule type="expression" dxfId="186" priority="192">
       <formula>$I20="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="182" priority="190">
+    <cfRule type="expression" dxfId="185" priority="193">
       <formula>$I20="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="expression" dxfId="181" priority="187">
+    <cfRule type="expression" dxfId="184" priority="190">
       <formula>$I20="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="180" priority="188">
+    <cfRule type="expression" dxfId="183" priority="191">
       <formula>$I20="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
+    <cfRule type="expression" dxfId="182" priority="188">
+      <formula>$I22="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="181" priority="189">
+      <formula>$I22="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22">
+    <cfRule type="containsText" dxfId="180" priority="187" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22">
     <cfRule type="expression" dxfId="179" priority="185">
       <formula>$I22="確認中"</formula>
     </cfRule>
@@ -37238,28 +37846,28 @@
       <formula>$I22="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
-    <cfRule type="containsText" dxfId="177" priority="184" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C22)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
-    <cfRule type="expression" dxfId="176" priority="182">
-      <formula>$I22="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="175" priority="183">
-      <formula>$I22="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="expression" dxfId="174" priority="174">
+    <cfRule type="expression" dxfId="177" priority="177">
       <formula>$I21="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="173" priority="175">
+    <cfRule type="expression" dxfId="176" priority="178">
       <formula>$I21="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
+    <cfRule type="expression" dxfId="175" priority="175">
+      <formula>$I21="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="174" priority="176">
+      <formula>$I21="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="containsText" dxfId="173" priority="174" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
     <cfRule type="expression" dxfId="172" priority="172">
       <formula>$I21="確認中"</formula>
     </cfRule>
@@ -37267,100 +37875,100 @@
       <formula>$I21="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="containsText" dxfId="170" priority="171" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C21)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="169" priority="169">
+  <conditionalFormatting sqref="F21">
+    <cfRule type="expression" dxfId="170" priority="170">
       <formula>$I21="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="170">
-      <formula>$I21="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
-    <cfRule type="expression" dxfId="167" priority="167">
-      <formula>$I21="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="166" priority="168">
+    <cfRule type="expression" dxfId="169" priority="171">
       <formula>$I21="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21:H21">
-    <cfRule type="expression" dxfId="165" priority="165">
+    <cfRule type="expression" dxfId="168" priority="168">
       <formula>$I21="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="164" priority="166">
+    <cfRule type="expression" dxfId="167" priority="169">
       <formula>$I21="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21">
-    <cfRule type="expression" dxfId="163" priority="163">
+    <cfRule type="expression" dxfId="166" priority="166">
       <formula>$I21="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="164">
+    <cfRule type="expression" dxfId="165" priority="167">
       <formula>$I21="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="expression" dxfId="161" priority="161">
+    <cfRule type="expression" dxfId="164" priority="164">
       <formula>$I22="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="162">
+    <cfRule type="expression" dxfId="163" priority="165">
       <formula>$I22="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22:H22">
-    <cfRule type="expression" dxfId="159" priority="159">
+    <cfRule type="expression" dxfId="162" priority="162">
       <formula>$I22="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="158" priority="160">
+    <cfRule type="expression" dxfId="161" priority="163">
       <formula>$I22="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22">
-    <cfRule type="expression" dxfId="157" priority="157">
+    <cfRule type="expression" dxfId="160" priority="160">
       <formula>$I22="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="158">
+    <cfRule type="expression" dxfId="159" priority="161">
       <formula>$I22="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="expression" dxfId="155" priority="155">
+    <cfRule type="expression" dxfId="158" priority="158">
       <formula>$I22="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="156">
+    <cfRule type="expression" dxfId="157" priority="159">
       <formula>$I22="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B22">
-    <cfRule type="expression" dxfId="153" priority="153">
+    <cfRule type="expression" dxfId="156" priority="156">
       <formula>$I17="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="152" priority="154">
+    <cfRule type="expression" dxfId="155" priority="157">
       <formula>$I17="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23:H23">
-    <cfRule type="expression" dxfId="151" priority="151">
+    <cfRule type="expression" dxfId="154" priority="154">
       <formula>$I23="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="152">
+    <cfRule type="expression" dxfId="153" priority="155">
       <formula>$I23="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="expression" dxfId="149" priority="149">
+    <cfRule type="expression" dxfId="152" priority="152">
       <formula>$I23="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="150">
+    <cfRule type="expression" dxfId="151" priority="153">
       <formula>$I23="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
+    <cfRule type="expression" dxfId="150" priority="150">
+      <formula>$I23="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="149" priority="151">
+      <formula>$I23="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="containsText" dxfId="148" priority="149" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
     <cfRule type="expression" dxfId="147" priority="147">
       <formula>$I23="確認中"</formula>
     </cfRule>
@@ -37368,28 +37976,28 @@
       <formula>$I23="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
-    <cfRule type="containsText" dxfId="145" priority="146" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C23)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="144" priority="144">
+  <conditionalFormatting sqref="B23">
+    <cfRule type="expression" dxfId="145" priority="145">
       <formula>$I23="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="143" priority="145">
-      <formula>$I23="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23">
-    <cfRule type="expression" dxfId="142" priority="142">
-      <formula>$I23="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="141" priority="143">
+    <cfRule type="expression" dxfId="144" priority="146">
       <formula>$I23="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
+    <cfRule type="expression" dxfId="143" priority="143">
+      <formula>$I24="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="142" priority="144">
+      <formula>$I24="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
+    <cfRule type="containsText" dxfId="141" priority="142" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
     <cfRule type="expression" dxfId="140" priority="140">
       <formula>$I24="確認中"</formula>
     </cfRule>
@@ -37397,52 +38005,52 @@
       <formula>$I24="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
-    <cfRule type="containsText" dxfId="138" priority="139" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C24)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="137" priority="137">
+  <conditionalFormatting sqref="B24">
+    <cfRule type="expression" dxfId="138" priority="138">
       <formula>$I24="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="138">
-      <formula>$I24="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B24">
-    <cfRule type="expression" dxfId="135" priority="135">
-      <formula>$I24="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="134" priority="136">
+    <cfRule type="expression" dxfId="137" priority="139">
       <formula>$I24="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="expression" dxfId="133" priority="133">
+    <cfRule type="expression" dxfId="136" priority="136">
       <formula>$I24="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="134">
+    <cfRule type="expression" dxfId="135" priority="137">
       <formula>$I24="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24:H24">
-    <cfRule type="expression" dxfId="131" priority="131">
+    <cfRule type="expression" dxfId="134" priority="134">
       <formula>$I24="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="132">
+    <cfRule type="expression" dxfId="133" priority="135">
       <formula>$I24="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24">
-    <cfRule type="expression" dxfId="129" priority="129">
+    <cfRule type="expression" dxfId="132" priority="132">
       <formula>$I24="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="130">
+    <cfRule type="expression" dxfId="131" priority="133">
       <formula>$I24="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
+    <cfRule type="expression" dxfId="130" priority="130">
+      <formula>$I25="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="129" priority="131">
+      <formula>$I25="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="containsText" dxfId="128" priority="129" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
     <cfRule type="expression" dxfId="127" priority="127">
       <formula>$I25="確認中"</formula>
     </cfRule>
@@ -37450,257 +38058,257 @@
       <formula>$I25="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
-    <cfRule type="containsText" dxfId="125" priority="126" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C25)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="124" priority="124">
+  <conditionalFormatting sqref="B25">
+    <cfRule type="expression" dxfId="125" priority="125">
       <formula>$I25="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="125">
-      <formula>$I25="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B25">
-    <cfRule type="expression" dxfId="122" priority="122">
-      <formula>$I25="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="121" priority="123">
+    <cfRule type="expression" dxfId="124" priority="126">
       <formula>$I25="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="expression" dxfId="120" priority="120">
+    <cfRule type="expression" dxfId="123" priority="123">
       <formula>$I25="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="119" priority="121">
+    <cfRule type="expression" dxfId="122" priority="124">
       <formula>$I25="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25:H25">
-    <cfRule type="expression" dxfId="118" priority="118">
+    <cfRule type="expression" dxfId="121" priority="121">
       <formula>$I25="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="119">
+    <cfRule type="expression" dxfId="120" priority="122">
       <formula>$I25="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25">
-    <cfRule type="expression" dxfId="116" priority="116">
+    <cfRule type="expression" dxfId="119" priority="119">
       <formula>$I25="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="117">
+    <cfRule type="expression" dxfId="118" priority="120">
       <formula>$I25="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="containsText" dxfId="114" priority="115" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="117" priority="118" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="expression" dxfId="113" priority="113">
+    <cfRule type="expression" dxfId="116" priority="116">
       <formula>$I26="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="114">
+    <cfRule type="expression" dxfId="115" priority="117">
       <formula>$I26="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="expression" dxfId="111" priority="111">
+    <cfRule type="expression" dxfId="114" priority="114">
       <formula>$I26="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="112">
+    <cfRule type="expression" dxfId="113" priority="115">
       <formula>$I26="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="expression" dxfId="109" priority="109">
+    <cfRule type="expression" dxfId="112" priority="112">
       <formula>$I26="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="110">
+    <cfRule type="expression" dxfId="111" priority="113">
       <formula>$I26="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26:H26">
-    <cfRule type="expression" dxfId="107" priority="107">
+    <cfRule type="expression" dxfId="110" priority="110">
       <formula>$I26="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="108">
+    <cfRule type="expression" dxfId="109" priority="111">
       <formula>$I26="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26">
-    <cfRule type="expression" dxfId="105" priority="105">
+    <cfRule type="expression" dxfId="108" priority="108">
       <formula>$I26="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="106">
+    <cfRule type="expression" dxfId="107" priority="109">
       <formula>$I26="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="expression" dxfId="103" priority="103">
+    <cfRule type="expression" dxfId="106" priority="106">
       <formula>$I27="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="104">
+    <cfRule type="expression" dxfId="105" priority="107">
       <formula>$I27="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:H27">
-    <cfRule type="expression" dxfId="101" priority="101">
+    <cfRule type="expression" dxfId="104" priority="104">
       <formula>$I27="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="102">
+    <cfRule type="expression" dxfId="103" priority="105">
       <formula>$I27="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27">
-    <cfRule type="expression" dxfId="99" priority="99">
+    <cfRule type="expression" dxfId="102" priority="102">
       <formula>$I27="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="100">
+    <cfRule type="expression" dxfId="101" priority="103">
       <formula>$I27="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27:B28">
-    <cfRule type="expression" dxfId="97" priority="97">
+    <cfRule type="expression" dxfId="100" priority="100">
       <formula>$I27="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="98">
+    <cfRule type="expression" dxfId="99" priority="101">
       <formula>$I27="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="expression" dxfId="95" priority="95">
+    <cfRule type="expression" dxfId="98" priority="98">
       <formula>$I28="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="96">
+    <cfRule type="expression" dxfId="97" priority="99">
       <formula>$I28="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:H28">
-    <cfRule type="expression" dxfId="93" priority="93">
+    <cfRule type="expression" dxfId="96" priority="96">
       <formula>$I28="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="94">
+    <cfRule type="expression" dxfId="95" priority="97">
       <formula>$I28="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28">
-    <cfRule type="expression" dxfId="91" priority="91">
+    <cfRule type="expression" dxfId="94" priority="94">
       <formula>$I28="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="92">
+    <cfRule type="expression" dxfId="93" priority="95">
       <formula>$I28="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="expression" dxfId="89" priority="89">
+    <cfRule type="expression" dxfId="92" priority="92">
       <formula>$I29="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="90">
+    <cfRule type="expression" dxfId="91" priority="93">
       <formula>$I29="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="expression" dxfId="87" priority="87">
+    <cfRule type="expression" dxfId="90" priority="90">
       <formula>$I29="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="88">
+    <cfRule type="expression" dxfId="89" priority="91">
       <formula>$I29="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="expression" dxfId="85" priority="85">
+    <cfRule type="expression" dxfId="88" priority="88">
       <formula>$I29="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="86">
+    <cfRule type="expression" dxfId="87" priority="89">
       <formula>$I29="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29">
-    <cfRule type="expression" dxfId="83" priority="83">
+    <cfRule type="expression" dxfId="86" priority="86">
       <formula>$I29="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="84">
+    <cfRule type="expression" dxfId="85" priority="87">
       <formula>$I29="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="expression" dxfId="81" priority="81">
+    <cfRule type="expression" dxfId="84" priority="84">
       <formula>$I30="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="82">
+    <cfRule type="expression" dxfId="83" priority="85">
       <formula>$I30="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="expression" dxfId="79" priority="79">
+    <cfRule type="expression" dxfId="82" priority="82">
       <formula>$I30="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="80">
+    <cfRule type="expression" dxfId="81" priority="83">
       <formula>$I30="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="expression" dxfId="77" priority="77">
+    <cfRule type="expression" dxfId="80" priority="80">
       <formula>$I30="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="78">
+    <cfRule type="expression" dxfId="79" priority="81">
       <formula>$I30="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30">
-    <cfRule type="expression" dxfId="75" priority="75">
+    <cfRule type="expression" dxfId="78" priority="78">
       <formula>$I30="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="76">
+    <cfRule type="expression" dxfId="77" priority="79">
       <formula>$I30="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="expression" dxfId="73" priority="73">
+    <cfRule type="expression" dxfId="76" priority="76">
       <formula>$I30="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="74">
+    <cfRule type="expression" dxfId="75" priority="77">
       <formula>$I30="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="expression" dxfId="71" priority="71">
+    <cfRule type="expression" dxfId="74" priority="74">
       <formula>$I31="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="72">
+    <cfRule type="expression" dxfId="73" priority="75">
       <formula>$I31="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="expression" dxfId="69" priority="69">
+    <cfRule type="expression" dxfId="72" priority="72">
       <formula>$I31="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="70">
+    <cfRule type="expression" dxfId="71" priority="73">
       <formula>$I31="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="expression" dxfId="67" priority="67">
+    <cfRule type="expression" dxfId="70" priority="70">
       <formula>$I31="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="68">
+    <cfRule type="expression" dxfId="69" priority="71">
       <formula>$I31="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31">
-    <cfRule type="expression" dxfId="65" priority="65">
+    <cfRule type="expression" dxfId="68" priority="68">
       <formula>$I31="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="66">
+    <cfRule type="expression" dxfId="67" priority="69">
       <formula>$I31="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
+    <cfRule type="expression" dxfId="66" priority="66">
+      <formula>$I32="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="65" priority="67">
+      <formula>$I32="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="containsText" dxfId="64" priority="65" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
     <cfRule type="expression" dxfId="63" priority="63">
       <formula>$I32="確認中"</formula>
     </cfRule>
@@ -37708,92 +38316,92 @@
       <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
-    <cfRule type="containsText" dxfId="61" priority="62" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
-    <cfRule type="expression" dxfId="60" priority="60">
+  <conditionalFormatting sqref="B32">
+    <cfRule type="expression" dxfId="61" priority="61">
       <formula>$I32="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="61">
-      <formula>$I32="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B32">
-    <cfRule type="expression" dxfId="58" priority="58">
-      <formula>$I32="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="57" priority="59">
+    <cfRule type="expression" dxfId="60" priority="62">
       <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="expression" dxfId="56" priority="56">
+    <cfRule type="expression" dxfId="59" priority="59">
       <formula>$I32="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="57">
+    <cfRule type="expression" dxfId="58" priority="60">
       <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="expression" dxfId="54" priority="54">
+    <cfRule type="expression" dxfId="57" priority="57">
       <formula>$I32="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="55">
+    <cfRule type="expression" dxfId="56" priority="58">
       <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="expression" dxfId="52" priority="52">
+    <cfRule type="expression" dxfId="55" priority="55">
       <formula>$I32="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="53">
+    <cfRule type="expression" dxfId="54" priority="56">
       <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32">
-    <cfRule type="expression" dxfId="50" priority="50">
+    <cfRule type="expression" dxfId="53" priority="53">
       <formula>$I32="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="51">
+    <cfRule type="expression" dxfId="52" priority="54">
       <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="expression" dxfId="48" priority="48">
+    <cfRule type="expression" dxfId="51" priority="51">
       <formula>$I33="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="49">
+    <cfRule type="expression" dxfId="50" priority="52">
       <formula>$I33="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33">
-    <cfRule type="expression" dxfId="46" priority="46">
+    <cfRule type="expression" dxfId="49" priority="49">
       <formula>$I33="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="47">
+    <cfRule type="expression" dxfId="48" priority="50">
       <formula>$I33="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="expression" dxfId="44" priority="44">
+    <cfRule type="expression" dxfId="47" priority="47">
       <formula>$I33="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="45">
+    <cfRule type="expression" dxfId="46" priority="48">
       <formula>$I33="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33">
-    <cfRule type="expression" dxfId="42" priority="42">
+    <cfRule type="expression" dxfId="45" priority="45">
       <formula>$I33="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="43">
+    <cfRule type="expression" dxfId="44" priority="46">
       <formula>$I33="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
+    <cfRule type="expression" dxfId="43" priority="43">
+      <formula>$I33="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="44">
+      <formula>$I33="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
+    <cfRule type="containsText" dxfId="41" priority="42" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C33)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
     <cfRule type="expression" dxfId="40" priority="40">
       <formula>$I33="確認中"</formula>
     </cfRule>
@@ -37801,68 +38409,68 @@
       <formula>$I33="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C33">
-    <cfRule type="containsText" dxfId="38" priority="39" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C33)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="37" priority="37">
+  <conditionalFormatting sqref="B33">
+    <cfRule type="expression" dxfId="38" priority="38">
       <formula>$I33="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="38">
-      <formula>$I33="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B33">
-    <cfRule type="expression" dxfId="35" priority="35">
-      <formula>$I33="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="36">
+    <cfRule type="expression" dxfId="37" priority="39">
       <formula>$I33="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="expression" dxfId="33" priority="33">
+    <cfRule type="expression" dxfId="36" priority="36">
       <formula>$I34="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="34">
+    <cfRule type="expression" dxfId="35" priority="37">
       <formula>$I34="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="expression" dxfId="31" priority="31">
+    <cfRule type="expression" dxfId="34" priority="34">
       <formula>$I34="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="32">
+    <cfRule type="expression" dxfId="33" priority="35">
       <formula>$I34="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="expression" dxfId="29" priority="29">
+    <cfRule type="expression" dxfId="32" priority="32">
       <formula>$I34="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="30">
+    <cfRule type="expression" dxfId="31" priority="33">
       <formula>$I34="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="expression" dxfId="27" priority="27">
+    <cfRule type="expression" dxfId="30" priority="30">
       <formula>$I34="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="28">
+    <cfRule type="expression" dxfId="29" priority="31">
       <formula>$I34="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34">
-    <cfRule type="expression" dxfId="25" priority="25">
+    <cfRule type="expression" dxfId="28" priority="28">
       <formula>$I34="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="26">
+    <cfRule type="expression" dxfId="27" priority="29">
       <formula>$I34="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
+    <cfRule type="expression" dxfId="26" priority="26">
+      <formula>$I34="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="27">
+      <formula>$I34="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34">
+    <cfRule type="containsText" dxfId="24" priority="25" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34">
     <cfRule type="expression" dxfId="23" priority="23">
       <formula>$I34="確認中"</formula>
     </cfRule>
@@ -37870,60 +38478,60 @@
       <formula>$I34="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
-    <cfRule type="containsText" dxfId="21" priority="22" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
-    <cfRule type="expression" dxfId="20" priority="20">
+  <conditionalFormatting sqref="B34">
+    <cfRule type="expression" dxfId="21" priority="21">
       <formula>$I34="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="21">
-      <formula>$I34="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B34">
-    <cfRule type="expression" dxfId="18" priority="18">
-      <formula>$I34="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="17" priority="19">
+    <cfRule type="expression" dxfId="20" priority="22">
       <formula>$I34="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="expression" dxfId="16" priority="16">
+    <cfRule type="expression" dxfId="19" priority="19">
       <formula>$I35="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="17">
+    <cfRule type="expression" dxfId="18" priority="20">
       <formula>$I35="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="expression" dxfId="14" priority="14">
+    <cfRule type="expression" dxfId="17" priority="17">
       <formula>$I35="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="15">
+    <cfRule type="expression" dxfId="16" priority="18">
       <formula>$I35="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="expression" dxfId="12" priority="12">
+    <cfRule type="expression" dxfId="15" priority="15">
       <formula>$I35="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="13">
+    <cfRule type="expression" dxfId="14" priority="16">
       <formula>$I35="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35">
-    <cfRule type="expression" dxfId="10" priority="10">
+    <cfRule type="expression" dxfId="13" priority="13">
       <formula>$I35="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="11">
+    <cfRule type="expression" dxfId="12" priority="14">
       <formula>$I35="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
+    <cfRule type="expression" dxfId="11" priority="11">
+      <formula>$I35="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="12">
+      <formula>$I35="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35">
+    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35">
     <cfRule type="expression" dxfId="8" priority="8">
       <formula>$I35="確認中"</formula>
     </cfRule>
@@ -37931,43 +38539,43 @@
       <formula>$I35="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C35">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="高">
-      <formula>NOT(ISERROR(SEARCH("高",C35)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C35">
-    <cfRule type="expression" dxfId="5" priority="5">
+  <conditionalFormatting sqref="B35">
+    <cfRule type="expression" dxfId="6" priority="6">
       <formula>$I35="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
-      <formula>$I35="済み"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B35">
-    <cfRule type="expression" dxfId="3" priority="3">
-      <formula>$I35="確認中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>$I35="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>$I35="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>$I35="済み"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C36:C45">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36:L45">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$I36="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>$I36="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C45">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I45">
       <formula1>"起票,対応中,確認中,済み"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H45">
       <formula1>"質疑,課題,不具合,要望"</formula1>
     </dataValidation>
   </dataValidations>
@@ -38680,6 +39288,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="W23:Y23"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:N23"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="R23:V23"/>
     <mergeCell ref="AF1:AJ1"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:M1"/>
@@ -38687,12 +39301,6 @@
     <mergeCell ref="S1:U1"/>
     <mergeCell ref="V1:Z1"/>
     <mergeCell ref="AA1:AE1"/>
-    <mergeCell ref="W23:Y23"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:N23"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="R23:V23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/質疑表/TOYOTIRE_質疑表 _平.xlsx
+++ b/質疑表/TOYOTIRE_質疑表 _平.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="150">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -2095,299 +2095,199 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>11/16打合せAuto CADモデル空間レイアウト案に関して</t>
-  </si>
-  <si>
-    <t>TOYO島津</t>
-  </si>
-  <si>
-    <t>モデル空間レイアウト案の図面左側PIC枠(文字BLOCK)の枠サイズは、ギリギリまで小さくして全体表示時の見やすさを改善したい。</t>
-  </si>
-  <si>
-    <t>PIC番号は、バルーン番号と同じPIC番号にし、PIC内の図の有無を確認することで、円弧配置したかどうかのチェックができるようにしたい。</t>
-  </si>
-  <si>
-    <t>円弧配置した後、PIC番号の文字の色が変わる、もしくは、文字の色が変わる等、円弧配置したかどうかをチェックできるようにできないか？</t>
-  </si>
-  <si>
-    <t>93,94</t>
-  </si>
-  <si>
-    <t>PIC番号は、バルーン番号と同じPIC番号にし、PIC内の図の有無を確認することで、円弧配置したかどうかのチェックができるようにできないか？</t>
-  </si>
-  <si>
-    <t>11/16打合せ時、「PIC枠のサイズは、後から変更できる。」とのSC様のコメントがありました。
-例えば、数種類のPIC枠の内、1種類のPIC枠の高さや幅の寸法を変更すると、一括で同じ寸法の関連するPIC枠の寸法が一括で変わってしまいますでしょうか？</t>
-  </si>
-  <si>
-    <t>PIC番号を、バルーン番号と同じPIC番号にした場合、読み込む必要のないPICは空PICになります。空PICが多く配置されると、図面全体視した際、一つ一つのPICが小さくなり見にくくなるため、空PICができた場合は、空PICを非表示にして詰めることで全体表示時の見やすさを改善する事はできるでしょうか？</t>
-  </si>
-  <si>
-    <t>PICの枠外に描いた図を、レイアウト表示（図枠表示）する事はできるでしょうか？</t>
-  </si>
-  <si>
-    <t>トラック・バス用の円弧配列図面(AT-B図面)では、PIC.2やPIC.3サイズが最大で1685×1200[mm]のものがあります。特定のPICだけ大きくしたり、トラック・バス用図面だけPIC.サイズの構成を変更することは可能でしょうか？</t>
-  </si>
-  <si>
-    <t>PIC枠の表示と非表示を切り替える事は可能か？
-（PIC枠 非表示の際は、文字のBLOCKを詰めて表示し、見やすくしできますか？）</t>
+    <t>SC平</t>
+    <rPh sb="2" eb="3">
+      <t>タイラ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・PIC枠の表示と非表示を切り替える事は可能か？
-  設定ファイルに定義追加することで可能です。
-・（PIC枠 非表示の際は、文字のBLOCKを詰めて表示し、見やすくしできますか？）
-  可能です。</t>
-    <rPh sb="27" eb="29">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>テイギ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="94" eb="96">
-      <t>カノウ</t>
-    </rPh>
+    <t>課題</t>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PIC枠のサイズは、設定ファイルに設定した値を変更することになりますが、枠に収まらなかった場合は、設定を変えてAutoCADの再起動となります。</t>
-    <rPh sb="3" eb="4">
-      <t>ワク</t>
-    </rPh>
-    <rPh sb="17" eb="19">
+    <t>刻印文字、編集文字に設定するXdataの設定内容の調査・検討が必要。</t>
+    <rPh sb="0" eb="2">
+      <t>コクイン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>ヘンシュウモジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
       <t>セッテイ</t>
     </rPh>
-    <rPh sb="21" eb="22">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>ワク</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>オサ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
+    <rPh sb="20" eb="22">
       <t>セッテイ</t>
     </rPh>
-    <rPh sb="52" eb="53">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="63" eb="66">
-      <t>サイキドウ</t>
+    <rPh sb="22" eb="24">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ケントウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒツヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>可能ですが、全てのバルーン番号をご提示頂く必要があります。</t>
-    <rPh sb="0" eb="2">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>テイジ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>イタダ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ヒツヨウ</t>
-    </rPh>
+    <t>①_円弧配列_カスタム仕様書_REV07.docx</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>SC平</t>
-    <rPh sb="2" eb="3">
-      <t>タイラ</t>
+    <t>35ページに記載されている「替え駒」、「刻印文字」、「編集文字」に対する要望の確認・調査・検討が必要。</t>
+    <rPh sb="6" eb="8">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>コマ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コクイン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヨウボウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ケントウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ヒツヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>可能です。</t>
+    <t>現状のVBソースを「Visual Studio2019」でビルドを通しておく必要がある。（VSのバージョン違いで発生するエラーの除去が目的）</t>
     <rPh sb="0" eb="2">
-      <t>カノウ</t>
+      <t>ゲンジョウ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ジョキョ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>モクテキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>No.93と重複。</t>
+    <t>設計段階で、現状の設定ファイルの内容についての過不足確認を行い、設定ファイルの統合も視野に入れての検討が必要。</t>
+    <rPh sb="0" eb="2">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ダンカイ</t>
+    </rPh>
     <rPh sb="6" eb="8">
-      <t>ジュウフク</t>
+      <t>ゲンジョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>カフソク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>トウゴウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>シヤ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ケントウ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ヒツヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PIC枠のサイズは、設定ファイルに設定する方向で検討していますので、後から変更可能とは、同ファイルの設定値の変更を指しています。
-従いまして、手作業で枠のサイズを変更しても、他のPIC枠に影響はありません。</t>
-    <rPh sb="3" eb="4">
-      <t>ワク</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ホウコウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ケントウ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>アト</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>ドウ</t>
-    </rPh>
-    <rPh sb="50" eb="53">
-      <t>セッテイチ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="57" eb="58">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="65" eb="66">
-      <t>シタガ</t>
-    </rPh>
-    <rPh sb="71" eb="74">
-      <t>テサギョウ</t>
-    </rPh>
-    <rPh sb="75" eb="76">
-      <t>ワク</t>
-    </rPh>
-    <rPh sb="81" eb="83">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="87" eb="88">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="92" eb="93">
-      <t>ワク</t>
-    </rPh>
-    <rPh sb="94" eb="96">
-      <t>エイキョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>11/16打合せ時、「PIC枠のサイズは、後から変更できる。」とのSC様のコメントがありました。
-例えば、PIC枠のコーナー端部を選択し、ドラックでPIC枠のサイズを変更することは可能でしょうか？
-その場合、数種類のPIC枠の内、1種類のPIC枠の高さや幅の寸法を変更すると、一括で同じ寸法の関連するPIC枠の寸法が一括で変わってしまいますでしょうか？</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・PIC枠のコーナー端部を選択し、ドラックでPIC枠のサイズを変更することは可能でしょうか？
-  対応しておりませんが、AutoCADの尺度変更でサイズの変更は可能です。
-・一括で同じ寸法の関連するPIC枠の寸法が一括で変わってしまいますでしょうか？
-  No.96で回答しております。</t>
-    <rPh sb="49" eb="51">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>シャクド</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="77" eb="79">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="80" eb="82">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="134" eb="136">
-      <t>カイトウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>空PICを非表示にするのであれば、空PICは初めから表示しないということで宜しいかと思います。（読み込んだ分のPICのみ表示）</t>
-    <rPh sb="0" eb="1">
-      <t>カラ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>ヒヒョウジ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>カラ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ハジ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>ヨロ</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>オモ</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ビューポートから図の拡大／縮小／移動が可能です。</t>
-    <rPh sb="8" eb="9">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>カクダイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>シュクショウ</t>
+    <t>効率的な開発を行うため、開発する機能の詳細な開発順を決めておく必要がある。</t>
+    <rPh sb="0" eb="3">
+      <t>コウリツテキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カイハツ</t>
     </rPh>
     <rPh sb="16" eb="18">
-      <t>イドウ</t>
+      <t>キノウ</t>
     </rPh>
     <rPh sb="19" eb="21">
-      <t>カノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タイヤのサイズに応じたテンプレートを準備すれば可能です。</t>
-    <rPh sb="8" eb="9">
-      <t>オウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ジュンビ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>カノウ</t>
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒツヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2898,6 +2798,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2925,14 +2828,356 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="346">
+  <dxfs count="385">
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="1"/>
+          <bgColor theme="7" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -5414,46 +5659,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="1"/>
-          <bgColor theme="7" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <fgColor theme="1"/>
@@ -5490,16 +5695,6 @@
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -35717,10 +35912,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A3:L45"/>
+  <dimension ref="A3:L44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37:L45"/>
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -35740,11 +35935,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
@@ -36809,374 +37004,244 @@
       <c r="K35" s="5"/>
       <c r="L35" s="9"/>
     </row>
-    <row r="36" spans="1:12" ht="88.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="58">
-        <v>91</v>
-      </c>
-      <c r="B36" s="9"/>
+    <row r="36" spans="1:12" ht="50.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="49">
+        <v>32</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>19</v>
+      </c>
       <c r="C36" s="9" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F36" s="5">
-        <v>44882</v>
+        <v>44894</v>
       </c>
       <c r="G36" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H36" s="9" t="s">
         <v>142</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>10</v>
       </c>
       <c r="I36" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="J36" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="K36" s="5">
-        <v>44887</v>
-      </c>
+      <c r="J36" s="3"/>
+      <c r="K36" s="5"/>
       <c r="L36" s="9" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="50.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="58">
-        <v>92</v>
-      </c>
-      <c r="B37" s="9"/>
+      <c r="A37" s="49">
+        <v>33</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>19</v>
+      </c>
       <c r="C37" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F37" s="5">
-        <v>44882</v>
+        <v>44894</v>
       </c>
       <c r="G37" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H37" s="9" t="s">
         <v>142</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>93</v>
       </c>
       <c r="I37" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="J37" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="K37" s="5">
-        <v>44887</v>
-      </c>
+      <c r="J37" s="3"/>
+      <c r="K37" s="5"/>
       <c r="L37" s="9" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="50.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="58">
-        <v>93</v>
-      </c>
-      <c r="B38" s="9"/>
+      <c r="A38" s="49">
+        <v>34</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>19</v>
+      </c>
       <c r="C38" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F38" s="5">
-        <v>44882</v>
+        <v>44894</v>
       </c>
       <c r="G38" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H38" s="9" t="s">
         <v>142</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>93</v>
       </c>
       <c r="I38" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="J38" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="K38" s="5">
-        <v>44887</v>
-      </c>
-      <c r="L38" s="9" t="s">
-        <v>156</v>
-      </c>
+      <c r="J38" s="3"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="9"/>
     </row>
     <row r="39" spans="1:12" ht="50.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="58">
-        <v>94</v>
-      </c>
-      <c r="B39" s="9">
-        <v>93</v>
+      <c r="A39" s="49">
+        <v>35</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>19</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F39" s="5">
-        <v>44882</v>
+        <v>44894</v>
       </c>
       <c r="G39" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H39" s="9" t="s">
         <v>142</v>
-      </c>
-      <c r="H39" s="9" t="s">
-        <v>10</v>
       </c>
       <c r="I39" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="J39" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="K39" s="5">
-        <v>44887</v>
-      </c>
+      <c r="J39" s="3"/>
+      <c r="K39" s="5"/>
       <c r="L39" s="9" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="50.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="58">
-        <v>95</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>146</v>
+      <c r="A40" s="49">
+        <v>36</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>19</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F40" s="5">
-        <v>44882</v>
+        <v>44894</v>
       </c>
       <c r="G40" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H40" s="9" t="s">
         <v>142</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>10</v>
       </c>
       <c r="I40" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="J40" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="K40" s="5">
-        <v>44887</v>
-      </c>
+      <c r="J40" s="3"/>
+      <c r="K40" s="5"/>
       <c r="L40" s="9" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="58">
-        <v>96</v>
-      </c>
-      <c r="B41" s="9">
-        <v>92</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" s="2" t="s">
+    <row r="41" spans="1:12" ht="50.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="2">
+        <v>37</v>
+      </c>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F41" s="5">
-        <v>44882</v>
-      </c>
-      <c r="G41" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="H41" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I41" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="K41" s="5">
-        <v>44887</v>
-      </c>
-      <c r="L41" s="9" t="s">
-        <v>156</v>
-      </c>
     </row>
-    <row r="42" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="58">
-        <v>97</v>
-      </c>
-      <c r="B42" s="9">
-        <v>96</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" s="2" t="s">
+    <row r="42" spans="1:12" ht="50.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="19">
+        <v>38</v>
+      </c>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F42" s="5">
-        <v>44882</v>
-      </c>
-      <c r="G42" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="H42" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I42" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="K42" s="5">
-        <v>44887</v>
-      </c>
-      <c r="L42" s="9" t="s">
-        <v>156</v>
-      </c>
     </row>
-    <row r="43" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="58">
-        <v>98</v>
-      </c>
-      <c r="B43" s="9">
-        <v>95</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" s="2" t="s">
+    <row r="43" spans="1:12" ht="50.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="2">
+        <v>39</v>
+      </c>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="9" t="s">
         <v>141</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F43" s="5">
-        <v>44882</v>
-      </c>
-      <c r="G43" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="H43" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I43" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="K43" s="5">
-        <v>44887</v>
-      </c>
-      <c r="L43" s="9" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="50.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="58">
-        <v>99</v>
+      <c r="A44" s="19">
+        <v>40</v>
       </c>
       <c r="B44" s="9"/>
-      <c r="C44" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="2" t="s">
+      <c r="C44" s="9"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="9" t="s">
         <v>141</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F44" s="5">
-        <v>44882</v>
-      </c>
-      <c r="G44" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="H44" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I44" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="K44" s="5">
-        <v>44887</v>
-      </c>
-      <c r="L44" s="9" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="58">
-        <v>100</v>
-      </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F45" s="5">
-        <v>44882</v>
-      </c>
-      <c r="G45" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="H45" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I45" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="K45" s="5">
-        <v>44887</v>
-      </c>
-      <c r="L45" s="9" t="s">
-        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -37184,1398 +37249,1581 @@
     <mergeCell ref="A3:C3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="C4 C6 C46:C1048576">
-    <cfRule type="containsText" dxfId="345" priority="903" operator="containsText" text="高">
+  <conditionalFormatting sqref="C4 C6 C45:C1048576">
+    <cfRule type="containsText" dxfId="384" priority="948" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:L4 A8 A10 A12 A14 L32 J19:J25 K10:L10 D10:H10 J11:L18 J6:L6 A6:D6 A3 D3:L3 A46:L1048576 E11 B10:B11 D12:E12 D13:F13 E14 D15:F15 A16:A32 E16:E20 E23:F23 E24">
-    <cfRule type="expression" dxfId="344" priority="901">
+  <conditionalFormatting sqref="A4:L4 A8 A10 A12 A14 L32 J19:J25 K10:L10 D10:H10 J11:L18 J6:L6 A6:D6 A3 D3:L3 E11 B10:B11 D12:E12 D13:F13 E14 D15:F15 E16:E20 E23:F23 E24 A45:L1048576 A16:A44 B41:L44 J40:L40">
+    <cfRule type="expression" dxfId="383" priority="946">
       <formula>$I3="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="343" priority="902">
+    <cfRule type="expression" dxfId="382" priority="947">
       <formula>$I3="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="containsText" dxfId="342" priority="416" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="381" priority="461" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:I5 I10 K5:L5">
-    <cfRule type="expression" dxfId="341" priority="414">
+    <cfRule type="expression" dxfId="380" priority="459">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="340" priority="415">
+    <cfRule type="expression" dxfId="379" priority="460">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5 A7 A9 A11 A13 A15">
-    <cfRule type="expression" dxfId="339" priority="412">
+    <cfRule type="expression" dxfId="378" priority="457">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="338" priority="413">
+    <cfRule type="expression" dxfId="377" priority="458">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7 C9:C10 C13 C15">
-    <cfRule type="containsText" dxfId="337" priority="356" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="376" priority="401" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:F9 C10 J10 J7:L9 C7 D8:F8 C13 C15">
-    <cfRule type="expression" dxfId="336" priority="354">
+    <cfRule type="expression" dxfId="375" priority="399">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="335" priority="355">
+    <cfRule type="expression" dxfId="374" priority="400">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J26:J35 E33 A33:A35">
-    <cfRule type="expression" dxfId="333" priority="349">
+  <conditionalFormatting sqref="J26:J35 E33">
+    <cfRule type="expression" dxfId="373" priority="394">
       <formula>$I26="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="332" priority="350">
+    <cfRule type="expression" dxfId="372" priority="395">
       <formula>$I26="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27:C31">
-    <cfRule type="containsText" dxfId="331" priority="348" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="371" priority="393" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31 E31:F31 E25 D26:E26 C27:E30 H29">
-    <cfRule type="expression" dxfId="330" priority="346">
+    <cfRule type="expression" dxfId="370" priority="391">
       <formula>$I25="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="329" priority="347">
+    <cfRule type="expression" dxfId="369" priority="392">
       <formula>$I25="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="expression" dxfId="328" priority="344">
+    <cfRule type="expression" dxfId="368" priority="389">
       <formula>$I32="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="327" priority="345">
+    <cfRule type="expression" dxfId="367" priority="390">
       <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32">
-    <cfRule type="expression" dxfId="326" priority="340">
+    <cfRule type="expression" dxfId="366" priority="385">
       <formula>$I32="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="325" priority="341">
+    <cfRule type="expression" dxfId="365" priority="386">
       <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19:L31">
-    <cfRule type="expression" dxfId="319" priority="333">
+    <cfRule type="expression" dxfId="364" priority="378">
       <formula>$I19="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="318" priority="334">
+    <cfRule type="expression" dxfId="363" priority="379">
       <formula>$I19="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33:L35">
-    <cfRule type="expression" dxfId="317" priority="331">
+    <cfRule type="expression" dxfId="362" priority="376">
       <formula>$I33="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="316" priority="332">
+    <cfRule type="expression" dxfId="361" priority="377">
       <formula>$I33="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="expression" dxfId="315" priority="329">
+    <cfRule type="expression" dxfId="360" priority="374">
       <formula>$I31="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="314" priority="330">
+    <cfRule type="expression" dxfId="359" priority="375">
       <formula>$I31="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="313" priority="327">
+    <cfRule type="expression" dxfId="358" priority="372">
       <formula>$I6="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="312" priority="328">
+    <cfRule type="expression" dxfId="357" priority="373">
       <formula>$I6="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="expression" dxfId="311" priority="325">
+    <cfRule type="expression" dxfId="356" priority="370">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="310" priority="326">
+    <cfRule type="expression" dxfId="355" priority="371">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="309" priority="313">
+    <cfRule type="expression" dxfId="354" priority="358">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="308" priority="314">
+    <cfRule type="expression" dxfId="353" priority="359">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="307" priority="317">
+    <cfRule type="expression" dxfId="352" priority="362">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="306" priority="318">
+    <cfRule type="expression" dxfId="351" priority="363">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:I6">
-    <cfRule type="expression" dxfId="305" priority="311">
+    <cfRule type="expression" dxfId="350" priority="356">
       <formula>$I6="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="304" priority="312">
+    <cfRule type="expression" dxfId="349" priority="357">
       <formula>$I6="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="expression" dxfId="303" priority="309">
+    <cfRule type="expression" dxfId="348" priority="354">
       <formula>$I6="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="302" priority="310">
+    <cfRule type="expression" dxfId="347" priority="355">
       <formula>$I6="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="expression" dxfId="301" priority="307">
+    <cfRule type="expression" dxfId="346" priority="352">
       <formula>$I5="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="300" priority="308">
+    <cfRule type="expression" dxfId="345" priority="353">
       <formula>$I5="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="expression" dxfId="299" priority="305">
+    <cfRule type="expression" dxfId="344" priority="350">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="298" priority="306">
+    <cfRule type="expression" dxfId="343" priority="351">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:I7">
-    <cfRule type="expression" dxfId="297" priority="303">
+    <cfRule type="expression" dxfId="342" priority="348">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="296" priority="304">
+    <cfRule type="expression" dxfId="341" priority="349">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="295" priority="301">
+    <cfRule type="expression" dxfId="340" priority="346">
       <formula>$I8="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="294" priority="302">
+    <cfRule type="expression" dxfId="339" priority="347">
       <formula>$I8="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="containsText" dxfId="293" priority="300" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="338" priority="345" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="292" priority="298">
+    <cfRule type="expression" dxfId="337" priority="343">
       <formula>$I8="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="291" priority="299">
+    <cfRule type="expression" dxfId="336" priority="344">
       <formula>$I8="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:I8">
-    <cfRule type="expression" dxfId="290" priority="296">
+    <cfRule type="expression" dxfId="335" priority="341">
       <formula>$I8="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="289" priority="297">
+    <cfRule type="expression" dxfId="334" priority="342">
       <formula>$I8="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="288" priority="294">
+    <cfRule type="expression" dxfId="333" priority="339">
       <formula>$I9="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="287" priority="295">
+    <cfRule type="expression" dxfId="332" priority="340">
       <formula>$I9="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:I9">
-    <cfRule type="expression" dxfId="286" priority="292">
+    <cfRule type="expression" dxfId="331" priority="337">
       <formula>$I9="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="285" priority="293">
+    <cfRule type="expression" dxfId="330" priority="338">
       <formula>$I9="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="expression" dxfId="284" priority="290">
+    <cfRule type="expression" dxfId="329" priority="335">
       <formula>$I7="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="283" priority="291">
+    <cfRule type="expression" dxfId="328" priority="336">
       <formula>$I7="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="282" priority="288">
+    <cfRule type="expression" dxfId="327" priority="333">
       <formula>$I11="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="281" priority="289">
+    <cfRule type="expression" dxfId="326" priority="334">
       <formula>$I11="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="containsText" dxfId="280" priority="287" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="325" priority="332" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="279" priority="285">
+    <cfRule type="expression" dxfId="324" priority="330">
       <formula>$I11="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="278" priority="286">
+    <cfRule type="expression" dxfId="323" priority="331">
       <formula>$I11="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:H11">
-    <cfRule type="expression" dxfId="277" priority="283">
+    <cfRule type="expression" dxfId="322" priority="328">
       <formula>$I11="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="276" priority="284">
+    <cfRule type="expression" dxfId="321" priority="329">
       <formula>$I11="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="expression" dxfId="275" priority="281">
+    <cfRule type="expression" dxfId="320" priority="326">
       <formula>$I11="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="274" priority="282">
+    <cfRule type="expression" dxfId="319" priority="327">
       <formula>$I11="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="expression" dxfId="273" priority="279">
+    <cfRule type="expression" dxfId="318" priority="324">
       <formula>$I12="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="272" priority="280">
+    <cfRule type="expression" dxfId="317" priority="325">
       <formula>$I12="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="containsText" dxfId="271" priority="278" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="316" priority="323" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="270" priority="276">
+    <cfRule type="expression" dxfId="315" priority="321">
       <formula>$I12="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="269" priority="277">
+    <cfRule type="expression" dxfId="314" priority="322">
       <formula>$I12="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:H12">
-    <cfRule type="expression" dxfId="268" priority="274">
+    <cfRule type="expression" dxfId="313" priority="319">
       <formula>$I12="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="267" priority="275">
+    <cfRule type="expression" dxfId="312" priority="320">
       <formula>$I12="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="expression" dxfId="266" priority="272">
+    <cfRule type="expression" dxfId="311" priority="317">
       <formula>$I12="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="265" priority="273">
+    <cfRule type="expression" dxfId="310" priority="318">
       <formula>$I12="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="expression" dxfId="264" priority="270">
+    <cfRule type="expression" dxfId="309" priority="315">
       <formula>$I13="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="263" priority="271">
+    <cfRule type="expression" dxfId="308" priority="316">
       <formula>$I13="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13:H13">
-    <cfRule type="expression" dxfId="262" priority="268">
+    <cfRule type="expression" dxfId="307" priority="313">
       <formula>$I13="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="261" priority="269">
+    <cfRule type="expression" dxfId="306" priority="314">
       <formula>$I13="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="260" priority="266">
+    <cfRule type="expression" dxfId="305" priority="311">
       <formula>$I13="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="259" priority="267">
+    <cfRule type="expression" dxfId="304" priority="312">
       <formula>$I13="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="258" priority="264">
+    <cfRule type="expression" dxfId="303" priority="309">
       <formula>$I14="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="257" priority="265">
+    <cfRule type="expression" dxfId="302" priority="310">
       <formula>$I14="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="containsText" dxfId="256" priority="263" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="301" priority="308" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="255" priority="261">
+    <cfRule type="expression" dxfId="300" priority="306">
       <formula>$I14="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="254" priority="262">
+    <cfRule type="expression" dxfId="299" priority="307">
       <formula>$I14="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="expression" dxfId="253" priority="259">
+    <cfRule type="expression" dxfId="298" priority="304">
       <formula>$I14="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="252" priority="260">
+    <cfRule type="expression" dxfId="297" priority="305">
       <formula>$I14="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="expression" dxfId="251" priority="257">
+    <cfRule type="expression" dxfId="296" priority="302">
       <formula>$I14="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="250" priority="258">
+    <cfRule type="expression" dxfId="295" priority="303">
       <formula>$I14="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14:H14">
-    <cfRule type="expression" dxfId="249" priority="255">
+    <cfRule type="expression" dxfId="294" priority="300">
       <formula>$I14="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="248" priority="256">
+    <cfRule type="expression" dxfId="293" priority="301">
       <formula>$I14="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="expression" dxfId="247" priority="253">
+    <cfRule type="expression" dxfId="292" priority="298">
       <formula>$I14="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="246" priority="254">
+    <cfRule type="expression" dxfId="291" priority="299">
       <formula>$I14="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="expression" dxfId="245" priority="251">
+    <cfRule type="expression" dxfId="290" priority="296">
       <formula>$I15="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="244" priority="252">
+    <cfRule type="expression" dxfId="289" priority="297">
       <formula>$I15="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:H15">
-    <cfRule type="expression" dxfId="243" priority="249">
+    <cfRule type="expression" dxfId="288" priority="294">
       <formula>$I15="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="242" priority="250">
+    <cfRule type="expression" dxfId="287" priority="295">
       <formula>$I15="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="expression" dxfId="241" priority="247">
+    <cfRule type="expression" dxfId="286" priority="292">
       <formula>$I15="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="240" priority="248">
+    <cfRule type="expression" dxfId="285" priority="293">
       <formula>$I15="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="239" priority="245">
+    <cfRule type="expression" dxfId="284" priority="290">
       <formula>$I16="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="238" priority="246">
+    <cfRule type="expression" dxfId="283" priority="291">
       <formula>$I16="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="containsText" dxfId="237" priority="244" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="282" priority="289" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="236" priority="242">
+    <cfRule type="expression" dxfId="281" priority="287">
       <formula>$I16="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="235" priority="243">
+    <cfRule type="expression" dxfId="280" priority="288">
       <formula>$I16="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="expression" dxfId="234" priority="240">
+    <cfRule type="expression" dxfId="279" priority="285">
       <formula>$I16="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="233" priority="241">
+    <cfRule type="expression" dxfId="278" priority="286">
       <formula>$I16="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="expression" dxfId="232" priority="238">
+    <cfRule type="expression" dxfId="277" priority="283">
       <formula>$I16="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="231" priority="239">
+    <cfRule type="expression" dxfId="276" priority="284">
       <formula>$I16="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:H16">
-    <cfRule type="expression" dxfId="230" priority="236">
+    <cfRule type="expression" dxfId="275" priority="281">
       <formula>$I16="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="229" priority="237">
+    <cfRule type="expression" dxfId="274" priority="282">
       <formula>$I16="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="expression" dxfId="228" priority="234">
+    <cfRule type="expression" dxfId="273" priority="279">
       <formula>$I16="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="227" priority="235">
+    <cfRule type="expression" dxfId="272" priority="280">
       <formula>$I16="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="226" priority="232">
+    <cfRule type="expression" dxfId="271" priority="277">
       <formula>$I17="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="225" priority="233">
+    <cfRule type="expression" dxfId="270" priority="278">
       <formula>$I17="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="containsText" dxfId="224" priority="231" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="269" priority="276" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="223" priority="229">
+    <cfRule type="expression" dxfId="268" priority="274">
       <formula>$I17="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="222" priority="230">
+    <cfRule type="expression" dxfId="267" priority="275">
       <formula>$I17="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="expression" dxfId="221" priority="227">
+    <cfRule type="expression" dxfId="266" priority="272">
       <formula>$I17="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="220" priority="228">
+    <cfRule type="expression" dxfId="265" priority="273">
       <formula>$I17="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17:H17">
-    <cfRule type="expression" dxfId="219" priority="225">
+    <cfRule type="expression" dxfId="264" priority="270">
       <formula>$I17="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="218" priority="226">
+    <cfRule type="expression" dxfId="263" priority="271">
       <formula>$I17="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17">
-    <cfRule type="expression" dxfId="217" priority="223">
+    <cfRule type="expression" dxfId="262" priority="268">
       <formula>$I17="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="216" priority="224">
+    <cfRule type="expression" dxfId="261" priority="269">
       <formula>$I17="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="215" priority="221">
+    <cfRule type="expression" dxfId="260" priority="266">
       <formula>$I18="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="214" priority="222">
+    <cfRule type="expression" dxfId="259" priority="267">
       <formula>$I18="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="containsText" dxfId="213" priority="220" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="258" priority="265" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="212" priority="218">
+    <cfRule type="expression" dxfId="257" priority="263">
       <formula>$I18="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="211" priority="219">
+    <cfRule type="expression" dxfId="256" priority="264">
       <formula>$I18="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="expression" dxfId="210" priority="216">
+    <cfRule type="expression" dxfId="255" priority="261">
       <formula>$I18="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="209" priority="217">
+    <cfRule type="expression" dxfId="254" priority="262">
       <formula>$I18="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:H18">
-    <cfRule type="expression" dxfId="208" priority="214">
+    <cfRule type="expression" dxfId="253" priority="259">
       <formula>$I18="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="207" priority="215">
+    <cfRule type="expression" dxfId="252" priority="260">
       <formula>$I18="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18">
-    <cfRule type="expression" dxfId="206" priority="212">
+    <cfRule type="expression" dxfId="251" priority="257">
       <formula>$I18="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="205" priority="213">
+    <cfRule type="expression" dxfId="250" priority="258">
       <formula>$I18="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="expression" dxfId="204" priority="210">
+    <cfRule type="expression" dxfId="249" priority="255">
       <formula>$I19="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="203" priority="211">
+    <cfRule type="expression" dxfId="248" priority="256">
       <formula>$I19="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="containsText" dxfId="202" priority="209" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="247" priority="254" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="201" priority="207">
+    <cfRule type="expression" dxfId="246" priority="252">
       <formula>$I19="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="200" priority="208">
+    <cfRule type="expression" dxfId="245" priority="253">
       <formula>$I19="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="expression" dxfId="199" priority="205">
+    <cfRule type="expression" dxfId="244" priority="250">
       <formula>$I19="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="198" priority="206">
+    <cfRule type="expression" dxfId="243" priority="251">
       <formula>$I19="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19:H19">
-    <cfRule type="expression" dxfId="197" priority="203">
+    <cfRule type="expression" dxfId="242" priority="248">
       <formula>$I19="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="196" priority="204">
+    <cfRule type="expression" dxfId="241" priority="249">
       <formula>$I19="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19">
-    <cfRule type="expression" dxfId="195" priority="201">
+    <cfRule type="expression" dxfId="240" priority="246">
       <formula>$I19="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="194" priority="202">
+    <cfRule type="expression" dxfId="239" priority="247">
       <formula>$I19="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="expression" dxfId="193" priority="199">
+    <cfRule type="expression" dxfId="238" priority="244">
       <formula>$I20="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="192" priority="200">
+    <cfRule type="expression" dxfId="237" priority="245">
       <formula>$I20="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="containsText" dxfId="191" priority="198" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="236" priority="243" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="190" priority="196">
+    <cfRule type="expression" dxfId="235" priority="241">
       <formula>$I20="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="189" priority="197">
+    <cfRule type="expression" dxfId="234" priority="242">
       <formula>$I20="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="expression" dxfId="188" priority="194">
+    <cfRule type="expression" dxfId="233" priority="239">
       <formula>$I20="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="187" priority="195">
+    <cfRule type="expression" dxfId="232" priority="240">
       <formula>$I20="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20:H20">
-    <cfRule type="expression" dxfId="186" priority="192">
+    <cfRule type="expression" dxfId="231" priority="237">
       <formula>$I20="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="185" priority="193">
+    <cfRule type="expression" dxfId="230" priority="238">
       <formula>$I20="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="expression" dxfId="184" priority="190">
+    <cfRule type="expression" dxfId="229" priority="235">
       <formula>$I20="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="183" priority="191">
+    <cfRule type="expression" dxfId="228" priority="236">
       <formula>$I20="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="expression" dxfId="182" priority="188">
+    <cfRule type="expression" dxfId="227" priority="233">
       <formula>$I22="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="181" priority="189">
+    <cfRule type="expression" dxfId="226" priority="234">
       <formula>$I22="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22">
-    <cfRule type="containsText" dxfId="180" priority="187" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="225" priority="232" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22">
-    <cfRule type="expression" dxfId="179" priority="185">
+    <cfRule type="expression" dxfId="224" priority="230">
       <formula>$I22="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="186">
+    <cfRule type="expression" dxfId="223" priority="231">
       <formula>$I22="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="expression" dxfId="177" priority="177">
+    <cfRule type="expression" dxfId="222" priority="222">
       <formula>$I21="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="176" priority="178">
+    <cfRule type="expression" dxfId="221" priority="223">
       <formula>$I21="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="expression" dxfId="175" priority="175">
+    <cfRule type="expression" dxfId="220" priority="220">
       <formula>$I21="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="176">
+    <cfRule type="expression" dxfId="219" priority="221">
       <formula>$I21="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21">
-    <cfRule type="containsText" dxfId="173" priority="174" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="218" priority="219" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="172" priority="172">
+    <cfRule type="expression" dxfId="217" priority="217">
       <formula>$I21="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="173">
+    <cfRule type="expression" dxfId="216" priority="218">
       <formula>$I21="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="expression" dxfId="170" priority="170">
+    <cfRule type="expression" dxfId="215" priority="215">
       <formula>$I21="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="169" priority="171">
+    <cfRule type="expression" dxfId="214" priority="216">
       <formula>$I21="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21:H21">
-    <cfRule type="expression" dxfId="168" priority="168">
+    <cfRule type="expression" dxfId="213" priority="213">
       <formula>$I21="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="167" priority="169">
+    <cfRule type="expression" dxfId="212" priority="214">
       <formula>$I21="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21">
-    <cfRule type="expression" dxfId="166" priority="166">
+    <cfRule type="expression" dxfId="211" priority="211">
       <formula>$I21="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="167">
+    <cfRule type="expression" dxfId="210" priority="212">
       <formula>$I21="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="expression" dxfId="164" priority="164">
+    <cfRule type="expression" dxfId="209" priority="209">
       <formula>$I22="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="165">
+    <cfRule type="expression" dxfId="208" priority="210">
       <formula>$I22="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22:H22">
-    <cfRule type="expression" dxfId="162" priority="162">
+    <cfRule type="expression" dxfId="207" priority="207">
       <formula>$I22="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="161" priority="163">
+    <cfRule type="expression" dxfId="206" priority="208">
       <formula>$I22="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22">
-    <cfRule type="expression" dxfId="160" priority="160">
+    <cfRule type="expression" dxfId="205" priority="205">
       <formula>$I22="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="159" priority="161">
+    <cfRule type="expression" dxfId="204" priority="206">
       <formula>$I22="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="expression" dxfId="158" priority="158">
+    <cfRule type="expression" dxfId="203" priority="203">
       <formula>$I22="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="159">
+    <cfRule type="expression" dxfId="202" priority="204">
       <formula>$I22="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B22">
-    <cfRule type="expression" dxfId="156" priority="156">
+    <cfRule type="expression" dxfId="201" priority="201">
       <formula>$I17="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="155" priority="157">
+    <cfRule type="expression" dxfId="200" priority="202">
       <formula>$I17="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23:H23">
-    <cfRule type="expression" dxfId="154" priority="154">
+    <cfRule type="expression" dxfId="199" priority="199">
       <formula>$I23="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="155">
+    <cfRule type="expression" dxfId="198" priority="200">
       <formula>$I23="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="expression" dxfId="152" priority="152">
+    <cfRule type="expression" dxfId="197" priority="197">
       <formula>$I23="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="151" priority="153">
+    <cfRule type="expression" dxfId="196" priority="198">
       <formula>$I23="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="150" priority="150">
+    <cfRule type="expression" dxfId="195" priority="195">
       <formula>$I23="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="149" priority="151">
+    <cfRule type="expression" dxfId="194" priority="196">
       <formula>$I23="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="containsText" dxfId="148" priority="149" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="193" priority="194" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="147" priority="147">
+    <cfRule type="expression" dxfId="192" priority="192">
       <formula>$I23="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="148">
+    <cfRule type="expression" dxfId="191" priority="193">
       <formula>$I23="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="expression" dxfId="145" priority="145">
+    <cfRule type="expression" dxfId="190" priority="190">
       <formula>$I23="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="146">
+    <cfRule type="expression" dxfId="189" priority="191">
       <formula>$I23="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="expression" dxfId="143" priority="143">
+    <cfRule type="expression" dxfId="188" priority="188">
       <formula>$I24="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="144">
+    <cfRule type="expression" dxfId="187" priority="189">
       <formula>$I24="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="containsText" dxfId="141" priority="142" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="186" priority="187" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="140" priority="140">
+    <cfRule type="expression" dxfId="185" priority="185">
       <formula>$I24="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="141">
+    <cfRule type="expression" dxfId="184" priority="186">
       <formula>$I24="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="expression" dxfId="138" priority="138">
+    <cfRule type="expression" dxfId="183" priority="183">
       <formula>$I24="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="137" priority="139">
+    <cfRule type="expression" dxfId="182" priority="184">
       <formula>$I24="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="expression" dxfId="136" priority="136">
+    <cfRule type="expression" dxfId="181" priority="181">
       <formula>$I24="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="137">
+    <cfRule type="expression" dxfId="180" priority="182">
       <formula>$I24="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24:H24">
-    <cfRule type="expression" dxfId="134" priority="134">
+    <cfRule type="expression" dxfId="179" priority="179">
       <formula>$I24="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="135">
+    <cfRule type="expression" dxfId="178" priority="180">
       <formula>$I24="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24">
-    <cfRule type="expression" dxfId="132" priority="132">
+    <cfRule type="expression" dxfId="177" priority="177">
       <formula>$I24="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="131" priority="133">
+    <cfRule type="expression" dxfId="176" priority="178">
       <formula>$I24="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="expression" dxfId="130" priority="130">
+    <cfRule type="expression" dxfId="175" priority="175">
       <formula>$I25="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="131">
+    <cfRule type="expression" dxfId="174" priority="176">
       <formula>$I25="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="containsText" dxfId="128" priority="129" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="173" priority="174" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="127" priority="127">
+    <cfRule type="expression" dxfId="172" priority="172">
       <formula>$I25="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="128">
+    <cfRule type="expression" dxfId="171" priority="173">
       <formula>$I25="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="expression" dxfId="125" priority="125">
+    <cfRule type="expression" dxfId="170" priority="170">
       <formula>$I25="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="126">
+    <cfRule type="expression" dxfId="169" priority="171">
       <formula>$I25="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="expression" dxfId="123" priority="123">
+    <cfRule type="expression" dxfId="168" priority="168">
       <formula>$I25="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="124">
+    <cfRule type="expression" dxfId="167" priority="169">
       <formula>$I25="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25:H25">
-    <cfRule type="expression" dxfId="121" priority="121">
+    <cfRule type="expression" dxfId="166" priority="166">
       <formula>$I25="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="122">
+    <cfRule type="expression" dxfId="165" priority="167">
       <formula>$I25="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25">
-    <cfRule type="expression" dxfId="119" priority="119">
+    <cfRule type="expression" dxfId="164" priority="164">
       <formula>$I25="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="120">
+    <cfRule type="expression" dxfId="163" priority="165">
       <formula>$I25="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="containsText" dxfId="117" priority="118" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="162" priority="163" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="expression" dxfId="116" priority="116">
+    <cfRule type="expression" dxfId="161" priority="161">
       <formula>$I26="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="117">
+    <cfRule type="expression" dxfId="160" priority="162">
       <formula>$I26="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="expression" dxfId="114" priority="114">
+    <cfRule type="expression" dxfId="159" priority="159">
       <formula>$I26="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="115">
+    <cfRule type="expression" dxfId="158" priority="160">
       <formula>$I26="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="expression" dxfId="112" priority="112">
+    <cfRule type="expression" dxfId="157" priority="157">
       <formula>$I26="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="113">
+    <cfRule type="expression" dxfId="156" priority="158">
       <formula>$I26="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26:H26">
-    <cfRule type="expression" dxfId="110" priority="110">
+    <cfRule type="expression" dxfId="155" priority="155">
       <formula>$I26="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="111">
+    <cfRule type="expression" dxfId="154" priority="156">
       <formula>$I26="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26">
-    <cfRule type="expression" dxfId="108" priority="108">
+    <cfRule type="expression" dxfId="153" priority="153">
       <formula>$I26="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="109">
+    <cfRule type="expression" dxfId="152" priority="154">
       <formula>$I26="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="expression" dxfId="106" priority="106">
+    <cfRule type="expression" dxfId="151" priority="151">
       <formula>$I27="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="107">
+    <cfRule type="expression" dxfId="150" priority="152">
       <formula>$I27="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:H27">
-    <cfRule type="expression" dxfId="104" priority="104">
+    <cfRule type="expression" dxfId="149" priority="149">
       <formula>$I27="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="105">
+    <cfRule type="expression" dxfId="148" priority="150">
       <formula>$I27="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27">
-    <cfRule type="expression" dxfId="102" priority="102">
+    <cfRule type="expression" dxfId="147" priority="147">
       <formula>$I27="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="103">
+    <cfRule type="expression" dxfId="146" priority="148">
       <formula>$I27="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27:B28">
-    <cfRule type="expression" dxfId="100" priority="100">
+    <cfRule type="expression" dxfId="145" priority="145">
       <formula>$I27="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="101">
+    <cfRule type="expression" dxfId="144" priority="146">
       <formula>$I27="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="expression" dxfId="98" priority="98">
+    <cfRule type="expression" dxfId="143" priority="143">
       <formula>$I28="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="99">
+    <cfRule type="expression" dxfId="142" priority="144">
       <formula>$I28="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:H28">
-    <cfRule type="expression" dxfId="96" priority="96">
+    <cfRule type="expression" dxfId="141" priority="141">
       <formula>$I28="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="97">
+    <cfRule type="expression" dxfId="140" priority="142">
       <formula>$I28="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28">
-    <cfRule type="expression" dxfId="94" priority="94">
+    <cfRule type="expression" dxfId="139" priority="139">
       <formula>$I28="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="95">
+    <cfRule type="expression" dxfId="138" priority="140">
       <formula>$I28="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="expression" dxfId="92" priority="92">
+    <cfRule type="expression" dxfId="137" priority="137">
       <formula>$I29="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="93">
+    <cfRule type="expression" dxfId="136" priority="138">
       <formula>$I29="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="expression" dxfId="90" priority="90">
+    <cfRule type="expression" dxfId="135" priority="135">
       <formula>$I29="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="91">
+    <cfRule type="expression" dxfId="134" priority="136">
       <formula>$I29="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="expression" dxfId="88" priority="88">
+    <cfRule type="expression" dxfId="133" priority="133">
       <formula>$I29="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="89">
+    <cfRule type="expression" dxfId="132" priority="134">
       <formula>$I29="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29">
-    <cfRule type="expression" dxfId="86" priority="86">
+    <cfRule type="expression" dxfId="131" priority="131">
       <formula>$I29="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="87">
+    <cfRule type="expression" dxfId="130" priority="132">
       <formula>$I29="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="expression" dxfId="84" priority="84">
+    <cfRule type="expression" dxfId="129" priority="129">
       <formula>$I30="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="85">
+    <cfRule type="expression" dxfId="128" priority="130">
       <formula>$I30="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="expression" dxfId="82" priority="82">
+    <cfRule type="expression" dxfId="127" priority="127">
       <formula>$I30="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="83">
+    <cfRule type="expression" dxfId="126" priority="128">
       <formula>$I30="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="expression" dxfId="80" priority="80">
+    <cfRule type="expression" dxfId="125" priority="125">
       <formula>$I30="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="81">
+    <cfRule type="expression" dxfId="124" priority="126">
       <formula>$I30="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30">
-    <cfRule type="expression" dxfId="78" priority="78">
+    <cfRule type="expression" dxfId="123" priority="123">
       <formula>$I30="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="79">
+    <cfRule type="expression" dxfId="122" priority="124">
       <formula>$I30="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="expression" dxfId="76" priority="76">
+    <cfRule type="expression" dxfId="121" priority="121">
       <formula>$I30="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="77">
+    <cfRule type="expression" dxfId="120" priority="122">
       <formula>$I30="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="expression" dxfId="74" priority="74">
+    <cfRule type="expression" dxfId="119" priority="119">
       <formula>$I31="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="75">
+    <cfRule type="expression" dxfId="118" priority="120">
       <formula>$I31="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="expression" dxfId="72" priority="72">
+    <cfRule type="expression" dxfId="117" priority="117">
       <formula>$I31="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="73">
+    <cfRule type="expression" dxfId="116" priority="118">
       <formula>$I31="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="expression" dxfId="70" priority="70">
+    <cfRule type="expression" dxfId="115" priority="115">
       <formula>$I31="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="71">
+    <cfRule type="expression" dxfId="114" priority="116">
       <formula>$I31="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31">
-    <cfRule type="expression" dxfId="68" priority="68">
+    <cfRule type="expression" dxfId="113" priority="113">
       <formula>$I31="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="69">
+    <cfRule type="expression" dxfId="112" priority="114">
       <formula>$I31="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="expression" dxfId="66" priority="66">
+    <cfRule type="expression" dxfId="111" priority="111">
       <formula>$I32="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="67">
+    <cfRule type="expression" dxfId="110" priority="112">
       <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="containsText" dxfId="64" priority="65" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="109" priority="110" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="expression" dxfId="63" priority="63">
+    <cfRule type="expression" dxfId="108" priority="108">
       <formula>$I32="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="64">
+    <cfRule type="expression" dxfId="107" priority="109">
       <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="expression" dxfId="61" priority="61">
+    <cfRule type="expression" dxfId="106" priority="106">
       <formula>$I32="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="62">
+    <cfRule type="expression" dxfId="105" priority="107">
       <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="expression" dxfId="59" priority="59">
+    <cfRule type="expression" dxfId="104" priority="104">
       <formula>$I32="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="60">
+    <cfRule type="expression" dxfId="103" priority="105">
       <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="expression" dxfId="57" priority="57">
+    <cfRule type="expression" dxfId="102" priority="102">
       <formula>$I32="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="58">
+    <cfRule type="expression" dxfId="101" priority="103">
       <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="expression" dxfId="55" priority="55">
+    <cfRule type="expression" dxfId="100" priority="100">
       <formula>$I32="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="56">
+    <cfRule type="expression" dxfId="99" priority="101">
       <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32">
-    <cfRule type="expression" dxfId="53" priority="53">
+    <cfRule type="expression" dxfId="98" priority="98">
       <formula>$I32="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="54">
+    <cfRule type="expression" dxfId="97" priority="99">
       <formula>$I32="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="expression" dxfId="51" priority="51">
+    <cfRule type="expression" dxfId="96" priority="96">
       <formula>$I33="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="52">
+    <cfRule type="expression" dxfId="95" priority="97">
       <formula>$I33="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33">
-    <cfRule type="expression" dxfId="49" priority="49">
+    <cfRule type="expression" dxfId="94" priority="94">
       <formula>$I33="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="50">
+    <cfRule type="expression" dxfId="93" priority="95">
       <formula>$I33="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="expression" dxfId="47" priority="47">
+    <cfRule type="expression" dxfId="92" priority="92">
       <formula>$I33="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="48">
+    <cfRule type="expression" dxfId="91" priority="93">
       <formula>$I33="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33">
-    <cfRule type="expression" dxfId="45" priority="45">
+    <cfRule type="expression" dxfId="90" priority="90">
       <formula>$I33="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="46">
+    <cfRule type="expression" dxfId="89" priority="91">
       <formula>$I33="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="43" priority="43">
+    <cfRule type="expression" dxfId="88" priority="88">
       <formula>$I33="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="44">
+    <cfRule type="expression" dxfId="87" priority="89">
       <formula>$I33="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="containsText" dxfId="41" priority="42" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="86" priority="87" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="40" priority="40">
+    <cfRule type="expression" dxfId="85" priority="85">
       <formula>$I33="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="41">
+    <cfRule type="expression" dxfId="84" priority="86">
       <formula>$I33="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="expression" dxfId="38" priority="38">
+    <cfRule type="expression" dxfId="83" priority="83">
       <formula>$I33="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="39">
+    <cfRule type="expression" dxfId="82" priority="84">
       <formula>$I33="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="expression" dxfId="36" priority="36">
+    <cfRule type="expression" dxfId="81" priority="81">
       <formula>$I34="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="37">
+    <cfRule type="expression" dxfId="80" priority="82">
       <formula>$I34="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="expression" dxfId="34" priority="34">
+    <cfRule type="expression" dxfId="79" priority="79">
       <formula>$I34="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="35">
+    <cfRule type="expression" dxfId="78" priority="80">
       <formula>$I34="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="expression" dxfId="32" priority="32">
+    <cfRule type="expression" dxfId="77" priority="77">
       <formula>$I34="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="33">
+    <cfRule type="expression" dxfId="76" priority="78">
       <formula>$I34="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="expression" dxfId="30" priority="30">
+    <cfRule type="expression" dxfId="75" priority="75">
       <formula>$I34="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="31">
+    <cfRule type="expression" dxfId="74" priority="76">
       <formula>$I34="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34">
-    <cfRule type="expression" dxfId="28" priority="28">
+    <cfRule type="expression" dxfId="73" priority="73">
       <formula>$I34="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="29">
+    <cfRule type="expression" dxfId="72" priority="74">
       <formula>$I34="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="expression" dxfId="26" priority="26">
+    <cfRule type="expression" dxfId="71" priority="71">
       <formula>$I34="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="27">
+    <cfRule type="expression" dxfId="70" priority="72">
       <formula>$I34="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34">
-    <cfRule type="containsText" dxfId="24" priority="25" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="69" priority="70" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34">
-    <cfRule type="expression" dxfId="23" priority="23">
+    <cfRule type="expression" dxfId="68" priority="68">
       <formula>$I34="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="24">
+    <cfRule type="expression" dxfId="67" priority="69">
       <formula>$I34="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="expression" dxfId="21" priority="21">
+    <cfRule type="expression" dxfId="66" priority="66">
       <formula>$I34="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="22">
+    <cfRule type="expression" dxfId="65" priority="67">
       <formula>$I34="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="expression" dxfId="19" priority="19">
+    <cfRule type="expression" dxfId="64" priority="64">
       <formula>$I35="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="20">
+    <cfRule type="expression" dxfId="63" priority="65">
       <formula>$I35="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="expression" dxfId="17" priority="17">
+    <cfRule type="expression" dxfId="62" priority="62">
       <formula>$I35="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="18">
+    <cfRule type="expression" dxfId="61" priority="63">
       <formula>$I35="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="expression" dxfId="15" priority="15">
+    <cfRule type="expression" dxfId="60" priority="60">
       <formula>$I35="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="16">
+    <cfRule type="expression" dxfId="59" priority="61">
       <formula>$I35="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35">
-    <cfRule type="expression" dxfId="13" priority="13">
+    <cfRule type="expression" dxfId="58" priority="58">
       <formula>$I35="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="14">
+    <cfRule type="expression" dxfId="57" priority="59">
       <formula>$I35="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="expression" dxfId="11" priority="11">
+    <cfRule type="expression" dxfId="56" priority="56">
       <formula>$I35="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="12">
+    <cfRule type="expression" dxfId="55" priority="57">
       <formula>$I35="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35">
-    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="高">
+    <cfRule type="containsText" dxfId="54" priority="55" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35">
-    <cfRule type="expression" dxfId="8" priority="8">
+    <cfRule type="expression" dxfId="53" priority="53">
       <formula>$I35="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="9">
+    <cfRule type="expression" dxfId="52" priority="54">
       <formula>$I35="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="51" priority="51">
       <formula>$I35="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="50" priority="52">
       <formula>$I35="済み"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="49" priority="49">
       <formula>$I35="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="5">
+    <cfRule type="expression" dxfId="48" priority="50">
       <formula>$I35="済み"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C36:C45">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="高">
+  <conditionalFormatting sqref="C36 C39 C41:C44">
+    <cfRule type="containsText" dxfId="47" priority="48" operator="containsText" text="高">
       <formula>NOT(ISERROR(SEARCH("高",C36)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36:L45">
-    <cfRule type="expression" dxfId="1" priority="1">
+  <conditionalFormatting sqref="C36:E36 H36:L36 C39 J37:L39 E39">
+    <cfRule type="expression" dxfId="46" priority="46">
       <formula>$I36="確認中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="45" priority="47">
       <formula>$I36="済み"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B36">
+    <cfRule type="expression" dxfId="44" priority="44">
+      <formula>$I36="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="45">
+      <formula>$I36="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F36">
+    <cfRule type="expression" dxfId="42" priority="42">
+      <formula>$I36="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="41" priority="43">
+      <formula>$I36="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G36">
+    <cfRule type="expression" dxfId="40" priority="40">
+      <formula>$I36="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="41">
+      <formula>$I36="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="containsText" dxfId="38" priority="39" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37:E37 H37:I37">
+    <cfRule type="expression" dxfId="37" priority="37">
+      <formula>$I37="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="38">
+      <formula>$I37="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B37">
+    <cfRule type="expression" dxfId="35" priority="35">
+      <formula>$I37="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="36">
+      <formula>$I37="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37">
+    <cfRule type="expression" dxfId="33" priority="33">
+      <formula>$I37="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="34">
+      <formula>$I37="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G37">
+    <cfRule type="expression" dxfId="31" priority="31">
+      <formula>$I37="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="32">
+      <formula>$I37="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39:I39">
+    <cfRule type="expression" dxfId="29" priority="29">
+      <formula>$I39="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="30">
+      <formula>$I39="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39">
+    <cfRule type="expression" dxfId="27" priority="27">
+      <formula>$I39="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="28">
+      <formula>$I39="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G39">
+    <cfRule type="expression" dxfId="25" priority="25">
+      <formula>$I39="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="26">
+      <formula>$I39="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B39">
+    <cfRule type="expression" dxfId="23" priority="23">
+      <formula>$I39="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="24">
+      <formula>$I39="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38">
+    <cfRule type="containsText" dxfId="21" priority="22" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38:E38 H38:I38">
+    <cfRule type="expression" dxfId="20" priority="20">
+      <formula>$I38="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="21">
+      <formula>$I38="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38">
+    <cfRule type="expression" dxfId="18" priority="18">
+      <formula>$I38="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="19">
+      <formula>$I38="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38">
+    <cfRule type="expression" dxfId="16" priority="16">
+      <formula>$I38="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="17">
+      <formula>$I38="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G38">
+    <cfRule type="expression" dxfId="14" priority="14">
+      <formula>$I38="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="15">
+      <formula>$I38="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40">
+    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="高">
+      <formula>NOT(ISERROR(SEARCH("高",C40)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40:E40">
+    <cfRule type="expression" dxfId="11" priority="11">
+      <formula>$I40="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="12">
+      <formula>$I40="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H40:I40">
+    <cfRule type="expression" dxfId="9" priority="9">
+      <formula>$I40="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="10">
+      <formula>$I40="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F40">
+    <cfRule type="expression" dxfId="7" priority="7">
+      <formula>$I40="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="8">
+      <formula>$I40="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G40">
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>$I40="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>$I40="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>$I40="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>$I40="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$I39="確認中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>$I39="済み"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C45">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C44">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I45">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I44">
       <formula1>"起票,対応中,確認中,済み"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H45">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H44">
       <formula1>"質疑,課題,不具合,要望"</formula1>
     </dataValidation>
   </dataValidations>
@@ -38615,63 +38863,63 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.4">
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="52" t="s">
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="51" t="s">
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51" t="s">
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51" t="s">
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="55" t="s">
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="52"/>
+      <c r="AA1" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="AB1" s="56"/>
-      <c r="AC1" s="56"/>
-      <c r="AD1" s="56"/>
-      <c r="AE1" s="57"/>
-      <c r="AF1" s="51" t="s">
+      <c r="AB1" s="57"/>
+      <c r="AC1" s="57"/>
+      <c r="AD1" s="57"/>
+      <c r="AE1" s="58"/>
+      <c r="AF1" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="51"/>
-      <c r="AI1" s="51"/>
-      <c r="AJ1" s="51"/>
-      <c r="AK1" s="51" t="s">
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="52"/>
+      <c r="AI1" s="52"/>
+      <c r="AJ1" s="52"/>
+      <c r="AK1" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="AL1" s="51"/>
-      <c r="AM1" s="51"/>
-      <c r="AN1" s="51"/>
-      <c r="AO1" s="51"/>
-      <c r="AP1" s="51"/>
+      <c r="AL1" s="52"/>
+      <c r="AM1" s="52"/>
+      <c r="AN1" s="52"/>
+      <c r="AO1" s="52"/>
+      <c r="AP1" s="52"/>
     </row>
     <row r="2" spans="1:51" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A2" s="25" t="s">
@@ -39057,54 +39305,54 @@
       </c>
     </row>
     <row r="45" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="B45" s="51" t="s">
+      <c r="B45" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="51" t="s">
+      <c r="C45" s="52"/>
+      <c r="D45" s="52"/>
+      <c r="E45" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="F45" s="51"/>
-      <c r="G45" s="51"/>
-      <c r="H45" s="51"/>
-      <c r="I45" s="51"/>
-      <c r="J45" s="51" t="s">
+      <c r="F45" s="52"/>
+      <c r="G45" s="52"/>
+      <c r="H45" s="52"/>
+      <c r="I45" s="52"/>
+      <c r="J45" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="K45" s="51"/>
-      <c r="L45" s="51"/>
-      <c r="M45" s="51"/>
-      <c r="N45" s="51"/>
-      <c r="O45" s="51" t="s">
+      <c r="K45" s="52"/>
+      <c r="L45" s="52"/>
+      <c r="M45" s="52"/>
+      <c r="N45" s="52"/>
+      <c r="O45" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="P45" s="51"/>
-      <c r="Q45" s="51"/>
-      <c r="R45" s="51" t="s">
+      <c r="P45" s="52"/>
+      <c r="Q45" s="52"/>
+      <c r="R45" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="S45" s="51"/>
-      <c r="T45" s="51"/>
-      <c r="U45" s="51"/>
-      <c r="V45" s="51"/>
-      <c r="W45" s="51" t="s">
+      <c r="S45" s="52"/>
+      <c r="T45" s="52"/>
+      <c r="U45" s="52"/>
+      <c r="V45" s="52"/>
+      <c r="W45" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="X45" s="51"/>
-      <c r="Y45" s="51"/>
-      <c r="Z45" s="52" t="s">
+      <c r="X45" s="52"/>
+      <c r="Y45" s="52"/>
+      <c r="Z45" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="AA45" s="53"/>
-      <c r="AB45" s="53"/>
-      <c r="AC45" s="54"/>
-      <c r="AD45" s="52" t="s">
+      <c r="AA45" s="54"/>
+      <c r="AB45" s="54"/>
+      <c r="AC45" s="55"/>
+      <c r="AD45" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="AE45" s="53"/>
-      <c r="AF45" s="53"/>
-      <c r="AG45" s="54"/>
+      <c r="AE45" s="54"/>
+      <c r="AF45" s="54"/>
+      <c r="AG45" s="55"/>
     </row>
     <row r="46" spans="1:45" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A46" s="25" t="s">
@@ -39158,55 +39406,55 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.4">
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="52" t="s">
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="51" t="s">
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51" t="s">
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51" t="s">
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="52" t="s">
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="52"/>
+      <c r="AA1" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="AB1" s="53"/>
-      <c r="AC1" s="53"/>
-      <c r="AD1" s="53"/>
-      <c r="AE1" s="54"/>
-      <c r="AF1" s="51" t="s">
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="54"/>
+      <c r="AD1" s="54"/>
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="51"/>
-      <c r="AI1" s="51"/>
-      <c r="AJ1" s="51"/>
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="52"/>
+      <c r="AI1" s="52"/>
+      <c r="AJ1" s="52"/>
     </row>
     <row r="2" spans="1:51" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A2" s="25" t="s">
@@ -39234,42 +39482,42 @@
       </c>
     </row>
     <row r="23" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="B23" s="51" t="s">
+      <c r="B23" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51" t="s">
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51" t="s">
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="K23" s="51"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="51"/>
-      <c r="N23" s="51"/>
-      <c r="O23" s="51" t="s">
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="P23" s="51"/>
-      <c r="Q23" s="51"/>
-      <c r="R23" s="51" t="s">
+      <c r="P23" s="52"/>
+      <c r="Q23" s="52"/>
+      <c r="R23" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="S23" s="51"/>
-      <c r="T23" s="51"/>
-      <c r="U23" s="51"/>
-      <c r="V23" s="51"/>
-      <c r="W23" s="51" t="s">
+      <c r="S23" s="52"/>
+      <c r="T23" s="52"/>
+      <c r="U23" s="52"/>
+      <c r="V23" s="52"/>
+      <c r="W23" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="X23" s="51"/>
-      <c r="Y23" s="51"/>
+      <c r="X23" s="52"/>
+      <c r="Y23" s="52"/>
     </row>
     <row r="24" spans="1:42" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A24" s="25" t="s">
@@ -39288,12 +39536,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="W23:Y23"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:N23"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="R23:V23"/>
     <mergeCell ref="AF1:AJ1"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:M1"/>
@@ -39301,6 +39543,12 @@
     <mergeCell ref="S1:U1"/>
     <mergeCell ref="V1:Z1"/>
     <mergeCell ref="AA1:AE1"/>
+    <mergeCell ref="W23:Y23"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:N23"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="R23:V23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -39416,42 +39664,42 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51" t="s">
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51" t="s">
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51" t="s">
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51" t="s">
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51" t="s">
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
     </row>
     <row r="2" spans="1:42" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A2" s="25" t="s">
